--- a/기사데이터/토스/엑셀파일/news(토스, 2021.12.01~2021.12.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2021.12.01~2021.12.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,2506 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2021.12.01.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>'마이데이터 인증' 치고나간 네이버, 뒤쫓는 카카오…민간인증 대격돌</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000639826?sid=105</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>민간인증 1개 이상 의무 적용…인증사업자 시장 확대네이버와 카카오가 민간 인증서 시장을 두고 격돌한다. 이달부터 본격 시행하는 본인신용정보관리법(마이데이터) 시범사업에 맞춰, 확대가 예상되는 사설 인증 시장 선점을 위해서다.민간 인증 시장을 두고 업체들의 경쟁이 치열하다. 사진은 인증서 관련 이미지. [사진=조은수 기자]1일 관련 업계에 따르면 국내 주요 금융회사와 핀테크 등 17개 사업자는 이날부터 마이데이터 시범서비스를 시작한다.은행에서는 KB국민·신한·우리·하나·농협·기업은행 등 6곳이 참여하며, 금융투자 부문에선 키움증권·하나금융투자·NH투자증권 등 3곳이 시범운영에 나선다. KB국민·신한·하나·BC·현대카드 등의 카드사와 농협중앙회, 뱅크샐러드와 핀크 등도 마이데이터 시범 사업에 뛰어든다.네이버파이낸셜과 카카오페이 등 주요 빅테크·핀테크, 그 외 은행·카드사 등 20곳 역시 내달부터 순차적으로 시범 운영에 합류한다. 내년 상반기 참여를 목표로 하는 16곳의 금융사업자를 포함하면 대부분의 국내 금융 사업자가 뛰어드는 셈이다.마이데이터는 개인이 자신의 정보를 스스로 관리해 개인의 정보 주권을 보장하는 것이 목적이다. 사업자는 금융위원회로부터 본허가 획득 후 개인의 정보를 취합해 금융상품, 투자자문과 같은 맞춤형 서비스를 운영할 수 있다.마이데이터 서비스를 이용하기 위해서는 전자서명인증사업자 인정을 받은 민간 인증서와 공동인증서를 통해 '통합인증'을 필수적으로 해야 한다.◆공동 인증서 + 민간 인증서, 적용 필수마이데이터 사업자가 민간 인증서를 최소 1개 이상 의무 적용해야 하는 만큼, 인증 사업자에게는 사용처를 넓힐 좋은 기회다.사설 인증서의 경우 당장 큰돈이 되는 사업은 아니지만 금융 거래·간편 결제 등으로 확장할 수 있기 때문이다. 실제 지난해 전자서명법 개정으로 공인인증제도가 폐지됨에 따라 업계에서는 사설 인증 시장이 수조원으로 확대될 것이라는 전망도 있었다.현재까지의 성적표로는 네이버가 가장 두각을 드러내고 있다. 마이데이터 사업자(본허가·예비허가) 60여곳 중 하나은행·현대카드·보맵 등 40개 이상, 약 80%의 사업자가 네이버 인증서를 선택했기 때문이다.네이버 측은 "서비스 안전성, 금융 보안성, 도입·이용자 편의성 등에 높은 점수를 받아 적극적 제휴가 이뤄진 것으로 파악된다"라고 설명했다. 네이버 인증서 11월 기준 가입자는 2천200만명, 제휴처는 200여개를 넘겼다.카카오는 네이버보다 뒤늦게 전자서명인증사업자로 인정받았지만, 카카오톡을 기반으로 빠른 성장세가 기대되는 사업자다. NHN페이코와 토스, 뱅크샐러드 등도 부지런히 후발주자로 뒤를 쫓고 있다.이에 대해 한 업계 관계자는 "마이데이터는 민간 인증 시장 중의 일부분"이라며 "공공영역에서도 민간 인증서 사용처 범위가 빠르게 늘고 있어, 민간 인증 시장 성장은 계속될 것"이라고 내다봤다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2021.12.09.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>10돌 맞은 쏘카, IPO 앞두고 몸값 올리기 '열중'</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000005229?sid=101</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>내년부터 '슈퍼앱' 플랫폼화, 탈것 모두 연동중소 렌터카 협업, 카카오와 직접 경쟁 예고올해로 창립 10주년을 맞은 카셰어링 서비스 '쏘카'가 내년 기업공개(IPO)를 앞두고 몸값 올리기에 역량을 모으고 있다. 쏘카를 '슈퍼앱'으로 개편하고 전기 자전거·기차·항공 등 온갖 탈 것을 연동해 진정한 '모빌리티 플랫폼'으로 거듭나겠다는 계획이다.경쟁사인 카카오모빌리티가 '서비스형 모빌리티'(MaaS·Mobility as a Service)로 진화하고 있는 것과 사업 모델 면에서 다를 게 없다. 쏘카는 최근 토스에 지분을 판 VCNC의 '타다'와도 연합전선을 구축하겠다고 밝혀 모빌리티 플랫폼간 경쟁이 더욱 격화될 전망이다. '10년 로드맵' 공개한 박재욱 대표9일 쏘카는 서울 성수동 언더스탠드에비뉴에서 10주년 간담회를 열고 사업 성과와 향후 10년간의 로드맵을 발표했다. 박재욱 쏘카 대표이사가 참석해 "우여곡절을 딛고 일어나 이 자리를 마련할 수 있게 돼 감개무량하다"고 소감을 밝혔다.10년 전 직원 5명으로 사업을 시작한 쏘카는 비약적인 성장을 이뤄냈다. 쏘카 서비스 첫해 3000명이었던 가입자는 현재 700만명으로 폭증했다. 소수에 불과했던 운영 차량은 1만8000대로 늘었다. 지난해에는 모빌리티 업체 최초로 유니콘 기업에 선정되기도 했다. 쏘카는 다음 단계를 준비 중이다. 내년 초에 모빌리티 플랫폼으로 진화한다. 카셰어링 서비스를 제공하는 쏘카앱을 모든 탈 것을 예약·이용할 수 있는 슈퍼앱으로 바꾼다. 쏘카 앱으로 전기자전거·KTX를 예약해 집에서 쏘카존까지 이동한 뒤, 쏘카를 타고 기차역으로 이동해 KTX를 탑승하는 게 가능하다.지금의 왕복 서비스인 쏘카의 차량 공유를 '편도'로 개편한다. 쏘카는 이용 후 지정된 공간으로 반납을 해야 하기에 사실상 왕복 서비스다. 이를 목적지 어디에 세워도 반납 가능한 편도 서비스로 운영하는 게 목표다. 박 대표는 "차량 탁송 등에 소요되는 비용, 시간 등을 고려하면 전면 도입까진 시일이 좀 걸릴 것"이라고 말했다.장기적인 로드맵도 공개했다. 우선 5년 뒤인 2027년까지 현재 1만8000대인 운행 차량을 최대 5만대로 늘릴 계획이다. 노후화된 차량을 매각하는 동시에 전기·수소차를 매입해 2030년엔 전체 차량을 친환경차로 구성하는 게 목표다. 이쯤에는 전면 자율주행 서비스도 도입이 가능할 것이라고 박 대표는 내다봤다.   쏘카의 이 같은 비전 발표는 기업가치를 올리기 위한 행보로 풀이된다. 쏘카는 내년을 IPO를 목표로 준비 중이다. 그는 "어디에 수요가 있으니까 어떻게 차량을 배치해야 하는지 우리 스스로 컨트롤 할 수 있다는 게 쏘카의 경쟁력"이라며 "관련 기술 업체 인수합병(M&amp;A)과 인력 흡수 등에 공모자금을 쓰겠다"고 말했다.쏘카가 최근 타다 보유지분을 털어낸 이유도 IPO와 깊게 연관돼 있다. 쏘카는 지난 10월 타다 운영사 VCNC 보유 지분 60%를 토스 운영사인 비바리퍼블리카에 매각했다. 이에 따라 VCNC는 쏘카 종속기업에서 관계기업로 격하됐으며 연간 수백억의 적자도 떠안지 않을 수 있게 됐다. VCNC는 지난해 순손실만 112억원을 기록한 바 있다.박재욱 쏘카 대표이사 /사진=쏘카 제공카카오 저격..."우린 더 사용자 친화적"쏘카의 단기 사업 전략은 카카오모빌리티와 크게 다르지 않다. 카카오모빌리티는 2500만명이 이용하는 자체 앱을 통해 택시 외에도 다양한 이동수단을 서비스하고 있다. 하나의 플랫폼에서 각종 모빌리티로 할 수 있는 서비스를 끊김 없이 중개·결제하는 '마스(MaaS)' 모델을 국내에서 가장 잘 실현한 셈이다. 쏘카는 '마스'가 아닌 '스트리밍 모빌리티'라는 개념을 내세운다. 마스와 개념상으론 유사하나, 좀 더 사용자 친화적이라는 게 쏘카 측 입장이다. 10년간 누적된 사용자 데이터를 바탕으로 공유 차량을 소비자 취향에 적합하게 꾸미고 커피 픽업이나, 짐 수송까지 섬세한 서비스를 더해갈 것이란 설명이다. 박재욱 대표는 "마스와 스트리밍 모빌리티는 공급자 중심, 소비자 중심의 차이이고 스트리밍 모빌리티가 후자"라며 "단순 이동 수단을 제공하는 게 아니라 총체적인 이동 경험을 설계·디자인해 제공하는 회사가 되려한다. 이게 가장 큰 차이를 만들 것"이라고 말했다.쏘카는 타다와의 협업도 강화해나갈 계획이다. 이미 쏘카의 구독 서비스인 '패스포트'에는 타다 적립·할인도 포함돼 있다. 박 대표는 타다가 VCNC 지분을 처분하며 타다의 이용자 데이터 활용길이 막히는 등 사업 영역이 축소될 것이란 우려에 '강력한 연합전선 구축'으로 대응했다.쏘카의 서비스 범위가 넓어지면서 카카오와의 경쟁은 격화될 전망이다. 이날 쏘카는 중소 렌터카 업체들과도 상생, 플랫폼에 태우겠다고 밝혔다. 법인에 차량을 장기 대여 해주는 B2B(기업간거래) 사업도 확대한다. 카카오 역시 렌터카 중개 플랫폼 '딜카'를 인수하고 카카오T렌터카 서비스 오픈 막바지 작업에 돌입했다. IPO 목표 시점 역시 카카오모빌리티와 비슷하다. 카카오모빌리티는 내년 상장을 목표로 주관사 선정 작업을 진행 중이다. 업계에서는 오랜 기간 상장을 준비해온 만큼 카카오모빌리티의 상장이 쏘카보다 앞설 것이란 예상이 나온다. 다만 쏘카는 올해도 흑자전환은 어렵다고 했다. 단기 수익성 개선보다는 '계획된 적자' 전략을 이어갈 것으로 보인다. 박 대표는 "올해까진 흑자 예상하기 쉽지 않을 것 같다"면서 "내년에 수익성을 포기할 생각은 전혀 없지만, 빠른 성장에 좀 더 초점이 맞춰져 있다. 이용자 경험을 탁월하게 만들면 수익성은 당연히 따라올 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2021.12.05.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>예·적금 이자 연 7%?…뜯어보니 대부분 '생색내기'</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010871235?sid=101</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>기사내용 요약기준금리 인상 직후 최고 0.4%p↑하지만 정기예금 금리 연 0.7~2.0%적금의 경우 제휴 상품은 최고 7% 우대금리 대부분 차지…소액 그쳐"내게 맞는 금리·조건, 잘 따져봐야"[서울=뉴시스] 박은비 기자 = 시중은행들이 기준금리 인상 직후 일제히 예·적금 금리 인상에 나섰다. 하지만 막상 뚜껑을 열어보면 가입금액이 적거나 우대금리로 채우는 게 대부분이라 생색내기용이 아니냐는 비판이 제기된다. 마땅한 투자처를 찾지 못해 목돈을 맡기려고 한다면 은행별 금리·조건을 꼼꼼하게 따져볼 필요가 있다.5일 은행권에 따르면 시중은행들은 최근 한국은행 기준금리 0.25%포인트 인상에 따라 예·적금 금리를 0.2~0.4% 상향 조정했다. 이에 따라 국내 19개 은행 정기예금 기본금리는 은행연합회 공시 12개월 기준 연 0.7~2.0%다. 정액적립식, 자유적립식으로 돈을 모을 수 있는 적금의 경우 이보다 금리가 껑충 뛴다. 우리은행의 경우 '우리 Magic 적금 by 롯데카드'가 최고 7.0% 금리를 제공한다. 신한은행 거래가 없던 고객이 첫 거래시 실적에 따라 우대이자를 받을 수 있는 '안녕, 반가워 적금'은 최고 4.2%다.하지만 금리 상승기에도 여전히 실속은 없다는 게 고객들의 반응이다. 언뜻 보면 금리가 높아 보이지만 우대금리를 전부 다 받아내기란 하늘에 별따기다. 우대금리를 살펴보면 오픈뱅킹 가입, 제휴카드 사용, 전월 실적 충족, 자동이체 실적, 마케팅 동의 등 복잡한 조건이 붙는다. 더군다나 신규 고객에게 돌아가는 혜택이 주를 이룬다. 맡길 수 있는 금액도 매월 20~50만원 선으로 소액에 그친다.예를 들어 하나은행 '평생군인적금'은 최고 4.5%로 비교적 높은 금리지만 매월 30만원 이하까지만 가능하다. 기본금리 0.5%에 최고 우대금리 4%포인트를 추가하려면 군급여 우대(2.0%포인트), 하나카드 사용 30만원 이상(0.5%포인트), 청약 신규 가입(1.0%포인트), 자동이체 우대(0.3%포인트), 마케팅동의(0.20%포인트) 항목을 충족해야 한다. 무엇보다 직업군인 전용 상품이라 일반 고객들은 가입할 수 없는 상품이다.마이데이터 본격 도입에 맞춰 금리를 높게 책정한 상품도 있다. 하나 합은 마이데이터 기반 개인자산관리 서비스인데, 이를 이용하면 '하나 합 적금' 우대금리 혜택이 주어진다. 최고 4.1% 금리로 월 최대 20만원까지 자유롭게 납입 가능하다.KB국민은행도 직업군인을 위한 'KB나라사랑적금' 금리가 최고 5.0%로 가장 높고, 누구나 쉽게 우대받을 수 있는 'KB내맘대로 적금'은 최고 2.15% 선이다. 9가지 조건 중 6개를 선택해 조건을 충족해야 최대 0.60%포인트까지 우대이율 혜택을 받을 수 있다.이런 상황에도 최근 '오미크론 쇼크'로 증시가 어수선해지면서 뭉칫돈이 은행으로 몰리고 있다. 하지만 특별판매는 눈에 띄게 사라졌다. 외국계은행인 SC제일은행이 이달 말까지 12개월제 정기예금 가입 고객을 대상으로 연 2.1% 특별금리를 제공하는 정도다.이조차도 1000억원 한도 소진시 조기 종료된다. 3000만원 이상 20억원 이하 금액을 맡겨야 하며, 기존 고객의 경우 전월 대비 증가 자금을 기준으로 한다. 전월 대비 증가 자금은 일반 예·적금, 신탁계약, 펀드(방카슈랑스 제외) 전월 기준 평균 잔액과 말일 잔액 중에서 더 큰 금액보다 늘어난 액수를 의미한다.은행들 입장에서는 투자처를 찾지 못한 대기자금이 저원가성 예금으로 알아서 굴러들어오는데 금리를 높일 유인이 없기도 하다. 이번에 겨우 예·적금 금리 인상에 나선 건 예대금리 차가 벌어지자 금융당국이 점검회의를 소집해 금리 현실화를 당부한 까닭이다.현재로서는 알뜰족들의 꼼꼼한 비교가 필요하다는 목소리가 나온다. 예·적금 구분 없이 연 2.0% 금리를 제공했던 토스뱅크도 연말까지 대출은 중단된 상황에서 목돈을 맡기는 고객들이 늘어나자 내년 1월5일부터는 1억원 미만인 경우에만 이 금리를 제공하기로 했다. 1억원은 넘는 잔액부터는 연 0.1%에 그친다.토스뱅크 관계자는 "금리 인상기임에도 예·적금과 달리 수시입출금 상품인 토스뱅크 통장의 시장 경쟁력은 뛰어난 상황"이라며 "약 99%에 달하는 고객의 경우 기존과 변함 없는 혜택을 누릴 수 있을 것으로 전망하고 있다"고 말했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2021.12.08.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>LG엔솔·쓱닷컴...내년 공모 시장 더 뜨겁다</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004890825?sid=101</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>내달 상장하는 LG엔솔 이어현대ENG·SK쉴더스 줄상장올해 공모금액 17조원 추산내년엔 최소 25조원 넘을 듯쏘카·컬리 등 유니콘도 대기공모시장 질적 성장 기대 커◆ 레이더M ◆  '검은 호랑이의 해' 임인년에는 공모주시장이 더욱 풍성해질 전망이다. 단군 이래 공모주 최대어로 평가받는 LG에너지솔루션을 비롯해 현대엔지니어링, 현대오일뱅크, 쓱닷컴 등 대규모 기업공개(IPO)가 예정돼 있어서다. 큰 이변이 없는 한 올해에 이어 내년에도 다시 한번 역대 최대 공모 규모 기록을 갈아치울 것으로 예상된다.  8일 매일경제 레이더M에 따르면 올 들어 증시에 입성한 기업들 총 공모금액은 17조5000억원 안팎으로 추산된다. 크래프톤(4조3090억원)과 카카오뱅크(2조5525억원), SK바이오사이언스(1조4918억원) 등 대어급 주자들이 연이어 증시에 안착한 덕분이다.투자은행(IB) 업계에선 내년 공모금액이 최소 25조원을 뛰어넘을 것이란 전망이 지배적이다. 당장 내년 1월 한 달 동안의 공모액만 10조원 수준에 달한다. 공모주 역사상 최대어인 LG에너지솔루션이 내년 1월에 상장할 예정이기 때문이다. LG에너지솔루션은 다음달 11~12일 기관투자자 수요예측을 거쳐 공모가를 산정한 뒤 18~19일 일반 청약에 나선다. 공모가는 주당 25만7000~30만원으로 책정됐다. 목표 시가총액은 최대 70조원, 공모 규모는 10조9225억원에 달한다. LG에너지솔루션의 공모액은 역대 1위와 2위인 삼성생명(4조9000억원)과 크래프톤의 두 배가 넘는다.LG에너지솔루션 이후에도 내로라하는 기업이 줄줄이 공모에 나선다. 현대자동차그룹에서 건설·플랜트 사업을 담당 중인 현대엔지니어링이 다음 타자로 수요예측을 진행한다. 다음주에 증권신고서를 내고 본격적인 투자자와의 만남에 돌입할 예정이다. 업계에선 현대엔지니어링의 기업가치를 6조~7조원으로 전망하는 분위기다. 올 3분기까지 누적 매출액은 5조3907억원, 영업이익은 3142억원으로 전년 동기 대비 약 2.5%, 54.6%씩 증가했다. 실적 추이가 우상향인 점이 몸값 산정 시 유리하게 작용할 전망이다. 현대중공업그룹에서 정유 부문을 담당 중인 현대오일뱅크도 내년 1분기 중 공모에 나서기 위해 곧 한국거래소에 상장 예비심사를 청구할 예정이다. 2019년 아람코에 지분 17%를 매각하면서 8조원 수준 기업가치를 인정받은 바 있다. 이 때문에 IB 업계에선 현대오일뱅크가 공모 과정에서 9조~10조원의 몸값을 목표로 할 것이라고 전망한다.SK그룹 계열사 중 상장 대기 주자가 많은 점도 관전 포인트다. 지난달 26일 거래소에 예비심사를 청구한 원스토어가 대표적이다. 원스토어는 구글 플레이에 대항하고자 만들어진 토종 애플리케이션 마켓 회사다. 국내 이동통신 3사와 네이버를 주요 주주로 두고 있다. SK스퀘어 자회사 SK쉴더스(옛 ADT캡스)도 내년 상반기 코스피에 입성하기 위해 연내 거래소에 예비심사를 청구할 방침이다. IB 업계에선 원스토어와 SK쉴더스 예상 몸값을 최대 각각 2조원, 4조원 수준으로 점치고 있다. 이 밖에도 SK그룹 내에선 11번가와 티맵모빌리티, SK에코플랜트, SK실트론, SK팜테코 등이 IPO를 검토 중인 것으로 알려져 있다. 신세계그룹은 쓱닷컴, 카카오는 카카오모빌리티와 카카오엔터테인먼트 상장을 각각 준비 중이다.장외시장에서 1조원 이상 기업가치를 인정받은 '유니콘 기업'에 대한 관심도 높다. 올 초 쿠팡이 뉴욕증권거래소(NYSE)에 상장하며, 유니콘 사이에서 미국 증시를 고려하는 분위기가 짧게나마 조성됐다. 하지만 '토스'로 알려진 비바리퍼블리카를 제외한 대부분의 유니콘이 한국 증시를 염두에 두고 있다. 카셰어링 업체 1위 '쏘카'와 신선식품 배송 기업 '컬리', 온라인 패션 상거래 업체 '무신사' 등이 임인년 상장 가능한 후보군으로 꼽힌다. 특히 쏘카는 내년 1분기 증시 입성을 목표로 하고 있어 연내에 구체적인 행보에 나설 가능성이 높다. 한 증권사 IPO본부장은 "대기업 계열사뿐만 아니라 유니콘까지 상장 채비에 나서면서 국내 증시 산업군이 보다 다양해질 전망"이라며 "내년 공모시장은 양적 측면을 넘어 질적 성장까지 이룰 수 있을 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2021.12.09.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>연말엔 '타다' 타세요···타다 넥스트, 올해 말까지 반값 할인</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0003995074?sid=105</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>[서울경제] 택시 플랫폼 ‘타다’ 운영사 VCNC는 연말까지 ‘타다 넥스트’ 요금 50% 상시 할인 이벤트를 진행한다고 9일 밝혔다.이번 이벤트는 타다의 대형차량 이동 서비스 ‘타다 넥스트’의 베타 출시를 기념하기 위한 프로모션이다. 타다 넥스트는 지난달 25일 서울 지역 대상 베타 버전 운영이 시작됐다. 지난해 4월 역사의 뒤안길로 사라진 ‘타다 베이직’의 쾌적하고 안전한 이동 경험을 계승한 게 가장 큰 특징이다.타다 사용자라면 누구나 타다 넥스트 호출 시 50% 할인 쿠폰을 적용할 수 있다. 이달 31일까지 횟수 제한 없이 회당 최대 1만 원이 할인된다. 타다 넥스트 호출 시 ‘할인 적용하기' 메뉴에서 ‘50% NEXT 쿠폰’을 선택해 적용하면 된다. 토스의 간편결제 서비스 ‘토스페이’를 연동해 결제할 수 있다. 타다 애플리케이션)앱) 업데이트 후, 결제 수단 등록 창에서 토스페이를 선택해 간단한 등록 절차를 거치면 된다.한편 타다 넥스트는 내년 초 정식 출시될 예정이다. 현재 ‘타다 넥스트’와 함께 할 기사를 모집 중이다. 자세한 지원 방식 및 혜택 등의 정보는 타다 홈페이지에서 확인할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2021.12.14.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>“어, 왜 또 안 되지?” 방역패스 둘쨋날, 네이버 앱에선 일부 장애</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002571594?sid=102</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>긴급 서버 증설 및 최적화 작업했지만 일부 앱은 QR코드·휴대폰 인증 불통 방역당국 “앱 오류 땐 과태료 미적용”네이버 앱의 QR코드 시스템이 작동하지 않는 모습. 이우연 기자  방역패스 의무화 첫날 쿠브(COOV·전자예방접종증명서) 앱 ‘먹통 오류’로 혼란이 빚어진 가운데, 둘째날인 점심에도 일부 접속장애가 발생했다. 방역당국은 전날 방역패스 벌칙 적용을 유예한데 이어, 이날도 사실상 과태료를 적용하지 않겠다고 밝혔다.  14일 오전 질병관리청은 “13일 접속량 폭증에 따라 쿠브 서버에 과부하가 발생했다. 과부하 대응에 미흡한 점이 있었다”며 “야간 서버 긴급증설 작업 및 최적화 작업을 수행했으며 오늘은 보다 원활하게 예방접종증명서를 발급(인증)할 수 있을 것으로 본다”고 밝혔다.  쿠브 앱이 원활할 거라는 설명과 달리 이날 낮 점심시간대에도 같은 오류가 반복됐다. 쿠브 앱에서는 정상적으로 접종증명서를 확인할 수 있었지만, 쿠브 앱이 연동된 네이버의 전자출입명부 큐아르(QR) 코드는 ‘네트워크에 접속할 수 없습니다’는 메시지만 반복됐다. 카카오톡 역시 최초 사용자는 휴대전화 인증을 통해 큐아르(QR) 코드를 받아야 하는데, 인증번호 자체를 받을 수 없었다. 다만 쿠브나 토스 앱의 큐아르 코드 인증은 정상 작동해 큰 혼란은 벌어지지 않았다. 질병관리청은 네이버를 제외한 다른 앱으로 큐아르 체크를 해달라고 요청했다.  상황이 이렇다 보니 식당에선 같은 혼란이 반복했다. 낮 12시께 서울 강남구의 한 식당을 찾은 손님은 “어 왜 안 되지?”라고 당황하며 네이버 앱 인증을 시도하다 결국 수기명부에 정보를 적었다. 예방접종 내역을 확인할 수 없는 수기 명부는 방역수칙 위반이다. 서울 구로구의 설렁탕집 사장 이아무개(55)씨는 “어제는 완전 먹통이어서 손님들이 많이 불편해했다. 오늘은 12시 장사 시작하고 한 10~20분 먹통이 됐다가 다시 정상화되더라”며 “2~3명 수기로 하고 그 뒤부터는 제가 (손님들 휴대전화의) 쿠브에 들어가 확인을 했다”고 설명했다.  방역당국은 최초 인증 절차가 동시간에 쏟아지면서 서버에 과부하가 걸렸다고 설명했다. 13일의 오류는 질병관리청 서버의 문제였지만, 14일 일부 장애는 네이버 등 해당 플랫폼 사의 과부하라고 설명했다. 손영래 중앙사고수습본부 사회전략반장은 이날 브리핑에서 “쿠브와 네이버, 다음 등에서 이미 최초 인증을 받은 경우엔 전자증명서가 바로 뜨지만 그렇지 않은 경우 최초 인증을 받아야 한다”며 “어제 최초 인증 요청이 쏟아지면서 필요 정보량이 매우 증가했고 서버가 감당하지 못하는 문제가 발생했다”고 밝혔다. 이어 손 반장은 “계도기간 사용량 등을 바탕으로 서버 준비작업을 했지만 예상보다 접속이 더 몰렸다”며 “점심·저녁시간 전에 최초 인증을 받아두면 (전자출입명부를) 보다 원활하게 사용할 수 있을 것으로 본다”고 덧붙였다.  방역당국은 시행 둘째날에도 오류로 인해 방역패스를 확인하지 못한 경우 과태료 적용을 유보한다고 밝혔다. 손 반장은 “국민들이나 사업자 분들에게 피해가 가지 않도록 (오류로 인해 방역패스가) 미확인된 경우 벌칙을 적용하지 않도록 각 지자체와 점검·감독 행정기관에 사전 조치를 해 놓았다”고 말했다.  앞서 정부는 지난 6일부터 식당·카페 등 11종 다중이용시설에 방역패스(접종증명·음성확인제) 의무화를 도입하며, 1주일간의 계도기간을 종료하고 13일부터 과태료 등 벌칙을 적용한다고 밝혔다. 이들 시설을 이용하려면 백신 접종완료일로부터 14일이 지났다는 접종증명서나 유전자분석(PCR) 음성확인서가 필요했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2021.12.06.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>[특징주]엔비티, 메타버스 플랫폼 '세컨서울' 가시화…NFT 형태 서울 토지 거래</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005010707?sid=101</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>엔비티가 강세다. 실적이 좋아지고 있는 데다 메타버스 플랫폼으로 성장할 기반도 갖췄다는 평가가 주가에 영향을 주는 것으로 보인다.6일 오전 9시19분 엔비티는 전 거래일 대비 5.19% 오른 2만5350원에 거래되고 있다.2012년 설립한 엔비티는 모바일포인트 광고 플랫폼 업체다. 세계 최초로 스마트폰 잠금 화면 포인트 ‘캐시슬라이드’를 출시해 현재 약 2700만명의 누적 회원을 보유하고 있다. 기업비지니스인 애디슨 오퍼월은 제휴 서비스 매체에 무료 포인트 충전 인프라를 시스템화하고 운영하는 포인트 네트워크 플랫폼이다. 최재호 하나금융투자 연구원은 "애디슨 오퍼월은 MAU 증가가 실적의 바로미터다"라며 "2018-2021년 MAU는 네이버웹툰, 네이버페이, 토스, 카카오모빌리티 등 신규 제휴업체 확대 및 업체별 유저 증가에 따라 연평균 331% 성장률을 기록했다"고 설명했다.올해 엔비티가 매출액 776억원, 영업이익 34억원을 달성할 것으로 추정했다. 전년 동기 대비 매출액은 75.9% 늘어나고 영업이익은 흑자 전환한 규모다. 내년 영업이익은 올해 대비 130.3% 늘어난 79억원 수준으로 추정했다.100% 자회사인 엔씨티타마케팅이 '세컨서울'을 개발하면서 장기 성장 기대감도 커졌다. 이상헌 하이투자증권 연구원은 "세컨서울은 실제 서울 지역을 수만 개의 타일로 나눈 뒤 소유할 수 있게 만든 메타버스 부동산 플랫폼"이라며 "사전 신청자들과 토지 투자자들은 이달 투자자 플랫폼 오픈 이후에 NFT 형태의 서울 토지를 거래할 수 있다"고 설명했다.이어 "내년 6월 소비자 플랫폼 서비스 시작 이후에는 소비자가 서울 안에서 어떤 것들을 소비했는지 정보를 제공하고 보상으로 세컨서울의 자체화폐를 받을 수 있을 것"이라며 "메타버스 플랫폼의 주요 핵심인 경제시스템 개념이 들어가는 단계"라고 덧붙였다. 아울러 "내년 말 소상공인 플랫폼을 통해 타게팅 광고 플랫폼을 오픈한다"며 "세컨서울 프로젝트는 단순하게 가상의 서울을 메타버스로 구현한 것이 아닌 실제 서울에 살아가는 서울 시민과 소상공인이 연결된 플랫폼을 목표로 하고 있다"고 강조했다.앞으로 집객효과를 비롯해 메타버스 플랫폼으로서의 성장성 등이 가시화 될 것으로 이 연구원은 내다봤다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2021.12.11.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>다시 등장한 고금리 예적금...25조 뭉칫돈 은행으로</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000646141?sid=101</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>2달 만에 은행 정기예금 25조 불어나기준금리 인상에 수신금리도 상승세"과대포장 마케팅 상품은 주의해야"게티이미지뱅크 두 달 만에 25조 원에 달하는 뭉칫돈이 시중은행 금고에 쏠리고 있다. ‘제로금리’ 시대가 저물고 본격적인 금리 인상기에 돌입하면서 예·적금 상품도 다시 주목받고 있는 것이다. 금융권도 비교적 ‘고금리’ 예·적금을 내놓고 고객들을 맞을 준비를 하고 있다. 전문가들은 예·적금 상품 가입 전 가입 한도·우대조건을 꼼꼼히 살펴봐야 한다고 조언한다. 10일 5대 시중은행(KB국민·신한·하나·우리·NH농협)에 따르면, 정기예금 잔액은 전날 기준 657조8,000억 원으로 집계됐다. 이는 지난 9월 말과 비교해 무려 25조6,000억 원 불어난 수치다. 한국은행이 올해 두 차례 기준금리를 0.5%포인트 올리며 0%대 금리를 1%로 끌어올리자, 시중의 유동성 자금들이 다시 은행 금고로 복귀하고 있는 것이다. 실제 은행권 예·적금 금리는 계속 높아지고 있다. 한은에 따르면, 지난 10월 저축성수신 금리(신규 취급액)는 1.29%로, 지난 5월(0.83%) 대비 0.46%포인트 올랐다. 시중은행들은 지난달 한국은행이 기준금리를 인상하자 다음달 즉시 기준금리 인상분(0.25%포인트)보다 높은 최대 0.4%포인트까지 수신금리를 끌어올렸다. 은행권 관계자는 “대출금리 대비 수신금리가 현저히 낮다는 비판이 있는 만큼, 수신금리 증가 속도를 높이는 분위기”라고 말했다. 이런 기류를 반영하듯 은행창구에서는 4%대 적금 상품이 속속 등장하고 있다. 신한은행은 최근 ‘안녕, 반가워 적금’ 상품의 금리를 최대 연 4.2%까지 올렸다. 하나은행도 ‘급여하나 월복리 적금’의 금리를 최대 연 3.75%까지 높였고, KB국민·우리은행 역시 3%대 적금 상품을 내놨다. 일정 기간을 유지해야 하는 예·적금 상품 대신 수시로 돈을 뺄 수 있는 토스 입출금 통장은 2% 금리를 제공한다. 그러나 은행에 돈을 맡기기 전 우대금리 조건을 확인하는 과정은 필수다. 통상 은행들은 낮은 기본금리에 높은 우대금리를 더해 수신금리를 결정하는데, 우대금리 조건에는 △첫 거래 △급여 이체 △신용카드 개설 등이 따라붙기 때문이다. 게다가 가입 한도 역시 고금리 상품일수록 낮아 실제 금융소비자가 쥘 수 있는 이자소득은 기대보다 적을 수 있다. 강형구 금융소비자연맹 사무처장은 “우대금리 조건을 만족하는 소비자들은 가입 시 유리한 점이 있을 수 있다”면서도 “실질적으로 뜯어보면 과대포장한 마케팅 상품들이 있기 때문에 가입 시 한도·우대금리 조건을 반드시 확인해야 한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2021.12.14.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>10명 중 6명은 스마트폰도 없는데… 방역패스 확대에 식당에서 쫓겨나는 노인들</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000780337?sid=102</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>방역패스 확대… 노년층 “전자증명서 발급 어려워”백신 맞고도 큐알(QR)없어 쫓겨나기도 “강요 전에 충분한 안내·교육부터 해야”        지난 13일 오후 2시쯤 60대 남성 김모(68)씨는 서울 영등포구 한 카페에서 커피를 주문했다. 김씨는 평상시처럼 매장 이용을 위해 안심콜에 전화를 걸려고 했지만, 점원이 안심콜 서비스가 종료됐다며 방역패스 확인을 요구했다. 이날부터 식당과 카페 등에서 방역패스가 본격적으로 적용됐기 때문이다. 모바일 전자 증명서 발급 방법을 모르는 김씨는 카페를 이용하지 못하고 결국 발길을 돌려야 했다.방역패스 확대 적용으로 백신 접종 여부를 알 수 없는 안심콜과 수기 명부 등 기존의 방역 확인 절차가 폐지되면서 전자 증명서 사용에 취약한 노년층이 갈 길을 잃고 있다. 정보 격차로 인해 노년층이 사회와 단절되는 ‘디지털 디바이드(정보 격차)’ 현상이 코로나 방역수칙에도 나타나고 있는 셈이다.방역패스 의무화가 시작된 13일 오후 서울 시내의 한 식당에 방역패스 적용 안내문이 붙어있다./연합뉴스        14일 방역당국에 따르면 방역패스로 사용이 가능한 것은 질병관리청 쿠브(COOV) 앱이나 전자출입명부(네이버, 카카오, 토스)의 전자 증명서, 신분증에 붙인 예방접종 스티커, 2차 접종 후 접종기관에서 받은 종이 접종증명서 등이다. 미접종자는 PCR 검사 음성 결과가 담긴 휴대폰 문자나 종이 증명서를 내면 된다. 단, 종이 증명서의 경우에는 이를 제시하면서 신분증도 함께 보여줘야 한다.다만 외식업계 등에 따르면 매장에서의 방역패스 확인은 대부분 휴대폰으로 즉시 확인이 가능한 전자 증명서를 통해 이뤄지고 있다. 별도 절차 없이 개인 큐알(QR)코드 인식을 통해 신분과 접종 이력이 증명돼 간편해서다.하지만 인터넷 사용이 미숙한 노년층에게는 전자 증명서 발급이 쉬운 일이 아니다. 접종 이력이 증명되는 개인 큐알코드를 발급받기 위해서는 핸드폰 인증 등 본인인증 절차가 별도로 필요한데, 모바일 사용에 익숙하지 않아 이를 따르기가 어렵기 때문이다.과학기술정보통신부가 매년 발표하는 ‘인터넷 이용 실태조사’ 결과에 따르면, 2020년 기준으로 70세 이상 노인의 인터넷 이용률은 40.3%다. 바꿔서 말하면 70세 이상 노인 10명 중 6명은 인터넷을 못 쓴다는 것이다. 인터넷을 못 쓰는 노인에게 QR코드 전자증명서를 발급하라는 건 어불성설이다.접종기관이나 주민센터 등에서 발급한 종이 접종 증명서나 스티커로도 대체가 가능하지만, 이에 대해서도 별도의 안내나 고지가 부족해 일부 노년층의 경우 백신 접종을 완료하고도 전자 증명서가 없어서 식당에서 쫓겨나는 억울한 상황이 발생하고 있다.경북 포항시에 거주하는 최종태(70)씨는 “지금 자식들과 따로 살고 있어 전화로 물어봤지만 내 휴대폰 명의가 아들 명의 앞으로 되어있어서 본인 인증을 할 수 있는 방법이 없다고 한다. 그간 휴대폰으로 할 줄 모르니 가게를 안심콜을 통해 이용했다”면서 “백신을 2차까지 다 맞았는데, 갑자기 노인들은 잘할 줄 모르는 방식으로만 증명하라고 하니 답답하다”고 말했다.지난 11월 10일 서울 종로구 탑골공원 앞에서 노인들이 장기를 두고 있다. /연합뉴스        자녀 등 주위의 도움을 받을 수 있다면 그나마 처지가 좀 나은 편이다. 하지만 방역패스를 한 번 발급 받은 후에도 시일이 지나면 인증을 갱신하고 재발급하는 과정이 지속적으로 필요한 터라 매번 도움을 요청해야 하는 불편함이 크다.대전광역시에 거주하는 임경선(67)씨는 “서울에 사는 딸이 카카오 큐알코드가 사라질 때마다 다시 발급해줬는데, 해줄 때 마다 엄마는 언제까지 이런 간단한 핸드폰도 못하고 살 거냐고 짜증을 낸다”면서 “혼자서 할 수 있으면 좋겠지만, 휴대폰 글자도 너무 작고 복잡해서 머리가 아프다”고 말했다.그나마 스마트폰이 있는 경우는 다행이다. 하지만 노인 중에는 스마트폰이 없는 경우가 태반이다. 정보통신정책연구원에 따르면 70세 이상 스마트폰 보유율은 2018년 기준 37.8%에 그친다. 전체 연령 평균인 89.4%에 비해 한참 낮다.방역패스 적용 매장을 운영하는 자영업자들도 곤란한 것은 마찬가지다. 전자 증명서를 인식하기 위해서는 자영업자들이 휴대폰 공기계나 태블릿 PC 등 큐알 인식용 기계를 매장에 두고 일일이 확인을 해야 하는데, 이런 과정에 취약한 노년층 소상공인들이 가게 운영에 어려움을 겪고 있는 것이다. 사업자의 연령층이 높을 경우엔 방역패스를 꼭 확인해야 한다는 사실을 제대로 모르고 있는 경우도 많다.상황이 이렇다보니 자영업자들 사이에선 정부가 충분한 교육도 없이 방역패스 적용을 강요하는 것에 대한 불만이 나온다. 전자증명서 인식에 필요한 기계 비용이나 인력 비용 중 어느것도 감당하지 않으면서 자영업자들에게 책임을 떠넘긴다는 것이다.경기 파주시에서 식당을 운영하는 이모(46)씨는 “동네에 오래된 식당을 하시는 이웃 할머니가 방역패스를 어떻게 매장에서 확인하는 지 아예 모르셔서, 직접 가서 한참을 설명해드렸다”면서 “그나마 나와 같은 젊은 자영업자들이 연세가 드신 이웃 자영업자들한테 일일이 방법을 알려드리고 있지만, 애초에 정부가 방역패스에 대해 교육을 철저히 하고, 지원을 했어야 하는 것 아닌가”라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2021.12.06.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>"인턴만 해도 월 300만원" IT개발자 입도선매 나선 은행</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004889722?sid=101</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>인턴에도 月 300만원 제시MZ세대 맞춰 복지도 강화◆ 금융권 개발자 전쟁 ◆"스톡옵션 2만주, 연봉 20~30% 성과급, 인턴만 해도 월 300만원 드립니다." 금융권에 정보기술(IT) 개발자 모시기 전쟁이 벌어지고 있다. 코로나19로 비대면 서비스 경쟁이 불붙고 내년 1월 마이데이터 서비스까지 본격 시행되면서 금융권에 IT 인재 수요가 폭증한 것이다. 하지만 개발자 공급이 원활하지 않아 개발 인력 유치 경쟁이 한층 치열해질 것으로 보인다. 6일 금융권에 따르면 카카오뱅크는 내년 연봉 협상에 앞서 전 직원 임금을 평균 1000만원 이상 인상하고, 연봉의 20~30%를 각각 스톡옵션과 성과급으로 지급하겠다고 제안했다. 연공서열을 중시하는 보수적인 금융권에서는 파격적인 보상이라며 술렁이고 있다.토스뱅크는 지난달 주주총회에서 입사 1주년을 맞이한 임직원을 대상으로 각각 2만주의 스톡옵션을 주기로 했다. 행사가는 주당 5000원(액면가)이고, 2년 후인 2023년 11월 30일부터 권리를 행사할 수 있다. 토스뱅크 관계자는 "전문성을 갖춘 우수 인력을 확보하고, 주주와 임직원이 사업 성장의 과실을 함께 나누겠다는 취지"라고 설명했다. 케이뱅크는 인턴에게도 월급 300만원을 제시하며 IT 인력 입도선매에 나섰다. 현재 IT·데이터, 마케팅 등 총 7개 분야에서 채용을 진행 중인데, 두 자릿수로 채용연계형 인턴을 뽑을 계획이라고 회사 측은 밝혔다.금전적인 보상에 더해 근무 환경을 바꾸고 사내 복지를 강화하는 것도 최근 트렌드다. 업계 관계자는 "요즘 젊은 세대는 본인 의사 표현이 명확하고 일하는 방식과 문화에 있어서도 효율성과 합리성을 중시한다"며 "특히 개발자들은 네카라쿠배당토(네이버, 카카오, 라인, 쿠팡, 배달의민족, 당근마켓, 토스)처럼 수평적이고 자율적 기업 문화를 가진 기업에 들어가는 것을 선호하는 편"이라고 설명했다.신한은행은 최근 IT 인력 채용공고에서 워라밸과 자기계발 기회 제공 등 복리후생을 강조했다. 대출 비교 서비스 핀테크 기업인 핀다는 개발자들이 노트북만 있으면 어디서든 일할 수 있는 환경을 만들었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2021.12.09.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>타다 털어낸 쏘카 “‘스트리밍 모빌리티’로 자율주행 시대 주도할 것”</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000779230?sid=105</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>내년부터 차량 탁송 받아 목적지서 반납하는 편도 서비스 확대 카셰어링뿐 아니라 전기자전거·기차 예약하는 수퍼앱도 채비  카카오·티맵과 달리 이동전후·차 안 경험서 강점… 사용자 중심 “미래 모빌리티 키워드는 ‘전기차’ ‘자율주행’… 우리가 선도” 13일부터 제주-중문 38㎞ 구간서 자율주행 서비스, 추후 지역 확대박재욱 쏘카 대표가 9일 창립 10주년 기념 미디어데이에서 비전을 소개하고 있다. /쏘카        최근 차량 호출 서비스 ‘타다’를 핀테크(금융+IT) 스타트업 토스에 매각한 쏘카가 주력 사업인 카셰어링(차량 공유) 서비스를 고도화시키고 다양한 이동수단과 파트너십을 구축해 물 흐르듯 끊김 없는 이동서비스, 즉 ‘스트리밍 모빌리티’ 업체로 거듭나겠다는 포부를 밝혔다. 이를 통해 완전 자율주행 시대를 주도하겠다는 의지도 드러냈다.9일 쏘카는 창립 10주년을 맞아 서울 성동구 언더스탠드 애비뉴에서 ‘쏘카 10주년 미디어데이:넥스트 무브’ 행사를 개최하고 스트리밍 모빌리티 업체로 거듭나겠다는 이 같은 비전을 발표했다.이를 위해 현재 3만대 수준의 공유차량 운영대수를 2027년까지 최대 5만대로 확대하고, 내년부터 당장 편도 서비스를 확대한다는 계획이다. 차량을 대여한 곳에 반납해야 하는 현재의 왕복 서비스 중심에서 벗어나, 택시처럼 원하는 장소에서 출발해 도착지에서 차량을 반납하는 서비스다. 우선 수도권 지역에서부터 출발 30분 전에 쏘카를 예약해 차량을 원하는 곳으로 탁송 받고 본인의 목적지에서 반납하는 서비스를 선보일 계획이다.쏘카는 이런 편도 서비스 확대가 자율주행 시대를 대비해 수만대 이상의 대규모 차량을 관리·운영·배치하는 기술·노하우를 축적하고 방대한 이동 데이터를 사전에 확보하는 핵심 기반이 될 것으로 예상하고 있다. 회사 관계자는 “자율주행 서비스가 본격화되면 이용자들의 이동 수요 증감에 맞춰 유동적으로 차량을 배치해 보다 효율적으로 이동할 수 있는 서비스를 제공하고 수요가 적은 시간에 세차, 정비, 충전 등을 진행해 가동률을 높이는 것이 기업의 경쟁력을 좌우할 것”이라고 예상했다.이용자들이 보다 많이 서비스를 이용할 수 있도록 개인의 취향·선호도를 반영해 차량 내 온도, 좌석 위치, 음악 등을 다르게 제공하겠다고 했다. 차량 안에서 식음료 배달, 쇼핑, 결제가 이뤄질 수 있도록 하는 이동 연계 서비스 개발에도 적극 나선다는 계획이다. 공유 차량이어도 차가 ‘나만의 공간’이라는 경험을 제공하겠다는 것이다.쏘카는 차량에 탑승하면 이용자가 선호하는 세팅에 맞춰 시트 위치, 온도 등 내부 환경이 자동으로 세팅되는 ‘나만의 공간 경험’을 미래에 제공할 것이라고 밝혔다. /쏘카 제공        쏘카는 경쟁사인 카카오모빌리티·티맵처럼 내년부터 목적지로 이동하는 과정에서 이용하는 이동 수단에서 카셰어링뿐 아니라 전기자전거, 철도 등을 쏘카 플랫폼에서 모두 예약할 수 있는 ‘수퍼 앱’을 본격적으로 선보인다는 방침이다. 이를 통해 앱으로 전기 자전거를 예약, 쏘카존에서 차를 타고 이동한 뒤 기차역에서 차량을 반납하고 목적지 근처 역에 도착해 다시 쏘카로 이동하는 ‘원스톱’ 서비스가 가능해진다.향후 주차, 숙박 예약 등과 연계해 이동 전·후 필요한 서비스도 수퍼 앱을 통해 이용할 수 있도록 한다는 방침이다. 이는 내년 중 목표로 하고 있는 상장 자금을 통해 업체를 직접 인수하거나 전략적 파트너십을 맺는 방식이 될 것이라고 회사 측은 설명했다. 이를 통해 1000만명의 이용자를 확보한다는 것이 목표다.박재욱 쏘카 대표는 “카카오모빌리티나 티맵모빌리티가 제공하고 있는 공급자 중심의 ‘마스(MaaS·통합 모빌리티 서비스)’와 달리 이동 전·후, 이동수단 안에서의 총체적 경험을 어떤 회사보다 사용자 친화적으로 설계한 것이 차별점이다”라고 강조했다.그러면서 박 대표는 “미래 모빌리티 시장의 키워드는 ‘전기차’와 ‘자율주행’이기 때문에 관련 기술이 발전할수록 이동 서비스를 제공하는 모빌리티 플랫폼 기업이 시장의 주도권을 가져갈 것”이라며 “자율주행 시대를 대비해 이동이 필요한 모든 순간에 누구나 편리하게 이동할 수 있는 ‘스트리밍 모빌리티’ 서비스를 제공하겠다”라고 밝혔다.쏘카는 2019년 차량관리 전문기업 차케어를 인수, 통합차량관리 플랫폼 ‘유레카’를 개발, 운영하고 있으며, 2018년에는 국내 최초의 공유 전기자전거 ‘일레클’ 운영사인 나인투원에 전략적 투자를 단행, 수도권 등에서 공유 전기자전거 서비스를 제공하고 있다.자율주행 기술 스타트업 라이드플럭스에도 전략적 투자를 단행, 2020년 5월부터 제주공항과 쏘카스테이션 제주를 왕복운행하는 자율주행 셔틀 서비스를 함께 운영했다. 박 대표는 “오는 13일부터 38㎞에 달하는 제주-중문 자율주행 서비스를 시작할 예정이며, 데이터를 잘 쌓아서 세종시 등 다른 지역으로 서비스를 확대해나갈 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2021.12.14.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>“방역패스 오늘부터 쓰라며?”…서버 긴급증설에도 이틀째 접속장애</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000267848?sid=101</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>'방역패스' 본격 시행 첫날에 이어 이튿날인 오늘(14일)도 일부 앱에서 접속 장애가 발생했습니다.정부는 전날 긴급 서버 증설 조치로 이날 원활한 사용이 가능할 것으로 본다고 밝혔으나 이틀째 방역패스 시행에 차질이 빚어진 셈입니다.    질병관리청은 오늘 오전 참고자료를 내고 "야간에 서버 긴급증설 작업 및 서비스 최적화 작업을 수행했으며, 보다 원활하게 (전자예방접종증명서) 발급이 될 것으로 기대하고 있다"고 밝혔습니다.    또 전날 접속 장애 원인과 관련해선 "접속량 폭증에 따라 과부하가 발생했고, 실시간 대량 인증처리 장애 등 과부하 문제 대응에 미흡한 점이 있었다"며 "기존 방역패스 사용량을 토대로 서버를 증설했지만, 계도기간 종료와 함께 접속량이 폭증하면서 (증명서) 발급이 원활하지 못했다"고 설명했습니다.    이어 "오늘부터 방역패스를 이용할 국민께서는 편한 시간대에 네이버·카카오 등에서 최초 예방접종증명을 미리 발급받으면 점심·저녁시간대에도 원활한 이용이 가능하다"고 당부했습니다.    하지만 당국의 설명과 달리 이날 낮 12시가 가까워지면서 네이버 등 일부 앱을 통한 전자 증명에 또다시 접속 장애가 발생, 점심시간에 식당이나 카페를 이용하려는 시민들이 전날과 마찬가지로 불편을 겪었습니다.     이에 대해 질병청은 "쿠브는 정상 작동되고 있고 네이버 앱 외에 민간 플랫폼사에서는 특별한 장애가 발생하지 않은 상황"이라며 "쿠브(COOV·전자예방접종증명서)·카카오·토스앱 및 통신3사의 본인확인 서비스인 패스(PASS) 앱을 사용하여 QR체크인을 이용해달라"고 설명했습니다.    장애는 약 10여분간 지속된 뒤 정상화됐습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2021.12.14.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>"로그인 안해도 메뉴 보여요"…위기의 은행들, 앱 갈아 엎는다</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004682849?sid=101</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>한 시중은행 앱 MAU 추이/그래픽=김다나 디자인기자시중은행들이 앞다퉈 모바일뱅킹 앱(애플리케이션)을 갈아엎는다. 기존처럼 복잡하고 무거운 앱으론 인터넷전문은행, 빅테크와 경쟁에서 살아남기 어렵다는 위기의식 때문이다. 13일 은행권에 따르면 하나은행은 14일부터 모바일뱅킹 앱 하나원큐 홈화면을 새롭게 바꾼다. 앱의 얼굴이라 할 수 있는 홈화면을 좀더 간편하고 단순하게 개편하려 한다. 우선 로그인을 하지 않아도 홈화면이 열린다. 하나원큐를 비롯한 대부분의 뱅킹 앱은 로그인을 하지 않으면 아무런 기능을 확인할 수 없다. 앞으로는 별도의 로그인 없이도 앱을 켜기만 하면 전체 서비스를 볼 수 있다. 접근이 좀더 쉬워지는 셈이다. 또 자주 쓰는 메뉴를 맞춤형으로 설정하고 상품, 자산 등 메뉴를 홈에서 바로 갈 수 있게 된다. 결제도 편리해진다. 페이 등 결제 서비스를 한 화면에서 이용할 수 있어 하나은행, 하나카드 앱을 각각 켤 필요가 없다. 신한은행은 195억원 상당을 들여 앱을 전면 개편한다. 사업 규모도 크고 1년 가까운 대장정에 나서는 터라 '뉴(new) 앱 프로젝트'라는 이름을 붙였다. '더 쉬운, 더 편안한, 더 새로운' 플랫폼을 만들겠다는 콘셉트로 추진한다. 뉴 앱 프로젝트는 신한은행 모바일뱅킹 앱 신한쏠(SOL)이 탄생한 이후 가장 대대적인 개편이다. 신한은행은 2019년 오픈뱅킹 도입을 기점으로 앱을 리뉴얼했고 최근 마이데이터 사업과 맞물려 UI(사용자환경), UX(사용자경험)를 좀더 직관적으로 바꿨다. 뉴 앱 프로젝트를 거친 뒤에는 UI, UX가 고객 맞춤형으로 제공되고 모든 메뉴, 가입 절차가 바뀐다. 최근 대규모 개편 작업을 마무리한 곳도 있다. KB국민은행은 새로운 KB스타뱅킹을 내놓으면서 자동로그인 기능 등을 도입했다. 앱을 켜면 로그인 없이도 조회, 200만원 이하 소액 이체 등 기능을 이용할 수 있다. 보안을 위해 휴대폰 잠금화면을 설정한 고객을 대상으로 제공하는 기능이다. 이체도 한층 편해졌다. 내용을 입력하면 별도의 버튼을 누르지 않아도 화면이 자동 전환된다. 계좌 정보도 일일이 입력하거나 찾을 필요 없이 화면에 최근입금계좌, 자주쓰는계좌 등으로 뜨면 선택하면 된다. 한번에 여러 계좌를 누를 수 있어 다건이체도 빨라졌다. 홈화면은 맞춤형으로 편집할 수 있다. 대표 계좌 설정, 원하는 메뉴 설정 등이 가능해서다. 맞춤형 화면을 구현하는 일은 은행들의 주요 과제다. 우리은행은 최근 세대별 특성을 고려한 세 가지 메인화면을 내놨다. 나만의 자산관리 서비스가 먼저 보이는 펀 타입(fun type), 중요한 금융 일정이 우선 표출되는 이지 타입(easy type) 등으로 구분된다. 시중은행들은 인터넷전문은행이 하나 더 늘어나고 마이데이터 사업이 시행되면서 앱 개편 작업을 서둘렀다. 지난 10월 출범한 세 번째 인터넷전문은행 토스뱅크가 단순하고 직관적인 화면을 내놓자 긴장감이 높아졌다. 플랫폼 경쟁이 격화되면서 생존을 위한 변화에 나선 셈이다. 월간 실사용자 수(MAU)를 카카오뱅크에 빼앗긴 것도 뼈아픈 교훈이 됐다. 카카오뱅크 MAU는 1400만명 수준으로 금융권 1위다. 대형은행의 MAU가 1000만명에 못 미치는 것을 감안하면 격차가 크다. 시중은행 관계자는 "은행 앱은 불편하고 무겁고 복잡하다는 편견이 있는데 과거와 달리 보안, 기술의 한계를 극복하면서 편견을 깨가는 분위기"라며 "오픈뱅킹에 이어 마이데이터 경쟁이 치열해지면서 앱 리뉴얼도 은행마다 필수적인 작업이 됐다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2021.12.09.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>채용 관리 솔루션 '그리팅', 43억원 규모 시리즈A 투자 유치</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005775184?sid=105</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>기업용 채용 관리 솔루션 그리팅 운영사 두들린이 약 43억원 규모의 시리즈A 투자를 유치했다고 9일 밝혔다. (알토스벤처스 제공)(서울=뉴스1) 이기범 기자 = 기업용 채용 관리 솔루션 '그리팅'을 운영하는 두들린이 알토스벤처스 등으로부터 43억원 규모 시리즈A 투자를 유치했다고 9일 밝혔다.이번 투자에는 기존 투자자인 퓨처플레이, 프라이머, 슈미트, 동훈인베스트먼트와 함께 신규 투자사로 알토스벤처스가 참여했다. 이번 투자를 주도한 알토스벤처스는 쿠팡, 크래프톤, 우아한형제들(배민), 직방, 당근마켓, 비바리퍼블리카(토스) 등 국내 유수 IT 기업들에 투자한 바 있다.그리팅은 인재 채용 과정에서 기업이 겪는 어려움을 해결하는 원스톱 채용 솔루션이다. 다수 채용 플랫폼을 통해 지원한 이력서를 한 번에 열람하고 관리할 수 있다. 또 지원자별 평가, 일정 조율, 합격 유무 통보를 확인할 수 있다. 현재 그리팅은 쏘카, 아이디어스, 패스트파이브, 넵튠, 강남언니 등 약 1300여 개의 기업을 고객사로 두고 있다.이번 투자를 주도한 박희은 알토스벤처스 파트너는 "그리팅은 채용공고에서부터 합격 통보에 이르는 전체 채용 과정에서 회사의 비용과 시간을 줄이고, 효율적인 의사결정이 가능하도록 도와 대기업 및 스타트업의 채용담당자들에게 큰 호응을 얻어내고 있다"며 "또한 고객의 목소리에 집중하면서 필요한 기능을 빠르게 업데이트하고, 고객 반응을 체크하며 개선하는 팀의 역량을 믿고 투자를 결정하게 됐다"고 말했다.이태규 두들린 대표는 "이번 투자유치를 통해 그리팅 서비스를 함께 만들어 갈 인재 채용과 서비스 고도화에 집중할 계획이며, 기존 고객들의 피드백을 빠르게 수렴하고 제품을 개선해 나가는 구조를 만들 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2021.12.13.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>'방역패스 과태료' 첫날 점심시간 QR코드 먹통</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012852757?sid=102</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>(세종=연합뉴스) 홍해인 기자 = 13일 세종시 나성동 한 식당에서 질병관리청 쿠브(COOV·전자예방접종증명서) 애플리케이션 앱의 QR코드 시스템에 오류가 발생해 '방역패스'(백신패스) 확인이 이뤄지지 않고 있다.     이날 낮 11시 40분께부터 질병관리청 쿠브(COOV·전자예방접종증명서) 애플리케이션(앱)에 접속이 되지 않는다는 신고 사례가 전국 곳곳에서 속출했다.    네이버·카카오·토스 등 백신접종을 확인할 수 있는 다른 앱에서도 한때 QR코드가 원활히 생성되지 않았다. 2021.12.13    hihong@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2021.12.13.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>판 커지는 ‘신파일러’ 대출 시장</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/050/0000059312?sid=101</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>금융 이력 부족한 1300만 명 타깃빅테크는 플랫폼과 BNPL로 승부시중은행도 새 신용평가모형 만들고 배달 라이더 상품 출시[비즈니스 포커스]사진=게티이미지뱅크#. 오랜 기간 취업 준비생 생활을 마치고 드디어 원하는 기업에 입사한 A 씨. 입사 첫날의 설렘도 잠시, 왕복 4시간의 출퇴근에 결국 부모님 밑에서 독립해 회사 근처 오피스텔을 얻기로 결심한다. 하지만 A 씨는 평소 친한 직장 선배에게서 “사회 초년생은 대출받기가 쉽지 않을 텐데”라는 청천벽력 같은 소리를 들었다. #. 배달 라이더인 B 씨는 최근 동생이 빙판길에 미끄러져 다리를 다쳤다. 당장 지급해야 하는 병원비는 300만원. 하루 벌어 하루 사는 B 씨는 1금융권에서 대출받는 것은 생각도 못했다. B 씨는 300만원을 빌리기 위해 주변에 손을 벌렸지만 신종 코로나바이러스 감염증(코로나19) 상황에서 어렵긴 다 마찬가지였다. 그러다 B 씨는 지인을 통해 최근 배달 라이더를 대상으로 하는 대출 상품이 있다는 것을 알게 됐다. 1300만 명의 신파일러(thin filer) 대출 시장에 불이 붙고 있다. 중‧저신용자들의 대출을 목적으로 설립된 인터넷 전문은행은 물론 주요 시중 은행들도 발을 들이고 있다. 네이버·카카오·토스 등 빅테크들은 결제와 쇼핑 등 비금융 데이터를 활용해 자체적으로 새 신용 평가 모델을 개발하는 한편 선구매·후결제(BNPL : Buy Now Pay Later) 서비스를 내세워 대학생과 사회 초년생 등 미래 잠재 고객을 공략 중이다.시중 은행들은 통신 데이터를 활용하거나 배달 애플리케이션(앱) 등 비금융 신사업에 진출하며 신용 평가 모델을 고도화하는 데 힘쓰는 것은 물론 대출 사각지대에 놓여 있는 배달 라이더나 프리랜서 등을 대상으로 한 전용 대출 상품을 속속 내놓으며 신파일러 고객 유치에 공을 들이고 있다.  신파일러 시장, 크진 않지만 필수우선 신파일러의 의미에 대해 살펴보자. 신파일러는 ‘서류가 얇은 사람’이라는 뜻으로 대출·신용카드 사용 내역 등 금융 거래가 거의 없는 ‘금융 이력 부족자’를 의미한다. 주로 사회 초년생과 대학생·주부·노인 등 금융 소외자들이 해당된다. 신파일러가 얼마나 되기에 빅테크와 금융권이 눈독을 들이는 것일까. 결론부터 말하면 신파일러는 1300만 명 정도인데, 이는 신용 등급을 매길 수 있는 국민 중 4분의 1 정도 되는 규모다. 국회 정무위원회 소속 민형배 더불어민주당 의원이 신용 평가 기관인 나이스평가정보에서 제출받은 자료에 따르면 올해 상반기 기준 전체 신용 등급 대상자 4730만7806명 중 신파일러는 총 1280만7275명(27.1%)으로 집계됐다. 이들은 높은 신용 등급을 줄 근거가 없어 통상 중간 수준의 신용 등급인 4·5등급(신용 점수 700~800점)을 부여받는다. 나이스평가정보는 최근 2년 동안 신용카드 사용 실적이 없고 3년 이내에 대출 보유 경험이 없으면 신파일러로 간주한다.하지만 신파일러 대출 시장 자체는 크지 않다는 게 업계의 중론이다. 은행권 관계자는 “프리랜서나 미용실 헤어드레서, 자동차 딜러, 보험 영업 등은 소득 입증이 어려운 경우가 많다. 신파일러 대출은 시장성보다 대출 대상자의 범위를 넓히는 측면이 강하다”고 말했다.김상봉 한성대 경제학과 교수도 “금융권이 이 시장에 드라이브를 거는 이유는 금융 정보 외 공공 요금과 월세 등 정보를 통해 대출을 갚을 능력이 있는지 선별하는 능력을 키우는 것, 즉 신용 평가 모델을 고도화하기 위한 것”이라고 분석했다.다만 신파일러 시장이 빅테크와 금융권에 선택이 아닌 ‘필수’ 공략지인 것은 분명하다. 고은아 하나금융경영연구소 수석연구원은 “연령대가 낮은 고객이 신파일러인 경우가 많은데 당장의 이익보다 잠재 고객인 이들을 플랫폼에 계속 머무르게 하기 위한 ‘락인 효과’를 노리는 것”이라며 “또 플랫폼 안에서 쇼핑 등 다른 결제 행위를 계속 이어 가거나 이들의 결제 정보가 쌓이다 보면 그 정보를 갖고 신용 평가 모형을 만들 수 있다”고 말했다.   BNPL에 힘주는 빅테크처음부터 중금리 대출 확대를 목표로 만들어진 카카오뱅크·케이뱅크·토스뱅크 등 인터넷 전문은행은 대상 차주 범위를 기존 시중 은행보다 확대하고 대출 금리를 낮추는 방식으로 접근하고 있다. 특히 카카오뱅크는 카카오그룹의 이점을 십분 활용했다. 카카오톡 선물하기 구매 실적이나 카카오택시 이용 등 카카오 계열사들의 결제·비금융 데이터를 활용한 새 신용 평가 모델을 고도화하는 데 역량을 집중하고 있다. 카카오페이도 카카오뱅크의 데이터를 내년 개시 예정인 후불 결제 서비스의 신용 평가에 적용할 계획이다.현행법상 카카오페이, 네이버파이낸셜 등 선불 전자 지급 수단 발행 및 관리업자(선불업자)는 후불 결제 업무를 할 수 없지만 금융 당국이 혁신 금융 서비스를 통해 활로를 열어 놓은 상태다. 선불업자가 기본적인 개인 정보나 구매 이력 등 비금융 정보를 바탕으로 신용 평가가 가능하다는 점을 고려한 것이다.카카오·네이버·토스 등 빅테크는 각자의 플랫폼을 기반으로 BNPL 방식의 후불 결제 서비스를 준비 중이다. 카카오페이는 월 15만원 한도의 모바일 후불형 교통카드에서 첫 삽을 뜬다. 이를 기반으로 신용 평가 및 심사 모델을 고도화해 내년 하반기 중 후불 결제 서비스 시스템을 구축한다는 구상이다. 네이버파이낸셜은 올해 4월부터 만 19세 이상, 네이버페이 가입 기간 1년 이상 사용자 일부를 대상으로 후불 결제 서비스를 시범 도입했다. 자체 심사를 통과한 사람에게 월 30만원의 한도를 부여한다. 예를 들어 소비자가 네이버페이 포인트로 60만원어치의 제품을 구매했을 때 충전 잔액이 30만원이라면 모자란 30만원은 다음 달에 지불하는 방식이다.토스의 운영사 비바리퍼블리카도 소액 후불 결제 시장에 진입한다. 월 30만원 한도의 서비스를 내년 상반기에 선보일 계획이다. 다만 한국의 BNPL 서비스가 해외와 다른 점이 있다면 분할 납부가 안 되고 소액의 온라인 결제에만 한정돼 있다는 점이다. 고 수석연구원은 “한국의 BNPL 시장은 금융 당국의 세부 규제를 예의 주시해야 하는 상황”이라고 말했다.  시중 은행도 반격배달 라이더 모습. 사진= 한국경제 신문주요 시중 은행들도 신용 평가 모형을 고도화하는 데 공을 들이고 있다. 우리은행은 올해 7월부터 통신·유통 정보와 가맹점 정보 등을 활용한 대안 신용 평가 모형을 개인 사업자에 적용했다. 머신러닝 기법을 활용해 BC카드사 가맹점 정보를 불러와 평가 모형에 반영했다. 우리은행은 이를 네이버파이낸셜과 제휴한 ‘스마트 스토어사업자(SME) 대출’ 상품에도 적용했다. 45만 명이 넘는 스마트스토어 사업자들을 잠재 고객으로 끌어들이겠다는 복안으로 풀이된다.KB국민은행은 통신료 납부 이력, 이용 패턴, 로밍 등 통신 정보를 금융 거래 정보와 융합하는 방식으로 신용 평가 모델 개발에 착수했는데 올해 8월 주부, 사회 초년생, 대학생 등을 대상으로 한 ‘KB 처음이지(EASY) 신용대출’ 상품을 내놓았다. 또 은행권은 자영업자와 배민 라이더 등 금융 소외 계층으로 대출 상품을 확대하고 있다. KB국민은행과 우리은행이 올해 9월 배달의민족을 운영하는 우아한형제들과 손잡은 것이 대표적인 예다. KB국민은행은 외식업 자영업자를 대상으로 ‘첫 내 가게 마련 대출’ 상품을 내놓았고 우리은행은 배민 라이더를 대상으로 소득 증빙 없이 최대 300만원까지 대출을 제공한다.신한은행도 올해 10월 배달 라이더 전용 소액 신용 대출 상품인 ‘쏠편한 생각대로 라이더 대출’을 출시했다. 12월엔 긱 워커(gig worker)의 긴급 생활 자금을 지원하는 ‘신한 급여 선지급 대출’을 선보였다. 긱 워커는 일정 기간 계약하고 일하는 초단기 노동자를 의미하는데, 배달 라이더들은 긱 워커인 경우가 많다.이와 함께 은행권은 배달 앱 등을 통해 비금융 정보를 확보하는 데 총력을 기울이고 있다. KB국민은행은 KB스타뱅킹에 주문 배달 플랫폼 요기요 배너를 등재해 주문 배달이 가능하도록 연계 서비스를 시작했고 신한은행은 아예 음식 주문·중개 플랫폼 ‘땡겨요’를 12월 중순부터 운영한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2021.12.06.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>카카오페이·토스 등 투자 막힌 온투업계, 각자도생 본격화</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001920942?sid=101</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>투자 조회·자동입금 종료인재채용, 투자유치 활발기관투자는 여전히 숙제[헤럴드경제=박자연 기자] 온라인투자연계금융업(P2P)계가 본격적인 살길 마련에 나섰다. 플랫폼에 의존하던 기존의 고객 모집에서 벗어나기 위해 인재를 영입하고, 서비스 고도화는 물론 신사업까지 추진하며 활로를 모색하고 있다.[사진=카카오페이 공지사항]카카오페이는 이달 2일부로 온투업 관련 서비스를 완전히 종료한다고 공지했다. 카카오페이와 온투업 사이 이뤄졌던 연결계좌 자동 입금 서비스가 사라지고, 투자 현황도 이제 투자한 업체에서 확인해야 한다. 이같은 조치는 지난 8월 말 금융위원회가 플랫폼이 온투업 상품을 게시하는 것을 ‘중개’로 판단하면서 예고됐다. 앞서 주요 온투업 투자 플랫폼이었던 토스와 뱅크샐러드, 핀크 등도 제휴 종료를 발표한 바 있다.이제 투자자들은 온투업체 개별 앱을 방문해 투자를 진행할 수밖에 없게 됐다. 고객 수와 편의성 차원에서 압도적이었던 핀테크 플랫폼과 손을 놓게 된 온투업체들은 인재영입을 지속 진행하며 고객의 높아진 눈높이를 맞추는 중이다.8퍼센트는 6일 임직원 스톡옵션 부여와 함께 9개 분야 채용 계획을 발표했다. 윙크스톤 운영사 윙크스톤파트너스 역시 지난달부터 7개 직무 채용을 진행 중이며 내년 상반기까지 50여명의 인력을 확충할 계획이다.시스템 고도화와 신사업도 꾸준히 추진 중이다. 렌딧은 자체 개발한 신용평가시스템(CSS)을 꾸준히 개선하고 있고, 피플펀드는 지난달 온투업계에서는 처음으로 마이데이터 예비허가를 획득했다.업계 성장성을 보고 대규모 투자도 뒤따르고 있다. 렌딧은 7월에 H&amp;Q kOREA로부터 504억원 규모의 투자를 받았고, 피플펀드는 이달 베인케피탈 등에서 759억원 상당의 투자를 유치했다. 윙크스톤 역시 지난달 신한금융투자 등에서 20억원을 투자받았다. 8퍼센트도 10월 페이팔 초기 투자자로 알려진 BRV캐피탈로부터 453억원 투자를 유치했다.다만 업계는 현 시점에서 추가적인 돌파구가 필요하다는 입장이다. 특히 온투업계는 투자 상품에 대한 기관투자의 문턱을 낮춰달라고 주장하고 있다. 금융기관 등에서 들어오는 투자 자금의 경우 현재 ‘여신’으로 분류되는데, 이 경우 각종 규제를 받아야 하기 때문이다. 한 온투업계 관계자는 “개인투자자들은 각 업체가 서비스 개선 등을 통해 모으는 중이지만 기관투자의 경우 한계가 있다”면서 “금융업으로 온투업이 자생하기 위해서는 기관 투자가 반드시 이뤄져야 한다”고 말했다.금융위가 현재까지 등록 승인한 온투업체는 총 36곳이다. 지난달 말까지 P2P중앙관리기록기관에 등록된 업체는 33곳으로, 이들의 대출잔액은 1조 577억원으로 집계됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2021.12.15.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>“방역패스 이틀째 안돼 점심 포기… 인증문자 45분 지나서야 와”</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003399664?sid=102</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>[코로나19 -방역패스 혼란] QR체크인 일부 먹통에 혼란 지속방역패스 ‘먹통’에 길어진 대기줄 ‘방역패스’가 본격적으로 시행된 지 이틀째인 14일, 네이버의 코로나19 백신 접종  인증 화면에 ‘데이터를 불러오지 못했다’는 문구가 떠 있다. 전날 시작된 백신 접종 증명 시스템 오류가 이틀째 이어지면서 시민과  자영업자들이 불편을 겪었다. 뉴스1“이틀 연속 방역패스 접속 오류가 일어나니 너무 힘드네요. 손님들에게 일일이 백신 접종 여부를 확인하다 보면 짜증도 내시고….” 식당, 카페 등 다중이용시설에 ‘방역패스’(접종 완료 및 음성 확인제)가 의무화된 지 이틀째인 14일에도 전자예방접종증명 시스템 오류가 지속돼 시민과 자영업자들의 불편이 이어졌다. 서울 광진구의 한 중국음식점에서 일하는 종업원 A 씨는 “점심시간에 30분 정도 QR코드 인증이 안 돼 애를 먹었다. 접종 확인을 하느라 음식 서빙이 지연되자 직원에게 화를 내는 손님도 있었다”고 말했다. 서울 중랑구의 한 식당을 운영하는 윤모 씨(52)는 “접종 여부를 확인하지 않았다가 혹시라도 과태료를 내는 등 피해를 볼까 봐 일일이 확인하고 있는데, 주방일과 서빙을 병행해야 해 어려움이 많다”고 했다.○ “벌칙 안 줘”→“과태료 부과” 방역당국 오락가락이날 네이버 앱에서는 오전 11시 40분경부터 QR체크인 접속 장애가 발생해 방역패스 인증이 이뤄지지 않았다. 접속 장애는 낮 12시 17분경에야 복구됐다. 네이버 관계자는 “접종 증명을 불러오는 과정에서 응답 지연이 발생한 것으로 파악됐고, 자세한 원인은 당국과 함께 파악 중”이라고 했다. 질병관리청은 이날 낮 12시 5분경 “네이버 외에 쿠브(COOV), 카카오, 토스 앱과 통신3사 앱을 사용해 QR체크인을 해 달라”고 안내했다. 하지만 네이버가 아닌 다른 앱을 사용한 시민들 중에서도 접속 지연 등 불편을 겪은 사례가 있었다. 14일 서울 용산구의 한 분식점을 방문한 박모 씨(24)는 QR체크인을 하기 위해 평소 사용하던 네이버 앱을 열었지만 인증이 되지 않아 대신 카카오 앱으로 인증을 받기 위해 QR코드 발급 절차를 진행했다. 하지만 박 씨가 오전 11시 45분경 요청한 인증코드 입력 문자는 낮 12시 30분경에야 도착했다. 결국 점심식사를 포기한 박 씨는 “정부 안내를 보고 다른 앱을 사용했는데도 QR코드 발급이 되지 않아 화가 났다”며 “‘방역패스’를 강제하기엔 정부 시스템이 아직 부족하다는 생각이 든다”고 말했다. 이날 접속 장애에 대해 질병청은 “오전 11시 39분경 증명서를 미리 발급받도록 안내 문자를 보내자 네이버 카카오 등에서 접속이 증가한 것으로 보인다”고 설명했다. 방역패스 확인 의무를 위반할 경우 시설 운영자는 과태료 150만∼300만 원, 운영 중단 10일 등 불이익을 받을 수 있다. 방역당국은 이날 방역패스 위반 과태료 처분과 관련해 오락가락한 모습을 보이며 혼선을 자초했다. 오전 브리핑에서 “오늘까지는 방역패스 단속과 신고에 따른 벌칙 적용은 어려울 것”이라고 했다가 오후엔 “장애 발생 시간 이후에는 방역패스를 제시하지 않으면 과태료를 부과할 것”이라고 말을 바꿨다. 하지만 ‘접속 장애가 생긴 정확한 시간대가 언제냐’는 질문에는 “특정하기 어렵다”고 답해 앞뒤가 맞지 않는 지침이란 지적이 나왔다.○ QR코드 대신 접종 증명 스티커 붙여시민들 “차라리 종이 증명서가 낫다” 서울 노원구의 한 주민센터에서 70대 노인이 백신 접종 증명서를 발급받기 위해  대기하고 있다. 이 주민센터 관계자는 “방역패스 확대 적용 이후 백신 접종 증명서 발급 건수가 2배 가까이 증가했다”고 말했다.  박영대 기자 sannae@donga.com시민들은 QR코드 인증 없이도 접종 사실을 확인할 수 있는 ‘백신 접종 증명 스티커’를 발급받는 등 자구책을 찾고 있다. 서울 중랑구에 거주하는 이종찬 씨(76)는 14일 아침 스티커를 발급받기 위해 주민센터를 찾았다. 이 씨는 “어제 점심 때 아내와 한 식당을 찾았다가 QR코드 오류로 식사를 하지 못했다”며 “앱 사용도 익숙지 않고 앞으로도 계속 백신 접종 인증을 해야 하니 차라리 스티커를 받으러 왔다”고 말했다. 서울 노원구의 한 주민센터에도 스티커를 발급받으려는 60대 이상 노년층이 몰렸다. 주민센터 관계자는 “방역패스가 확대 적용되기 전인 지난주에 비해 발급 건수가 2배 가까이 늘었다”고 했다. 서울 동대문구에서 국밥집을 운영하는 석태선 씨(60)는 “14일 손님의 절반 이상이 스티커로 접종 증명을 했다”고 말했다. 미접종자가 방문해 과태료를 내는 상황을 피하기 위해 손님을 가려 받는 곳도 있다. 서울 동대문구에서 중국음식점을 운영하는 김모 씨(61)는 “어제 방역패스 확인에 시간이 너무 오래 걸려 배달 영업이 원활하지 않았다. 당분간 혼자 오는 손님만 받고 배달에 집중하려고 한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2021.12.07.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>정은보 "카드사 수수료 인하, 최대 공약수 만들어 낼 것"</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000640887?sid=101</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>여전사 CEO들과 간담회 개최…"새 수익원 창출 발굴 뒷받침 할 것"정은보 금융감독원장이 카드사의 수수료 인하 논쟁을 두고 관계된 사람들의 공통 의견을 도출해 '최대 공약수'를 만들어 내겠다고 밝혔다.7일 정은보 원장은 여의도 켄싱턴호텔에서 열린 '여신전문금융회사 최고경영자(CEO)와의 간담회'가 끝나고 기자들과 만난 자리에서 이같이 말했다.가운데 정은보 금융감독원장과 여신전문금융사 최고경영자들이 기념촬영을 하고 있다. [사진=이재용 기자]간담회에는 정 원장과 김주현 여신금융협회장·김대환 삼성카드 대표·임영진 신한카드 대표·정태영 현대카드 대표·이동철 KB국민카드 대표·추광식 롯데캐피탈 대표·윤규선 하나캐피탈 대표·목진원 현대캐피탈 대표 등 총 7개사 CEO가 참석했다.이날 간담회에선 향후 감독·검사 방향을 설명하고 최근 여신전문금융업권의 주요 현안에 대해 소통하는 시간을 가졌다.먼저 카드 수수료 인하에 관련된 논의를 가진 뒤 카드사가 네이버·토스 등 빅테크와의 경쟁 과정에서 겪는 규제 형평성 문제 등에 관한 논의도 이뤄졌다.또 여신전문금융업권이 동남아시아 진출이 늘어난 만큼 해외 진출 과정서 해당 감독당국과의 관계 부문에 대해서도 거론됐다.국내 여신전문금융업계는 8개의 카드사와 118개의 캐피탈사로 구성됐으며 총 126개사 354조원 규모에 이른다. 최근에는 이들 카드사의 결제 인프라를 통해 신속한 재난지원금 지급이 이뤄졌으며 취약업종에 대한 상환유예 조치를 통해 신종 코로나바이러스 감염증(코로나19) 위기 극복에 동참하기도 했다.정 원장은 이들 여전사의 코로나19 동참 노력을 치하 하면서 수신기능이 없고 저신용과 다중 채무자의 비중이 높은 여신전문업계의 '구조적 약점'을 우려했다.은행권 대비 차주들의 신용도가 낮은 만큼 건전성 리스크가 따르기 때문이다. 이에 과거 '카드 사태'를 교훈삼아 선제적 리스크 관리를 강화할 것을 주문했다.이를 위해 금감원은 법과 원칙에 기반한 '사전적 감독'과 '사후적 감독'간 조화와 균형을 도모하겠다고 전했다. 세부적으로 구조적으로 위기상황에 취약한 여신전문업권의 특성을 감안해 사전적 리스크 감독을 강화할 예정이다. 은행권 대비 취약차주의 비중이 높은 만큼 리스크에 약하기 때문이다.잠재위험에 대비한 스트레스 테스트와 조정자기자본 제도 정비 등 위기대응능력도 끌어올린다. 더불어 회사의 규모와 리스크의 구조 등 특성을 감안해 탄력적 검사를 진행할 예정이다.여전사의 내부통제제도 개선도 유도한다. 이를 통해 자체감사와 시정능력이 충분히 활용될 수 있도록 하고 위험요인이 크지 않은 여전사의 경우 자율경영을 보장할 방침이다.나아가 '위험기반접근방식(RBA)' 검사관행도 정착시켜 나간다. 소비자보호 측면에서는 리볼빙 불완전판매와 중고차 대출사기 등 소비자피해가 발생하는 사안에 대해서도 세삼한 관리를 기울인다. 이를 위해 상품 개발과 판매·사후관리 등 전 과정에서 소지자피해 사전 예방이 주력해나가기로 했다.다음으로 금감원은 여전사들이 빅데이터·비대면 플랫폼을 활용한 수익원을 발굴할 수 있도록 부수업수를 폭 넓게 허용키로 했다.또 햑신금융서비스 지정을 늘려 혁신적이고 창의적인 아이디어가 실제 비즈니스모델로 적시에 등장할 수 있도록 하겠당 방침이다.아울러 최근 성장 잠재력이 높은 신남방 국가 등을 중심으로 해외진출이 확대되는 만큼 현지 금융당국과 인허가 등에 관련해서 적극적 소통을 지원키로 했다.9월 현재 20개 여신전문금융사가 17개국에 52개 해외점포를 운영중이다.정 원장은 "수수료 인하는 연현재 금융위가 중심이 돼서 국회하고 현재 협의를 하고 있다"면서 "가능한 한 관계된 사람들이 다 최대 공약수를 만들어낼 수 있도록 노력하고 있다"고 말했다.그러면서 "금감원은 다양한 여전업계의 노력을 적극적으로 뒷받침하겠다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2021.12.14.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>“어르신 방역패스 확인 어려워 돌려보내…알려드리길 부탁”</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003399626?sid=102</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>방역패스(백신패스)의 계도기간이 끝나 의무화된 13일 오후 서울 시내 한 식당에서 손님의 핸드폰에 QR코드 전자증명 시스템에서 오류가 발생하고 있다. 2021.12.13/뉴스1한 식당 점주가 노년층의 방역패스 확인에 어려움을 겪고 있다며 누리꾼들에게 “QR코드 사용 방법을 부모님께 알려달라”라고 부탁했다. 14일 온라인 커뮤니티 ‘FM코리아’에는 ‘수도권에서 식당을 하고 있는데 부탁 좀 드리겠다’는 제목의 글이 게시됐다. 글 작성자는 “핸드폰에 익숙한 사람들은 백신패스를 사용하는 데 무리가 없지만, 그렇지 않은 어르신들은 QR체크인과 백신 접종 확인서를 확인하기가 어렵더라”라고 운을 뗐다. 그는 “제가 한가한 시간에는 직접 QR코드를 만들어드리고 접종 정보를 불러와서 손님을 받고 있다”며 “그런데 바쁜 시간에는 그렇게 할 수 없어서 하루에 6~7팀의 손님들은 돌려보내는 것 같다”라고 털어놨다. 이어 “손님은 밥을 못 드시고, 저희도 오신 손님을 돌려보내야 하는 상황이니 서로 화가 나게 되더라”라고 토로했다. 그러면서 “특히 본인 명의가 아닌 자녀 명의로 핸드폰을 사용하는 분들이 생각보다 많아 제가 한가한 시간에도 직접 QR코드를 만들어드릴 수가 없었다”라고 했다. 작성자는 “제가 여러분께 부탁하고 싶은 건 댁에 계신 부모님과 조부모님의 핸드폰에 백신패스 등록을 해주시고 어떻게 하는 건지 대충이나마 알려드리십사 하는 것”이라고 밝혔다. 이어 “주제넘은 부탁일 수도 있지만 현장에서 확인하고 등록해드리기엔 인력도 부족하고, 역정을 내는 분들도 있어 스트레스를 많이 받는다”라고 했다. 글을 본 누리꾼들은 “자영업이 무슨 죄냐. 힘내자”, “나도 방역패스 QR이 첫날 안 돼서 진땀 났는데 어르신들은 더 힘들 것 같다”, “부모님께 알려드리는데 어려워하시더라” 등의 반응을 보였다. 중앙재난안전대책본부에 따르면 전날부터 식당, 카페 등 실내 다중이용시설에서 방역패스가 의무화됐다. 방역패스로 사용 가능한 것은 ▲질병관리청 쿠브(COOV) 앱 ▲전자출입명부(네이버, 카카오, 토스)의 전자 증명서 ▲신분증에 붙인 예방접종 스티커 ▲2차 접종 후 접종기관에서 받은 종이 접종증명서 등이다. 미접종자는 PCR 음성확인서 등을 제시해야 한다. 수기 명부 작성은 사실상 금지된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2021.12.06.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>역마진 못 버틴 토뱅…1억 초과 예금 금리 인하, 카드 혜택 축소</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003156526?sid=101</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>‘조건 없는 연 2% 예금 금리’을 내세웠던 인터넷 전문은행 토스뱅크가 수시입출금 통장의 금리 체계를 변경하면서, 체크카드 혜택도 대폭 축소하고 나섰다. [사진 토스뱅크]           '역마진 부메랑'에 인터넷전문은행 토스가 백기를 들었다. '조건 없는 연 2% 예금금리'를 내걸었지만 무제한에서 1억원까지만 연 2% 금리를 제공하는 것으로 수시입출금 통장의 금리 체계를 변경했다. 월 최대 4만6500원 캐시백(현금 환급)을 내건 체크카드 혜택도 대폭 축소한다. 금융당국의 가계부채 규제로 신규 대출상품 판매가 중단되면서 ‘역마진’ 우려가 커진 탓이다.      토스뱅크는 다음 달 5일부터 수시입출금 통장인 ‘토스뱅크 통장’의 금리체계도 변경한다고 지난 3일 밝혔다. 1억원 미만의 금액에는 연 2%의 금리를 유지하지만, 예금금액 중 연 1억원이 넘는 금액에 대해선 연 0.1%의 금리를 적용하게 된다.       당초 예금 금액 제한 없이 ‘조건 없는 연 2% 금리’를 내세웠던 방향에서 선회한 것이다. 토스뱅크 측은 “예금 고객 중 99%는 금리 변경의 영향을 받지 않을 것”이라고 밝혔다.      '두 달 천하'에 그친 건 연 '2% 금리'만이 아니다. 다음 달 5일부터 체크카드 혜택도 줄어든다. 토스뱅크는 지난 10월 출범 당시 커피전문점과 패스트푸드 매장, 편의점, 대중교통 등에서 체크카드를 사용하면 일부 금액을 돌려주는 ‘캐시백’ 혜택을 제공하고 있지만 이를 대폭 줄인다는 것이다.      이에 따라 편의점에서 캐시백 혜택(하루 한차례 300원)을 받기 위해 결제해야 할 최소 금액은 기존의 300원에서 3000원으로 높아진다. 최소 3000원 이상을 써야 300원을 돌려받을 수 있다. 또한 제휴 편의점도 기존 5곳(GS25·CU·이마트 24·미니스톱·세븐일레븐)에서 2곳(GS25·CU)으로 대폭 축소된다.        버스와 지하철 등 교통카드 캐시백 혜택의 규모도 줄었다. 하루에 돌려받을 수 있는 금액이 기존의 건당 300원에서 100원으로 줄어든다. 한 달간 빠짐없이 대중교통을 이용할 경우 9000원 가까이 금액을 돌려받을 수 있었지만, 앞으로는 3000원가량만 돌려받아 혜택이 30%로 축소된다. 매달 돌려받을 수 있는 최대금액도 4만6500원에서 4만300원으로 13%가 줄어든다.      토스뱅크 관계자는 “일부 이용자가 캐시백 혜택을 얻을 수 있는 최소 결제금액(300원)만 토스뱅크 체크카드를 이용하고, 나머지 금액을 타사 은행의 카드로 결제하면서 운영 비용이 커졌다”며 “내년부터 새로운 프로모션(판촉)을 제공하면서 비용을 절감하려 혜택을 축소하기로 한 것”이라고 설명했다.    인터넷 전문은행 토스뱅크의 체크카드 혜택과 관련한 어플리케이션 내의 안내문. [사진 어플리케이션 캡쳐]    토스뱅크가 잇따라 혜택을 축소하는 것은 은행의 수입원인 대출 이자보다 고객에게 지급할 예금 이자가 커지는 ‘역마진’ 우려가 심화했기 때문으로 풀이된다.       토스뱅크는 지난 10월 금융당국이 제시한 총대출 한도(5000억원)를 조기에 소진하면서 연말까지 대출상품 판매를 전면 중단했다. 은행의 주된 수입원인 대출 상품을 3개월째 팔지 못하면서 적자가 커진 탓에 예금 금리 체계를 조정하고 체크카드 혜택을 축소한 것이다.      향후 금융당국의 가계대출 규제 움직임에 따라 토스뱅크의 혜택이 추가로 축소될 가능성도 있다. 내년에도 이어지는 대출 총량규제 움직임으로 대출 상품 판매가 원활해지지 않을 수 있어서다. 금융위는 내년 가계대출 증가율 목표치를 올해(연 5~6%)보다 낮은 연 4~5%로 낮춰잡았다. 토스뱅크 관계자는 “내년 대출한도와 관련해 금융 당국과 논의 중에 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2021.12.09.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>[2022금융IT혁신] 마이크레딧체인 “독도버스, MZ세대+메타파이낸스 선도할 것”</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002115053?sid=105</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>[디지털데일리 왕진화 기자] 금융권은 신규 고객을 늘리기 위해 언제나 분주하다. 이러한 가운데 MZ세대(밀레니얼+Z세대) 신규 고객을 늘리기 위해선 늘 재미를 추구해야 한다는 의견이 제기됐다. MZ세대에게 익숙하면서도 흥미를 유발시키는 메타버스 요소를 적절히 활용하면 미래 금융권을 충분히 주도할 수 있다고 본 것이다.   &lt;디지털데일리&gt; 주최로 6일부터 10일까지 5일간 웨비나 플랫폼 ‘DD튜브’를 통해 개최된 [2022년 전망, 금융IT Innovation 버추얼 컨퍼런스]에서 ‘금융 기반 메타버스의 시작, 독도버스’를 주제로 발표한 남윤호 마이크레딧체인 대표는 디지털 자산 확대를 이끌 새로운 메타버스 플랫폼 주도를 MZ세대가 맡게 될 것이라고 내다봤다.   남윤호 대표는 메타버스는 기술과 사업 환경, 사용자 체험 등 세 가지 측면에서 혁신을 가져왔다고 정의했다. 기술적인 측면에서 메타버스는 현실을 디지털로 가져오는 디지털 트윈(Digital Twin) 발전을 빠르게 촉진했다. 여기서 디지털은 개인화, 지능화된 3차원 공간을 가리킨다.    사용자는 메타버스 속 세계관 설정을 통해 제2의 삶인 ‘부캐릭터(부캐)’를 만들 수 있다. 현실과 판타지, 편의가 복합돼 있는 놀이와 즐거움의 공간이다.    남 대표는 “메타버스는 사실 솔루션도, 플랫폼도 아니다”라며 “메타버스는 상상하는 모든 것을 만들어낼 수 있는 기술들을 잘 조합하면 무엇이든 제작 가능한 공간”이라고 말했다. 이어 “단기적·장기적 측면에서 방향성을 만들어 단계적으로 실행해야만 메타버스에 접근 가능하며, 금융권은 이를 적극 활용하면 효과를 거둘 수 있다”고 말했다. 남 대표가 금융 메타 파이낸스를 구현하기 위해 활용한 개념도 메타버스다. ‘독도버스’는 메타버스 환경에 구현된 독도를 배경으로, 고객이 게임을 하면서 자산을 모으고 투자·거래할 수 있는 금융 메타버스 플랫폼이다. 단순히 게임 플레이에 그치지 않고 현실 세계 수익과 연계시킬 수 있는 구조다. 독도버스에는 ‘캐비닛’이라고 하는 인벤토리가 있다. 현금 및 NFT, 퀘스트 보상으로 얻게 되는 베네핏 등 디지털 자산 포인트 아이템을 보관해주는 공간이다. 마이크레딧체인은 캐비닛이 메타파이낸스 시작의 단초가 될 것이라고 보고 있다.  무엇보다 재미를 가장 먼저 추구하는 MZ세대 특성을 반영하기 위해 노력했다. 남 대표는 기업 입장만 반영한 메타버스 플랫폼을 만들면 성공할 수 없다고 봤다. 기업이 선보이고 싶은 수요만 파악해 이벤트를 진행하면 아무런 효과가 발생하지 않을 것이라고 판단했기 때문이다. 신규 고객이 될 MZ세대가 무엇을 원하는지 면밀히 들여다봤다.   마이크레딧체인 모회사 핑거는 지난달 30일 독도버스 사전가입 이벤트로 1차 독도버스 도민권을 선착순 3만6500명에게 발급하기로 했다. 독도버스 도민권은 대체불가능한 토큰(NFT가 적용돼 위조나 복제가 불가능하며 소유권이 확실하게 보장된다. 독도버스 도민권을 소유한 이용자는 토지를 보유하고 건물도 지을 수 있다.   남 대표는 “과거 정통 금융에서 체리피커는 블랙리스트였지만, 이제는 아니다”라며 “토스는 제품을 구매하지 않고 실속만 챙기는 소비자(체리피커) 공략에 성공했다. 특히 요즘 젊은 체리피커는 자신들이 좋다고 느끼는 것들을 주변 사람들에게 알아서 퍼뜨리는, 숨은 홍보 1등 공신”이라고 말했다.    이어 “체리피커가 아니어도 MZ세대는 만족하면 스스로 공유하고, 큰 팬덤을 형성한다”며 “인터렉티브한 콘텐츠를 제공하지 않으면 MZ세대는 결국 만족하지 않는다”고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2021.12.02.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>[아!이뉴스] AI 윤리 고민하는 네이버…해 넘기는 OTT지원</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000640162?sid=105</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>하루가 다르게 변화하는 IT세상 속에서 쏟아지는 정보를 일일이 다 보기 어려우신 독자분들을 위해, 독자 맞춤형 IT뉴스 요약 코너를 마련했습니다. 본지에서 오늘 다룬 IT기사를 한눈에 읽을 수 있도록 구성했습니다. 퇴근길에 가볍게 읽을 수 있기를 기대합니다. [편집자주]코리아스타트업포럼이 윤석열 대선후보 초청 '스타트업 정책 토크'를 개최했다. 사진은 스타트업 정책 토크 관련 이미지. [사진=코스포]◆ 윤석열, 스타트업 중요성 강조…규제 개혁·공정 환경 조성 약속윤석열 국민의힘 대선후보가 스타트업과의 만나, 규제 개혁과 공정거래시스템 조성을 약속했다. 혁신적인 스타트업을 통해 저성장을 극복하고, 글로벌 경쟁력을 갖춰 신성장동력으로 삼겠다는 의도다.2일 코리아스타트업포럼(코스포)은 서울시 중구 소재 시그니쳐타워 아이콘루프 라운지에서 윤석열 국민의힘 대선후보를 초청해 '스타트업 정책 토크'를 개최했다.이날 행사에는 윤석열 대선후보와 함께 최성진 코리아스타트업포럼 대표, 이승건 비바리퍼블리카(토스) 대표, 김종협 아이콘루프 대표, 한상우 위즈돔 대표, 김준태 왓섭 대표, 이수지 디플리 대표, 남성준 다자요 대표, 박지현 체킷 대표 등이 참석했다.윤 후보는 인사말을 통해 "스타트업이 중요한 이유는 설명할 필요가 없다"라며 "혁신만이 우리의 저성장을 극복할 수 있다"라고 말했다. 그러면서 "현장의 애로사항과 바라는 점을 소상히 듣고 정책 공약과 차기 정부 구성 방향을 결정하겠다"라고 밝혔다.이날 참여한 스타트업 관계자들은 ▲안정적인 비대면 의료 정착 ▲인공지능(AI)·빅테이터 산업 육성 ▲규제 샌드박스 개혁 ▲대기업의 기술 편취 등 업계의 애로사항을 토로했다.특히 참석자들은 스타트업의 성장을 위해서는 규제 개혁이 필요하다고 의견을 모았다. 김종협 아이콘루프 대표는 "규제 샌드박스는 네거티브 규제를 일부 도입해보자는 취지인데, 실제는 포지티브 규제"라며 "규제 샌드박스에 막혀있는 기업들을 활성화할 수 있도록 도와달라"고 요구했다.박지현 체킷 대표 역시 "비대면 진료는 G7에서 모두 허용되고 있지만, 한국에서는 한시 허용"이라며 "안정적인 비대면 의료 정착을 위해 정부·의료계·산업계·국민 등 모여서 논의할 수 있는 자리를 마련해달라"고 전했다. [사진=네이버]◆ 'AI 윤리' 몰두하는 네이버…사례 보고서로 관심 지속네이버가 'AI 윤리'에 대한 관심을 이어간다. 네이버가 AI 기술을 어떻게 적용하고 있는지, 각 사업별로 AI가 어떻게 활용되고 있는지를 구체적으로 설명하고, 이를 네이버가 고민하고 있는 AI 윤리와 엮어 보고서로 꾸준히 낸다는 방침이다.2일 업계에 따르면 네이버는 지난달 29일 서울대 AI 정책 이니셔티브(SAPI)와 첫 'AI 리포트'를 발간하고 네이버의 AI 기술과 AI 윤리 준칙을 개괄적으로 소개했다. 이는 지난 2월 네이버가 SAPI와 함께 발표한 '네이버 AI 윤리 준칙'을 처음 공개한지 약 9개월만이다.보고서는 네이버의 AI 기술을 ▲자연어 의사소통 ▲컴퓨터 비전 ▲추천 ▲로봇공학으로 구분해 AI가 구체적으로 어떤 기술들로 구성돼 있고, 일상 속 네이버 서비스들에 어떻게 적용되고 있는지를 설명했다. 이를 통해 현실적 측면에 토대를 둔 AI 윤리 논의가 가능해질 것이라는 것이 네이버 측의 설명이다.네이버가 AI를 적용한 서비스는 광범위하다. 이를테면 챗봇과 번역 서비스인 '파파고', AI 고객센터 '클로바 Ai콜' 등에는 자연어 의사소통과 관련된 AI가 적용됐다. 컴퓨터 비전 분야에서는 클로바의 얼굴 인식 시스템과 문자 인식 시스템, 네이버 스포츠 야구 중계에 적용되는 '홈런 장면 되돌려 보기' 기능 등이 대표격으로 꼽혔다.알고리즘 관련 분야에서는 '네이버 쇼핑'에 탑재된 개인화 상품 추천 시스템 '에이아이템즈(AiTEMS)와 지금 이 순간 가장 가볼 만한 장소들을 추천해 주는 '스마트 어라운드' 서비스와 예약에 접목된 '에어스페이스' 기술, AI 기반 추천 시스템인 '에어스(AiRS)'에 대한 설명이 이어졌다. 네이버랩스가 개발한 각종 로봇들과 네이버 클라우드 기반의 로봇 멀티비전 시스템인 '아크(ARC)' 역시 AI가 고도로 접목된 사례로 소개됐다.네이버는 또한 AI 윤리 준칙이 왜 만들어졌고, 어떤 과정을 거쳐 만들어졌는지도 소개했다. 앞서 네이버는 지난 2월 SAPI와 공동으로 웨비나를 열고 '네이버 AI 윤리 준칙'을 공개한 바 있다. 지난 2018년부터 SAPI와 함께 구상했다. 준칙은 ▲사람을 위한 AI 개발 ▲다양성의 존중 ▲합리적인 설명과 편리성의 조화 ▲안전을 고려한 서비스 설계 ▲프라이버시 보호와 정보 보안 등 5개 조항으로 이뤄졌다.토종 온라인 동영상 서비스(OTT) 지원은 결국 해를 넘길 것으로 보인다. [사진=조은수 기자]◆ 결국 해 넘기는 OTT지원… 업계 '박정 의원안' 대안으로 주목오는 9일 제391회 국회(정기회) 종료에 따라 정부가 '디지털미디어 생태계발전방안'으로 약속했던 토종 온라인 동영상 서비스(OTT) 지원은 결국 해를 넘길 것으로 보인다.상황이 이렇자 OTT 업계는 지난 25일 박정 의원이 발의한 '영화 및 비디오물의 진흥에 관한 법률 일부개정법률안'의 조속한 통과에 기대를 걸고 있다.해당 법안은 문체부 법안과 마찬가지로 OTT 자율등급제 도입을 가능케 하는 내용이나, 문체부 법안과 달리 'OTT 사업자의 지위 신설' 부분이 없어 방통위도 대승적으로 찬성할 것이란 기대다.이에 대해 방통위 관계자는 "현재 해당 법안을 검토 중"이라고 말을 아꼈다.문체부 관계자는 "현재 문체부안과 병합 심사할 수 있는지 검토 중으로, 이것이 가능하다면 소관위에서 심사하게 될 것"이라면서 "다만, 박정 의원안은 문체부안보다 완화된 부분이 있는데, 등급분류는 청소년을 위한 것으로 이의 권한을 민간에 전부 위탁하기는 어렵다"고 말했다.하주용 인하대학교 교수는 2일 미디어리더스포럼 주최로 열린 '한국방송산업의 발전과 건강한 실시간 방송생태계' 세미나에서 주제 발표를 했다. [사진=심지혜 기자]◆ "넷플릭스, 韓 방송 생태계 잠식…실시간방송 살려야""온라인동영상서비스(OTT)의 등장 이후 국내 방송 시장 기반이 약화되고 있다. 문화정체성에 기여하고, 공적 정보 제공을 통한 시민사회 유지 역할을 하는 기존 방송의 사회적 기능을 축소시키는 것이다."하주용 인하대학교 교수는 2일 미디어리더스포럼 주최로 열린 '한국방송산업의 발전과 건강한 실시간 방송생태계' 세미나에서 이같이 밝혔다.하 교수는 국내 방송 생태계 강화를 위해서는 실시간 방송이 중요하다고 강조했다. 실시간 방송은 누구나 언제 어디서든 이용할 수 있는 보편적 서비스인 데다 한국 사회의 문화정체성을 유지하는 중요한 수단이자 보편적 문화향유에 기여하는 문화복지 서비스기 때문이다. 또한 방송프로그램의 제작과 유통에 중요한 역할을 수행하고 있다고 평가했다.그는 "실시간 방송채널 생태계는 방송을 통해 추구해온 공공성, 공익성, 보편성은 물론 방송산업의 유지, 발전에 중요한 역할을 하고 있다"며 "다양한 프로그램을 제작, 구매해 편성하는 구조는 프로그램 거래시장에서 가장 큰 소비자가 되는 데다 이는 독립제작사 등 제작자들에게 제작비 회수 가능성을 높여 새로운 프로그램 제작에 나서게 하는 긍정적 요인"이라고 말했다.실시간 방송이 약화될 경우 스트리밍 미디어 중심의 방송산업 생태계로 변화하게 될 것으로 예상했다. 이는 결국 넷플릭스처럼 시장 지배력이 높은 글로벌 사업자가 국내 방송 콘텐츠 제작 시장과 유통, 소비시장을 장악하는 부정적 결과를 초래할 것이란 설명이다.하 교수는 "현재 글로벌 OTT의 국내 방송시장 잠식 현상은 수년 내 국내 채널사업과 유료방송 사업 쇠퇴를 야기하고, 국내 방송산업 생태계 붕괴까지 가져올 수 있다"며 "글로벌 스트리밍 방송 사업자가 독점할 경우 종속화와 문화 왜곡, 방송에 대한 국가의 통제기능 약화로 이어질 수 있다"고 진단했다.하 교수는 국내 실시간 방송채널의 중요성을 고려, 가치 제고와 지원방안 마련이 필요하다고 주장했다.하 교수는 "넷플릭스, 유튜브 등이 잠식하고 있는 한국 방송산업의 경쟁력을 확보하고, 한류 활성화와 같은 새로운 활로를 모색하기 위해서는 국내 실시간 방송콘텐츠의 가치를 제고하는 것이 필요하다"고 강조했다.또한 "우리 방송이 위기를 극복하고 경쟁력을 높이기 위해서는 실시간방송 콘텐츠의 생산과 전달 생태계의 보호와 육성이 필요하다"며 "양질의 방송 콘텐츠를 국민들에게 안정적이고 지속적으로 제공하는 동시에 이를 기반으로 수익 창출과 재원투자가 이뤄지는 구조 형성이 필요하다"고 덧붙였다.전용기 의원(더불어민주당)이 확률형 아이템 정보 공개를 골자로 하는 게임법 개정안을 예고했다. [사진=전용기 의원 페이스북]◆확률형 아이템 규제 여론 다시 꿈틀…군불 떼는 정치권게임업계의 '뜨거운 감자'인 확률형 아이템을 법적으로 규제해야 한다는 목소리가 다시금 높아지는 모습이다. 정치권에서도 속속 관련 법안을 예고하며 군불을 떼고 있다.2일 게임업계에 따르면 이용 의원(국민의힘)이 지난달 23일 대표발의한 게임산업진흥에관한법률 전부개정안이 지난 1일 철회됐다. 확률형 아이템의 자율규제를 보장한다는 내용이 알려진 이후 쏟아진 반대 여론이 이같은 철회에 영향을 미쳤을 것이라는 분석이 나온다. 의원실 측은 전부개정안을 수정 및 보완해 추후 발의한다는 계획을 전했다.온라인상에서는 확률형 아이템의 자율규제를 보장한 전부개정안 발의를 계기로 다시금 확률형 아이템에 대한 규제 여론에 불이 붙는 양상이다. 지난해 12월 확률형 아이템의 습득률 등의 표시 의무를 담은 게임법 전부개정안을 발의한 이상헌 의원(더불어민주당)은 지난달 30일 페이스북을 통해 관심을 살펴달라는 게시글을 올리기도 했다.전용기 의원(더불어민주당)은 확률형 아이템의 습득률만 '원포인트'로 공개하도록 하는 법안 발의를 예고했다. 장시간의 논의가 필요한 전부개정안의 국회 통과만을 기다리지 않겠다는 취지다. 아울러 확률 정보를 이미지 파일 등으로 만들어 관련 정보를 찾아보기 어렵게 하는 행위를 막기 위해 기계판독이 가능한 형태로 데이터화하는 확률 은폐 예방 장치도 포함했다고 덧붙였다.◆네오위즈, P2E 넘어 'S2E'까지…'큰 그림' 그린다네오위즈가 연내 블록체인 플랫폼 '네오핀(NEOPIN)'을 선보이면서 P2E 플랫폼 진영에 합류한다. 이 회사는 내년 1분기 출시할 P2E 게임을 시작으로 디파이, NFT, S2E 등 블록체인 서비스를 추진해 '네오핀 토큰'을 기반으로 한 '토큰 이코노미'를 구축한다는 방침이다.2일 게임업계에 따르면 네오위즈(공동대표 문지수, 김승철)는 관계사 네오플라이(대표 오승헌)와 함께 이달 말까지 블록체인 플랫폼 네오핀을 오픈할 예정이다. 기축통화인 네오핀 토큰 아래 각 게임에 개별 코인이 존재하는 형태가 될 것으로 보인다. '위믹스'와 'C2X'를 각각 기축통화로 하는 위메이드와 컴투스·게임빌의 P2E 플랫폼, NFT 거래소 모델과 유사하다.네오위즈는 네오핀의 연내 출시 가능성을 점치면서도 NFT 거래소 론칭은 시일이 더 걸릴 것으로 보고 있다. P2E 모델과 결합시켜야 하는 만큼 기술 적용에 시간이 필요하기 때문이다.내년 1분기에 온보드할 P2E 게임의 경우 '브라운더스트', '아바', '골프 임팩트' 등 네오위즈가 서비스 중인 게임들이 주축이 된다. 대규모다중접속역할수행게임(MMORPG) 장르에 치중하지 않고 여러 장르 기반의 P2E 모델을 선보이는 셈이다.네오위즈는 P2E 게임에서 나아가 블록체인 서비스를 단일 계정으로 이용할 수 있는 '원스톱 서비스' 제공을 목표로 하고 있다. P2E 게임 온보드는 네오핀 구축의 첫 단추가 될 것이라는 의미다.특히 S2E는 게임에서 서비스로 적용 범위를 넓히는 개념이다. 네오위즈는 "게임을 하면서 돈을 버는 게 P2E라면 S2E는 서비스를 이용하면서 돈을 버는 것"이라고 설명했다. 배달, 의료 등을 비롯한 서비스를 이용하면 보상으로 '토큰'이 주어지는 개념이라고 볼 수 있다. 네오위즈는 또한 S2E가 게임이 아닌 '서비스'인 만큼 국내 블록체인 사업의 돌파구가 될 수 있을 것으로 보고 있다.문성수 한국알테어 대표가 2일 서울 코엑스에서 설립 20주년을 맞아 기자간담회를 개최하고, 향후 비전으로 '디지털 트윈'을 제시했다. [사진=한국알테어]◆한국알테어 "제조분야 MS오피스…성장 동력은 '디지털 트윈'""자동차, 전자 등 제조업에서는 현재 전세계 어디에도 없는 새로운 모델을 만드는 데 집중하고 있다. 실재하는 참고 모델이 없는 상황에서 디지털 트윈 기술이 중요한 역할을 할 수 있을 것이다"문성수 한국알테어 대표는 2일 서울 코엑스에서 열린 '설립 20주년 기자간담회'를 통해 향후 회사의 비전으로 '디지털 트윈'을 제시했다.디지털 트윈은 컴퓨터와 같은 가상 현실에 사물의 쌍둥이(Twin)을 만들어 현실에서 발생할 수 있는 상황을 컴퓨터로 시뮬레이션해 결과를 예측하는 기술이다. 특히 제조 분야에서 스마트팩토리 확산으로 다양한 데이터가 발생하고 있는데, 디지털 트윈을 활용하면 실제 공장에서 발생한 데이터를 컴퓨터의 가상공간과 주고 받을 수 있다.이와 함께 데이터를 통해 패턴을 학습하고 예측하는 인공지능(AI) 및 머신러닝 기술이 더해지면 추후 발생할 수 있는 상황이나 사고 등에 대한 예측·관리도 가능하다.지난 2001년 한국 지사를 설립한 알테어는 미국 미시건 주에 본사를 둔 시뮬레이션 소프트웨어 기업으로, 현재 현재 25개국에 86개 지사를 두고 있다.알테어는 2018년 나스닥에 상장한 데이터 분석 기업인 '데이터워치'를 인수, 현재 자사의 데이터 분석(DA, Data Analytics)제품군에 편입시켰다. 이로써 제조 시뮬레이션 기업 중에서는 유일하게 데이터 분석 및 AI, 머신러닝 기술력을 확보했다고 회사 측 설명이다.특히 문 대표는 한국알테어의 디지털 트윈의 핵심 경쟁력으로 '데이터 분석 기술력'을 강조했다. 알테어의 제조 시뮬레이션 노하우를 데이터 분석에 접목함으로써 제조 기업들이 학습시간을 최소화하면서 데이터 기반의 의사결정을 할 수 있다는 설명이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2021.12.10.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>KTB네트워크, VC 최우수 운용사 선정</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004638912?sid=101</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>이 기사는 12월 09일 16:48 “마켓인사이트”에 게재된 기사입니다.KTB네트워크가 한국벤처투자가 주최하는 ‘KOREA VC AWARDS 2021’에서 벤처캐피털(VC) 최우수 운용사에 선정되며 중소벤처기업부장관 표창을 받았다고 9일 밝혔다.KOREA VC AWARDS는 매년 혁신 벤처생태계 조성에 기여한 VC, 출자자, 스타트업의 성과를 격려하고 축하하는 행사로 올해로 12회째를 맞이했다. 행사에서는 최우수 운용사, 심사역, 관리인력, 펀드 등 총 6개 부문에 걸쳐 시상을 진행했다.KTB네트워크는 국내 1세대 벤처캐피털로 40여년의 투자 경력과 회수경험을 갖고 있다. 국내외총 300여 건의 기업공개(IPO)와 인수합병(M&amp;A) 실적을 보유하고 있고, 선제적으로 해외시장에 진출해 글로벌 시장에서의 경쟁력도 꾸준히 키워왔다는 평가를 받는다.올해 3월에는 배달의민족(우아한형제들) 투자로 잭팟을 터뜨리며 시장의 주목을 받았다. 23억원을 투자해 629억원을 회수하며 멀티플(투자 배수) 27배를 기록했다. 또 토스(비바리퍼블리카) 초기 투자자 중 현재까지 지분을 보유한 국내 유일의 VC이기도 하다.KTB네트워크는 오는 16일 코스닥 상장을 앞두고 있다. 김창규 KTB네트워크 대표는 “코스닥 상장과 함께 VC 최우수 운용사라는 영예을 동시에 누리게 돼 영광”이라며 “한국을 대표하는 글로벌 VC로 성장할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2021.12.03.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>"신한은행, `땡겨요`로 배달앱 업계 메기될 것" [금융 디지털 수장에게 듣는다]</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001001290?sid=101</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>③ 전필환 신한은행 디지털그룹 부행장1990년 신한은행에 입행한 전필환 신한은행 디지털그룹 부행장은 인력개발부, 홍보부, 오사카 지점장 등을 거치며 30년 넘게 쌓은 경험과 노하우를 신한은행의 디지털 혁신을 위해 오롯이 쏟아붇고 있다.지난해 일본 현지 법인 SBJ은행 부사장 재직 당시, 디지털 자회사인 `SBJ DNX`를 설립하고 뱅킹 시스템을 일본 현지 은행에 수출한 전 부행장. 그는 이러한 성과를 인정받아 올해 1월 디지털그룹장을 맡아 지난 1년간 뱅킹 플랫폼을 넘어 전체 디지털 생태계를 장악하기 위한 기초체력을 다져왔다.특히 전 부행장은 최근 140억원을 투자해 구축한 금융권 최초의 배달 애플레이션(앱)의 이달 말 출시를 앞두고 그 어느 때보다 분주한 나날을 보내고 있다. 배달의 민족이나 요기요의 형태의 배달 앱이지만, 가맹점 입점수수료와 광고비용을 없애고 중개수수료만 부담하도록 기존 배달 앱과 차별화했다.나아가 가맹점주들에게 단골고객 등의 데이터를 공유하고, 나아가 경영컨설팅 서비스까지 제공함으로써, 플랫폼 기업의 이익과 정보 독점 문제를 해결할 수 있는 `프로토콜 경제`를 실현하겠다는 구상이다. 인터넷은행이 금융권의 `메기`가 됐듯이 이제는 은행이 배달앱 업계의 `메기`로 나서겠다는 야심찬 포부를 내비치는 전 부행장의 복안을 직접 들어봤다.Q. 올해를 `디지털 컴퍼니 원년`이라고 일컬으셨습니다. 1년간 행내 구체적인 변화에 대해 말씀해주신다면.A. 이전에는 내부의 디지털 트랜스포메이션에 국한돼 있었다면 앞으로는 (디지털 생태계 확장을 위한) 에코 익스팬션(Eco Expansion), 금융의 생태계를 다른 기업들과 개인들과의 연결과 확장으로 가는 전략으로 갈 것입니다. 또 하나는 자체적인 내부의 플랫폼 부분도 지금까지는 디지털 트렌스포메이션이 내부적인 게 많았다라고 하면 대고객 관점에서의 그러한 확장, 이런 양 축으로 디지털 전략 방향을 잡았습니다.Q. 이달 금융권 최초로 배달 앱 서비스도 출시한다고 들었습니다. 금융을 넘어선 서비스로 보이는데요.A. 우선 브랜드는 아주 직관적으로 알기 쉬운 `땡겨요`입니다. 순수 우리말이고, "오늘 음식이 뭐가 땡기나", "오늘 한번 땡길까"라는 말에서 착안했습니다. 은행에서의 배달앱, 상당히 생뚱맞을 수 있는데 두가지 의미가 있습니다. 플랫폼을 운영하는 측 뿐만 아니라 실제 고객들과 가맹점주들, 그리고 긱 워커인 라이더들에게도 실질적인 혜택이 갈 수 있는 `프로토콜 경제`를 추구하고 있습니다. 광고료, 중개수수료도 가장 낮게 갈 것입니다. 배달앱으로 수익만을 좇기 보다는, 은행들에게 취약한 비금융 데이터를 통해 얻는 이익을 소비자, 가맹점주, 라이더들에게 나눠주고자 합니다. 또 플랫폼 기업들만 갖고 있었던 정보도 가맹점주들과 공유하고 경영컨설팅 서비스까지 제공할 예정입니다. 그동안 카카오뱅크나 토스 같은 경우가 금융시장의 메기역할을 했다면 `땡겨요`는 배달 시장에 있어서 메기 이상의 역할을 하고자 합니다.Q. 기업금융 쪽에도 영역을 넓혀가고 있는데 구체적인 계획을 듣고 싶습니다.A. 리테일 시장은 솔직히 빅테크를 넘어서려 노력하고 있는 것이 사실입니다. 하지만 리테일이 아닌 시장은 빅테크들과 동일한 선상에 있습니다. 기존의 은행들은 리스크 관리나 여신 부분의 역량 자체는 빅테크 보다 앞서고 있다고 자신할 수 있습니다. 신한은행은 국내 전사적자원관리(ERP) 시장 1위 기업인 더존비즈온과 메가제휴를 맺었습니다. 지분 참여도 했고, 이미 워킹 그룹은 가동된 지 6개월이 됐습니다. 더존비즈온의 강점은 `데이터`입니다. 12만곳에 이르는 기업 거래 고객 뿐만 아니라 회계사, 세무사들과 거래하고 있는 고객까지 합치면 200만이 넘습니다. 더존비즈온이 갖고 있는 기업데이터와 신한이 갖고 있는 금융데이터의 융합이 새로운 기업 고객들에 대한 서비스의 좋은 장이 될 것이라고 봅니다.Q. 디지털 전환에 맞춰 점포 다변화에도 적극적입니다. A. 기존 오프라인 점포는 한계가 있는 것이 분명하지만 비용효율만 따질 수는 없습니다. 대고객서비스를 중단하지 않고 고객들의 불편을 최소화시킨 상태에서 기존의 오프라인 점포를 어떻게 변형시켜 나가느냐가 점포 다변화의 지향점입니다. 고객층 분석을 통해 실질적인 금융소외계층이 발생하지 않도록 노력하고 있으며, 특히 노령층 고객들이 많이 이용하는 곳들은 그분들만의 스페이스로 바꿀 것입니다. 12월에 신림동 지점에서 첫 선을 보이게 됩니다. ATM기 같은 경우도 화면을 키웠고, 많은 메뉴를 없애 딱 4개만 넣었습니다. 기능의 명칭도 직관적으로 `돈놓기`, `돈찾기`로 바꿨습니다.Q. 내년도 구체적인 디지털 사업 계획이 궁금합니다.A. 내년에도 `디지털 생태계의 확산`에 주력할 계획입니다. 기존에는 메가기업들과 많은 제휴와 지분 투자 등을 했는데 이제는 업의 경계는 이미 없어졌습니다. 다양한 스타트업에 투자를 하고 있습니다. 또 투자만 하는 게 아니라 실질적인 BAAS(Banking As a Service, 서비스형 뱅킹) 모델을 그 기업에 집어넣으려고 합니다. 앞으로의 뱅킹은 그렇게 밖에 존재할 수 없을 것이라고 생각하고 있습니다. 새로운 앱도 나옵니다. 이 앱은 고객들이 직접 만듭니다. 우선 20여명정도 고객패널들을 모집했는데, 이분들이 현재 뱅킹앱인 `쏠(SOL)`에 대한 페인 포인트(Pain Point), 개선해야 할 부분들에 대해 의견을 내고 있습니다. 내년 가을경 서비스가 론칭됩니다.※ 전필환 신한은행 디지털그룹 부행장▲성균관대 행정학과▲1990년 신한은행 입행▲신한은행 글로벌사업본부소속 조사역▲신한은행 오사카 지점장▲SBJ은행 부사장▲(現) 신한은행 디지털그룹 부행장</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2021.12.08.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>[포커스] 출범땐 요란하더니 사라진 혜택…인터넷은행 논란</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/448/0000345964?sid=101</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>[앵커]인터넷은행, 토스뱅크는 출범 당시 파격적인  금리 혜택을  내세우며 가입자를 모집했죠. 두 달 만에  금리를  기존 은행과  비슷한 수준으로 조정했습니다. 카카오뱅크와  케이뱅크 등도 금융당국에  내놓았던 정책을  지키지  않고 있다는  지적도 제기됩니다. 가입자를  모으기 위한 '미끼'만 내놓고, 책임은 지지  않고 있는 것 아닌지, 오늘 포커스는 '인터넷은행 논란'에  맞췄습니다. [리포트]'2% 파격 금리'를 외치며 야심차게 출범했던 토스뱅크. 당시 시중은행 금리가  1%대였던 만큼  가입 신청자만 170만 명에 달하며 돌풍을 일으켰죠. 홍민택 / 토스뱅크 대표 (지난 10월)"단하나의 금리 연 2%를 만기나 최소 납입금액과 같은 어떠한 조건도 없이 제공하는" 하지만, 출범 두 달 만에 약속은 깨졌습니다. 다음달부터 1억 원이 넘는 예치금에 대해서는 2%에서 0.1%로  금리를 대폭 낮추고 카드 캐시백도 줄였습니다. 토스뱅크 관계자"대출이 안돼서 역마진이 발생하고 있는 상황에서 경영상 부담이 좀 작용을 해서" 카카오뱅크와 케이뱅크도 2017년 출범 당시에는  시중 은행들이 기피하던  중저신용자 대출을  확대하기로 약속했는데 카카오뱅크 광고"지금 중신용대출이 바뀌고 있습니다. 필요한 혜택을 더 많은 사람들에게"올해도 목표치 달성은 매우 어려워보입니다. 그동안 인터넷은행들은  기존 약속과는 다르게 원금상환이 비교적 보장된 고신용자 위주 대출로  지적을 받아왔죠. 자영업자"가봤어요 한 번. (대출) 안 되더라고요. (신용이) 나빠도 안 되고 좋아도 안 되고 그러더라고요 우리 같은 사람들은." 인터넷은행 가입자들은  '미끼용 혜택'이었다며 비판을 쏟아내고 있고  기존 금융사들도  형평성에 어긋난다고  아우성입니다.  황세운 / 자본시장연구원 실장"전통적인 은행들의 영업 행위보다는 아직까지 조금 느슨한 규제가 적용되고 있는 것 아니냐"출범 5년차 인터넷은행의 가입자는 어느새 2600만 명. 소매금융 혁신을 약속하고 출범한 뒤 소비자의 힘으로 급성장한만큼 그에 걸맞는 책임을 질 때가 아닌지, 뉴스9 포커스였습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2021.12.15.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>카카오페이, 안면인식 결제시장 진출</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002987975?sid=101</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>신한카드가 GS리테일과 신한카드 얼굴인식 결제 서비스인 신한 페이스페이를 GS더프레시 관악점과 GS25 월드컵광장점에 론칭했다. 서울 마포구 소재 GS25 월드컵광장점에서 신한 페이스페이 서비스를 시연하고 있다.카카오가 편의점, 마트 등에서 얼굴로만 물건을 살 수 있는 '안면인식 결제' 시장에 뛰어들었다. 카카오페이는 안면인식 기술을 이용한 무인매장 결제시스템 개발에 착수했다. 이르면 내년에 오프라인 상점에서 상용화될 것으로 보인다.카카오페이는 사내에서 안면인식 출입을 시범 적용하고 있다. 오프라인 얼굴인식 기술을 이용해 무인결제 시스템을 상점에서 적용한다는 방침이다. 서비스는 지갑에서 카드 또는 현금을 꺼내거나 스마트폰에 설치된, 응용프로그램인 결제 애플리케이션(앱)을 보여 주지 않아도 된다. 스마트 기기 없이 오직 얼굴만으로 물건을 살 수 있다.3차원(3D) 카메라를 이용한 3D 얼굴인식 기술도 적용한다. 1.5m 이내로 위장 여부를 확인하는 안티스푸핑 모델 개발을 통한 이상거래 탐지 기술과 얼굴 식별 기술을 고도화하고 있다. 고객의 성별과 나이까지 추정 가능한 기술까지 준비하고 있다.이보다 앞서 신한카드는 얼굴로 결제할 수 있는 '페이스 페이'를 개발해 편의점, 마트 등 오프라인 지점으로 확대 적용했다. GS리테일은 신한 페이스 페이를 적용, 슈퍼마켓과 편의점에 얼굴로만 결제 가능한 서비스를 도입했다. 페이스 페이는 무인 등록기에 결제 카드와 얼굴 정보를 최초 1회 등록하면 전용 계산대에서 얼굴 인식만으로 결제할 수 있다. 결제를 위해 카드를 주고받거나 스마트폰 결제 앱을 구동할 필요도 없다. 페이스페이 결제만으로 지에스앤포인트(GS&amp;POINT)로 자동 적립되는 서비스도 선보일 예정이다.해외는 이미 얼굴인식 기반의 결제 서비스를 제공한다. 중국과 러시아는 대중교통에 안면인식 결제를 도입했다. 러시아는 모스크바 시내 240개 역에 안면인식 기술을 사용하는 요금 지불 시스템을 개시했다. 중국에서도 마스크를 벗지 않고 얼굴인식을 통해 지하철 탑승요금을 결제하는 시스템을 상용화했다.안면인식 기술은 무인화·언택트라는 트렌드에 가장 부합하는 결제 혁신 모델로 꼽힌다. 안면인식을 통한 본인확인 기술 확보에도 다수 금융사가 뛰어든 상황이다. 부산은행, 대구은행, 토스증권 등 10여개 금융사는 안면인식 기술을 활용한 실명확인서비스를 금융위원회 혁신금융서비스로 지정받았다. 카카오뱅크의 경우 최근 딥러닝을 활용해 자체 개발한 얼굴인식기술이 한국인터넷진흥원(KISA)의 '바이오인식시스템 시험인증'을 통과했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2021.12.09.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>채용관리 그리팅, 43억 시리즈A 투자 유치···알토스벤처스 참여</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0003995099?sid=101</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>[서울경제] 기업용 채용 관리 솔루션 ‘그리팅(Greeting)’을 운영하는 두들린이 알토스벤처스를 비롯한 다수의 벤처캐피털(VC)들로부터 43억원 규모의 시리즈A 투자를 유치했다고 9일 밝혔다. 이번 투자에는 알토스벤처스가 새롭게 참여했다. 기존 투자자인 퓨처플레이, 프라이머, 슈미트, 동훈인베스트먼트도 후속 투자로 참여했다. 이번 시리즈A 투자를 주도한 알토스벤처스는 쿠팡과 크래프톤, 우아한형제들(배민), 직방, 당근마켓, 비바리퍼블리카(토스)를 비롯한 국내 유수의 정보기술(IT) 기업에 투자한 곳이다.그리팅은 인재 채용 과정에서 기업이 겪는 어려움을 해결하는 원스톱 채용 솔루션이다. 다수의 채용 플랫폼을 통해 지원한 이력서를 한 번에 열람하고 관리할 수 있다. 특히 각 지원자별 평가, 일정 조율, 합격 유무 통보를 그리팅으로 확인할 수 있어 인재 채용 담당자와 경영진의 복잡한 커뮤니케이션 과정을 줄여준다.VC들은 그리팅이 채용공고부터 합격통보에 이르는 전체 채용 과정을 효율화한다는 점을 높이 평가했다. 박희은 알토스벤처스 파트너는 “그리팅은 전체 채용 과정에서 회사의 비용과 시간을 줄이고 효율적인 의사결정이 가능하도록 돕는다”며 “고객의 목소리에 집중하면서 필요한 기능을 빠르게 업데이트하고 고객반응을 체크하며 개선하는 팀의 역량을 믿고 투자를 결정했다”고 밝혔다.두들린은 이번 투자유치를 계기로 그리팅 서비스를 함께 만들어 갈 인재 채용과 서비스 고도화에 집중할 계획이다. 이태규 두들린 대표는 “기존 고객들의 피드백을 빠르게 수렴하고 제품을 개선해 나가는 구조를 만들 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2021.12.06.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>이규호 신사업, 코오롱 핀테크로 수입車 마케팅 강화한다</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004679554?sid=101</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>왼쪽이 이규호 코오롱 부사장, 오른쪽이 이승건 토스 대표./사진=코오롱글로벌코오롱글로벌 자동차부문장(부사장)이 수입차 전자결제서비스 도입 등 핀테크를 적용, 고객 편의를 한 층 높인다. 수입차 브랜드 포트폴리오도 지속 강화하고 있어 관련 실적 성장이 기대된다. 국내 수입차 시장을 선도해 온 코오롱글로벌 자동차부문은 6일 모바일 금융서비스 토스의 운영사 비바리퍼블리카와 전자결제서비스 도입 및 온라인 광고 마케팅 서비스 협력을 위한 전략적 파트너십 MOU를 체결했다. 코오롱글로벌은 이번 MOU를 통해 토스페이먼츠의 편리하고 안전한 전자결제서비스를 도입할 수 있게 됐다. 또 2100만 사용자를 보유한 비바리퍼블리카와 다양한 온라인 마케팅 협업을 진행할 예정이다. 양사는 향후에도 고객 편의 강화 방안을 찾기 위해 지속적으로 긴밀히 협력한다. 코오롱글로벌은 지난 30년간 국내 프리미엄 수입 자동차 유통 시장을 이끌어오며 풍부한 경험과 노하우를 확보했다. BMW, 미니, 롤스로이스, 아우디, 볼보에 이어 지난달 지프의 신규 딜러사로 선정돼 수입차 브랜드 포트폴리오도 지속 확대하고 있다. 비바리퍼블리카는 금융소비자 친화적인 다양한 서비스를 선보이며 국내 핀테크 시장을 선도하고 있다. 전자지급결제대행(PG), 은행, 증권 등 다양한 금융 영역에서 지속적인 혁신을 이어나가고 있다.코오롱글로벌 관계자는 "핀테크 서비스 결합으로 고객들에게 차별화된 혜택을 제공하며 양사의 역량이 시너지를 낼 것으로 기대한다"며 "이번 MOU를 새로운 고객가치 창출을 위한 미래 사업 추진 계기로 삼을 것"이라고 밝혔다.이날 협약식에는 이규호 코오롱글로벌 자동차부문장과 전철원 BMW본부장, 비바리퍼블리카 이승건 대표와 토스페이먼츠 김민표 대표 등이 참석했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2021.12.03.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>[이슈 프리즘] 핀테크의 도발은 계속 돼야한다</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004636186?sid=110</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>"금소법 이후 플랫폼 규제 강화에용기와 혁신 노력 꺾이면 안돼도전정신으로 '유니콘' 더 만들어야"장진모 마켓부문장 겸 금융부장“규제의 불확실성이 핀테크산업의 혁신적인 아이디어 출현을 막고 있습니다.”한국핀테크산업협회장을 맡고 있는 류영준 카카오페이 대표가 며칠 전 협회 기자간담회에서 작심발언을 쏟아냈다. 수년간 규제완화와 특례를 주며 육성해 오더니 갑자기 ‘동일기능·동일규제’ 원칙을 꺼내 규제의 칼날을 세우는 것에 대해 서운한 감정을 드러낸 것이다. 그는 “금융소비자보호법 시행으로 플랫폼 서비스가 획일화되고, 이대로 가다간 핀테크 후진국이 될 수 있다”고도 했다.핀테크 업계가 부글부글 끓게 된 건 두 달 전 금융위원회가 금소법 시행을 앞두고 플랫폼 기업들이 해오던 금융상품 비교 추천 서비스에 브레이크를 걸면서다. 당국은 상품 추천이 단순 광고가 아니라 ‘중개’ 행위에 해당한다는 유권해석을 내리고 별도의 라이선스를 취득할 때까지 서비스를 금지했다. 핀테크들은 부랴부랴 금융감독원에 대출모집인 등록을 거쳐 어렵게 서비스를 재개했다.그런데 보험상품은 아직 막혀 있다. 보험대리점 자격을 따야 하는데 현행법상 플랫폼(전자금융업자)은 보험대리점 자격을 취득할 수 없기 때문이다. 보맵 해빗팩토리 등 보험에 특화된 핀테크들은 큰 타격을 입고 있다.핀테크 업계엔 ‘아닌 밤중에 홍두깨’였지만 당국의 조치 배경도 충분히 수긍이 간다. 불완전 판매로 ‘라임펀드 사태’ 같은 대형 금융사고가 핀테크에서 터지지 말란 법은 없다. 그 여파로 규제가 더 강화되고, 혁신 동력이 떨어지는 악순환을 미리 차단하기 위해서라도 동일규제가 불가피하다는 것이다. 빅테크로 불리는 카카오 토스 등 대형 플랫폼이 금융사를 위협할 정도로 급성장하자 당국이 ‘속도조절’에 나섰다는 평가도 있다.핀테크와 정부의 묘한 긴장 속에서 나온 류 대표의 발언이 눈길을 끈 것은 당국에 각을 세운 ‘용기’ 때문만은 아니다. 규제의 틀 안에서 안주하기를 거부하는 국내 핀테크들의 도전 DNA가 아직 살아있다는 걸 보여주기 때문이다. 간편결제·송금, 마이데이터, 온라인투자연계금융(P2P), 조각투자, AI투자자문 등에서 예비 유니콘기업(기업가치 1조원 이상 스타트업)들이 즐비하다. 모두 창업자들의 끊임없는 도전과 설득, 금융당국의 양보(규제완화)가 빚어낸 결실이다.금융과 기술이 결합한 핀테크도 결국은 금융이다. 남의 돈을 밑천으로 사업을 하는 금융업은 인허가 등 엄격한 규제가 불가피하다. 그 강도가 심하면 ‘관치금융’으로 비판받지만, ‘관(官)은 치(治)하기 위해 존재한다’는 말이 아직도 통하는 곳이다. 그래서 금융사 경영진이 당국을 직접 비판하는 일은 금기시돼 있다. 법 규정보다 무서운 ‘괘씸죄’에 걸릴 수 있기 때문이다.비근한 예가 토스뱅크의 ‘대출 셧다운’ 사태 아닌가 싶다. 지난 10월 초 출범한 토스뱅크는 열흘 만에 대출한도 5000억원을 소진했지만 당국은 지금까지 추가 한도를 주지 않고 있다. 가계대출 총량규제 탓으로 치부하기엔 신생 은행 입장에서는 너무 가혹한 조치다.토스는 출범 때 아무 조건 없이 연 2% 금리를 주는 수시입출금식 예금을 내놓았다. 시중은행이 연 0.1% 안팎인 점을 감안하면 파격이고, 기존 은행을 겨냥한 ‘도발’이었다. 리스크 관리에 대한 우려도 제기됐다. 당국은 출혈 마케팅을 우려했지만 토스는 굽히지 않았다고 한다. 결과는 참혹하다. 받아놓은 예금이 2조원을 훌쩍 넘는데도 대출을 더 이상 하지 못해 역마진이 생기고 있다. 토스의 ‘판단 착오’일 수 있지만, 예대금리의 구조를 깨보겠다는 발상의 전환과 도전정신은 충분히 높이 살 만하다.당국에 미운털이 박히고, 괘씸죄가 두렵더라도 핀테크의 도발은 계속돼야 한다. 그래야 혁신보다 안정을 중시하는 금융당국을 움직일 수 있다. 늘 그래왔듯이 시장이 먼저 치고 나가야 당국의 발걸음도 빨라진다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2021.12.14.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>고무줄 수신금리, 낚시성 우대금리…'뿔난' 금융소비자들</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005014974?sid=101</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>토스뱅크, '조건 없는 예금 2%' 구조 변경내년부터 1억원 이상 초과분은 연 0.1%로고금리 혜택에  복잡한 조건 제시하는 곳도금융당국 "오인 우려 있고 민원 많으면 지도"서울 시내 한 은행 외벽에 붙은 예적금 관련 안내문. /문호남 기자 munonam@높은 금리로 수신자금을 끌어들인 뒤에 다시 금리를 낮추거나, 가입 과정에서 여러 조건을 요구하는 은행들의 꼼수 마케팅에 금융소비자들의 불만이 이어지고 있다. 대출금리가 일괄적으로 비싸지는 상황에서 예·적금금리 혜택을 제대로 누리기 어렵다는 목소리다. 고무줄·낚시성 금리 관행이 반복되면 결국 소비자들의 불만과 피해만 늘어난다는 비판이 제기된다.14일 금융권에 따르면 최근 한 인터넷 커뮤니티에는 토스뱅크에서 갈아탈 예금상품을 문의하는 글이 부쩍 늘어났다. 토스뱅크 수신금리가 다음 달 5일부터 구간별로 차등 적용됨에 따라 예치했던 돈을 다시 빼내려는 이들이 늘어난 영향으로 보인다.이달 초 토스뱅크는 예금 잔액이 1억원을 넘어가면 초과분에 0.1%로 대폭 낮아진 금리를 부여한다고 밝혔다. 총 2억원을 토스 통장에 넣어둔 경우 1억원에 2%의 금리가, 나머지 1억원에 0.1%가 적용되는 방식이다. 역마진 상황 때문에 어쩔 수 없다는 입장이지만 ‘조건 없는 예금 2%’라는 출범 당시 문구가 2달 만에 무색해진 모양새다.당장 토스뱅크를 이용하는 이들에게서 볼멘소리가 나온다. 100만여명이 이용하는 유명 재테크 커뮤니티에 글을 올린 김치현씨(43·가명)는 "싹 다 긁어 토스로 옮겼는데 출범한 지 얼마 되지 않아 수신금리를 ‘파격적으로’ 내린다니 황당하다"며 "파킹통장 금리 구조를 이렇게 빠르게 바꿔버리는 은행은 처음"이라고 지적했다.성지현씨(38·가명)도 "토스뱅크에서 야심차게 수시입출금 상품에 2% 금리를 적용한다고 해 좋아했던 게 불과 며칠 전"이라면서 "얼마 지나지 않아 적용금리를 바꾼다는 공지를 내려서 비슷한 금리에 한도가 더 높은 저축은행 파킹통장으로 돈을 다시 옮길 생각"이라고 털어놨다.고금리 혹해 가입하니…복잡한 조건 와르르고금리를 제공한다고 공지하면서 복잡하거나 지키기 어려운 조건을 제시하는 점도 소비자들의 원성을 사는 부분이다. 급여이체 통장을 바꾸거나 제휴 카드사에서 신규 신용카드를 개설한 뒤 일정 금액을 매달 써야 하는 식이다. 월 한도가 지나치게 적거나 가입기간이 짧은 경우도 있다.금융당국에서도 금융사의 우대금리 금융상품 판매와 관련한 민원이 이어진다며 금융소비자의 세심한 주의가 필요하다고 당부했다. 금융감독원에 따르면 지난해 1월부터 올해 9월까지 출시된 예·적금 특판은 총 58종 225만 계좌(10조4000억원)다. 만기가 도래한 고객에게 지급된 금리는 최고금리의 78%로 절반 이하인 상품도 2개다.금감원 관계자는 "시장에서 판매되는 금융상품에 대한 모니터링·분석업무를 강화하겠다"며 "소비자 오인 우려가 있고 민원이 많이 발생하는 상품은 안내자료 작성 내실화와 설명의무 충실화를 지속적으로 지도할 계획"이라고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2021.12.13.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>[뉴스썰기] 국민의힘 '마이크 토스' 해명…'팩트로 때려봅니다'</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/437/0000283438?sid=100</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>[강지영 아나운서]지난주 윤석열 후보의 이른바 마이크 토스 논란, 저희가 금요일에 뉴스썰기에서 차근차근 썰어드렸는데, 또 추가로 다룰 내용이 나왔나 봐요?[이성대 기자]그렇다기보다는 말씀하신 것처럼 지난주 금요일날, 저희가 넘어온 마이크 다시 넘기기라는 키워드로 직접 뉴스썰기에서 다뤄줬었죠. 그런데, 이 사안이 주말을 통해서 상당히 관심을 받고 화제가 됐어요. 제가 이제 보니까 99 만회라고 했지만, 들어오기 직전에 확인을 해보니까 동영상 사이트에서 이미 조회수가 100만을 넘어갈 정도였습니다. 그만큼 이 사안이 폭발력이 크다, 관심이 많다라고 볼 수 있는거고, 또한, 다르게 이야기하면, 논란이 크다라고 볼 수 있는거죠. 그러다 보니까, 국민의힘에서는 '팩트를 때린다.'라는 아까 보신 영상을 올린 겁니다. 그러면서 해명을 한 거고 이준석 대표도 사실과 다르다면서 적극적으로 해명에 나섰습니다.[강지영 아나운서]혹시 저희 뉴스썰기 내용에 대해서 팩트로 때려주시겠다는 것은 아니었죠?[이성대 기자]그렇습니다. 일단, 애초에 윤 후보가 마이크를 넘겼다라는 이 논란의 시초가 뭐냐면, 한 온라인에서 윤 후보가 마이크만 넘기고, 자기는 아무 말도 안 했다라는 식의 온라인 게시물이 나오면서 화제가 된 건데, 그거에 대한 반박인 겁니다. 국민의힘에서 내놓은 거는. 저희는 뉴스썰기에서는 윤 후보도 마이크를 먼저 넘겼지만, 발언을 다 했고, 또 발언의 분량들이 이 후보와 비슷했다. 그 지점이 이상하다. 이런 식의 분석들을 했기 때문에 저희를 팩트로 때린 건 아니고요. 그 부분은 분명히 할 건데, 말 나온 김에 한번 그 해명들에 대해서 간단한 팩트 다시 한번 짚어보면, 첫 번째 이준석 대표가 이렇게 이야기했어요. 정확히 기억하는데, 두 번 정도 먼저 마이크가 나한테 왔다. 나머지는 후보가 답변하고 제가 보충을 했다고 이야기했어요. 두 번 왔다고 했죠. 두 번, 하지만 세 번 있었습니다. 세 번. 당시 총 8명이 발언했습니다. 질문자가 7명이었다고 이야기를 했었죠. 질문자가 윤석열 후보한테 마이크를 넘기고, 그 넘겨받은 뒤 먼저 이야기하지 않고, 이 대표에게 다시 넘긴 게 총 세 번이었습니다. 이것은 영상을 확인해보면 바로 나오는 거고요. 심지어 마지막 정리 발언도 윤 후보에게 먼저 이야기를 하라고 했지만, 윤 후보가 이준석 대표에게 양보를 했었죠. 그 장면 다시 한번 보고 가겠습니다.(* 자세한 내용은 영상을 통해 확인하실 수 있습니다.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2021.12.03.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>토스뱅크 통장, 내년에도 '연 2% 금리' 유지</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012832448?sid=101</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>1억원 초과 예치금에는 연 0.1% 금리 적용토스뱅크[토스뱅크 제공](서울=연합뉴스) 오주현 기자 = 인터넷 전문은행 토스뱅크는 내년에도 '토스뱅크 통장'의 금리를 연 2%로 유지한다고 3일 밝혔다.    다만 내년도 연 2% 금리 혜택은 1억원 이하 예치금에 적용된다.    1억원을 초과하는 금액에 대해서는 연 0.1% 금리가 적용된다.     예를 들어, 1억1천만원을 토스뱅크 통장에 예치한 고객은 1억원까지는 연 2% 금리를 적용받고, 초과분인 1천만원에 대해서는 연 0.1% 금리가 적용된다.     토스뱅크 통장은 일반 예·적금 상품과 다른 수시입출금 상품으로, 단 하루만 돈을 맡겨도 이자를 받을 수 있다.    고객은 통장에 맡긴 금액과 기간에 따라 매월 셋째 주 토요일 이자를 일할 계산해 지급받는다.     토스뱅크 관계자는 "금리 상승기임에도 예·적금과 달리 수시입출금 상품인 '토스뱅크 통장'의 시장 경쟁력은 뛰어나다"며 "약 99%에 달하는 고객의 경우 기존과 변함없는 혜택을 누릴 수 있을 것으로 전망한다"고 말했다.    viva5@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2021.12.15.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>방역패스 이틀째 또 네이버 QR 장애…원인은 과부하</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/241/0003177734?sid=105</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>[일간스포츠 정길준]       '방역패스'(백신접종증명서·음성확인서) 본격 시행 이틀째에도 네이버 QR체크인에 오류가 발생해 전국 이용자가 혼란에 빠졌다. 인증·발급 요청 급증에 따른 시스템 과부하가 원인이었다.    14일 네이버 관계자는 본지에 "오전 11시 40분경 장애가 발생해 오후 12시 17분에 복구를 완료했다. 접종증명서를 불러오는 과정에서 응답 지연이 발생한 것으로 확인됐다"며 "보다 자세한 원인은 당국과 파악 중이다"고 말했다.    이날 영업점에 사람이 몰리는 점심시간에 네이버 앱 QR체크인을 실행하면 '데이터를 불러오지 못했다'는 메시지가 떴다.    다른 앱은 시간이 걸렸지만 정상적으로 QR코드를 불러왔다. 이에 질병관리청(이하 질병청)은 곧바로 네이버를 제외한 쿠브(전자예방접종증명)·카카오·토스·패스 앱을 이용할 것을 안내했다.    질병청에 따르면 방역패스를 그동안 사용하지 않았던 이용자들이 접종증명서 발급에 필요한 인증 절차를 동시다발적으로 수행하면서 서비스에 무리가 갔다.    최초 발급받기 단계가 아닌 QR코드 생성 과정은 트래픽을 유발하지 않기 때문에 장애를 피할 수 있다. 편한 시간에 네이버·카카오 등에서 접종증명서를 미리 발급받을 것을 권장하는 이유다.    방역패스 시행 첫날인 지난 13일에도 QR코드 생성이 원활하지 않아 많은 이용자가 불편을 겪었다. 네이버뿐 아니라 카카오 등에서도 QR체크인이 먹통이 됐다.    질병청은 긴급 조치로 야간에 서버 증설 및 서비스 최적화 작업을 수행했다. 이에 따라 원활하게 접종증명서가 발급될 것으로 기대했지만, 또다시 문제가 나타난 것이다.    정부는 서버 장애로 인해 방역패스를 확인하지 못한 경우에는 과태료와 같은 벌칙을 부과하지 않겠다는 입장이다. 다만 QR코드를 스크린샷으로 보관했다가 제시하는 것은 허용하지 않는다.    방역패스 대상 시설은 식당·카페·학원·영화관·공연장 등이다. 위반 사항이 적발되면 이용자는 10만원, 사업자는 1차 적발 시 150만원의 과태료를 물어야 한다.    정길준 기자 jeong.kiljhun@joongang.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2021.12.02.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>토스증권, 해외주식 거래 서비스 개시</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004748993?sid=101</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>사진=토스증권 제공 [파이낸셜뉴스] 토스증권은 해외주식 서비스의 대고객 전체 오픈을 시작한다고 2일 밝혔다.   토스증권에 따르면 이번 해외주식 서비스 오픈으로 투자자들은 토스증권 모바일트레이딩서비스(MTS)에서 520여 종의 미국 주식과 상장지수펀드(ETF)에 투자할 수 있게 된다.   서비스 오픈에 앞서 11월 한 달간 회사가 진행한 해외주식 서비스 사전신청에는 약 70만명의 고객이 몰렸다. 그중 64.2%는 20~30대 젊은 투자자로 집계됐다. 40대 투자자 비중은 23.9%로 그 뒤를 이었다.   토스증권 측은 해외주식 거래서도 쉽고 간편한 경험을 제공하는 서비스 철학을 구현했다고 설명했다. '구글'을 검색하면 구글을 서비스하는 알파벳 기업 정보와 해당 종목이 포함된 ETF, 관련 섹터 종목·뉴스 등이 모두 한 페이지에 나오게 하는 식이다.   또 자체 개발한 해외뉴스 인공지능(AI) 번역 엔진을 장착했다. 토스증권 측은 "이 엔진은 토스증권 딥러닝 전문가들이 직접 만든 주식 관련 뉴스 특화 번역 엔진"이라며 "500만건 이상의 번역 데이터 학습을 통해 해외 뉴스를 공급받는 즉시 실시간 번역해 제공한다"고 전했다.   메뉴 구성은 브랜드 탭, 투자자 탭 등으로 구성됐다. 브랜드 탭에선 식음료, 의류, 정보기술(IT), 전기차 등 키워드 기반 대표 종목을 확인할 수 있다. 투자자 탭에선 워런 버핏, 캐시 우드 등 유명투자자들의 투자 철학과 보유 종목 리스트를 소개하는 콘텐츠가 제공된다.   아울러 주식 매매 과정에서 투자자들은 '준비가 필요 없는' 간편한 거래를 할 수 있단 것이 토스증권의 설명이다. 토스증권 측은 "외화를 미리 환전하지 않아도 주문과 동시에 자동 환전돼 간편하게 매수할 수 있다"며 "정규장 전후 예약주문이 가능해 시차를 고려 않고도 원하는 가격을 설정해 거래할 수 있다"고 밝혔다. 실시간 시세도 이벤트 참여 여부나 전월 거래 이력과 관계 없이 누구나 무료로 확인할 수 있다.   윤민정 토스증권 프로덕트 오너(PO)는 "토스증권을 통해 국내주식을 경험한 사용자들의 경험을 훼손하지 않으면서 자연스럽게 투자 포트폴리오를 해외로 확대할 수 있도록 설계하는데 중점을 뒀다"며 "기존 고객들은 별도의 앱 설치나 해외주식 투자를 위한 추가 계좌 개설 없이 손쉽게 해외주식 투자에 진입할 수 있다는 점 역시 차별화 포인트"라고 말했다.   한편 토스증권은 내년 초까지 투자가능 주식과 ETF를 5000여개 종목으로 확대하고 내년 1·4분기 중 해외주식 소수점 투자를 선보일 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2021.12.02.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>尹 "확실한 혁신, 규율할 필요 없어" vs 李 "금지사항 빼고 다 해라"</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000640166?sid=105</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>코리아스타트업포럼, 대선후보 초청 '스타트업 정책 토크' 개최이재명 더불어민주당 대선후보에 이어 윤석열 국민의힘 대선후보가 스타트업과 만났다.코리아스타트업포럼이 이재명, 윤석열 대선후보를 초청해 '스타트업 정책 토크'를 개최했다. 사진은 스타트업 정책 토크 관련 이미지. [사진=코리아스타트업포럼]규제 개혁을 요구하는 스타트업의 요구에 윤 후보는 '확실한 혁신기업이면 규율할 필요가 없다'는 점을 강조했고, 이 후보는 '금지사항 빼고 다 하라'는 입장을 보였다.2일 코리아스타트업포럼(코스포)은 서울시 중구 소재 시그니쳐타워 아이콘루프 라운지에서 윤석열 국민의힘 대선후보를 초청해 '스타트업 정책 토크'를 개최했다. 이날 행사에는 윤 후보와 함께 최성진 코리아스타트업포럼 대표, 이승건 비바리퍼블리카(토스) 대표, 김종협 아이콘루프 대표, 한상우 위즈돔 대표, 김준태 왓섭 대표, 이수지 디플리 대표, 남성준 다자요 대표, 박지현 체킷 대표 등이 참석했다.앞서 코스포는 지난 11월 8일에도 이재명 후보를 초청해 '스타트업 정책 토크'를 개최했다. 당시 이 후보와 함께 최성진 코스포 대표, 김슬아 컬리 대표, 안성우 직방 대표, 이승건 토스 대표, 이효진 8퍼센트 대표, 김형년 두나무 부사장, 김현숙 맘이랜서 대표, 이경일 솔트룩스 대표, 최예림 에이아이닷컴 대표, 김재원 엘리스 대표, 박태훈 왓챠 대표, 김범준 우아한형제들 대표, 김희정 째깍악어 대표, 전상열 나우버스킹 대표, 한상우 위즈돔 대표, 김세영 피에스엑스 대표 등이 참여했다.스타트업 관계자들은 두 대선후보에 공통으로 스타트업 성장을 위해 규제 혁신이 필요하다고 강조했다. 국내 규제 환경이 법률·정책상으로 허용하는 것을 구체적으로 나열한 뒤 모두 금지하는 포지티브 규제인 점이 스타트업의 성장을 가로막고 있다는 설명이다.이런 스타트업의 하소연에 대해 당시 이 후보자는 "정부의 기본 규제 방식이 법률이나 정책에서 금지한 행위가 아니면 모두 허용하는 네거티브 방식으로 바뀔 필요가 있다"라고 화답했다. 금지되는 것을 정하고 그 외에는 자유롭게 허용해, 스타트업이 성장할 수 있도록 도와야 한다는 취지다.다만 이 후보자는 "혁신을 우리가 응원하되, 혁신의 결과로 독점을 이용한 과도한 이익 추구는 지양해야 한다"라며 강조하며 ▲원스톱 지원 정책 ▲부정 지원 적발 시 원 스트라이크 아웃 등 구체적인 정책 방향도 제시했다.윤 후보자 역시 "혁신만이 저성장을 극복할 수 있다"라며 스타트업의 중요성을 피력했다. 규제 개혁 필요성에 대해서도 공감하면서도 "혁신적인 기업에 대해서만 규제를 완화해야 한다"라는 뜻을 밝혔다.그는 "규제를 받은 거대 금융기관들이 규제를 받지 않고 편하게 돈을 버는 플랫폼 사업자들을 가만히 놔두지 않을 것"이라며 "확실한 혁신을 보여주면 정부가 편을 들어줄 것"이라고 전했다.또한 두 후보 모두 스타트업계와의 지속적인 소통을 통해 정책 방향 및 정부의 나아갈 방향을 결정하겠다고 약속했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2021.12.10.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>[인터뷰] 공인인증서 폐지 1년··· 인증 통합 중개 서비스가 뜬다</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002115076?sid=105</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>이니텍 김대현 팀장(왼쪽), 배무건 상무(오른쪽)[디지털데일리 이종현기자] 공인인증제도 폐지를 골자로 하는 개정 전자서명법이 시행된지 1년(2020년 12월 10일 시행)이 지났다. 기존 공인인증서는 공동인증서로 이름을 바꾸며 여느 인증 서비스와 동등한 위치에서 경쟁하기 시작했다.   네이버, 카카오, 이동통신3사, NHN, 국민은행 등 각 기업이 공인인증서의 빈자리를 차지하기 위해 각축전을 벌이는 데 시선이 집중됐는데, 법 개정 이후 실제 혜택을 누리고 있는 곳은 인증서 기업이 아닌 인증 중개 서비스 제공 기업이라는 말이 나온다.    KT그룹의 금융 보안기업 이니텍의 배무건 보안사업본부장(상무)는 &lt;디지털데일리&gt;와의 인터뷰에서 “기업들은 고객들이 요구하는 인증서를 시스템에 연동해야 한다. 그런데 이게 3개, 4개 이상이 된다면 각 인증서 업체들과 개별적으로 협의하는 것은 어려워진다”고 말했다.   자연히 여러 인증 서비스를 한 번에 중개해주는 플랫폼에 대한 수요가 생겨났다. 이니텍의 인증 통합 플랫폼 ‘이니허브’가 대표적이다.   ◆늘어나는 사설인증으로 복잡성 증가··· 대안으로 떠오른 인증 통합 플랫폼   이니허브는 여러 인증수단을 통합 관리하고, 사용자가 원하는 인증수단 선택 사용이 가능케 하는 플랫폼이다. 손쉽게 다중인증(Multi Factor)을 적용할 수 있도록 해 보안을 강화한 것이 특징이다.   배 본부장은 “여러 인증수단을 각각 구축하려면 상당한 시간과 비용을 들여야 한다. 정책의 변화나 신규 인증수단 도입 등에 대응하는 것이 어려울 수밖에 없다. 반면 이니허브의 경우 이니텍이 각 인증 사업자와 협력하고 있기 때문에, 인증수단 추가나 인증시스템에 대한 변화 등에 보다 빠르고 유연하게 대응할 수 있다”고 전했다.   가령 시스템에 인증수단을 적용하려면 각각의 인증수단이 시스템내부의 여러 애플리케이션(앱)과 연동되는 복잡한 구조를 띄게 된다. 반면 이니허브와 같은 인증 통합 플랫폼을 이용할 경우 공개키기반구조(PKI)나 생체인증 등이 이니허브에 연결되고, 이니허브가 각 앱과 연결됨으로써 복잡성을 해소할 수 있게 된다.    이니허브는 전통적인 방식의 구축형 모델과 사설인증 서비스를 중개하는 서비스형 모델로 제공되고 있다. 도입 및 관리 편의성과 보안성에 더해 사용자의 사용성도 높일 수 있다는 것이 배 상무의 설명이다. 이니허브  ◆신사업의 기반으로 활용 가능   배 상무는 “향후 이니텍이 제공하는 싱글사인온(SSO)과 이니허브를 연계하는 등의 신사업도 가능하리라 본다”고 전했다.    예로 든 것은 기업·기관 서비스에 로그인할 때 아이디, 패스워드나 인증서를 사용하는데 이 과정을 모두 이니허브로 대체하는 방식이다. 확장성이 뒷받침된다면 복수 서비스의 아이디, 패스워드 관리에 따른 보안 위협 등을 해결할 수도 있다.   마이데이터를 비롯한 데이터 활용 기조 역시 이니텍에게는 기회로 작용한다. 배 상무는 “현재 인증 사업자들은 마땅한 수익모델(BM)이 없다. 돈을 벌지도 못하면서 고객 확보에 혈안인 이유는 인증 사업을 하면서 얻은 영향력 및 데이터가 향후 유용하게 쓰일 것이라는 기대 때문”이라고 설명했다.   이어서 그는 “인증 사업자는 자사의 서비스를 이용한 고객 데이터만 확보할 수 있는 반면, 이니허브와 같은 중개 플랫폼은 보다 다양한 데이터를 손쉽게 확보할 수 있다. 마이데이터와 같은 데이터 활용 흐름이 가속화할 경우 데이터에 기반한 다양한 혁신 서비스를 선보일 수 있으리라 기대한다”고 부연했다.   한편 이니텍은 전자서명인증시스템 구축 사업 분야에서도 순항 중이다. 지난 11월 토스, 뱅크샐러드는 전자서명인증사업자 인정을 획득했는데, 모두 이니텍이 진행한 사업이다. 현재 KT의 전자서명인증사업 심사도 진행 중인데, 독자적으로 인증 사업을 하고자 하는 기업이 늘어남에 따라 이니텍을 찾는 기업은 더욱 늘 것으로 전망된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2021.12.12.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>"넵!" 대신 "왜?" 한국 기업 충격요법…"선배도, 공채 우대도 폐지"</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004682216?sid=101</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>[편집자주] 승진 연한 축소, 절대 평가 강화, 과감한 발탁과 보상...연공서열과 안정성으로 대변되던 제조업, 금융 등 기존 대기업들의 인사와 평가, 보상 관행이 바뀌고 있다. 공정과 수평적 조직 문화를 중시하는 MZ세대에 맞춘 변화지만 빅테크기업, 플랫폼기업, 스타트업 등 젊은 기업들로 빠져나가는 인재들을 지키기 위한 고육지책이기도 하다. 재계에 불어닥친 인사, 보상 시스템의 변화와 그 의미를 짚어본다.[[MT리포트]판교발 인사 혁신, 골리앗이 움직인다-①]"삼성에 와서 가장 놀란 것은 상사의 지시를 받으면 '왜'라고 질문하지 않는다는 점이다. 실리콘밸리에 이렇게 질문하지 않는 기업이 있다면 살아남기 힘들다."삼성전자의 4년차 한 외국인 직원은 12일 임원인사와 맞물려 연공서열 파괴와 능력 우대에 초점을 맞춘 인사제도 개편과 임원 인사가 이어지는 데 대해 이렇게 촌평했다. 최근 삼성전자를 비롯해 국내 주요 기업에 불어닥친 조직문화 개편 바람의 정곡을 찌르는 한마디다.직급체계와 호칭 단순화, 승진연한 폐지, 절대평가 확대 등을 골자로 한 기업들의 인사제도 개편을 두고 한편에서는 파격이라는 평가가 나오지만 다른 쪽에선 "한발 늦었다"는 얘기가 이어지는 것도 이런 지점에서다. 구글이나 애플이 격의 없는 소통과 치열한 토론을 통해 기술과 지식의 융·복합으로 대변되는 4차 산업혁명 시대의 글로벌 ITC(정보통신기술) 시장에서 치고나갈 때 국내 기업들은 소위 상명하복식 관료주의에 젖어 실기(失期)한 부분이 적잖다는 것이다.이경묵 서울대 경영학과 교수는 "'질문하는 조직'이 가장 중요한 생존전략이라는 것을 기업들이 깨닫기 시작한 것"이라며 "정체 위기에 놓인 기업 문화 전반에 변화를 주는 작업에 좀더 속도를 내야 한다"고 말했다.━"'관리의 삼성' 꼬리 자른다"…절박한 변화━인사제도는 국내 기업문화를 선도한다는 평을 들어온 삼성전자에서도 그동안 유독 아쉬운 대목으로 꼽혔다. 올 들어 잇따른 제도 개편 역시 MZ세대(1980년대에서 2000년대 초반 태어난 밀레니얼 세대와 Z세대) 직원들의 성토에 떠밀린 측면을 부인하기 어렵다. 워라밸(일과 삶의 균형)과 공정, 수평적 문화에 민감한 20·30세대 젊은 직원들이 서열에 민감한 한국사회에 균열을 내고 있다는 얘기다. 직급 체계를 단순화하고 수평적 조직 문화 조성에 힘쓰는 것은 삼성만이 아니다. 현대차·SK·LG 등이 사원·대리·과장·차장·부장으로 이어지는 반세기의 직급 체계를 2~3단계로 축소했다. 직원간 호칭을 '매니저'나 '님', '프로'로 통일한 곳도 있다. 보수적인 은행권도 이런 분위기에 동참하기 시작했다. 하나금융그룹은 지난해부터 직급 호칭 없이 '영어 별칭'을 부른다. 올초 대기업과 IT업계를 휩쓴 성과급 불만 사태 이후 성과보상체계와 인사제도 개편에 속도를 내는 기업도 상당수다. 등 떠밀린 면이 있지만 직무와 능력, 성과 중심의 인사제도 개편은 글로벌 시장 생존 전략에서 불가피한 변화라는 게 전문가들의 진단이다. 과거 '관리의 삼성'으로 통했던 삼성 특유의 '일사불란'은 패스트팔로어 시대의 국내 기업에 모범 교본과도 같았다. 짧은 기간에 선두주자를 추격하고 결국 넘어서는 데 톱다운식 효율성은 강력한 무기였다. 문제는 국내 기업들이 패스트팔로어에서 퍼스트무버로 올라서면서 시작됐다. 이경묵 교수는 "더는 모방할 것이 없는 국내 기업들은 새로운 제품이나 서비스를 만들어 시장을 개척해야 하는 상황"이라며 "임직원들의 다양하고 창의적인 능력을 활용하는 것말고는 다른 방법이 없다"고 말했다.절반의 성공으로 남았지만 삼성전자가 2016년 직급을 7단계에서 4단계를 축소하는 조직 수술을 단행했던 배경에도 '알파고 충격'이 있었다. 그 해 3월 구글의 인공지능 '알파고'가 이세돌 9단과 바둑 대결에서 5전 4승 1패로 승리하자 더이상 '관리의 삼성'으로는 안 된다는 목소리가 삼성을 휩쓸었다. 권위적인 일사불란이 아니라 다양성과 창의성이 중요하다는 진단은 곧바로 수평적 인사제도 개편 시도로 이어졌다.━구글·애플 벤치마킹…"인재에 국경 없다"━최근 국내 주요 기업들이 연공서열을 깨고 능력과 성과 중심의 보상과 승진 기회를 보장하는 한편, 외부 인재를 적극적으로 기용하는 배경에도 국내외 빅테크 기업과의 경쟁에서 밀리지 않겠다는 위기감이 있다는 평가다. 보수적인 기업 문화로 알려진 LG그룹과 롯데그룹도 최근 2~3년 동안 C레벨(CEO·CFO·CTO 등 'C' 자가 들어가는 최고 경영진)을 포함해 직급과 경계를 따지지 않고 인재를 영입하는 데 혈안이다.5대 그룹 인사팀 한 인사는 "요즘 기업 인사담당 부서의 최우선 과제는 젊은 인재들에게 우리 회사가 '기회의 땅'이라는 것을 보여주고 증명하는 것"이라고 말했다.이런 실리콘밸리식 인재 확보전은 사실 핀테크·게임·포탈 등 IT업계와 스타트업에서 먼저 수용했다. 핀테크업체 토스는 지난해 유튜브에 올린 채용 동영상에서 "직급은 없고 역할은 많다", "누구한테 보고하느냐고 물을 필요도 없다"는 인터뷰로 화제를 모았다. 국내 최대 포탈 네이버는 지난달 만 40세의 최수연 대표를 새 수장으로 뽑아 파란을 일으켰다.삼성전자는 2018년 대기업 특유의 경직된 조직 문화에 스타트업의 이런 수평적 조직문화를 이식하겠다며 토스·야놀자·우아한형제들 등 국내 주요 스타트업과 워크숍을 진행했다. 한때 세계 최대 IT업체였던 마이크로소프트가 2010년 들어 구글과 애플에 밀리기 시작하자 십수년을 지켜온 상대평가식 성과보상체계를 접고 협업과 토론에 초점을 맞춘 구글과 애플의 기업 문화 배우기에 공을 들인 것도 같은 맥락이다.최근 재계의 변화는 전통 제조업에서 IT, 전기차 등을 중심으로 산업계 지각변동이 진행되는 흐름과 맞물려 삼성·현대차·LG·한화 등에서 새로운 기술의 등장과 세계화의 변화 속에 성장한 젊은 오너 경영인이 전면에 부상하는 추세와도 무관치 않다는 분석이다.이은형 국민대 경영학부 교수는 "총수의 세대가 바뀌었다는 것은 기업 전반에 걸쳐 큰 변화를 가져올 수밖에 없다"며 "기존 인재들과 새로운 세대의 인재 사이에서 기업을 혁신으로 이끄는 과정에서 총수들이 소통의 가교 역할을 해내야 할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2021.12.14.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>[필동정담] 개발자 초봉 6500만원</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004893784?sid=110</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>6500만원.중고 플랫폼 '당근마켓'이 최근 개발자 초봉으로 내건 수치다. 5명 중 1명이 이용하는 '국민 앱'의 위력을 실감케 한다. 금융계 지형도를 바꾸는 토스뱅크와 케이뱅크, 카카오뱅크도 스톡옵션과 거액의 포상금을 내걸고 정보기술(IT) 인재 채용에 나섰다. 자금력과 인지도가 떨어지는 중소 게임 업체는 동료를 데려오면 300만원에서 500만원을 지급하는 내부추천제를 실시하고 있다.네이버와 카카오 등 국내 대표 플랫폼 기업들이 쏘아올린 보상 경쟁이 노사관계를 바꾸고 있다. 현재 벤처 업계에 부족한 소프트웨어 개발자만 10만명을 넘는다고 한다. 인력 수급이 깨진 상황에서 메타버스와 인공지능(AI) 관련 핵심 인재는 부르는 게 값이다. 디지털 인재를 누가 선점하느냐에 사업의 성패가 좌우되는 4차 산업혁명 덕분이다. 올해 5조원 넘는 투자금이 흘러 들어온 '제2의 벤처붐'도 채용난을 부채질하고 있다. 투자받으면 제일 먼저 하는 일이 사람을 채용하는 것이다.1~2년 전부터 개발직군을 중심으로 인력난이 불거지고 있지만 앞으로는 저출산으로 인해 전 분야에서 일손이 부족할 것이라는 예상도 나온다. 채용 전쟁에서 부익부 빈익빈 현상이 가속화될 것이라는 예상이다. 명함 앱 '리멤버'를 만든 최재호 드라마앤컴퍼니 대표는 최근 한 행사에서 "저출산이 빨리 온 일본에서는 국가가 '투잡'을 장려하고, 외국인 비자를 굉장히 많이 주고 있다. 한국도 머지않아 인재난이 심해질 것"이라고 경고했다.내년은 노동계가 주도권을 쥐는 '노동자의 해'가 될 것이라는 전망도 제기됐다. 영국 경제 주간지 이코노미스트는 노동자들이 구인난에 빠진 기업을 상대로 협상력을 높이면서 노사관계가 역전될 것이라고 예고했다. 개인에게도 직업의 격변이 일어나고 있지만 기업 역시 달라진 채용·이직 환경에 대응해야 한다. 직원을 귀하게 여기고 성과를 나누는 기업이 생존에도 유리한 시대가 오고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2021.12.01.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>SBA, 슈퍼루키 기업 총동문회 출범 행사 성료</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0003991594?sid=101</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>초대 회장단 중심으로 한 100개사 규합 결의 및 비전 선포동문회 발전에 기여한 우수기업 25개사 대상 대표이사 명의 공로패 수여[서울경제] 서울시의 중소기업 수출 판로개척 경쟁력을 만드는 중소기업 지원기관 서울산업진흥원(SBA, 대표이사 김현우)은 지난 25일(목) 여의도 콘래드 호텔에서 개최된 ‘SBA 슈퍼루키 기업 총동문회 출범 행사’를 높은 관심 속에 성료했다고 밝혔다.슈퍼루키 프로그램은 SBA 글로벌유통사관학교 사업의 일환으로 성장 잠재력 높은 국내 유망중소기업을 발굴해 글로벌기업으로 성장할 수 있도록 집중 육성하는 프로그램이다. 2020년 하반기 1기부터 시작해 올해 4기까지 총 100개 기업을 선발하여 동문회를 구성, 이번 총동문회 출범 행사를 기점으로 활발한 활동을 진행할 예정이다.SBA 슈퍼루키 기업 총동문회는 뷰티/리빙/전자제품 등 제조업부터 물류/수출 등의 유통 분야, IT/소프트웨어/콘텐츠 플랫폼 기업까지 다양한 분야의 기업들이 한데 모여 서로 협업하며 성장할 수 있는 커뮤니티로 구성되어 있다.동문회 내부적으로 협업 제품 출시뿐 아니라 해외 유통망 확보, IP를 활용한 콜라보레이션 등 기업 간 시너지를 낼 수 있는 다양한 형태의 협업이 활발히 진행되고 있고, 현재까지 총 109건 누적 134개사가 참여하는 등 중소기업 동반성장의 장이 되고 있다.이러한 성과를 바탕으로 동문회 발전에 기여한 기업에 교류 활성화 및 협업 활성화 두 부문으로 나누어 서울산업진흥원 대표이사 명의 공로패를 수여하였으며, 앞으로의 활동 계획과 비전도 밝혔다.‘교류 활성화 부문’은 ▲(주)KDT 다이아몬드(강승기 대표) ▲인토스(주)(백일현 대표) ▲(주)신시아뷰(신경섭 대표) ▲(주)제이씨원(신종호 대표) ▲(주)라이트팜텍(김정숙 부회장) ▲주식회사 씨엠컴퍼니(최미영 대표) ▲(주)유니팩코리아(정병운 대표) ▲유웰데코㈜(김정희 대표) ▲(주)조아라(박명규 이사) ▲(주)레비레스코(박성주 대표) ▲(주)지유Inc(김민성 대표) ▲주식회사 레드빈(박성민 대표) 등 총 12개사가 수상의 영예를 안았으며, ‘협업 활성화 부문’은 ▲에스엔패션그룹(주)(정기열 이사) ▲(주)아이엠폼(김택원 대표) ▲(주)씨에스리(이춘식 대표) ▲주식회사 스타일셀러(안성국 대표) ▲(주)애니작(이병준 대표) ▲주식회사 더엔비피(옥수정 대표) ▲주식회사 현진씨엔티(정성한 대표) ▲(주)하트페이스(양용선 대표) ▲(주)후스구스(오진수 이사) ▲컴포트랩(황형수 이사) ▲(주)세이브앤코(박지원 대표) ▲(주)이로지스 아시아(이제훈 이사) ▲(주)씨네트웍스(송신명 대표) 등 총 13개사가 수상의 영예를 안았다.또한 백일현 대표(인토스)를 초대 총동문회 회장으로 추대하고, ▲박인철 대표(파워풀엑스) ▲이승훈 대표(아이가드시스템) ▲정병운 대표(유니팩코리아)를 부회장으로 추대하여 앞으로의 활동도 기대하게 했다. 백일현 총동문회장은 “이번 행사를 통해 총동문회가 본격적으로 시작되었으니, 앞으로 기업 간 교류를 더 활성화하고 역량을 강화시키는 동시에 동문 간 화합의 장을 만들어 함께 성장하는 총동문회가 되도록 하겠다”는 각오를 밝혔다.김용상 SBA 마케팅지원본부장은 “오늘 총동문회 행사를 시작으로 SBA 슈퍼루키 기업 총동문회가 자생적으로 성장하고 활동할 수 있는 기반이 잡혔다고 생각한다. SBA는 앞으로도 우리 슈퍼루키 기업들이 유니콘 기업으로 성장해서 국가와 사회에 기여할 수 있도록 관심과 지원을 아끼지 않겠다.”고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2021.12.07.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>중·저신용대출, 판 커진다…시중은행도 '눈독'</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010874250?sid=101</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>기사내용 요약가계대출 총량 관리 제외 검토시중은행, CSS 고도화 공들여KB, 저소득층 선별 대출 시사"은행 성과 차별화 요소될 것"[서울=뉴시스] 박은비 기자 = 금융당국이 내년 가계대출 총량 관리에서 중·저신용자 대출을 제외하는 방안을 검토하는 가운데 금융회사들이 앞다투어 이 시장에 뛰어들고 있다. 고신용자 중심으로 대출을 해왔던 시중은행도 마찬가지다. 가계대출 성장이 제한되면서 돌파구를 마련해야 하기 때문이다.7일 금융권에 따르면 금융당국은 내년 가계대출 총량 관리시 중저신용자 대출과 정책서민금융 상품에 대해 충분한 한도와 인세티브를 부여하는 방안을 검토 중이다. 고승범 금융위원장은 지난 지난 3일 열린 기자간담회에서 "금융권과 협의를 거쳐 12월 중에 확정하겠다"며 이같이 밝혔다.금융당국은 중저신용자 대상 중금리대출 확대 기조를 유지하고 있다. 지난해 30조원이었던 가량이었던 중금리대출 공급을 올해 32조원, 내년에는 35조원까지 늘리겠다는 게 당국 구상이다.고 위원장은 "내년도에 가계부채 총량 관리시에 중저신용자 대출과 정책서민금융 상품에 대해 인센티브를 충분히 부여할 것이라고 말씀드렸다"며 "그건 사실상 총량 관리 한도에서 제외하는 방안까지도 검토할 수 있다고 생각한다"고 말했다.그러면서 "저는 총량 관리 과정에서 은행이나 저축은행 등이 취급하는 정책금융 상품, 정책서민금융 상품 취급이 위축돼서는 절대로 안 되겠다는 생각을 가지고 있다"고 강조했다.[서울=뉴시스] 김명원 기자 = 고승범 금융위원장이 지난 3일 오전 서울 종로구 정부서울청사에서 열린 송년 출입기자단 간담회에 참석해 발언하고 있다. (공동취재사진) 2021.12.03. photo@newsis.com그동안 저축은행, 온라인연계투자(P2P)금융 등 비은행이 관심을 보여왔던 중저신용대출은 금융당국 주문으로 올해 인터넷전문은행의 최대 현안으로 부각된 바 있다. 여기에 더해 내년에는 시장 참여자가 더 많아지면서 활성화될 분위기다. 특히 시중은행 참여가 본격화될 것으로 예상된다. 중저신용자들은 고신용자에 비해 빚 상환 능력을 담보하기 어렵다는 이유로 1금융권에서 대출을 받기 어려웠다. 하지만 가계대출 증가율을 올해 전년 대비 6%에서 내년 4~5%로 줄여야 하는 상황이라 은행들은 이 고객군이 성장 제한에 따른 돌파구가 될 수 있다고 보고 있다.리딩뱅크 타이틀을 거머쥐고 있는 KB국민은행도 중저신용대출에 관심을 보이기 시작했다. 이재근 KB국민은행장 내정자는 지난 2일 출근길에 기자들과 만나 저신용자를 대상으로 한 선별 대출을 시사했다. 이 내정자는 "가계대출은 보통 (연간) 7% 정도 성장했지만 내년은 4~5% 이하 성장으로 제한을 받는데 KB만이 아니라 모든 은행 문제"라며 "가계대출도 성장을 제한하는 건 우량고객들만이고, (신용등급) 7등급 이하인 저소득층 고객에게는 한도가 열려 있어 성장 기회로 탐색해야 한다"고 말했다.그러면서 "정부도 활성화시키고자 가계대출 한도에서 배제시켜줬다"며 "신용평가모형(CSS)을 정교화해서 선택적으로 (이들 고객군을) 어떻게 찾아내느냐가 은행 성과 차별화 요소"라고 설명했다.[서울=뉴시스] 정병혁 기자 = 이재근 KB국민은행장 내정자가 지난 2일 오전 서울 영등포구 KB국민은행 여의도본점으로 출근하며 소감을 밝히고 있다. 2021.12.02 jhope@newsis.com다른 은행들도 신용평가모형을 고도화하는 데 공들이고 있다. 우리은행은 신용평가모델 적용 대상을 개인사업자까지 확대하고 네이버파이낸셜과 제휴한 '스마트스토어사업자(SME) 대출' 상품에 반영했다. 머신러닝 기법을 활용해 BC카드사 가맹점 정보를 불러오는 게 대표적이다.신한은행이 조만간 선보일 자체 음식 주문 플랫폼 '땡겨요'도 신용평가모형을 강화하는 데 도움이 된다. 이를 준비하면서 지난 10월21일 배달라이더 전용 소액신용대출 상품 '쏠편한 생각대로 라이더 대출'을 선보이기도 했다. 대출한도는 최대 300만원으로 전날 기준 최저 연 4.1% 금리다.인터넷은행들은 올해 제출한 목표치를 맞추기 위해 고군분투 중이다. 카카오뱅크와 케이뱅크의 중저신용대출 비중은 올해 3분기 잔액 기준 각 13.4%, 13.7%에 그쳤다. 이들 은행은 연말까지 각 20.8%, 21.5%까지 중저신용자 비중을 늘리겠다고 밝힌 상태다. 지난 10월 출범한 토스뱅크의 목표는 34.9%다.이에 대해 고 위원장은 "지난 5월에 중저신용자 대출 확대 계획은 인터넷은행들이 인가 과정에서 제출한 사업계획을 토대로 해서 자발적으로 마련이 된 것"이라며 "인터넷은행들의 설립 취지, 사업계획에 따라서 중저신용자 대출 확대를 위해서 최대한 노력할 것으로 생각한다"고 원론적인 입장을 취했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2021.12.09.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>'2021 코리아VC어워즈' 개최...KTB네트워크, 최우수 VC 선정</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004681174?sid=101</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>"앞으로도 한국벤처투자는 혁신벤처생태계 조성을 위해 마중물 역할을 성실히 수행해 나가겠습니다"이영민 한국벤처투자 대표는 9일 비대면 메타버스 플랫폼으로 열린 '제12회 코리아 VC 어워즈 2021' 행사에서 "최근 벤처투자업계는 코로나19(COVID-19) 상황에도 '제2벤처붐'이라고 불릴 만큼 놀라운 성과를 내고 있다"며 이같이 말했다.올해로 12회째를 맞이한 코리아 VC어워즈는 코로나19 장기화에 메타버스 플랫폼 '게더타운'에서 비대면으로 열렸다. 제2벤처붐 조성에 기여한 벤처캐피탈(VC), 출자자, 유관기관 관계자 등이 참석해 그동안 벤처투자생태계의 성과를 돌아보고, 이후 성장 방향을 모색하는 자리로 마련됐다.한국벤처투자는 이날 최우수 운용사·심사역·펀드 등 총 6개 분야에 걸쳐 8명에게 중소벤처기업부 장관 표창, 문화체육관광부 장관 표창, 특허청장 표창, 한국벤처투자 표창 등을 수여했다. 수상자는 한국모태펀드 누적 데이터를 기반으로 정량·정성 평가를 통해 선정했다. 최우수 운용사에는 KTB네트워크가 선정됐다. KTB네트워크는국내 1세대 VC로 국내에서 4번째로 큰 규모의 자산을 운용한다. 운용자산(AUM)은 1조1745억 원 규모다.  올해 2810억원 규모의 스케일업 분야 펀드를 조성하는 등 활발한 투자행보를 보였다. 앞서 우아한형제들, 토스 등 해당 분야에서 가장 앞서 있는 기업에 연이어 투자하면서 성과를 냈다. 이달 16일 코스닥 상장을 앞두고 있다.━'최우수 심사역' 중진·문화·특허 3개 부문 시상…강동석 부사장·신민경 팀장·정강식 이사━최우수 심사역은 모태펀드 중진·문화·특허 계정 3개 부문별로 강동석 소프트뱅크벤처스 부사장, 신민경 대교인베스트먼트 팀장, 정강식 케이투인베스트먼트 이사가 각각 선정됐다. 중소기업 진흥부문의 강동석 부사장은 매스프레소, 모두싸인 등에 국내 벤처·스타트업에 적극적으로 투자해왔다.문화부문 최우수 심사역인 신민경 팀장은 코로나19로 어려움을 겪는 영화 산업 등에 적극적인 투자를 집행한 점을 높이 평가받았다. 특허부문 수상자인 정강식 이사는 메드팩토, 압타머사이언스 등 우수특허 기술을 보유한 기업들을 발빠르게 발굴, 투자한 점을 인정받았다.탁월한 위기관리능력을 보인 리스크매니저에게 수여하는 '최우수 관리인력'은 박순화 인터베스트 과장이 수상했다. 박 과장은 안정적인 리스크 관리로 펀드 운용성과를 뒷받침했다는 평가를 받았다.올해 '최우수 펀드'는 '엘앤에스5호 얼리스테이지(Early Stage)투자조합'이 선정됐다. 넥스틴, 테라세미콘 등에 투자해 3배가 넘는 우수한 성과를 올렸다. 최우수 펀드는 모태펀드 출자 벤처투자조합 중 정책 목적을 달성하면서도 높은 수익률을 기록한 청산펀드에 주어지는 상이다.코로나19 신속 항원 진단키트를 개발한 '에스디바이오센서'는 '올해의 투자기업'으로 뽑혔다. 에스디바이오센서는 씨젠과 함께 국내 진단키트 대표기업으로 성장, 일자리 창출 효과와 모태펀드 수익 개선에 기여했다는 평가다. 이 회사의 지난해 매출 규모는 1조4800억원에 달한다.'공로상'은 한국수자원공사에 주어졌다. 한국수자원공사는 올해 지역뉴딜 벤처펀드 2개 권역(충청, 동남권)에 출자, 지역 유망기업을 발굴하고 성장시키는 역할을 했다.[머니투데이 미디어 액셀러레이팅 플랫폼 '유니콘팩토리']</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2021.12.14.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>정부 "오늘 점심 방역패스 '순간 과부하'…QR 150만건 진행"(종합)</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005784450?sid=102</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>"지난주 같은 시간 47만건 대비 3배 이상 검증 양상""전자예방접종증명 미리 받으면 편하게 이용 가능"방역패스 시행 둘째날인 14일 코로나19 백신 접종 여부를 확인할 수 있는 앱이 이틀 연속 장애를 겪고 있다. 사진은 이날 서울 여의도의 한 식당에서 먹통이 된 방역패스 앱의 모습. 2021.12.14/뉴스1 © News1 이승배 기자(서울=뉴스1) 강승지 기자 = 13일, 14일 연이틀 방역패스(접종증명·음성확인) 앱 접속 오류, 먹통 사태가 빚어진 데 대해 방역당국이 "오늘(14일) 점심시간 약 150만건의 QR코드 예방접종 검증이 이뤄졌다"며 "사용자가 일시적으로 많이 늘어 과부하가 발생했다"고 14일 밝혔다.질병관리청은 지난 13일 전자예방접종증명서 앱 '쿠브'(COOV)와 네이버, 카카오, 토스, 통신3사 PASS앱 등 전자출입명부(KI-PASS)에 오류가 발생한 이후 연이틀 동안 진행한 개선 긴급조치를 설명했다.질병청에 따르면 14일 점심시간 대에도 사용자가 일시적으로 QR코드를 많이 사용했으나 13일과는 달리 네이버 등 일부 민간플랫폼 회사별 장애가 발생한 뒤 단계적으로 정상화됐다.질병청은 이날 점심시간대의 일시 장애가 "예방접종증명서를 미리 발급받으라"는 정부의 안전문자 발송 직후에 벌어졌다고 밝혔다.순간적으로 네이버·카카오 등 전자출입명부 접속이 늘어 장애가 발생했다는 것이다. 다만 쿠브와 질병청의 관련 서버는 전날과 달리 이상이 없었다.특히 질병청은 14일 오후 12시~1시 사이 점심시간대에 약 150만건의 QR코드 예방접종 검증이 이뤄진 것으로 집계했다. 질병청은 "장애가 발생한 13일 같은 시간대(약 9만건), 지난 주 계도기간이었던 7일(화) 같은 시간대(약 46만 건) 대비 처리량이 높은 수준으로 개선된 것"이라고 강조했다.한편 질병청은 13일 오후부터 관계부처와 함께 전자출입명부 접속 부하 모니터링과 개선 작업을 진행하고 있다.이어 "서버 증설 및 시스템 개선 등 참여기관이 보유 중인 시스템을 단시간 내에 개선 활동을 진행한 바, 앞으로도 전자출입명부 성능 개선에 힘쓰겠다"고 덧붙였다.질병청은 "방역패스를 이용할 국민은 지금부터 편한 시간대에 네이버·카카오 등에서 예방접종증명서(QR코드)를 미리 발급 받으면 점심·저녁 시간에 원활한 이용이 가능하다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2021.12.05.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>'이자 10%' 특판까지 등장…예적금 어디서 들어야 유리할까?</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004679235?sid=101</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>/사진=뉴시스기준금리 인상 이후 예·적금 수신금리가 일제히 오른 가운데 예금은 특수은행과 지방은행, 적금은 시중은행 금리가 비교적 높은 것으로 나타났다. 적금의 경우 최대 10% 금리를 제공하는 특판까지 등장했다. 소비자 입장에선 우대금리 제공 요건을 꼼꼼하게 살피는 등 주의도 필요하다.━정기예금 1%대 후반이 대세, 적금은 최대 4.2%━5일 전국은행연합회 비교 공시에 따르면 국내 은행의 정기예금(1년제) 금리는 0.70~1.93% 수준이다. 전체 상품의 70% 이상이 1.0% 이상의 기본금리를 제공한다. 정기적금(1년제·자유적립식) 금리는 0.75~4.20%로 나타났다. 특판과 특정 고객군 전용 상품까지 살펴보면 최대 10%까지 금리를 주는 상품도 있다.은행별로 보면 예금은 특수은행과 지방은행이 상대적으로 높은 금리를 준다.  기업은행의 'IBK D-DAY통장'은 최대 연 1.93%, Sh수협은행의 '헤이(Hey)정기예금'은 최대 연 1.85%의 금리를 제공한다. 농협은행 'NH왈츠회전예금 II' 금리는 최대 연 1.80%다. 대구은행 'DGB주거래우대예금(첫만남고객형)'은 최대 금리가 연 1.86%, 경남은행 'BNK주거래우대정기예금'의 경우 1.80%다.적금은 4대 시중은행이 비교적 후하다. 1년제 자유적립식 상품을 보면 신한은행의 '신한 안녕, 반가워 적금'이 최대 연 4.2%, KB국민은행의 'KB마이핏적금'이 최대 연 3.2% 금리를 준다. 정액적립식 상품 중에서는 우리은행이 '스무살 우리 적금'을 통해 최대 연 3.2% 금리를 제공한다.━특판·테마·제휴 예적금 고려대상, 최대 10% 금리도 ━특판으로 선택지를 넓히면 받을 수 있는 금리가 훨씬 커진다. 카드사 등 다른 금융사와 제휴한 상품의 금리가 높은 편이다. 최대 연 10.0% 금리를 주는 적금도 있다. 케이뱅크의 '핫딜적금 x 우리카드'다. 기본금리 1.8%에 우대금리가 최대 8.2%포인트(p)다. 우리카드 연간 사용실적에 따라 최대 5.7%p 우대금리를 받는다. 은행 자체 '페이 서비스'와 연결된 고금리 상품도 있다. 우리은행 '우리페이 적금'은 우리페이 서비스 결제 계좌를 우리은행 통장으로 지정하고 연간 사용 금액에 따라 우대금리 최대 5.0%p를 준다. 기본금리는 1%다.'테마 상품'도 금리가 꾸준히 높아 고려할 만하다. 시중은행들은 군인 전용 적금을 높은 금리로 운용 중이다. 신한은행 '신한 장병내일 준비 적금'은 현역병, 의무경찰, 사회복무요원 등에 제공하는 적금으로 최대 연 5.2% 금리를 준다. 청년 대상 적금 금리도 높다. 농협은행 'NH1934월복리적금'은 만19세~만34세 고객이 가입할 수 있는데 최대 금리는 연 4.6%다.인터넷전문은행은 기존 은행들과 다른 방식으로 수신상품을 운용하고 있어 또다른 선택지가 될 수 있다. 토스뱅크는 기본금리 2.0%의 '수시입출금 통장'을 운영한다. 고객은 원하는 만큼, 아무 때나 돈을 예치하고 2% 금리를 받는다. 내년 1월5일부터는 1억원 미만은 2.0% 금리를 그대로 유지하지만, 1억원 초과 금액은 0.1% 금리만 준다. 케이뱅크는 예금 가입 후 2주 내에 해당 상품 금리가 오르면 인상된 최신 금리를 적용하는 '금리보장 서비스'를 도입했다. 타 은행에서는 예금 가입 후 금리가 오를 경우 인상된 금리를 적용받고자 한다면 해지 후 재가입을 해야 한다. ━"최대금리에 혹하지 마라", 우대금리 요건 꼼꼼히 따져야 ━최고금리가 높다고 덜컥 가입해선 곤란하다. 특판 등 높은 우대금리를 제공하는 상품의 경우 충족 요건이 복잡해 유의할 필요가 있다. 예를 들어 케이뱅크의 '핫딜적금 x 우리카드'는 우리카드로 10개월 동안 240만원 이상을 사용해야 5.7% 우대금리를 받는다. 지정 카드로 자동이체를 설정해둔 기간도 6개월 이상이어야 2.0% 우대금리를 준다. 금융당국도 높은 우대금리를 주는 상품에 가입할 때는 지급 요건을 더욱 꼼꼼히 따져야 한다고 권고했다. 금융감독원은 지난달 24일 은행 예·적금 우대금리 적용 관련 민원이 증가하고 있다며 소비자경보 '주의'를 발령했다. 금감원에 따르면 카드사 등 제휴사 상품 이용 실적에 따라 높은 금리를 주는 상품의 경우, 지난 9월말 기준 우대금리를 적용받은 고객이 7.7%에 불과했다. 금감원은 최대금리에 혹하기보다 자신이 우대금리 지급 요건을 충족할 수 있을지 등을 충분히 따져야 한다고 조언했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2021.12.09.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>국내 스타트업 투자 첫 20조 예상… 해외 투자사들, 전년비 5배 투자</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000645754?sid=105</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>국내 신생기업(스타트업)에 대한 투자가 올해 처음으로 20조 원을 넘어설 전망이다. 국내 스타트업의 가치가 올라가면서 해외 투자업체들의 투자가 증가한 덕분이다.9일 관련업계에 따르면 올해 스타트업 투자가 20조 원을 넘어설 것으로 예상된다. 스타트업얼라이언스가 10월까지 집계한 정부와 국내 투자업체들의 국내 스타트업 투자액이 9조4,033억 원이다. 여기서 제외된 해외 투자업체들과 일반 기업들의 투자가 약 7조 원에 이르고, 연말에 국내 투자업체들의 투자가 몰리는 점을  감안하면 20조 원 돌파가 무난할 것이라는 전망이다. 스타트업얼라이언스 관계자는 "올해는 해외 투자업체들의 투자가 크게 늘었고 삼성 현대자동차 네이버 카카오 등 일반 기업들도 투자액이 증가한 만큼 전체 스타트업 투자 규모가 20조 원을 넘어설 것으로 본다"고 말했다.이는 지난해와 비교하면 두 배 가까이 늘어나는 셈이다. 업계에서는 지난해 정부와 국내 투자업체들이 9조815억 원, 해외 투자업체와 일반 기업들이 약 2조5,000억 원등 약 11조6,000억 원을 국내 스타트업에 투자한 것으로 보고 있다.정부와 국내 벤처투자업체들의 국내 스타트업 투자 규모. 스타트업얼라이언스 제공눈에 띄는 점은 해외 투자업체들의 투자 급증이다. 업계에 따르면 해외 투자업체들은 지난해 약 1조 원 대비 5배 이상 늘어난 5조5,000억 원 이상을 올해 국내 스타트업에 투자한 것으로 추산된다. 이들이 투자한 국내 스타트업 숫자도 지난해 128개에서 올해 150개 이상으로 증가했다.이 가운데 눔, 당근마켓, 뤼이드, 몰로토, 야놀자, 컬리, 테라폼, 토스  등 올해 16개 스타트업이 한 개 또는 복수의 해외 투자업체로부터 1,000억 원 이상 투자를 받았다. 특히 세계 10위 안에 드는 대형 해외 투자업체인 소프트뱅크, 세콰이어캐피털, DST글로벌 등 3개사가 올해 국내 스타트업 5군데에 투자했다.장보기 앱 '마켓컬리'로 유명한 컬리는 세콰이어캐피털과 DST글로벌 두 군데에서 한꺼번에 투자를 받아 화제가 됐다. 컬리는 2015년 신선식품의 주 7일 새벽배송을 강조하며 매년 2배 이상 성장해 세콰이어캐피털과 DST글로벌로부터 지난해에 이어 올해까지 2년 연속 투자를 유치했다. 세콰이어캐피털은 구글, 유튜브, 에어비앤비, 인스타그램 등에 투자한 세계 7위 투자사이며, DST글로벌은 페이스북, 트위터에 초기 투자한 세계 9위 투자사다.온라인 숙박 플랫폼 야놀자는 손정의 회장이 이끄는 일본 소프트뱅크의 비전펀드2로부터 2조 원 투자를 받았다. 비전펀드가 국내 스타트업에 조 단위 투자를 한 것은 쿠팡에 이어 야놀자가 두 번째다.이밖에 인터넷 금융서비스 '토스'로 유명한 비바리퍼블리카는 세콰이어캐피털, 중고거래 플랫폼 당근마켓은 DST글로벌로부터 각각 투자를 받았다. 또 인공지능(AI)을 이용한 교육 스타트업 뤼이드는 소프트뱅크에서 투자를 유치했다.이처럼 해외 투자업체들이 국내 스타트업 투자를 늘린 이유는 국내 스타트업들의 투자 가치가 눈에 띄게 증가했기 때문이다. 이기대 스타트업얼라이언스 이사는 "토스, 야놀자, 컬리 등 해외에서 주목할 만큼 규모가 커진 국내 스타트업들이 많이 늘었다"며 "상장이 유력한 스타트업들이 증가하면서 해외 투자업체들은 지금 투자해도 2, 3년 안에 회수할 수 있을 것이라는 기대를 한다"고 설명했다.여기에 경직된 미중관계도 한몫했다. 해외 투자업체들이 중국 기업에 대한 투자가 막히면서 대신 국내와 일본, 동남아 스타트업들을 주목하고 있다.스타트업 투자 확대는 내년에도 이어질 전망이다. 국내 벤처투자업체 관계자는 "컬리는 내년 상반기에 증시 상장 예정이고 토스와 야놀자도 국내외 증시 상장을 계획 중"이라며 "상장 예정인 스타트업이 늘어나는 만큼 해외 투자업체들의 투자 확대가 내년에도 계속될 것"이라고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2021.12.05.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>디지털 소외계층까지 챙긴 토스…'장애인 인구 72% 품기' 포용 전략</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000037186?sid=105</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>(사진=게티이미지뱅크)최근 모바일 금융 플랫폼 '토스'가 전 계층으로 모바일 접근성을 높이기 위해 박차를 가하고 있다. 특히 국내 장애인 인구의 70% 이상이 앱 사용에 어려움을 느낄 것으로 보고 시각장애인을 위한 특화 서비스를 적용하는 등 디지털 소외계층 포용 전략을 마련해 눈길을 끈다.5일 관련 업계 등에 따르면 금융권 전반에서 모바일 뱅킹 플랫폼을 통한 비대면 영업이 확산되고 있는 반면 시각장애인 등 플랫폼 활용이 어려운 '디지털 소외계층'이 확대되고 있는 것은 사회적 문제로 대두되고 있다. ‘디지털 소외계층’은 스마트폰이나 PC 등 디지털 기기 이용에 불편함을 느끼는 계층을 말한다.고령자, 저소득층, 농어민, 장애인 등이 여기에 해당된다. 이들은 디지털 활용 능력이 상대적으로 떨어져 정보 격차가 발생한다. 이 때문에 디지털 이용격차를 해소하기 위한 방안이 강구돼야 한다는 목소리가 각계에서 높아지고 있다. 한국지능정보사회진흥원에서 집계한 지난해 일반국민 대비 정보취약 4대 계층 고령자, 농어민, 장애인, 저소득층의 종합 디지털 정보화 활용 수준은 74.8%로, 전년 대비 6.0%포인트 상승했다.우리나라 정부도 디지털 정보격차 문제 해소를 위해 지난해 ‘디지털 포용 추진계획’을 발표, 생애주기 단계별로 필요 교육내용을 정리한 금융이해력 지도를 기반으로 금융교육 콘텐츠를 개발해 금융접근성 제고에 나섰다. 지난 2017년~2020년 4년간 △창구 △CD·ATM △텔레뱅킹 △인터넷뱅킹 등 금융서비스 전달채널별 업무처리비중을 보면 창구(오프라인 점포) 채널을 통한 비중은 △2017년 10.0% △2018년 8.9% △2019년 8.2% △2020년 7.3%로 매년 하락했다. 반면 인터넷뱅킹은 △45.4% △52.6% △58.2% △65.8%로 지속 상승했다. 창구를 이용하던 소비자와의 접점이 줄고 금융권의 디지털화가 가속화하자 디지털 정보격차는 심화하고 있다.이처럼 사회적 문제로 디지털 소외계층에 대한 이슈가 떠오르자 토스도 관련 문제를 해소하기 위한 작업에 돌입했다. 이 작업은 지난 2017년 앱 업데이트 이후 보이스오버 기능을 사용하면 아이폰 새 버전에서 앱이 꺼진다는 고객민원이 유입된 것이 시발점이 됐다는 게 토스 측의 설명이다. 당시 이승건 비바리퍼블리카(토스) 대표는 “지난해 우리나라 장애인 인구는 250만명, 그 중 토스앱 사용과 직접적 연관이 있을 것으로 보이는 지체, 청각, 언어, 시각장애 인구는 180만명에 달한다”며 “모바일 접근성을 높이는 작업을 해야하는 당위성을 찾았다"고 말했다. 대부분의 앱들이 다운로드 후 최초 실행시 기본 설정이 작은 글씨로 고정되어 있다. 이 때문에 저시력자는 보조자의 도움을 받아 큰글씨 설정을 변경해야 하는 경우가 대부분이다. 하지만 토스는 휴대폰 기기의 글씨 크기 설정 그대로 토스앱에 적용해 가입 단계부터 수월하게 사용이 가능하다. 일반적으로 3단계 글씨 크기 설정만 지원하는 앱들과 달리 iOS(9단계), 안드로이드(12단계)의 모든 크기 설정을 유기적으로 구현했으며 글씨가 커져도 단락 나눔이 어색해지지 않는다. 저시력자들이 애용하는 다크모드도 앱설치 후 별도의 조작 없이 그대로 앱화면에 적용된다.  기술적 부분만 개선한 것이 아니다. 시각장애인 사용자(화면을 읽어주는 기능을 켠 고객 기준)가 고객센터 연결이 필요한 경우 우선 상담 배치로 빠르게 도움을 받을 수 있다.  한 저시력 토스 사용자는 “토스 사용 이전에는 주거래 은행앱을 사용하려고 했는데 가입단계부터 신분증 촬영 등 어려움이 있었고 대체텍스트도 없었다"며 “토스는 ARS를 통해 편리하게 가입할 수 있었고 송금에서도 막히는 부분없이 사용할 수 있다”고 말했다. 다른 저시력 사용자도 “다른 시각장애인 친구의 추천으로 토스를 사용하게 됐다"며 “통상적으로 앱들은 업데이트를 거치면 깜깜한 방에서 길을 잃는 기분인데 토스는 사용하기 편리한 방향으로 바뀌는 것 같다"고 만족감을 드러냈다. 지난달 기준 핸드폰 화면을 읽어주는 보이스오버(아이폰 기준) 기능을 사용중인 유저는 토스 전체 가입자의 1% 미만을 차지한다. 소수의 숫자지만 최근 1년 사이 사용자가 2배 가량 늘어난 것을 감안했을 때 토스의 문턱이 장애인들에게 넓어지고 있다는 것을 의미한다. 이 외에도 스크린리더가 화면을 더 잘 읽어줄 수 있도록 최적화, 드래그할 필요없이 클릭만으로 위치 변경이 가능한 기능 추가 등 모바일 접근성에 대한 다양한 기능을 추가하고 있다. 토스는 지난 9월 한국웹접근성평가센터로부터 ‘모바일 접근성 우수앱' 인증을 획득했다. 실로암장애인자립생활센터가 선정한 ‘앱 접근성 모범사례'에 이름을 올리기도 했다. 앱 접근성 모범사례에 선정될 수 있었던 것은 모바일 접근성을 효율적으로 적용할 수 있는 환경이 구축돼 있었으며 토스의 제품 자체가 직관성을 중시하고 있기 때문이라는 게 토스 측의 설명이다.정희연 토스 UX 헤드는 “토스는 더 쉬운 금융 서비스를 제공하는 것을 목표로 하고 있는 만큼 장애인들에게도 접근성을 높이는 것을 중요 과제로 생각하고 있다"며 “앞으로도 사용자 중심의 서비스를 만들어 가겠다는 노력을 이어가겠다"고 강조했다.다만 실제 금융 서비스를 제공하는 주요 은행들은 디지털 소외계층을 위한 정책 마련에 다소 뒤쳐진 모습이다. 이동석 대구대학교 교수는 한국보건사회연구원 국제사회보장리뷰 3월호에서 “코로나19로 강제된 사회적 거리 두기 상황에서 디지털 활용이 증가함에 따라 디지털 기술 사용이 미숙한 일부 장애인들은 일상의 삶에서, 사회서비스 분야에서 모두 배제되고 있다”고 지적했다. 이 교수는 “디지털 기기에 접근할 수 있는 보조공학 기기의 활용이 반드시 이루어져야 한다. 디 지털 기기 활용법에 대한 교육만 이루어져서는 안 되고, 디지털 기기에 접근할 수 없는 특정 손상이 있는 장애인의 경우 접근을 위한 보조공학 기기도 함께 지원되어야 한다”고 밝혔다.자본시장연구원은 4월 발간한 ‘금융소비자의 디지털 소외 현황 및 각국의 대응’ 보고서를 통해 “세대 간, 지역 간, 직업별, 장애인과 비장애인간의 디지털 이용격차는 금융상품 및 서비스 구매와 같은 소비활동시 불완전 판매 또는 사기적 판매 등이 발생될 수 있다”고 꼬집었다.이어 “디지털기술에 익숙하지 않은 디지털 소외계층의 경우 고위험상품에 대한 충분한 설명 없이 상품을 판매하는 불완전·사기적 판매로 인한 피해를 입을 수 있고, 온라인에서만 받을 수 있는 상품이나 혜택, 우대 등을 받지 못할 수 있다”고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2021.12.03.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>티머니 갤럭시워치 앱, 구글플레이 ‘올해를 빛낸 앱’ 수상</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005099855?sid=105</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>비접촉 결제로, 지갑 없이도 안전·간편 결제[이데일리 노재웅 기자] 티머니는 웨어러블 스마트 기기 전용 간편결제 서비스 ‘티머니 갤럭시워치 앱’이 ‘구글플레이 베스트 오브 어워즈 2021’에서 ‘올해를 빛낸 웨어 앱 최우수상’을 수상했다고 3일 밝혔다.구글플레이는 매년 다양한 카테고리에서 많은 사용자로부터 사랑받은 베스트 앱 후보작 10종을 발표한 후 약 2주간 이용자들을 대상으로 진행되는 온라인 투표를 진행, 결과에 따라 인기 앱을 선정한다.티머니 갤럭시워치 앱은 휴대폰에 집중돼 있던 간편결제의 흐름이 본격적으로 스마트워치 등 웨어러블 분야로 이동·확대되고 있음을 보여준 앱이라고 평가받았다.대중교통뿐만 아니라 편의점, 카페 등 티머니 유통 가맹점에서도 티머니 카드처럼 사용이 가능한 점이 인기 비결로 꼽힌다.티머니 갤럭시워치 앱은 갤럭시워치(기어포함)에 안드로이드 스마트폰을 연동 한 후, 티머니로 간편하게 사용할 수 있다. 앱이나 화면을 켜지 않고 갤럭시워치를 단말기에 태그만 하면 결제되기 때문에 간편하다. 또 신용·체크카드, 간편송금(토스, 카카오페이) 등 다양한 충전수단을 제공하며, 사용할 만큼 미리 자동충천도 설정할 수 있다. 김정열 티머니 페이먼트&amp;플랫폼사업부장(상무)은 “더 간편한 결제와 다양한 혜택으로 차별화된 서비스를 제공할 수 있도록 노력하겠다”고 수상 소감을 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2021.12.06.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>엔비티, 애디슨 오퍼월의 폭발적 성장 기대-하나금투</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000640519?sid=101</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>"연간 매출 776억, 영업익 34억 전망"하나금융투자는 6일 모바일포인트 광고 플랫폼 업체 엔비티에 대해 기업간거래(B2B) 사업 애디슨 오퍼월의 폭발적 성장으로 레버리지 효과가 더욱 확대될 것이라고 전망했다. 투자의견과 목표주가는 제시하지 않았다. 하나금융투자는 엔비티에 대해 애디슨 오퍼월의 폭발적 성장으로 레버리지 효과가 확대될 것이라고 전망했다. 사진은 엔비티의 로고. [사진=엔비티]최재호 하나금투 연구원은 "엔비티는 네이버웹툰, 카카오모빌리티, 토스 등 30개 이상의 포인트 제휴업체, 1천200만 월간 활성 사용자(MAU)를 보유한 자체 플랫폼, 고객 어트리뷰션· 써드파티 트래킹·안티어뷰징 등의 트래픽 기술로 국내 시장 1위 점유율(40%)을 달성 중"이라고 설명했다.엔비티 B2B 부문의 올해 매출액을 전년 대비 144.7% 증가한 563억원, 내년 매출액을 43.9% 오른 810억원으로 예상했다.최 연구원은 "애디슨 오퍼월은 MAU 증가가 실적의 바로미터"라며 "2018년부터 2021년 MAU는 네이버웹툰, 네이버페이, 토스, 카카오모빌리티 등 신규 제휴업체 확대와 업체별 유저 증가에 따라 331%의 연평균 성장률을 기록해왔다. 현재 중대형 플랫폼 추가 제휴 논의로 성장세는 향후에도 지속될 전망"이라고 했다.이어 "애디슨 오퍼월은 국내 최대 사용자풀, 프리미엄 매체, 큐레이팅 기술을 접목한 광고 상품을 보유해 광고주의 진입 경쟁이 더욱 심화되고 있다"며 "광고단가 인상에 따른 수익성 개선이 기대되는 이유"라고 설명했다.올해 연간 실적은 매출액으로 전년보다 75.9% 성장한 776억원, 영업이익으로 흑자전환한 34억원을 전망했다. 내년 연간 예상 매출액은 올해보다 30.8% 증가한 1천15억원, 영업이익은 130.3% 오른 79억원이다.그는 "캐시슬라이드의 안정적인 수익 창출과 애디슨 오퍼월의 폭발적 성장이 이유"라며 "엔비티의 손익분기점(BEP) 매출액은 500억원대로 추정된다. 올해는 3분기 누적 매출액만 563억원을 달성해 이미 연간 역대 최대 실적을 기록해 레버리지 효과가 본격화될 것"이라고 분석했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2021.12.08.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>"토스뱅크 신뢰 깨졌다"…무조건 2% 금리 내년엔 바뀐다</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004637977?sid=101</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>내년 1월5일부터 1억원 초과엔 금리 0.1% 제공"초기 흥행 성공하더니 신규 유저 필요없다는 거냐"토스뱅크 "역마진으로 경영악화 고려한 것"사진=연합뉴스토스뱅크의 2% 파격 금리가 두 달만에 일부 변경된다는 소식에 소비자들 사이에선 "신뢰가 떨어졌다"는 평가가 나오고 있다. 토스뱅크 측은 역마진이라는 경영상황을 감안해 어쩔 수 없이 내린 결정이라고 해명했다. 금액 제한없이 2% 금리로 기존 은행과는 다른 '혁신'을 앞세웠던 출사표가 무색해졌다. 8일 금융권에 따르면 토스뱅크는 지난 10월 공약했던 '조건 없는 2% 예금'을 금액에 상한선을 두는 방식으로 변경한다고 공지했다. 내년 1월5일부터는 1억원이 넘는 예치금에 대한 금리는 2%에서 0.1%로 대폭 낮아진 금리가 적용된다. 이는 토스뱅크 통장과 토스뱅크 모으기 합산 잔액을 기준으로 적용된다. 만약 토스 통장과 모으기통장에 총 1억5000만원을 보유하고 있다면, 1억원까지는 이자 2%를, 초과 금액 5000만원에 대해선 0.1% 이자가 책정된다.토스뱅크가 출범하면서 내걸었던 2% 금리는 업계 최고 금리 수준이었다. 당시 시중은행의 정기예적금 금리가 1%대였다는 점에서 소비자들에겐 쏠쏠했다. 가입 신청자만 170만명에 달하면서 흥행에 성공했다. 당시 토스뱅크는 연 2% 금리를 지속적으로 공급할 수 있을 지 의문에 대해 "충분히 감당한 수준"이라고 호언장담했지만, 두 달 만에 약속을 깬 것이다. 연 2% 금리 혜택을 보기 위해 토스뱅크를 이용해왔던 소비자들 사이에선 실망스럽다는 평가가 나온다. 토스뱅크에 최근 가입했다는 정미영(가명)씨는 "무조건 연 2% 금리를 제공한다는 것을 보고 가입해 돈을 넣어놨는데 다시 혜택을 줄인다니 황당하다"며 "두 달 만에 말을 바꾸니 토스뱅크에 대한 신뢰가 떨어지게 됐다"고 지적했다. 30대 이성미(가명)씨도 "최근 1억5000만원을 토스뱅크에 넣어뒀는데 1억원 초과분에 대해선 0.1% 금리를 제공하겠다는 문자를 받았다"며 "0.1%라면 굳이 토스를 이용할 필요가 없기 때문에, 혜택이 종료되는 내년엔 저축은행으로 자금을 나눠 토스뱅크엔 9000만원 정도만 놔둬야겠다는 생각"이라고 밝혔다. 또 한국은행이 최근 기준금리를 1%로 인상했다는 점을 감안하면 금리를 대폭 낮췄다는 점이 아쉽다는 의견도 나온다. 20대 강현성(가명)씨는 "기준금리도 0.75%에서 1%로 올랐는데 1000만원 이상부터는 차라리 2.25%로 줬다면 더 좋았을 거 같다는 생각이 든다"며 "초기 흥행에 성공해서 신규 유저는 필요 없다는 인상을 받았다"고 밝혔다. 최근 토스뱅크는 고객들에게 캐시백 변경 사실을 통보했다. (사진 = 토스뱅크 홈페이지 캡처)여기에 각종 혜택도 줄어든다는 점도 아쉬운 점으로 지적됐다. 그간 토스뱅크는 체크카드로 커피전문점 편의점 패스트푸드점 택시 대중교통에서 결제하면 각각 하루 한 차례 300원의 캐시백 혜택을 제공해왔다. 하지만 내년 1월5일부터는 버스 지하철 등 대중교통 결제 시 돌려주던 300원의 캐시백은 100원으로 줄어들게 된다. 40대 윤민우(가명)씨는 "토스뱅크 체크카드를 이용하면 매일 300원을 주기 때문에 사용하고 있었는데 내년 1월부터는 100원으로 줄어든다는 점이 아쉽다"며 "대중교통 할인이 제공되는 다른 카드를 알아봐서 이용할 계획"이라고 밝혔다. 이처럼 두 달만에 혜택이 변경되면서 나중에도 추가로 혜택이 변경되는 것 아니냐는 관측도 나온다. 20대 이승진(가명)씨는 "사실 캐시백이 100원으로 줄어들어도 나쁜 조건은 아니지만, 두 달 만에 말을 바꾸니 아무래도 고객 입장에서 또 언제 혜택이 축소될 지 불안하다"며 "토스뱅크에 대한 신뢰가 떨어질 수 밖에 없다"고 지적했다. 은행권에선 예상된 수순이었다는 반응이다. 시중은행 관계자는 "예대마진을 고려하면 2% 금리를 일괄적으로 공급한다는 것 자체가 불가능해 보였다"며 "역마진이 나면서 어쩔 수 없이 결정한 것으로 보인다"고 밝혔다. 토스뱅크 측은 역마진을 감안해 내린 결정이라고 해명했다. 토스뱅크 관계자는 "최근 역마진으로 경영악화가 난 상황을 고려했고, 이같은 변경 사항을 고객들에게 미리 알린 것"이라며 "다른 은행과는 달리 급여이체 등 조건없이 수시입출금으로 2%를 제공한다는 측면에선 아직 매력적인 상품"이라고 밝혔다. 체크카드 혜택과 관련해선 "다른 서비스를 추가하는 것도 검토해봤지만, 오히려 소비자들을 기만할 수 있다는 판단에 서비스를 축소한 것"이라며 "내년에 더 좋은 혜택을 제공하겠다는 보장은 할 수 없지만, 6월부터 에피소드3을 내놓을 예정"이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2021.12.03.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>토스뱅크, 내년에도 '2% 통장' 유지…1억 초과는 0.1%로 삭감</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004679026?sid=101</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>토스뱅크가 파격적으로 선보인 '2% 이자' 통장이 내년에도 유지된다. 다만 1억원을 넘는 금액은 금리가 0.1%로 대폭 낮아진다. 토스뱅크는 내년 '2% 통장'을 그대로 운영한다고 3일 밝혔다. 조건 없이 돈을 맡기면 연 2% 금리를 적용하는 요구불예금이다. 대부분의 고객은 지금처럼 혜택을 누릴 수 있지만 1억원을 초과하는 경우 내년 1월5일부터 금리가 0.1%로 변동된다. 시중은행이 주는 금리 수준이다. 1억원은 예금자 보호 한도(5000만원)의 2배다. 예를 들어 1억1000만원을 토스뱅크 통장에 맡겼다면 1억원에 대해서는 연 2%, 1000만원에 대해서는 연 0.1%의 금리를 각각 받게 된다. 이자 지급 방식은 변동 없이 유지된다. 예치기간 없이 하루만 돈을 맡겨도 이자를 받을 수 있다. 금액, 기간에 따라 매월 셋째주 토요일에 이자가 일할 계산돼 지급된다. 토스뱅크 관계자는 "고객에 신뢰를 주고 최대한의 혜택을 제공하기 위해 이처럼 결정했다"며 "99%의 고객이 기존처럼 혜택을 누릴 수 있을 것으로 보인다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2021.12.11.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>[금융D-택트] 케이뱅크, 왜 이제와서 리눅스로 전환할까</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002241835?sid=105</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>계정계 2022년까지 변환...대고객 서비스 향상에 도움돼야“디지털 컨택트(Digital Contact)가 일상으로 자리잡은 지금, 한 주간 금융업권의 디지털 이슈를 물고, 뜯고, 맛보는 지디의 '금융 D-택트'를 격주 토요일 연재합니다. 디지털 전환의 뒷 이야기는 물론이고 기사에 녹여내지 못했던 디테일을 지디넷코리아 독자 여러분에게 소개합니다. [편집자주]”인터넷전문은행 '케이뱅크'가 최근 은행의 금융 거래를 도맡고 있는 IT 시스템 중 '계정계'를 유닉스에서 리눅스로 전환하기로 결정했습니다. 2020년부터 정보계를 시작으로 일부 남아있던 유닉스 기반 시스템에 대해 리눅스 전환을 추진해왔다고 케이뱅크는 설명했습니다.은행 IT 시스템은 ▲계정계(여수신·외국환 업무 등 고객과 직접적인 금융 거래 담당) ▲채널계(콜센터와 제휴업체 정보 연계 등 비대면 채널 관리) ▲정보계(데이터 저장, 분석 및 관리)로 구성됩니다. 즉, 계정계는 고객과 접점의 시스템을 바꾸겠다는 것입니다.이 같은 전환 추진에 대해 반응은 반반입니다. 하나는 케이뱅크가 고객 채널(뱅킹 애플리케이션(앱)·카드 앱·계정 데이터베이스)를 리눅스로 전환하면서 조금 더 나은 서비스를 제공할 수 있겠다는 관측입니다.케이뱅크 사옥특히 리눅스로 전환할 경우, 개발과 운영 단계서 수월하게 시스템을 유지하고 꾸릴 수 있는 클라우드를 도입하기 수월하기에 결국 대고객 서비스가 좋아질 것이라는 기대입니다.한국레드햇 관계자는 "클라우드의 90%가 리눅스로 기반으로 들어가고 있기 때문에 클라우드로 넘어가는 최적화된 운영체제를 갖추려고 하는 것이 최근 추세"라며 "유닉스를 통해 클라우드를 도입할 수 있지만 확장하고, 하이브리드 체제를 유지할 때 번거로울 수 있다"고 설명했습니다.케이뱅크 IT시스템 전환그렇지만 다른 하나는 희망찬 것만은 아닙니다. 굳이 유닉스로 설계된 시스템을 이제 와서 리눅스로 전환할 필요가 있냐는 의문입니다. 이미 일부 시중은행에서 유닉스 시스템에서도 현재의 모바일 환경을 대처하고 있는데 '케이뱅크는 왜 지금'이라는 반문인 것이죠.초창기 카카오뱅크는 이미 리눅스로 금융 IT 시스템을 구축했다는 점, 최근 출범한 토스뱅크도 리눅스를 구축했습니다.이에 대해 케이뱅크 관계자는 "시스템 구축 당시 은행 IT시장의 기술 성숙도 등을 고려할 때, 유닉스 분야의 기술 안정성 및 전문 인력 확보 용이성이 가장 높다는 판단 때문"이라고 말했습니다. 케이뱅크 측은 초창기 지분 투자자인 우리은행의 인력과 노하우를 활용했다는 점도 부연했습니다.일각에서는 케이뱅크가 가상자산 거래소 '업비트'의 제휴 이후 거래가 수월하지 않았다는 점, 공모주 청약 관련 이벤트서 예전만한 서비스를 못누렸다는 점을 개선하기 위해 리눅스 전환을 꾀하는 것이 아니냐는 의구심을 갖고 있긴 합니다.리눅스가 갖고 있는 '스케일 아웃'의 기능을 통해 서버 활용 능력도를 증가시키려는 목적이 아니냐는 것입니다. 스케일 아웃은 접속된 서버의 대수를 늘려 처리 능력을 향상하는 것으로 유닉스의 스케일 업(서버 자체의 성능을 높이는 것)에 비해 비용과 속도가 더 효율적이라는 것이 업계 설명입니다.케이뱅크는 고객을 위해 더 나은 서비스를 위해 리눅스로 전환하는 것과 동시에 기존 서버 공간 활용으로 데이터를 증설하겠다는 복안입니다. 리눅스 전환이 그간의 과오(?)를 덮기 위한 하나의 홍보 수단이 되지 않길 바라봅니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2021.12.09.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>'타다 넥스트', 연말까지 요금 50% 할인</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000641441?sid=105</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>최대 1만원까지 할인 가능…횟수 제한은 없어모빌리티 플랫폼 '타다' 운영사 브이씨엔씨(VCNC)는 연말까지 '타다 넥스트' 요금 50% 상시 할인 이벤트를 진행한다고 9일 발표했다.이번 이벤트는 타다의 대형차량 이동 서비스 '타다 넥스트'의 베타 버전 오픈을 기념하기 위한 프로모션이다. '타다 넥스트'는 지난달 25일 서울 지역 대상 베타 버전 운영을 시작했다.타다 넥스트가 연말까지 상시 반값 할인 이벤트를 진행한다. [사진=VCNC]타다 사용자라면 누구나 '타다 넥스트' 호출 시, 50% 할인 쿠폰 적용이 가능하며 이달 31일까지 횟수 제한 없이 회당 최대 1만원 할인이 가능하다.토스의 간편결제 서비스 '토스페이' 연동으로 보다 쉽고 편리한 요금 결제도 가능하다. 타다 앱 업데이트 후 결제 수단 등록 창에서 토스페이 선택 및 간단한 등록 절차를 거치면 된다. 타다의 모든 서비스 결제 시 토스페이를 이용 가능하다.'타다 넥스트'는 베타 서비스 기간 중 안정화와 고도화를 거쳐 내년 초 정식 출시될 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2021.12.13.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>방역패스 과태료' 첫날 점심시간 QR코드 먹통 '혼란'</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005780821?sid=102</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>(서울=뉴스1) 황기선 기자 = 방역패스(백신패스)의 계도기간이 끝나 의무화된 13일 오후 서울 시내 한 식당에서 손님의 핸드폰에  QR코드 전자증명 시스템에서 오류가 발생하고 있다.블록체인기반 코로나19 백신 인증 시스템인 쿠브(Coov)는 이날 한 때 네트워크 오류가 발생했다. 네이버, 카카오, 토스 등을 통한 QR코드 생성은 일부 원활한 편이지만, 다수의 시민들에게서 간헐적으로 접속 장애 현상이 나타났다. 2021.12.13/뉴스1</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2021.12.14.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>서버 터진 방역패스, 14일 증설에도 오류 이어져</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002987753?sid=101</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>서울 서대문구 연세대 중앙도서관 입구에서 한 학생이 코로나19 예방접종증명서를 보이고 있다. 13일부터 식당·카페 등에서 방역패스 확인을 하지 않으면 이용자·운영자 모두에게 과태료가 부가된다. &lt;연합뉴스&gt;식당·카페 등에 방역패스 의무화 조치가 시행된 지 이틀째에도 서비스 불안정이 지속됐다. 총리가 첫날 겪은 시민 불편에 대해 사과했지만 다시 접속 장애가 발생하며 우려를 불식시키지 못했다.14일 정오 한때 네이버 QR코드 서비스에 '네트워크 오류'가 메시지가 뜨면서 접속 장애가 발생했다. 쿠브앱과 카카오 QR코드 역시 간헐적으로 접속이 안 되거나 지연되는 현상이 발생했다.질병관리청은 “'쿠브앱'은 정상 가동 중이며, 네이버 외에 민간 플랫폼사에서는 특별한 장애가 발생하지 않은 상황”이라면서 “쿠브, 카카오, 토스앱, 통신 3사 패스(PASS) 앱을 사용해 QR체크인을 이용해달라”고 안내했다.질병청이 직접 관리하는 쿠브를 비롯해 네이버·카카오 QR 등은 코로나19 백신접종 이력을 확인할 수 있는 인증 시스템으로 같은 서버에서 정보를 불러온다.앞서 지난 13일 식당과 카페 방역패스 의무화 첫날에도 인증 요청이 몰리며 이들 서비스 접속 자체가 안되는 사태가 발생했다. 질병청은 접속량 폭증에 따른 과부하가 원인이라고 설명했다. 기존 방역패스 사용량을 토대로 서버를 증설했지만, 계도기간 종료와 함께 접속량이 폭증하면서 발급이 원활하지 못했다는 것이다.질병청은 14일 새벽 서버 긴급 증설·최적화 작업을 진행했다. 김부겸 총리 역시 이날 오전 국무회의에서 “코로나19 백신접종 이력을 확인할 수 있는 앱과 시스템 오류로 불편을 드린 점 진심으로 사과드린다”고 말했다.방역당국은 시스템 미비로 발생한 방역패스 확인 미준수 사례에는 과태료를 부과하지 않을 방침이다.중대본 관계자는 “인증이 몰리는 시간대에 (네트워크 오류 등)동일 문제가 발생한다면 이는 시설 운영자와 이용자의 고의·과실 증명이 어려운 상황”이라면서 “방역패스 제시·확인을 안 했다고 행정처분 대상으로 보기 어려울 것”이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2021.12.02.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>토스, "시각장애인도 편하게 이용가능"···모바일 접근성↑</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0003992075?sid=101</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>설치부터 상담까지 문턱 낮춰[서울경제] 모바일 금융 플랫폼 ‘토스’가 시각장애인 등 앱 활용이 어려운 소외계층에게 호평을 받고 있다. 2일 토스에 따르면 토스는 앱 사용이 어려운 사용자들도 이용할 수 있도록 문턱을 넓히고 있다. 대부분의 앱들이 다운로드 후 최초 실행시 기본 설정이 작은 글씨로 고정돼 있지만 토스는 휴대폰 기기의 글씨 크기 설정 그대로 토스앱에 적용해 가입 단계부터 수월하게 사용이 가능하다. 일반적으로 3단계 글씨 크기 설정만 지원하는 앱들과 달리 iOS(9단계), 안드로이드(12단계)의 모든 크기 설정을 유기적으로 구현했으며 글씨가 커져도 단락 나눔이 어색해지지 않는다. 저시력자들이 애용하는 다크모드도 앱설치 후 별도의 조작 없이 그대로 앱화면에 적용된다. 기술적 부분만 개선한 것이 아니다. 시각장애인 사용자(화면을 읽어주는 기능을 켠 고객 기준)가 고객센터 연결이 필요한 경우 우선 상담 배치로 빠르게 도움을 받을 수 있다. 한 저시력 토스 사용자는 “토스 사용 이전에는 주거래 은행앱을 사용하려고 했는데 가입단계부터 신분증 촬영 등 어려움이 있었고 대체텍스트도 없었다”며 “토스는 ARS를 통해 편리하게 가입할 수 있었고 송금에서도 막히는 부분없이 사용할 수 있다”고 말했다. 처음부터 토스가 모바일 접근성이 높은 서비스를 구현한 것은 아니었다. 지난 2017년 앱 업데이트 이후 보이스오버 기능을 사용하면 아이폰 새 버전에서 앱이 꺼진다는 고객민원이 유입된 것이 시발점이 됐다. 당시 이승건 대표는 “지난해 우리나라 장애인 인구는 250만명, 그 중 토스앱 사용과 직접적 연관이 있을 것으로 보이는 지체, 청각, 언어, 시각장애 인구는 180만명에 달한다”며 “모바일 접근성을 높이는 작업을 해야하는 당위성을 찾았다"고 말했다. 지난 11월 기준 핸드폰 화면을 읽어주는 보이스오버(아이폰 기준) 기능을 사용중인 유저는 토스 전체 가입자의 1% 미만을 차지한다. 소수의 숫자지만 최근 1년 사이 사용자가 2배 가량 늘어난 것을 감안했을 때 토스의 문턱이 장애인들에게 넓어지고 있다는 것을 의미한다. 한편, 토스는 지난 9월 한국웹접근성평가센터로부터 ‘모바일 접근성 우수앱' 인증을 획득했다. 실로암장애인자립생활센터가 선정한 ‘앱 접근성 모범사례'에 이름을 올리기도 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2021.12.09.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>알토스벤처스, 기업용 채용 관리 ‘그리팅’에 투자</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004752864?sid=105</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>그리팅 운영사 두들린 43억 규모 투자 유치  [파이낸셜뉴스] 기업용 채용 관리 솔루션 ‘그리팅(Greeting)’ 운영사 두들린은 알토스벤처스 등으로부터 43억원 규모 첫 기관투자(시리즈A)를 유치했다고 9일 밝혔다.   이번 투자에는 알토스벤처스가 새롭게 참여했다. 또 기존 투자자인 퓨처플레이, 프라이머, 슈미트, 동훈인베스트먼트도 후속투자자로 참여했다.   시리즈A 투자를 주도한 알토스벤처스는 쿠팡, 크래프톤, 우아한형제들(배민), 직방, 당근마켓, 비바리퍼블리카(토스) 등에 투자한 실리콘밸리 기반 벤처캐피털(VC)이다.   그리팅은 인재 채용 과정에서 기업이 겪는 어려움을 해결하는 원스톱 채용 솔루션이다. 여러 가지 채용 플랫폼을 통해 지원한 이력서를 한 번에 열람하고 관리할 수 있다. 또 각 지원자별 평가, 일정 조율, 합격 유무 통보를 그리팅으로 확인할 수 있어 인재 채용 담당자와 경영진들의 복잡한 커뮤니케이션 과정을 대폭 절감한다.   현재 그리팅은 쏘카, 아이디어스, 패스트파이브, 넵튠, 강남언니 등 약 1300개 고객사를 지원하고 있다.    기업용 채용 관리 솔루션 '그리팅' 운영사 두들린이 알토스벤처스 등으로부터 약 43억원 규모 시리즈A 투자를 유치했다. 알토스벤처스 제공 이태규 두들린 대표는 “이번 투자유치를 통해 그리팅 서비스를 함께 만들어 갈 인재 채용과 서비스 고도화에 집중할 계획”이라며 “기존 고객사 피드백을 빠르게 수렴하고 제품을 개선해 나가는 구조를 만들 것”이라고 말했다.   이번 투자를 주도한 알토스벤처스 박희은 파트너는 “그리팅은 채용공고에서부터 합격통보에 이르는 전체 채용 과정에서 회사 비용과 시간을 줄이고 효율적 의사결정이 가능하도록 한다”면서 “또 고객사가 필요한 기능을 빠르게 업데이트하고, 고객반응을 체크하며 개선하는 팀의 역량을 믿고 투자를 결정하게 되었다”고 전했다. #알토스벤처스 #그리팅 #두들린</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2021.12.10.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>KTB네트워크 "해외서 제2의 배달의민족 발굴"…16일 상장 [종목탐방]</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001002825?sid=101</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>&lt;앵커&gt;[종목탐방] 시간입니다.오늘은 국내 벤처캐피탈(VC) 최초로 해외 시장에 진출한 1세대 투자사인 `KTB네트워크`를 소개해드리겠습니다.KTB네트워크는 오는 16일 코스닥 상장을 발판 삼어 대한민국 대표 글로벌 벤처캐피탈로 도약한다는 포부입니다.박승원 기자가 이 기업을 탐방했습니다.&lt;기자&gt;지난 1981년 설립돼 오는 16일 코스닥 시장 입성이 예정된 KTB네트워크.국내외 주요 기관과 파트너십을 구축한 국내 1세대 벤처캐피탈(VC)입니다.성장 잠재력이 높은 기업을 모색해 기업가치 1조원 이상인 `유니콘 기업`으로 성장시키는 스케일업 투자전략을 고수하고 있습니다.성장 가능성이 높은 기업을 단계별로 선별해 지속적인 대규모 후속투자와 경영컨설팅을 지원하는 전략입니다.이 가운데 배달의 민족으로 알려진 `우아한형제들`과 금융플랫폼 토스의 운영사인 `비바리퍼블리카`가 스케일업 투자의 대표 사례입니다.우아한형제들의 경우 23억원을 투자해 629억원을 회수했고, 비바리퍼블리카는 평가이익이 수십배에 달할 것으로 점쳐지고 있습니다.[김창규 KTB네트워크 대표 : 배달의 민족은 작년에 (독일) 딜리버리히어로에 4조원 밸류 이상의 M&amp;A가 돼 저희가 원금 23억원 대비 27배 이상의 수익을 저희가 거뒀습니다. 토스 서비스를 하는 비바리퍼블리카는 저희가 2015년에 투자한 이후에 총 누적투자 112억원에, 저희가 지분이 2.8%입니다. 현재 펀딩 밸류는 8조원 이상이 되고, 비교 회사인 카카오뱅크나 카카오페이 비교 가치가 20조원 내외임을 감안하면 향후에 상당한 수익이 예상됩니다.]여기에 최근 상장한 걸그룹 마마무의 소속사인 알비더블유 역시 원금 대비 10배에 달하는 수익이 확보된 상황입니다.국내 벤처캐피탈(VC) 최초로 해외 시장에도 진출해 괄목할만한 성과를 시현했습니다.KTB네트워크는 현재까지 미국 시장에서는 65개 기업, 중국 등 아시아 지역에서는 49개 기업에 투자했습니다.이 가운데 미국 시장에서는 `오릭스`와 `버클리라이츠`에, 중국 시장에선 `샤오펑`과 `카스젠`에 투자해 소위 `대박`을 터뜨렸습니다.[김창규 KTB네트워크 대표 : 오릭스는 존슨앤존슨에 8조원 밸류 정도로 M&amp;A(인수합병)가 돼 저희가 어느 정도 좋은 수익을 거뒀습니다. 버클리라이츠는 나스닥에 상장돼 저희가 110% 이상의 수익으로 엑시트한 바 있습니다. 중국의 경우 전기차 업체인 샤오펑이 나스닥에 상장돼 저희가 원할한 배수로 엑시트를 했습니다. 현재 홍콩시장에 상장된 카티를 이용한 업체인 카스젠은 저희가 평가이익이 2천억원 이상 실현된 상황입니다.]KTB네트워크는 국내외 주요 투자 건이 좋은 성과를 내면서 실적 역시 고공행진중입니다.올해 3분기까지 누적 당기순이익은 631억원. 이미 지난해(358억원) 전체 당기순이익을 뛰어넘었습니다.최근 상장한 알비더블유와 툴젠 등에서의 수익을 감안하면 올해 사상 최대 실적이 기대되고 있습니다.[김창규 KTB네트워크 대표 : 작년에도 저희가 350억원 이상의 이익을 내서 업계 수의를 달성했지만, 현재 3분기까지 당기순이익이 631억원 정도 되고 있습니다. 지금부터 알비더블유나 툴젠 그리고 그랩이란 업체가 상장 대기하고 있고, 이런 업체들이 원활하게 상장돼 저희가 좋은 평가이익을 취하게 되면 올해도 상당한 수익이 예상될 것으로 생각합니다.]KTB네트워크는 여기서 더 나아가 상장 이후 해외투자 비중을 40%까지 늘린다는 계획입니다.국내 경기 변화에 따른 변동성을 줄이고, 글로벌 벤처캐피탈(VC)로 성장하기 위함입니다.이 과정에서 내년 5천억원 이상의 대규모 해외펀드를 출시한다는 전략입니다.[김창규 KTB네트워크 대표 : 저희가 추가적으로 투자비율을 국내 60%, 해외 40%까지 늘려서 조화를 이루면서 안정적으로 회사를 운영할까 합니다. 이(공모) 자금들은 저희가 앵커 비율 보통 15~20%임을 감안하면 5천억원 이상의 펀드를 만들 수 있는 마중물이 되겠습니다. 따라서 저희가 5천억원 이상 펀드 추진을 할 건데, 이중에서 해외 전용 펀드도 있을 것이고 국내도 있을 것으로 해서…]국내 1세대 벤처캐피탈(VC)인 KTB네트워크.이번 증시 상장을 계기로 대한민국 대표 글로벌 벤처캐피탈(VC)로 도약한다는 포부입니다.한국경제TV 박승원입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2021.12.13.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>몸달은 유통가, 네카라쿠배-당토직야에 ‘IT인재 모시기’ 맞불</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001490947?sid=101</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>대규모 공개채용에 스톡옵션, 사이닝보너스 등 인센티브까지 제시롯데온의 IT, UX(사용자경험) 부문 경력직 채용 이미지. 롯데온 제공이커머스 시장이 급격하게 성장하면서 유통업계의 개발자 채용경쟁이 치열하다. IT업계가 개발 인력을 대거 빨아들이자 유통업체들은 스톡옵션, 사이닝보너스 등의 인센티브를 내놓으면서 맞불을 놓고 있다.13일 통계청에 따르면 지난 10월 온라인쇼핑 거래액은 16조9023억원으로 전년 동월 대비 21.7%(3조180억원)나 증가했다. 관련 통계 작성을 시작한 2001년 이후 최고치다. 코로나19 팬데믹으로 소비의 중심축이 온라인으로 이동하면서 이커머스 시장은 가파르게 성장 중이다. 이 때문에 유통업계는 몸달고 있다. 점점 빨라지는 디지털 전환에 발맞춰 당장 실무에 투입할 수 있는 인력 확보에 열을 올린다.롯데온은 오는 22일까지 IT·UX(사용자경험) 직군 경력사원을 세자릿수 규모로 채용할 예정이다. 지난해 4월 출범한 이후 첫 대규모 공개채용이다. 모집 분야는 PM(제품매니저), PD(제품개발자), 데이터, 테크, UX 부문의 25개 직무다. 사실상 롯데온의 IT분야 직군 대부분이다. 롯데온 관계자는 “온·오프라인 쇼핑이 결합된 새로운 쇼핑환경 구현이 중요해졌다. 내년에도 이커머스 시장 성장세가 이어질 것으로 예상돼 발빠르게 IT인재 확보에 나섰다”고 말했다.전통적인 오프라인 유통업체들도 개발자 모시기에 뛰어들었다. GS리테일은 최근 이커머스 전체 사업 영역을 총괄하는 디지털커머스 비즈니스유닛(BU)의 경력사원 공개채용을 진행했다. 채용 인원은 두 자릿수 규모다. 지난 7월 신설된 디지털커머스 사업 규모를 2025년 5조8000억원까지 키우기 위한 투자다.CJ올리브영은 지난 8월에 1999년 창사 이래 최대 규모로 IT인력을 채용했다. 별도 서류전형 없이 코딩 테스트만으로 지원자 역량을 검증했다.당근마켓의 ‘+100 members 채용 캠페인’ 이미지. 당근마켓 제공 유통업계가 개발자 확보에 뛰어들었지만, IT업계는 최고 대우를 보장하며 인력을 흡수하고 있다. 최근엔 대표 IT기업 ‘네카라쿠배(네이버, 카카오, 라인, 쿠팡, 배달의민족)’에서 당근마켓·토스·직방·야놀자가 추가된 ‘네카라쿠배, 당토직야’로 개발자가 몰리고 있다.당근마켓은 지난 6일부터 5주간 100명 이상의 전 직군 채용 캠페인을 벌이고 있다. 일주일에 20명가량을 뽑는 셈이다. 2015년 7월 3명으로 시작해 현재 임직원 수는 250여명이다. 최근 3년간 연평균 채용 규모가 2.7배씩 증가하고 있다. 당근마켓은 전체 인원 중 개발 인력이 65~70%를 차지한다.이처럼 개발자 몸값이 치솟자 유통업체들은 각종 인센티브를 내걸고 유혹한다. 내년 상장을 앞둔 SSG닷컴은 기술인력 전원에게 주식매수선택권(스톡옵션)을 부여하고 있다. 내부 인력의 IT기업 유출을 막으려는 조치다. 올해 SSG닷컴의 개발직군 누적 퇴사율은 20~25%에 달한다.종합 유통물류 브랜드 ‘부릉’을 운영하고 있는 메쉬코리아도 지난 10월에 IT인력 유치를 위해 엔지니어링과 데이터 사이언스 직군 합격자에게 5000만원 사이닝보너스 또는 1억원 상당의 스톡옵션을 지급하기로 했다.11번가는 지난 5월 개발직군 500만원, 비개발직군 250만원의 정액 임금인상을 단행했다. 11번가 관계자는 “최근 이커머스 업계를 비롯해 다수의 IT기업이 개발자 채용시장에 경쟁적으로 뛰어들고 있어 개발직군에게 업계 평균을 상회하는 12.7% 수준의 인상안을 제시했다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2021.12.09.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>'타다' 빠진 쏘카 창립 10주년…"숙박까지 해결하는 모빌리티 슈퍼앱될 것"</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005774001?sid=105</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>내년부터 카셰어링, 전기자전거, 주차, 기차 등 연결하는 슈퍼앱 선보인다쏘카가 제시하는 미래 '쏘카 스테이션'(쏘카 제공) © 뉴스1(서울=뉴스1) 이정후 기자 = 쏘카가 창립 10주년을 맞아 새로운 비전을 9일 발표했다. 쏘카 모빌리티 전략의 핵심축 중 하나였던 '타다'가 금융 플랫폼 '토스'에 지난 10월 인수됐지만 종합 모빌리티 플랫폼 전략을 이어갈 방침이다.핵심은 자동차, 전기자전거, 철도 등 모든 모빌리티를 아우르는 '스트리밍 모빌리티'다. 이날 쏘카가 제시한 '스트리밍 모빌리티'란 자동차를 소유하지 않아도 언제 어디서나 필요에 맞게 제공되는 이동 서비스를 말한다.쏘카는 내년부터 이용자들이 Δ차량공유(카셰어링) Δ전기자전거 Δ철도 등을 모두 '쏘카' 앱에서 예약할 수 있도록 슈퍼앱도 선보일 계획이다. '쏘카' 앱 하나만으로 모든 모빌리티를 이용하고 이용 후에는 주차와 숙박까지 해결하는 '원스톱' 서비스다.또한 내년부터는 차량 대여 장소에서 반납해야 하는 왕복 서비스에서 벗어나, 원하는 장소에서 출발하고 목적지에서 반납하는 편도 서비스도 확대할 방침이다. 우선 수도권 지역부터 쏘카 예약으로 차량을 탁송 받고 목적지에서 반납하는 서비스를 선보일 계획이다.쏘카는 편도 서비스가 자율주행 시대를 대비해 대규모 차량을 관리하고 운영하는 노하우의 핵심 기반이 될 것으로 기대한다고 밝혔다. 자율주행 서비스가 본격화되면 이용자들의 수요에 따른 유동적인 차량 배치가 기업 경쟁력의 핵심이 될 것이라는 기대다.쏘카는 차량 내 개인 맞춤 서비스 개발도 나서겠다고 밝혔다. 이용자의 취향과 선호도를 반영해 Δ차량 내 온도 Δ좌석 위치 Δ음악 등을 이용자에 따라 달리 제공하는 방식이다. 차량 내에서 Δ식음료 배달 Δ쇼핑 Δ결제까지 가능한 이동 연계 서비스도 개발할 방침이다.이날 쏘카는 종합 모빌리티 플랫폼으로 성장하고 있다며 '타다' 서비스와 통합 모빌리티 멤버십 '패스포트'를 운영해 시너지를 내고 있고 통합차량관리 플랫폼 '유레카'를 개발 및 운영하고 있다고 설명했다.또 국내 최초의 공유 전기자전거 '일레클' 운영사인 '나인투원'에 전략적 투자를 단행해 수도권 및 여러 지자체에 공유 전기자전거 서비스를 제공하고 있다고 밝혔다.자율주행 기술 스타트업 '라이드플럭스'에도 투자해 2020년 5월부터 제주공항과 '쏘카스테이션 제주'를 왕복 운행하는 자율주행 셔틀 버스를 운영하고 있다고 덧붙였다. 제주 전역 주요 도로와 세종시 등으로 자율주행 서비스를 확대할 예정이다.아울러 2030년까지 전체 서비스 차량을 전기·수소차 등 친환경 자동차로 편성해 운영하겠다고 말했다.한편, 박재욱 쏘카 대표는 "미래 모빌리티 시장의 키워드는 '전기차'와 '자율주행'이기 때문에 관련 기술이 발전할수록 이동 서비스를 제공하는 모빌리티 플랫폼 기업이 시장의 주도권을 가져갈 것"이라며 "자율주행 시대를 대비해 누구나 편리하게 이동할 수 있는 '스트리밍 모빌리티' 서비스를 제공하겠다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2021.12.14.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>QR 먹통에… 질병청 “네이버 빼고 이용해달라”</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003659539?sid=102</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>방역패스 의무화 시행 이틀째인 14일 서울 시내의 한 식당에서 QR 코드 인증을 마친 시민들이 점심 식사를 하고 있다. /뉴시스										전날에 이어 14일 점심 시간대에도 방역패스 먹통 현상이 일부 다시 나타났다.이날 오전 11시 40분쯤부터 네이버 앱을 통한 QR 접종증명 접속 오류가 나타나 시민들이 불편을 겪었다.쿠브 앱도 일시적으로 문제가 있었던 것으로 알려졌지만, 질병관리청은 “정부의 QR코드 전자접종증명시스템 ‘쿠브’는 정상 가동 중이며 현재 네이버 앱 외 민간 플랫폼에는 특별한 장애가 발생하지 않은 상황으로 파악한다”고 했다.질병청은 “쿠브, 카카오, 토스앱 및 통신 3사의 앱 등으로 방역패스를 활용해달라”고 했다.한편 김부겸 국무총리는 이날 정부서울청사에서 주재한 국무회의 모두발언에서 전날 방역패스 먹통 사태와 관련, “국민 여러분께 불편을 드린 점을 진심으로 사과드린다”며 고개를 숙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2021.12.09.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>타다넥스트, 연말까지 반값 할인…토스페이도 사용 가능</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002115051?sid=105</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>[디지털데일리 임재현기자] 타다가 대형차량 이동 서비스 '타다넥스트' 베타 서비스 출시를 기념하기 위해 반값 할인 이벤트를 열었다.   타다 운영사 브이씨엔씨(대표 이정행)는 연말까지 타다넥스트 요금 50% 할인 이벤트를 진행한다고 9일 밝혔다.   타다넥스트는 지난달 25일 서울 지역을 대상으로 베타 서비스가 시작됐다. 타다 사용자라면 누구나 타다넥스트 호출 시 50% 할인 쿠폰 적용이 가능하다. 이달 31일까지 횟수 제한 없이 최대 1만원이 할인된다. 토스 간편결제 서비스 '토스페이'도 연동을 끝마쳐 이용할 수 있다.   이정행 타다 대표는 “더 많은 사람이 타다넥스트를 체험하길 바라는 마음으로 이벤트를 준비했다. 고객과 드라이버 모두 만족할 수 있는 모빌리티 서비스를 만들기 위해 노력할 것"이라고 말했다.   한편 타다넥스트 정식 서비스는 안정화 및 고도화를 거쳐 내년 초 개시 예정이다. 이를 위해 타다넥스트 드라이버도 모집 중이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2021.12.07.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>페널티 면한 인터넷은행, 중금리대출 총량관리 제외 검토에 '반색'</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005768261?sid=101</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>당국 "중금리, 노력 볼 것…기계적 페널티 없어"…업계 안도감중금리대출 총량 관리 제외시 영업 여유·중금리 대폭 확대 유인© 뉴스1(서울=뉴스1) 송상현 기자 = 움츠러들었던 인터넷은행들이 연말이 다가오면서 기지개를 켜고 있다. 불과 얼마 전까지 중·저신용자를 대상으로 한 중금리대출 확대와 총량 관리 준수라는 두가지 미션 달성을 위해 머리를 싸매던 것과 분위기가 달라졌다. 일단 금융당국이 중금리대출 목표치를 달성하지 못한 인터넷은행에 무조건 페널티를 적용하지 않겠다고 해 한시름 놨다. 여기에 내년부터 중금리대출이 총량 관리에서 빠지게 될 가능성이 커지면서 대출 영업에 여유가 생기는 것은 물론 중금리대출을 대폭 늘릴 수 있는 유인이 생겼다.7일 금융권에 따르면 중금리대출 목표를 맞추기 위해 안간힘을 쓰던 인터넷전문은행들은 최근 들어 다소 안정을 찾았다. 우선 금융당국이 인터넷은행들이 당초 제출한 대로 중금리대출 목표치를 달성하지 못했다고 해도 무조건 페널티를 주지는 않겠다고 밝혔기 때문이다. 금융당국 관계자는 "은행들이 중금리대출 수치를 반전시키진 못했지만 이행을 위해 실질적으로 노력을 많이 했고 그 부분이 제일 중요하다"며 "가계부채 관리 강화 등 여러 요인도 작용한 만큼 기계적으로 페널티를 주진 않을 것"이라고 설명했다.금융당국은 인터넷은행들의 중금리 실적이 미미하자 올해 초 중금리대출 목표치를 공시하도록 하고 이를 준수하지 못하면 신사업 제한 등의 페널티를 주겠다고 발표했다. 올해 신규 취급하는 가계 신용대출에서 중금리대출이 차지하는 비중을 일정 수준으로 관리하라고 한 것이다. 이에 카카오뱅크와 케이뱅크가 각각 20.8%, 21.5%의 목표치를 제시했고 올해 10월 출범한 토스뱅크도 34.9%라는 공격적인 목표를 잡았다.다만 올해 들어 대형 은행들이 금융당국의 고강도 총량 규제 압박 속에 대출 한도를 줄이자 인터넷은행으로 수요가 쏠리는 풍선효과가 발생하면서 중금리대출 비중을 맞추는 게 쉽지 않게 됐다. 카카오뱅크와 케이뱅크의 지난 9월말 기준 중금리대출 비중은 각각 13.4%, 13.7%로 목표치에서 한참 멀어져 있다. 토스뱅크 역시 33% 수준에서 대출 영업을 중단했다.인터넷은행들은 목표치 달성에 사실상 실패했지만 금융당국이 '달성을 위한 노력 여부'를 중심으로 보겠다고 하면서 한시름 놨다. 인터넷은행 관계자는 "올해 들어 중금리대출을 확대하려는 노력을 꾸준히 해 왔지만 비율을 맞추기 어려워 불이익에 대한 우려가 컸다"며 "최대한 근접한 수치를 내기 위해 연말까지 속도를 낼 것"이라고 강조했다.고승범 금융위원장이 지난 3일 기자간담회에서 "중저신용자대출을 총량 관리 한도에서 제외하는 방안까지 검토할 수 있다"고 밝힌 것도 인터넷은행으로선 기대를 하게 하는 요인이다.총량 관리 한도에서 중금리대출이 빠지면 일단 연간 대출 총량에 여유가 생긴다. 올해 총량을 거의 채운 상태에서 금융당국의 총량규제가 강화되자 인터넷은행은 울며 겨자 먹기로 남은 총량 한도를 중금리대출로 채워야 했다. 인터넷은행들은 3분기 들어 사실상 고신용자대출을 중단했고, 토스뱅크는 영업 일주일 만에 대출 영업 문을 닫는 사태까지 벌어졌다. 시중은행에 비해 규모 면에서 차이가 커 이제 막 성장에 속도를 붙여야 하는 인터넷은행으로선 뼈아팠다.또한 우량한 중·저신용자를 선별할 수 있는 능력을 갖춘 인터넷은행이라면 이번 제도 개편이 기회가 된다. 총량 관리에 구애받지 않고 중금리대출을 사실상 무한 늘릴 수 있는 여건이 조성되기 때문이다. 토스뱅크의 경우 토스 플랫폼을 기반으로 수집한 금융·비금융 데이터를 기반으로 한 신용평가시스템(CSS)에 자신감을 내비치며 중금리대출을 수익성을 높일 새로운 시장으로 보고 있다.인터넷은행 관계자는 "중금리대출이 총량 관리에서 떨어져 나가면 중금리대출을 더 열심히 하는 기폭제가 될 것"이라며 기대감을 나타냈다. 금융당국 관계자는 "인터넷은행이 올해도 중금리대출을 열심히 한 만큼 (이런 제도로) 더 독려해야 한다"고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2021.12.13.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>토스 누른 야놀자, 올해 가장 많이 오른 비상장 주식됐다</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000780093?sid=101</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>연초보다 234% 상승 토스 운영사 비바리퍼블리카·빗썸 등도 크게 올라 케이뱅크·교보생명 등 금융사는 주가 하락        올해는 코스피‧코스닥지수가 박스권에 머물면서 큰 변동을 보이지 않았지만 개별 상장 기업 중에서는 주가가 급등한 종목들도 종종 있다. 가상자산(코인)으로 게임을 하며 돈을 벌 수 있도록 해 주가 지난해말 보다 800% 가까이 오른 위메이드(112040)가 대표적인 종목이다.최근 투자자들 사이에서 관심이 높아지고 있는 비상장 주식들도 올해 주가 상승률이 수백 퍼센트에 달하는 종목들이 있다. 올해 들어 가장 주가가 많이 오른 기업 명단에는 야놀자, 비바리퍼블리카, 빗썸 등이 이름을 올렸다. 연초보다 주가가 200% 넘게 오른 비상장 기업들도 있다.전문가들은 비상장 주식에 투자할 경우에는 재무구조와 성장성, 기업공개(IPO) 가능성 등을 꼼꼼히 살펴본 후 투자할 것을 권했다.야놀자 서울 본사 사옥 전경. /야놀자 제공        13일 비상장 주식의 거래 플랫폼인 증권플러스 비상장에 따르면 시가총액 상위 10개 비상장 종목 중 올해 1월 1일부터 지난 9일까지 연초 대비 주가 수익률이 가장 높은 기업은 여행 플랫폼인 야놀자였다. 이 기간 2만9500원이던 주가는 9만8500원까지 올랐고 수익률은 234%를 기록했다.야놀자는 숙박업체를 예약할 수 있는 플랫폼 기업으로 손정의 회장이 이끄는 소프트뱅크의 투자를 받은 것으로 유명하다. 지난 10월에는 이커머스(전자상거래) 업체 인터파크의 전자상거래 사업 부문을 인수·합병(M&amp;A)하기 위한 양해각서를 체결하기도 했다.송금 애플리케이션(앱) 토스를 운영하는 비바리퍼블리카도 올해 주가가 급등한 비상장 종목이다. 1월 1일 4만5000원이던 주가는 지난 9일 14만3000원까지 상승했다. 수익률은 218%로 올해 200% 넘게 주가가 오른 곳은 야놀자와 비바리퍼플리카 2곳뿐이다.토스는 2013년 설립된 전자금융회사로 2015년부터 간편 송금 서비스인 토스(Toss)를 운영하고 있다. 자회사로 토스증권, 토스뱅크가 있고 ▲신용등급조회 ▲토스인증서 발급 ▲소비관리 등 서비스도 제공 중이다. 지난 3월말 기준 누적 사용자는 1800만명을 기록했다.가상자산 거래 플랫폼인 빗썸도 100%가 넘는 수익률을 기록 중이다. 연초 30만원이던 주가가 63만원까지 올라 수익률이 110%에 달했다. 또 현대오일뱅크(3만9800원→5만6500원·42%)의 주가도 3만원대에서 5만원대로 올라섰다. 또 지난 6월 23일 첫 거래가 이뤄진 두나무는 주가가 42만1000원에서 48만9000원으로 16% 상승했다. 두나무는 가상자산 거래 플랫폼 업비트를 운영하는 회사다.지난 10일 유가증권시장 상장을 위해 증권신고서를 금융위원회에 제출한 현대엔지니어링의 주가는 연초 10만5000원에서 지난 9일 11만8000원으로 12%가 올라 연초와 견줘 주가에 큰 변동이 없었다. 다만 현대엔지니어링이 증권신고서를 제출한 후인 12일에는 12만2000원까지 주가가 올랐다. 금융투자업계는 현대엔지니어링이 유가증권시장에 상장하면 시가총액이 10조원을 웃돌 것으로 본다.자료 = 증권플러스 비상장         주가가 큰 변동이 없거나 오히려 하락한 기업들도 있다. LG CNS(4%), 현대캐피탈(0%) 등은 주가가 연초와 비슷한 수준을 유지하고 있다. 인터넷 은행인 케이뱅크와 교보생명은 주가는 각각 47%, 48% 하락했다. 케이뱅크는 지난 9월 13일 첫 거래가 이뤄졌다. 3만5000원이던 케이뱅크 주가는 지난 9일 1만8600원까지 내렸다. 지난 3월 15일 첫 거래가 이뤄진 교보생명은 주가가 10만5800원에서 5만5000원으로 하락했다.금융투자업계 관계자는 “비상장 주식에 투자할 때는 재무건전성과 앞으로 얼마나 성장할 기업인지를 봐야한다. 하지만 가장 중요한 것은 향후 상장할 가능성”이라며 “상장하면 주가가 크게 오르고 상장이 취소되거나 지연되면 주가가 하락하는 등 상장 여부에 따라 주가가 많이 움직이기 때문”이라고 말했다.이민아 증권플러스 비상장 매니저는 “비상장 주식도 상장 주식과 마찬가지로 기본적인 재무제표 등을 확인해야 하고 대형 밴처캐피털(VC)로부터 투자를 유치한 이력 등 비즈니스 모델이 어느 정도 검증됐는지를 판단해서 투자를 결정해야 한다”고 조언했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2021.12.10.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>금융결제원, 국내 첫 사업자 간편인증 도입</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002987063?sid=101</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>금융결제원(원장 김학수)은 공인인증서 신뢰를 기반으로 편의성과 보안성을 모두 향상시킨 YESKEY(예스키) 금융인증 서비스를 지난 9일부터 사업자 대상으로 확대했다고 10일 밝혔다.사업자 금융인증 서비스는 기존 개인 금융인증서비스의 편리함과 안전함에 더해 인증서 관리·보안설정 기능, 인증서 유효기간 다양화 등 사업자에 특화한 기능까지 제공한다.우선 개인용 금융인증서와 동일하게 금융결제원 클라우드에 인증서를 보관해 분실·유출 위험이 없다. 각종 액티브X나 별도 앱 설치 없이 PC·모바일 어디서나 간편하게 사용할 수 있다.간단한 6자리 숫자 비밀번호만으로 인증할 수 있다. 인증서를 누가, 언제, 어디서 사용했는지 한눈에 확인 가능하다.사업자에 특화한 맞춤형 관리·보안기능은 강점이다.금융회사에서 사업자등록증 확인과 사업자 대표 또는 위임인에 대한 철저한 신원확인을 거쳐 발급한다. 사업자 상황에 맞게 유효기간을 1년, 2년, 3년 중 선택해 발급하면 된다. 수수료는 각 4400원(1년), 8800원(2년), 1만3200원(3년)이다. 이는 기존 사업자용 공동인증서와 동일한 수준이다.휴대폰인증이나 OTP 중 원하는 수단으로 클라우드에 접속할 수 있다. 인증서를 발급한 사람이 허가한 사람만 인증서를 사용할 수 있어 보안성을 높였다.금융결제원은 새해 1월 중으로 인증서 사용시간과 국외 사용차단 여부를 설정하는 기능을 제공한다.사업자용 금융인증서는 지난 9일부터 경남은행, 국민은행, 기업은행, 산업은행, 새마을금고에서 발급을 시작했다. 새해 1분기에 토스뱅크를 포함한 대부분 은행에서 순차 발급해 기업뱅킹에 적용할 예정이다.오는 13일부터 서울시 e택스와 국민연금공단에서 이용할 수 있다. 내년 중 주요 정부 민원업무에도 이용할 수 있을 예정이다.금융결제원은 “전자서명법 개정 이후 개인 고객 대상으로 제공해온 간편인증서비스를 사업자 고객에게도 확대 제공해 인증시장에서 소외된 사업자 고객 요구를 충족할 것으로 기대한다”며 “은행, 증권, 카드, 보험 등 전 금융권과 정부 민원업무에서 막힘없이 사용할 수 있도록 사업자 금융인증서비스 사용처와 기능을 계속 확대할 예정”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2021.12.13.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>질병청 "방역패스 과부하로 쿠브앱 장애‥KT DS 클라우드 문제"</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/214/0001165694?sid=102</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>사진 제공:연합뉴스질병관리청은 '방역패스' 확대 시행 첫날, 쿠브 앱 접속 장애와 관련해 "쿠브 서버가 있는 KT DS 클라우드센터에서 '접속 부하' 문제가 생긴 것으로 파악하고 있다"고 밝혔습니다. 질병청은 "전자출입명부나 쿠브 앱 이용에 불편을 끼친 점에 대해서 사과드린다"며 고개를 숙였습니다. 그러면서 "정상화를 위해 관련 기관들이 협의를 진행하고 있으며 긴급조치가 진행된 이후에 원인과 재발 방지 조치를 발표하겠다"고 밝혔습니다. 질병관리청 쿠브 앱과 전차출입명부와 관련한 접속 장애는 오전 11시 40분쯤부터 집중적으로 발생했습니다. 네이버·카카오·토스 등 백신접종을 확인할 수 있는 다른 앱에서도 한때 QR코드가 원활히 생성되지 않았습니다. 방역패스 확대 적용이 오늘부터 본격적으로 시행됨에 따라 점심시간 앱 이용이 급증한 것이 원인으로 보입니다.  오늘부터 식당·카페 운영자와 이용자가 방역패스를 제대로 확인하지 않을 경우 과태료가 부과됩니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2021.12.01.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>펄어비스, 전세계 검은사막 이용자 위한 ‘칼페온 연회’ 11일 개최</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002114555?sid=105</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>[디지털데일리 왕진화 기자] ‘검은사막’ 글로벌 이용자 간담회가 다음 주 열린다.   펄어비스(대표 정경인)는 PC 검은사막 및 검은사막 콘솔 이용자를 위한 ‘칼페온 연회’를 오는 11일 개최한다고 1일 밝혔다.   칼페온 연회에서는 전 세계 검은사막 이용자가 함께 참여하게 될 각종 이벤트를 비롯해 다양한 업데이트 콘텐츠를 선보일 예정이다.    이용자는 오는 11일 오후 5시 검은사막 공식 유튜브 및 트위치 채널을 통해 실시간 시청할 수 있다. 검은사막 전체적인 방향성과 진행했던 업데이트를 정리하고 ‘칼페온 예술제’ 등 다양한 즐길 거리로 구성됐다. 글로벌 실시간 행사를 고려해 영어, 러시아어, 태국어, 터키어 등 총 9개 언어로 생중계된다.   한편, 오늘(1일) 업데이트와 함께 새로운 이벤트도 진행된다. 이용자는 ‘아토락시온:시카라키아’ 플레이 시 ▲‘원념의 센티루토스’ 인테리어 아이템 ▲‘시카라키아:심연의 함’ 아이템을 얻을 수 있다. 올해 마지막 접속 보상 이벤트도 열렸다. 접속일에 따라 ▲‘마르니의 불안정한 연료’ ▲겨울 코스프레 상자 ▲‘크로그달로의 근원석’ ▲‘샤카투의 진귀한 상자’ 등을 획득할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2021.12.09.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>인터넷전문은행, 중저신용자 취급 늘렸다</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002710310?sid=101</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>공시시점 기준. 은행연합회    카카오뱅크와 케이뱅크 등 인터넷전문은행들이 중금리대출 취급을 대폭 늘린 것으로 나타났다. 연말까지 금융당국과 약정한 중저신용자 취급 비중을 맞추기 위한 조치다. 내년부터 중저신용자 대출과 정책서민금융 상품이 대출총량에서 제외될 가능성이 큰 만큼 이런 흐름을 계속될 전망이다. 9일 은행권에 따르면 11월 공시된 카카오뱅크의 신용대출 금리구간별 취급비중을 보면, 10월 신용대출 취급자 중 4~7% 미만 중금리 대출구간 취급비중은 50.2%로 전월(39.1%)보다 11.2%포인트 늘었다. 이 비중은 하반기 들어 줄곧 30%대를 유지했으나 지난달 전체 취급액의 절반가량을 중금리대에서 실행한 것이다. 은행권 중금리대출은 신용평점 하위 50%(KCB 820점이하) 중저신용자 대상 신용대출 중 6.5% 금리상한 요건을 충족하는 대출을 말한다. 7%이상 금리 취급 비중도 같은기간 19.5%에서 26%로 확대됐다. 지난 상반기말 1.3%에 그쳤지만 불과 4달만에 20배가량 급증했다. 자연스레 신용대출 평균금리도 한 달간 5.44%에서 6.19%로 늘었다. 케이뱅크는 10월 신용대출 중 4~7% 미만 비중은 29.9%로 전월보다 소폭 느는데 그쳤지만, 7% 이상 금리 비중은 같은기간 11.8%에서 20.7%로 두 배 가까이 증가했다. 지난 10월 5일 출범하며 첫 신용대출 금리 실적이 집계된 토스뱅크의 4~7% 미만 비중은 29.1%, 7% 이상 금리대 비중은 23.1%로 집계됐다.지난달 국민·신한·하나·우리 등 4대 시중은행이 취급한 4~7%대 구간 신용대출 비중은 15.5~28.5% 수준이다. 최대치를 놓고 비교해도 카카오뱅크의 중금리대출 구간 비중이 2배가까이 높다. 시중은행의 7%이상 금리 비중 역시 최대 10% 수준으로 인터넷은행의 절반이하 수준이다. 지난 3분기까지 중저신용자 대출 취급 비중을 획기적으로 늘리지 못한 인터넷은행들이 4분기 목표달성을 위해 속도를 내는 양상이다. 카카오뱅크와 케이뱅크의 지난 3분기말 중저신용자 신용대출 비중은 13%대에 그쳤다. 금융당국에 약정한 연간 취급 비중(카카오뱅크 20.8%, 케이뱅크 21.5%)에 못 미치는 수준이다. 이들 은행은 오는 2023년말까지 중저신용자 비중을 30%대까지 끌어올릴 계획이다.목표를 맞추지 못할 경우 금융당국으로부터 불이익을 받을 가능성이 있는 만큼 연말까지 취급 비중 확대에 적극적으로 나선다는 방침이다. 당국은 앞서 계획을 지키지 못할 시 인터넷전문은행이나 최대주주가 다른 금융업 진출을 위해 인·허가를 신청하는 경우 이행여부를 판단요소로 고려하겠다고 밝히기도 했다. 중저신용 고객에 각종 인센티브를 제공하는 것도 이 때문이다. 카카오뱅크와 케이뱅크는 다수 신용대출 상품을 이용하는 중저신용자에 연말까지 이자를 지원하고 있다. 사잇돌대출 등 일부 중단한 상품을 중저신용자에 한해 재개하거나, 대출 이자를 내린 것도 같은 맥락이다. 한 인터넷전문은행 관계자는 "출범 취지인 중저신용자 대출 취급 확대를 우선순위로 두고 있다"며 "출시 준비 중인 다른 대출 상품을 내놓을 때도 이러한 점을 고려할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2021.12.14.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>국민 4명 중 1명이 가입한 ‘구삐’…‘내 손 안의 국민비서’ 역할 톡톡</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001491370?sid=102</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>국민 4명 중 1명은 코로나19 백신 접종 안내와 국민지원금 지급 여부 등을 알려주는 국민비서 ‘구삐’ 서비스에 가입한 것으로 나타났다. ‘구삐’는 지난 3월말 행정안전부가 출시한 개인맞춤형 인공지능(AI) 알림서비스다. 백신 접종 관련 안내를 비롯해 지난 9월 국민지원금 지급대상 여부를 사전에 알려주는 등 코로나19 관련 행정서비스 편의성을 높였다는 평가를 받고 있다.14일 행안부에 따르면 국민비서 ‘구삐’ 가입자는 지난달 24일 기준 총 1369만명에 달한다. 지난 8월초만 해도 가입자가 64만명에 그쳤지만, 9월 들어 1인당 25만원의 국민지원금 지급이 가시화되고 백신 접종률도 높아지면서 가입자가 급격하게 증가했다.지금까지 백신접종 정보 2억8137만건, 국민지원금 알림 메시지 1423만건을 발송했다. 그 외에도 국가장학금 신청이나 교통 과태료 등 생활밀착형 정보 2720만건도 발송하며 ‘내 손 안의 국민비서’ 역할을 톡톡히 했다.기획단계부터 민간기업과의 협업을 강조한 것도 국민비서 서비스가 빨리 안착한 이유로 꼽힌다. 원래 행정안전부에서는 구삐를 개발할 때 싱가포르의 24시간 가상비서 서비스 ‘Ask Jamie’를 벤치마킹했다. Ask Jamie는 30개 이상 정부기관 웹사이트에 챗봇 시스템을 구축해 간단한 질의응답을 할 수 있도록 설계한 서비스다.‘구삐’ 서비스는 영역이 더 확장됐다. 우선 주민등록 데이터베이스 등 빅데이터에 기반한 개인맞춤형 알림과 챗봇 시스템을 설계했고, 알림 방식도 정부 웹사이트나 문자메시지뿐 아니라 네이버앱이나 카카오톡, 토스 앱으로도 받아볼 수 있도록 접근성을 높였다.행안부는 지난 3월 각각의 앱을 운영하는 기업들과 개인정보 처리 관련 업무협약도 체결했다. 김다윤 행안부 공공지능정책과 사무관은 “국민지원금의 경우 지급대상 여부에 그치지 않고 신청시기나 방법, 언제까지 쓸 수 있는지 구체적 정보를 국민비서가 알려줬다”며 “네이버앱이나 카카오톡, 토스앱에서도 서비스를 신청할 수 있도록 기능을 개선한 게 가입자가 빨리 늘어난 비결”이라고 설명했다.이런 성과를 바탕으로 구삐는 앞으로 활동 폭을 더 늘려갈 계획이다. 행안부는 내년 상반기까지 휴면예금 알림, 국세 고지 발송 알림 등 서비스 30종을 추가하는 한편, 챗봇 상담서비스의 경우에도 주민등록 민원 등 서비스 11종을 확대할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2021.12.14.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>'방역패스' 둘째날도 백신 접종 증명 앱 일부 먹통</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/422/0000518520?sid=101</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>방역패스 단속 둘째 날인 오늘(14일) 점심시간에도 전자예방접종증명서 쿠브 앱이 한때 접속 장애를 일으켰습니다.쿠브 앱은 오늘 오전 11시 45분쯤 '네트워크 오류' 메시지가 뜨고 작동이 되지 않았지만, 점심시간 전인 12시쯤부터 정상 작동이 이뤄졌습니다.네이버 앱은 네트워크 접속 불가 메시지가 뜨고 'QR체크인' 장애가 발생한 것으로 확인돼, 질병청은 "쿠브와 카카오, 토스앱, 통신3사 PASS 앱을 사용해 QR체크인을 이용해달라"고 말했습니다.질병청은 어제(13일) 접속량 폭증에 따라 과부하가 발생해, 야간에 서버 긴급증설 작업을 마쳤다고 밝혔습니다.연합뉴스TV 기사문의 및 제보 : 카톡/라인 jebo23</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2021.12.14.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>서학개미·동학개미… 먼저 움직이는 先학개미도 있다</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003659444?sid=101</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>요즘 MZ세대들, 미리 공부해서 비상장 주식 투자카카오페이가 일반 공모주 청약에 나선 25일 오후 서울 영등포구 한국투자증권 본사에서 고객들이 상담을 받고 있다. 이번 청약은 공모주 사상 처음으로 '100% 균등 배분' 방식이 적용되어 최소 증거금만 내도 주식을 배정받을 수 있다. /사진공동취재단										국내 주식을 점령한 ‘동학개미’나 미국 등 해외 주식 시장을 활보하는 ‘서학개미’에 이어 이제는 ‘선학(先學)개미’가 움직이고 있다. 잠재력 있는 기업의 가치를 남들보다 먼저 알아보고 상장 이전에 사두려는 비상장 주식 투자자들인데, 2030세대가 주류다.금융투자협회가 운영하는 비상장 주식 투자 플랫폼 K-OTC의 거래액은 2014년 2200억원에 그쳤지만, 올 들어서는 11월 말까지 1조3187억원에 달해 6배로 급증했다. 지난해 기록한 역대 최고 규모(1조2766억원)를 넘어섰다. 국내 최대 가상 화폐 거래소 업비트를 운영하는 두나무의 비상장 주식 투자 플랫폼 ‘증권플러스 비상장’ 회원 수는 출범 2년 만에 80만명을 넘겼다. DB금융투자는 “금융사 등도 뛰어들고 있기 때문에 내년에는 비상장 주식 투자가 더 늘어날 것이고, 선학개미들도 늘어날 것으로 보인다”고 전망했다./그래픽=박상훈 선학개미 주류는 MZ세대							선학개미의 주류는 작년부터 적극적인 개인 투자자로 나선 MZ세대(1980년대 이후 출생)들이다. 지난 10월 기준 최근 1년간 ‘증권플러스 비상장’ 플랫폼 이용자의 43.8%를 MZ세대가 차지했다. 또 다른 비상장 주식 투자 플랫폼인 ‘서울거래 비상장’의 경우 한 달 내 로그인 등을 한 ‘월간활성이용자(MAU)’ 30만명 가운데 MZ세대는 40%(12만명)에 달한다.지난해부터 이어진 대어급 공모주들의 IPO(기업공개)는 주식 투자자들이 비상장 주식에 관심을 갖게 된 계기가 됐다. 역대 공모액 상위 10개사 중 5개(크래프톤·카카오뱅크·SK IET·카카오페이·SK바이오사이언스)가 올해 신규 상장한 기업들이다.경쟁률이 높은 공모주 투자는 원하는 만큼 주식을 배정 받을 수 없어 큰 수익을 올리는 데 한계가 있기 때문에 투자자들이 상장을 앞둔 비상장 주식에 눈을 돌리는 것이다. 현재 카카오엔터테인먼트, 마켓컬리의 운용사 컬리, 차량 공유 업체 쏘카, 신세계그룹 통합온라인몰 SSG닷컴, 야놀자 등이 장외 시장에서 활발히 거래 중이다.증권사 계좌 트면 일반 주식처럼 거래 가능							비상장 주식 거래는 어렵지 않다. 증권사 계좌를 만들어 투자하면 된다. K-OTC의 경우 34개 증권사에서 거래 계좌를 틀 수 있다. 다만, K-OTC는 매출 등 실적 요건을 갖춘 기업만 등록할 수 있는 데다 공시 의무 등 진입 장벽이 높아 거래 가능 종목 수는 146개에 그친다.‘증권플러스 비상장’은 삼성증권 계좌를 이용한다. 기술기업 피에스엑스(PSX)가 운영하는 ‘서울거래 비상장’은 신한금융투자와 계좌가 연계돼 있다. 금융위원회는 증권플러스 비상장, 서울거래 비상장을 혁신금융서비스로 지정해 금융투자업 인가를 안 받아도 비상장 주식 거래 업무가 가능하게 특례를 줬다.‘38커뮤니케이션’, ‘피스탁’ 등은 홈페이지에 올려진 종목과 전화번호를 보고 매수자와 매도자 직거래가 이뤄진다. 지난 11월에는 인터넷전문은행 토스뱅크를 운영하는 비바리퍼블리카가 미국 비상장 주식 투자 플랫폼 지분을 1%(약 60억원) 인수하며 사업 제휴를 모색 중이다. KB·NH투자 증권도 새 플랫폼 출시를 준비 중이다.비상장 주식이라 사전 공부 필수							상장사와 달리 비상장사 정보는 금융감독원 전자공시시스템(다트)에 공시되지 않는 경우가 많다. 이런 점 때문에 투자 전에 면밀한 조사가 필요하다고 전문가들은 조언한다. 증권사·기업신용평가사의 보고서, 언론 기사 등을 살펴보라는 것이다. 김세영 서울거래 비상장 대표는 “믿을 만한 벤처캐피털의 투자 여부를 확인하고, 기업의 호재성 발표를 주변 전문가에게 검증받고, 유사한 상장사와 기업가치를 비교하며, 여윳돈으로 분산 투자하되, 첫 투자는 소액으로 할 것 등 ‘비상장 투자 5대 원칙’을 지키라”고 권유했다. 비상장 가격보다 상장 후 가격이 더 떨어지는 경우도 있다. 카카오뱅크는 지난 8월 상장 직전 장외 시장에서 9만원대까지 거래됐지만 현재 6만원대를 오르내리고 있다. 편득현 NH투자증권 투자전략부장은 “비상장 주식은 거래량이 적기 때문에 작은 변수에도 주가가 크게 출렁이기 때문에 주의해야 한다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2021.12.09.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>예금·적금 투자 전략…만기는 짧게, 우대 요건 확인 必</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000071989?sid=101</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>금리 상승기 재테크지난해부터 이어진 투자 열풍 속에서 예금과 적금 상품은 주목받지 못했다. 주식 기대수익률에 비해 낮은 금리 탓이다. 하지만 증시가 활기를 잃고 한국은행이 기준금리를 올리는 기조로 돌아서자 투자자 사이에서 예적금 상품이 대안으로 떠오른다. 전문가들은 금리 인상 수혜를 누리려면 이율이 높은 상품을 고르되 가입 기간을 짧게 설정하라고 조언한다. 저축은행 상품과 회전식 상품을 눈여겨보고 우대금리 적용 요건을 꼼꼼히 따져보라는 조언도 새겨들음직하다.    ▶1. 가입 기간은 짧게 설정  보통 예적금 상품은 가입 기간이 길수록 이율이 높다. 예를 들어 국민은행 ‘KB국민ONE적금’ 기본 이율은 가입 기간 1년 1.25%, 2년 1.35%, 3년 1.45%다. 그러나 기간별 격차가 크지 않다. 가입 기간을 짧게 설정하고 만기가 찾아오면 맡겼던 금액을 되찾아 이율이 더 높은 상품에 자금을 넣는 ‘금리 노마드’ 방식이 금리 인상 혜택을 극대화하는 데 유리하다.만기가 짧고 금리가 높은 상품을 찾으려면 금융감독원이 운영하는 금융소비자 정보포털 ‘파인’을 이용하면 된다. 파인 웹사이트 내 금융 상품 통합 비교 공시 ‘금융상품한눈에’에 접속하면 예금과 적금 상품명, 판매 회사, 세전·후 이자율, 최고 우대금리 등을 확인할 수 있다. 전국은행연합회 소비자포털도 예적금 상품과 판매처, 금리 정보 등을 제공한다.만기가 1년 이하인 상품 중 눈여겨볼 만한 예금·적금으로는 IBK기업은행 ‘IBK D-day 적금’, Sh수협은행 ‘헤이(Hey)적금’, 신한은행의 ‘신한 안녕, 반가워 적금’ 등이 언급된다. IBK D-day 적금은 가입 기간이 6~12개월이다. 기본금리는 6개월 이상~12개월 미만 1.3%, 12개월 1.5%다. 자동이체 거래를 세 번 이상 하고 만기일 전까지 고객이 정한 목표 금액을 채우면 금리 1%포인트를 더 받는다. IBK기업은행 최초 거래 고객이라면 0.5%포인트를 더 챙길 수 있다. 헤이(Hey)적금은 연 기본금리가 6개월 가입 1.4%, 12개월 가입 1.6%다. 수협은행 새 고객, 수협은행 예적금 만기 해지일로부터 1개월 이내 이 상품에 가입하는 고객, 자동이체 납입, 마케팅 동의 등 요건을 갖추면 최고 연 0.9%포인트 우대금리를 지급한다. 신한 안녕, 반가워 적금은 12개월 만기 상품이다. 기본 이율은 1.2%인데 급여 이체 신청, 신한카드 신규 가입 후 결제 계좌로 지정 등 요건을 갖추면 최고 4.2%까지 금리를 끌어올릴 수 있다. 인터넷은행에서 가입 가능한 상품 중에는 토스뱅크 예금이 소비자 관심을 모은다. 언제든 돈을 넣고 뺄 수 있는 상품으로 아무 조건 없이 연 이자 2%를 지급한다. ▶ 2. 저축은행 상품도 쏠쏠   저축은행으로 눈을 돌리는 것도 좋은 선택지가 될 수 있다. 저축은행은 통상 시중은행이나 인터넷은행에 비해 상대적으로 금리가 높은 상품을 판매한다. 까다로운 요건을 채우지 않아도 기본으로 연 2~3%대 금리를 제공하는 예적금을 쉽게 찾아볼 수 있다. 예를 들어 JT친애저축은행 정기적금은 가입 기간 6개월 연이율 2%, 12개월 연이율은 2.6%다. 동양저축은행 정기적금, 예가람저축은행 ‘Hi! 예가람e정기적금’도 6개월 가입 시 연이율 2.5%의 이자를 지급한다. 대다수 상품은 온라인뱅킹이나 은행 자체 앱을 통해 가입 가능하다. 저축은행중앙회에서 만든 ‘SB톡톡플러스’를 활용하는 방법도 있다. 저축은행 통합 앱으로 70여개 저축은행 금융 서비스를 이용할 수 있다. ▶3. 금리 인상 반영 ‘회전식 상품’  주기적으로 금리를 조정해주는 상품을 고르는 것도 고려해봄직한 선택지다. 일부 예금·적금은 고객 혹은 은행이 정한 주기마다 시장금리를 감안해 이율을 조정한다. 기준금리가 추가로 오르면 혜택을 볼 수 있도록 설계됐다. ‘NH왈츠회전예금II’가 대표 상품이다. 1~12개월 단위로 회전 주기를 선택할 수 있다. 기본금리는 가입 기간과 이자 지급 방식에 따라 다른데 0.54~1.7%다. 50만원 이상 급여 이체 등 요건을 맞추면 최대 0.2%포인트 추가 금리를 받게 된다. 케이뱅크가 판매하는 ‘코드K정기예금’은 가입 후 2주 내 금리가 오르면 인상된 금리를 적용한다.    ▶4. 우대금리 요건 확인 필수  가입 기간과 이율, 금리 조정 여부 외에 예금·적금 상품 가입 전 따져봐야 하는 요소가 몇 가지 더 있다. 먼저 우대금리 요건이다. 예적금 상품 상당수는 기본금리를 제공하고 여기에 특정 금액 이상 카드 이용, 자동이체 신청, 오픈뱅킹 등록 등 조건을 충족하면 우대금리를 추가로 지급하는 방식으로 구성됐다. 일부 상품은 갖추기 어려운 요건을 제시하거나 우대금리를 예치 기간 전체가 아닌 일부 기간에만 지급한다. 가입 기간을 채우지 않고 중도 해지하면 우대금리를 지급하지 않는 상품도 여럿이다. 금리가 비교적 높은 상품 중 일부는 납입 금액을 제한한다는 것도 유의해야 한다. 아무리 금리가 높아도 입금할 수 있는 금액이 적으면 실제로 손에 쥐는 이익은 크지 않을 수 있다. 금융감독원은 “우대금리 금융 상품에 가입할 때에는 약관과 상품 설명서를 통해 우대금리 지급 조건을 꼼꼼하게 확인해야 한다. 금융 회사가 홍보하는 최고금리보다 지급 조건 충족 가능성과 납입 금액, 예치 기간 등을 감안한 실질 혜택을 따져보는 것이 좋다”고 당부했다.[본 기사는 매경이코노미 제2137호 (2021.12.08~2021.12.14일자) 기사입니다]</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2021.12.10.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>KTB네트워크 청약결과에 쏠린 눈·눈</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001923259?sid=101</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>기업공개 러시…VC, 최대 이슈는11월 수요예측 실패로 공모가↓일반청약은 4.7조 몰려 흥행스톤브릿지 내년 1월 상장예정HB·LB인베·캡스톤도 입성 추진2019년 주가 부진 영향에 중단됐던 벤처캐피탈(VC) 상장 바람이 최근 벤처투자 열풍과 함께 다시 불붙고 있는 모습이다. 특히 오는 16일 코스닥에 상장하는 KTB네트워크 청약 결과와 상장 초반 성적표에 기업공개(IPO)를 추진 중인 VC들이 촉각을 곤두세우고 있다.10일 금융투자업계에 따르면 이달 KTB네트워크를 필두로 내년에는 스톤브릿지벤처스, HB인베스트먼트 등이 상장을 추진중이다. 이들은 최근 진행된 KTB네트워크 일반투자자 대상 공모청약 결과 등을 분석해 청약 일정과 상장일 등을 조율할 방침이다.한 VC 관계자는 “KTB네트워크의 청약 결과에 후속 VC 상장 일정에 영향을 받지 않을 수 없는 상황”이라며 “최근 IPO 시장 유동성과 LG에너지솔루션 등 대어들의 상장 일정 등을 살피면서 진행할 것”이라고 말했다.KTB네트워크는 지난 6~7일 진행한 일반 투자자 대상 공모주 청약에 약 4조7500억원이 몰리며 327대 1의 잠정 경쟁률을 기록했다. 지난 11월 말 진행한 기관투자자 대상 수요예측에서는 당시 코스닥 지수가 960선까지 밀리는 등 위축된 투자심리에 상대적으로 저조한 50대 1의 경쟁률을 내며 공모가가 희망밴드 하단인 5800원으로 결정됐다.KTB네트워크는 업력 40년 이상의 국내 1세대 벤처캐피탈이다. 운용자산만 1조1745억원 규모로 업계 최상위다. 올초에는 배달의민족(우아한형제들) 투자로 원금대비 27배의 수익을 내기도 했다. 기업가치가 최소 8조원 이상으로 추정되는토스(비바리퍼블리카) 초기 투자자 중 현재까지 지분을 보유한 국내 유일 VC이기도 하다.벤처업계 관계자는 “일반 기업과 비교해 VC의 사업, 투자수익구조 등이 일반 투자자들에게 진입장벽이 될 수 있음에도 불구하고 일반 수요예측에서 높은 경쟁률을 기록하면서 긍정적인 신호를 봤다”고 평가했다. KTB네트워크 다음 상장 후보는 스톤브릿지벤처스다. 삼성증권, KB증권을 대표주관사로 선정하고 10월8일 한국거래소 코스닥시장본부에 상장예비심사를 청구했다. 내년 1월 코스닥 입성을 목표로 밝혔지만 최근 증시 상황을 보며 일정을 구체화한다는 방침이다.스톤브릿지벤처스는 AUM(운용자산) 9500억원 규모로 국내 10위권 VC다. 크래프톤, 직방, 지그재그, 스타일쉐어, 쏘카 등 굵직한 기업에 투자자로 참여했다. 크래프톤은 20조원대 기업가치로 증시 데뷔했고, 지그재그는 카카오에, 스타일쉐어는 무신사에 각각 인수되면서 성공적으로 투자회수를 완료했다.HB인베스트먼트도 대신증권을 주관사로 내년 코스닥 입성을 위해 관련 작업을 진행하고 있다. 캡스톤파트너스와 LB인베스트먼트도 내년 중후반을 목표로 상장을 추진하고 있어 당분간 VC 상장 행진이 이어질 것으로 보인다. 이세진 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2021.12.14.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>영광군, 14일부터 ‘방역패스 의무화’ 본격 시행</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005015133?sid=102</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>전남 영광군(군수 김준성)은 신규 방역패스 의무적용 시설에 적용된 계도기간이 종료됨에 따라 14일부터 방역패스 의무화를 본격 시행한다고 이날 밝혔다.정부는 전날부터 시행 예정이었으나 질병관리청의 전자예방접종증명서 앱인‘쿠브(COOV)’및 전자출입명부(KI-PASS)가 시스템 과부하 등으로 원활히 작동되지 않아 하루 연기됐다.방역패스가 적용되는 시설에는 ▲유흥시설 등(유흥주점, 단란주점, 클럽·나이트, 헌팅포차, 감성주점, 콜라텍·무도장) ▲노래(코인)연습장 ▲실내체육시설 ▲목욕장업 ▲경륜·경정·경마·카지노 등이 적용된다.또 ▲식당·카페 ▲학원 등 ▲영화관·공연장 ▲독서실·스터디카페 ▲멀티방(오락실 제외) ▲PC방 ▲실내스포츠경기(관람)장 ▲박물관·미술관·과학관 ▲파티룸 ▲도서관 ▲마사지·안마소가 포함된다.유흥시설 등(접종완료자만 이용 가능), 경륜·경정·경마·카지노 등을 제외한 나머지 시설은 접종완료자, 완치자, 48시간 이내 PCR 음성확인자, 18세 이하, 의학적 사유 등으로 인한 접종불가자만 이용 가능하며 시설 이용자는 증명 수단 등을 구비해야 한다.예방접종완료자는 COOV 앱 또는 전자출입명부(네이버, 카카오, 토스 등) 등의 전자증명서, 예방접종증명서(종이), 신분증에 부착된 예방접종완료스티커 중 하나의 증명 수단과 신분증을 함께 제시해야한다.예방접종증명서(종이)는 접종기관, 보건소, 읍·면사무소 방문 및 온라인(정부24)에서 발급 가능하며, 접종완료스티커는 읍·면사무소에서 부착·배부한다.PCR 음성확인자는 PCR 음성확인 문자 통지서, 보건소에서 발급 받은 코로나19 PCR 음성확인서(종이) 중 하나의 증명 수단과 신분증을 함께 보여줘야 한다.예방접종·음성확인 예외자 중 만 18세 이하의 청소년은 신분?연령을 확인할 수 있는 증빙자료(신분증, 청소년증, 여권, 학생증, 재학증명서 등) 제시해야 한다.코로나19 확진 후 격리해제된 사람은 관할 보건소에서 발급한 격리해제서와 신분증, 의학적 사유로 접종이 어려운 사람은 보건소에서 발급한 예방접종·음성확인 예외 증명서와 신분증을 보여줘야 한다.방역패스 적용 시설에서 관리?운영자가 증명서 등을 확인하지 않고 입장시킨 경우 또는 이용자가 증명서 등을 제시하지 않고 이용하다 적발되는 경우 등 방역수칙을 위반한 경우에는 과태료 부과 및 운영중단 등의 행정처분 대상이 된다.이용자는 위반 시마다 과태료 10만원이 부과되며, 관리·운영자는 과태료 처분(1차 위반 시 150만원, 2차 이상 위반 시 300만원) 및 운영중단(1차 위반 시 10일, 2차 위반 시 20일, 3차 위반 시 3개월, 4차 위반 시 폐쇄명령)이 적용된다.보다 신속하고 정확한 접종 여부 확인과 사용자·이용자 편리성을 높이기 위해 방역패스 의무적용시설에서는 작성 정보의 정확한 확인이 어렵고, 휴대폰 번호 등 개인정보 유출이 문제가 돼온 수기명부 활용을 최소한으로 제한하고 전자출입명부와 안심콜을 활용한 출입자 명부 작성을 원칙으로 했다.다만, 휴대전화가 없는 일부 고령층 및 청소년은 방역패스 시설 이용이 제한될 우려가 있어, 수기명부 작성을 예외적으로 허용하기로 했다.방역패스 의무 적용시설의 전자출입명부 및 안심콜 활용 의무화는 오는 19일까지 계도기간이 부여된다.영광=아시아경제 호남취재본부 이전성 기자 leejs7879@asiae.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2021.12.02.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>[스타트업 만난 윤석열] “석열이형, 스타트업을 부탁해”</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002114641?sid=105</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>[디지털데일리 최민지 왕진화 기자] “석열이형, 스타트업을 부탁해!”   이는 스타트업 7개사 대표들이 윤석열 국민의힘 대선후보를 향해 외친 말이다. 2일 코리아스타트업포럼(이하 코스포)은 윤석열 대선후보를 초청해 서울시 중구에 위치한 아이콘루프 라운지에서 ‘스타트업 정책 토크’를 개최했다.   이날 윤석열 후보는 “기존 모델을 답습하지 않고 새로운 기술을 내놓는 혁신 스타트업이 국가발전 원동력”이라며 “미국 오바마 전 대통령도 스타트업 어메리카를 선언했고, 스타트업이 미국 10대 기업을 차지하는 일이 벌어졌다. 스타트업 코리아에 대한 이야기와 현장 목소리를 듣기위해 찾았다”고 설명했다.    이날 윤석열 후보는 최성진 코스포 대표의 정책제언 발표를 듣고 ▲비바리퍼블리카 이승건 대표 ▲위즈돔 한상우 대표 ▲아이콘루프 김종협 대표 ▲왓섭 김준태 대표 ▲디플리 이수지 대표 ▲다자요 남성준 대표 ▲쓰리제이 박지현 대표와 이야기를 나눴다.    우선 최성진 코스포 대표는 이번 대선에서는 스타트업 중심 국가 전략이 반드시 필요하다고 역설했다. 세계경제를 스타트업이 주도하고 있는 상황에서, 이를 뒷받침할 수 있는 생태계가 마련돼야 한다는 것이다. 실제 스타트업 90% 이상은 실패하지만, 소수만이 살아남아 글로벌까지 진출하고 있다. 한국 규제 경쟁력은 전세계 26위로 하위권이다. 이에 과감한 규제 혁신과 유연한 정부의 모습이 필요하다는 지적이다.      이와 관련 최성진 대표는 ▲민간보다 뒤처지는 정부‧제도 경쟁력 제고 ▲공무원 디지털 역량 ▲과감한 규제 혁신 ▲자유로운 노동규범과 튼튼한 사회 안전망 ▲디지털 혁신인재 육성 ▲창업가 존중 사회 ▲데이터‧플랫폼‧네트워크 투자 ▲창업‧성장‧재투자 선순환 구조 강화 ▲지역 스타트업 생태계 활성화 등을 제언했다.    이에 윤 후보는 “혁신만이 저성장을 극복하고 국제 경쟁력을 키워 미래 먹거리 산업이 될 수 있다”며 “신성장동력으로 작용할 스타트업이 제대로 성장해서 유니콘, 강소기업, 중견기업으로 성장할 수 있도록 국가가 성장 생태계를 마련하는 것이 중요하다”고 말했다.  이와 함께 이날 스타트업들은 이구동성으로 네거티브 규제와 원스톱 규제 혁신을 외쳤다.    김종협 아이콘루프 대표는 “규제 샌드박스는 안된다는 것 빼고는 뭐든 해도 된다는 일종의 네거티브 규제가 일부 도입된 것 아니냐”며 “규제 기관에 모든 시나리오 확인을 받고 수정을 요청하는 과정에서 규제 샌드박스의 이점이나 효율성을 잘 느끼지 못했다”고 호소했다.    남성준 다자요 대표도 이같은 의견에 공감했다. 남성준 대표는 “규제 샌드박스는 최대 4년까지밖에 못하는 시한부 제도이며 6개월마다 재심의를 거쳐야 하는데, 실효성이 진짜 있는지는 의문”이라며 “정보통신기술(ICT) 전문가인 심의위원과 부처 심의위원이 여러 가지 심의를 제대로 실효성 있게 움직였으면 좋겠다”고 말했다.   스타트업들은 기존 전통 산업과 겪는 갈등 문제를 지적하며, 스타트업 보호가 필요하다고 입을 모으기도 했다.    이승건 비바리퍼블리카 대표는 “기존 금융업권에서 토스라는 새로운 혁신을 만들다 보니, 결과적으로는 기득권과 신산업 세력이 이해관계 조정을 해야 했다”며, “현재 스타트업을 중심으로 이뤄지는 새로운 사업들은 디지털 경제를 기반으로 하기에 갈등이 불가피하다”고 전했다.   이어 “실제로 규제 혁신이 아젠다로 많이 선정되는 이유는 이러한 이해관계 조정이 워낙 첨예하기 때문”이라며 “기존 산업과 신산업이 충돌할 때 그 갈등을 어떤 방향으로 해결하고, 어디 손을 들어줄지 말해달라”고 요청했다.    모빌리티 기업 위즈돔 한상우 대표는 스타트업을 보호해줄 실질적인 법이 필요하다고 목소리를 높였다.    한 대표는 “대기업 신제품이 시장을 덮치는데, 밀려나는 스타트업을 위한 법이 필요하다”며 “대개 대기업 계열사가 중간에 끼워넣기를 하는 경우도 있어, 스타트업은 2차나 3차 협력사로 전락하거나 기술을 뺏기는 등 성장이 멈춰버리기도 한다”고 말했다. 이어 “대기업 불공정 거래나 내부 거래에 대한 규율과 감시가 필요하다”고 꼬집었다.    윤 후보는 차기 대통령으로 당선되면 기존 산업과 새로운 혁신을 추구하는 사업자 간 이해관계 상충을 줄여 국민 모두가 새로운 기술 혜택을 누릴 수 있도록 하겠다고 밝혔다.    윤 후보는 “예를 들어, 원격 비대면 진료의 경우 피할 수 없이 받아들여야 할 현실이며 이미 기술적 진보가 충분히 이뤄졌다”며 “혁신이 들어가 있다면 새로 규제를 만들 것이 아니라 그냥 하게 내버려 둘 필요가 있다. 왜냐면 혁신엔 리스크가 있기 때문”이라고 말했다.    이어 “다른 기반을 갖춘 혁신의 세계를 명확하게 증명해 주면 그러면 거기에는 해당 법을 규율할 필요가 없어지기 때문에 정부가 스타트업 손을 들어주는 게 맞다”며 “(규제 혁신과 관련해) 확고한 정책과 인식 방향이 있으니 걱정하지 않아도 된다”고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2021.12.10.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>국세증명, 앞으로는 국세청과 금융기관이 알아서 한다</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002571211?sid=101</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>대출이나 카드 발급시 본인 동의 얻어 국세청서 제공국세청 제공  앞으로 은행에서 대출을 받거나 소상공인이 금융기관에 지원을 요청할 때 소득금액증명 등 국세증명을 제출하지 않아도 된다.  국세청은 지난 9일부터 행정안전부와 협력해 국세청이 금융 회사 등 국세증명이 필요한 기관에 직접 제공하는 ‘공공마이데이터 서비스’를 시작했다고 10일 밝혔다. 공공마이데이터 서비스는 정보 주체인 개인이 행정기관에 자신의 정보를 필요한 기관에 보낼 것을 요구할 수 있는 제도다.  이번 서비스가 시작되면서 개인이 은행에서 대출받거나 신용카드를 만들 때, 소상공인이 금융기관이나 소상공인진흥공단 등에 각종 지원자금을 신청할 때 국세증명을 별도로 하지 않아도 된다. 납세증명서를 비롯해 납부내역증명, 부가가치세 과세표준 증명, 소득금액증명, 표준재무제표증명, 휴업사실증명, 폐업사실증명, 사업자등록증명, 부가가치세면세사업자수입금액증명, 근로(자녀)장려금수급사실증명 등을 금융사나 기관이 본인의 동의를 얻어 국세청으로부터 직접 받아 확인할 수 있어져서다. 11월 기준 해당 서비스를 이용할 수 있는 민간 금융사는 케이비(KB)국민은행, 우리은행, 신한은행, 대구은행, 엔에이치(NH)농협은행, 토스뱅크, 하나저축은행, 엔에이치(NH)저축은행, 웰컴저축은행, 한국투자증권, 롯데카드, 삼성카드, 신한카드, 우리카드, 케이비(KB)국민카드, 엔에이치(NH)농협캐피탈, 비엔케이(BNK)캐피탈, 현대카드, 비씨카드, 현대캐피탈, 하나캐피탈, 한국캐피탈 등 22곳이다. 한경선 국세청 납세자보호담당관은 “납세자가 번거롭게 세무서를 방문하거나 홈택스 등을 통해 증명서를 발급받아 이용기관에 별도로 제출하던 불편함을 개선해 편의가 크게 향상될 전망”이라며 “향후 이를 이용할 수 있는 금융기관은 더 늘어날 예정이며, 앞으로도 민원서비스를 지속적으로 개선하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2021.12.14.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>방역패스, 오늘 또 ‘먹통’인데…질병청 “심각한 장애 아냐, 내일부터 원활”</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000780416?sid=105</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>“접속 장애 재발하면, 과태료  행정처분 적용 않겠다”'방역패스' 본격 시행 이틀째인 14일 네이버 등 일부 QR 체크인에 접속장애 현상이 나타났다.   사진은 이날 점심시간 서울 종로구 한 음식점에서 방역패스 확인을 위한 'QR코드' 가 작동하지 않는 모습./연합뉴스        정부는 14일 오전 전날 같은 ‘방역패스 대란’은 없을 것이라고 밝혔지만 이날 점심시간 일부 앱에서 여전히 접속 장애가 발생했다. 방역당국은 “심각한 장애는 아니다”라며 “내일부터는 이용이 원활할 것”이라고 설명했다.질병관리청은 이날 오전 참고자료를 내고 “야간에 서버 긴급증설 작업 및 서비스 최적화 작업을 수행했으며, 보다 원활하게 (전자예방접종증명서) 발급이 될 것으로 기대하고 있다”고 밝혔다.‘방역패스 대란’에 대해선 “접속량이 폭증하면서 과부하가 발생했고, 문제 대응에 미흡한 점이 있었다”며 “기존 방역패스 사용량을 토대로 서버를 증설했지만, 접속량이 폭증하면서 발급이 원활하지 못했다”고 설명했다. 그러면서 “편한 시간대에 네이버·카카오 등에서 최초 예방접종증명을 미리 발급받으면 점심·저녁시간대에도 원활한 이용이 가능하다”고 했다.처음 네이버·카카오 앱에서 본인의 예방 접종 기록을 불러올 때 본인 인증을 해야 하는데, 본격 시행 첫날인 이날 ‘최초’ 인증 건수가 급증하면서 서버에 과부하가 걸린 것이니, 붐비지 않는 시간에 미리 본인 인증을 하고 예방 접종 기록을 받아 두면 이날 접속 장애를 줄일 수 있을 것이란 권고다.손영래 중앙사고수습본부 사회전략반장도 이날 오전 브리핑에서 “어제 문제가 됐던 부분 중 하나가 최초로 증명을 받는 분들이 점심·저녁시간에 굉장히 몰리면서 서버가 감당하지 못했던 것”이라며 “오늘 중 편한 시간에 미리 최초 인증을 받으면 훨씬 원활하게 사용이 가능하다”고 설명했다. 이날 접속 장애가 재발하면, 전날과 같이 과태료 등 행정처분을 적용하지 않겠다고도 했다.그러나 이날 낮 12시가 가까워지면서 네이버 앱은 또다시 먹통이 됐다. 점심시간에 식당이나 카페를 찾은 시민들은 전날과 마찬가지로 수기로 출입 명부를 작성하는 등 불편을 겪었다. 이런 장애는 1시간 가까이 이어졌다.질병청은 이날 오후 다시 참고자료를 내고 “쿠브(COOV·전자예방접종증명서)는 정상 작동되고 있고 네이버 앱 외에 민간 플랫폼사에서는 특별한 장애가 발생하지 않았다”며 “카카오·토스앱 및 통신3사의 본인확인 서비스인 패스(PASS) 앱을 사용하여 QR체크인을 이용해달라”고 당부했다.하지만 질병청은 이날 쿠브 QR로도 전자출입 명부가 작성된다고 밝혔다가 번복하는 일도 있었다. 질병청에서 관리하는 쿠브는 코로나19 백신 접종 이력을 확인할 수 있는 모바일 앱으로, 네이버·카카오 앱 등에서 사용하는 QR코드와 동일한 서버에서 운영되지만, 전자출입명부 사용이 아니라, 개인 간 진위 여부를 검증하는 데만 쓰인다.여기에 접속 장애에 대한 질의가 계속되자, 질병청은 오후 늦게 다시 “일시적으로 접속이 늦어지는 현상이 있었을 수 있으나, 심각한 접속 지연 등 장애는 발생하지 않았다”며 “이날 운영상황으로 판단하건대 내일부터는 방역패스 이용이 원활할 것으로 예상된다”고 말했다.질병청은 다만 이날 점심시간(정오∼낮 1시)에 150만건의 QR코드 검증이 이뤄졌다고도 밝혔다.이는 전날 같은 시간대 9만건, 지난 7일 같은 시간대 46만건에 비해 크게 늘어난 것이다.정부는 특별방역조치 일환으로 지난 6일부터 방역패스 적용 대상을 식당·카페 등 16개 업종으로 확대하면서 ‘(국민들이) 준비 기간을 갖도록 한다’는 취지로 1주일 계도 기간을 운영했다. 그러나 정작 계도 기간이 끝난 지난 13일 문제가 발생했다. 그러자 질병청은 전날 저녁 안전안내 문자를 통해 “오늘(13일)은 방역패스를 적용하지 않음을 알려드린다”고 방역패스 시행을 하루 미뤘다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2021.12.09.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>4.2%도 있다…수신금리 오르는데 새해 예·적금 어디에?</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002570944?sid=101</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>클립아트코리아지난달 한국은행이 기준금리를 올리면서 시중은행, 인터넷전문은행들도 잇달아 예·적금 금리를 속속 올리는 분위기다. 새해 소비자들이 눈여겨볼 만한 예·적금 상품은 어떤 것들이 있을까.급여이체, 적금 가입이 처음인 직장인이라면?신한은행은 한은 기준금리 인상에 따라 지난달 29일부터 고객 예·적금 금리를 최고 0.4%포인트 올리기로 했다. 이에 따라 은행의 ‘안녕, 반가워 적금’에도 1년 만기 최고 연 4.2% 금리가 적용된다. 이 상품은 월 최대 50만원까지 입금이 가능한 1년짜리 자유적금 상품으로 기본 이자율이 연 1.2%이지만 △첫 적금 가입 △첫 급여이체 △첫 신용카드 개설 등 신한은행에서 주요 금융거래를 처음 하는 소비자에게 최대 연 3%포인트 우대금리가 적용된다. 매달 50만원씩 1년을 넣고 모든 우대 조건을 맞췄을 경우 600만원이 모이고 1년 이자는 25만2000원이다. 하나은행은 지난달 26일 예·적금 상품 수신금리를 올리며 ‘급여하나 월 복리 적금’의 기본금리를 0.25%포인트 올린 바 있다. 기본금리 연 1.45%(1년)에 청년직장인인 경우 특별 금리(연 1.3%포인트)를 받을 수 있고, 이에 더해 적금 가입 기간(1·2·3년)의 절반 이상 기간 본인 명의 하나은행 입출금통장으로 급여를 넣었을 경우 우대금리(최대 연 1%포인트)가 적용돼 최대 3.75%의 금리를 받을 수 있다. 분기별로 최대 300만원, 1년에 1200만원까지 모아 우대·특별 금리를 받으면 이자가 45만원 따라붙는다.케이비(KB)국민은행 마이핏통장을 가진 20·30세대가 취직 등으로 정기적인 수입·지출이 발생한 경우라면 1년짜리 적금 상품인 마이핏적금을 고려할 수 있다. 매달 1000원 이상, 50만원 이하까지 자유롭게 저축할 수 있고 기본금리는 열두 달 기준 연 1.6%지만 △정기수입 △정기지출 △오픈뱅킹 △첫 거래 등 우대 조건이 맞으면 우대금리(연 1.6%포인트)가 따라붙어 연 3.2% 금리가 제공된다.코로나 좀 풀리면 해외여행? 돈 좀 모아볼까혹시 내년 여행 제한이 풀린 뒤 해외여행, 기념일에 연인에게 명품 지갑 선물하기, 가족모임에서 소고기 쏘기 등을 고민하는 소비자라면 지난 1일 케이뱅크가 출시한 ‘챌린지박스’를 고려해볼 만하다. 목표 금액 500만원 이내로 30일에서 200일 사이 기간 매주 돈이 모이도록 해 목표일까지 약속한 금액을 유지해두면 최고 연 2% 금리를 받을 수 있다.하나은행은 지난 26일 한은 기준금리 인상 뒤 ‘하나의 여행적금’이라는 상품 금리를 0.4%포인트 올린 바 있는데 1년 동안 매달 1만원 이상∼100만원 이하 한도로 돈을 모을 수 있고 마케팅 동의, 재예치, 여행적금 전용 상품으로 여행 뒤 확인번호를 등록하는 등 몇 가지 우대·특별 금리 조건을 만족시키면 최대 연 2.7% 금리를 받을 수 있다.20대 가운데 1∼3년 기간 동안 매달 20만원 이하의 돈을 차곡차곡 모아 목돈을 마련하고 싶은 이가 있다면 우리은행의 스무살 우리 정기적금을 살펴볼 수 있다. 기본금리는 2.1%∼2.3%이지만 △모바일, 온라인으로 상품 가입 △우리카드로 월 10만원 이상 이용 △자동이체 등 조건을 맞추면 최고 연 1.1%포인트 우대금리가 적용돼 최고 연 3.4% 금리 혜택을 받는다.예·적금 기간 너무 길어…중도인출, 단기 상품 없나? 카카오뱅크는 기준금리 인상에 따라 8일부터 수신금리를 0.2∼0.4%포인트 올렸다. 정기예금을 36개월 동안 맡겨둘 경우 최대 연 2% 금리까지 받을 수 있고 금액 제한은 없다. 다만, 다른 은행 예·적금 상품들과 달리 계약 기간에 2차례까지 출금이 가능해 갑자기 비상금이 필요할 것 같은 소비자들에게는 고려할 만하다. 다만 중도해지금리가 적용된다.여섯달 동안만 넣는 카카오뱅크의 26주 적금 금리도 0.2%포인트 올랐다. 26주 동안 매주 자동이체를 걸어두면 우대금리가 적용돼 최대 연 2.2% 금리를 받을 수 있다.목돈 잠시 넣어둘 통장 필요한데언제든 빼서 쓸 수 있는 자유 입출금식 통장인데도 불구하고 가장 좋은 금리가 따라붙는 상품은 토스뱅크의 ‘하루만 넣어도 이자가 쌓이는 통장’이다. 토뱅 통장의 경우 한은 기준금리 인상 이후 별도로 수신금리를 올리지 않았지만 여전히 혜택이 좋은 편이다. 은행은 최대 1억원까지 연 2% 금리를 제공한다. 만기 조건 없이 단기적으로 예치해야 할 1억원가량의 목돈이 있다면 토스뱅크 통장에 넣어둘 만하다. 애초 토스뱅크는 금액 제한 없이 예치금에 연 2% 금리를 제공하기로 했지만 올 하반기 대출 영업 중단으로 내년 1월5일부터 최대 1억원까지만 연 2% 이자를 제공하고 그 이상 금액에 대해서는 연 0.1% 금리를 주기로 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2021.12.06.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>인터넷 전문은행 토스뱅크 통장 금리 조정 외 [마이머니 단신]</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003644861?sid=101</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>인터넷 전문은행 토스뱅크 통장 금리 조정   단일 금리를 표방했던 인터넷 전문은행 토스뱅크가 내년부터 ‘토스뱅크 통장’의 금리를 조정한다. 토스뱅크는 내년부터 1억원을 초과하는 예금 금액에 대해서는 연 0.1%의 금리를 적용한다고 밝혔다. 1억원 이하 금액에 예치금에 대해서는 지금과 마찬가지로 연 2%의 금리가 유지된다. 토스뱅크 통장은 수시입출금 상품으로, 하루만 돈을 맡겨도 일할 계산해 이자가 지급된다.   우리銀, 직장인 대출 이자 캐시백 이벤트  우리은행이 직장인 대상 모바일전용 신용대출인 ‘My Won 포켓 대출’상품 출시를 기념해 3개월 이자를 돌려주는 이벤트(사진)를 내년 2월28일까지 실시한다고 5일 밝혔다. ‘My Won포켓 대출’은 재직기간 3개월 이상 직장인이라면 누구나 모바일 앱인 ‘우리WON뱅킹’에서 최대 100만원까지 신청할 수 있다. 중도상환해약금 없이 상환 가능하다. 12월1일부터 내년 2월28일까지‘My Won 포켓 대출’과‘마이데이터 서비스’를 신규 가입한 고객은 3개월 이자 캐시백 혜택을 받을 수 있다.   신한銀, 200만원 한도 ‘급여 선지급 대출’ 출시  신한은행이 급여를 담보로 빌려주는 ‘신한 급여선지급 대출’(사진)을 출시했다. 급여업무 자동화 서비스 플랫폼 ㈜뉴플로이의 급여 정산 서비스를 이용 중인 사업장의 임직원을 대상으로 최대 200만원 한도에서 월 급여액의 70%, 주급·일급의 60%까지 자금을 지원하는 상품이다. 대출 기간은 1개월이며 고객의 급여일에 급여가 입금되면 대출금은 자동으로 상환된다. 대출은 신한 ‘쏠(SOL)’ 앱에서 신청할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2021.12.03.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>`네·카·토` 마이데이터 서비스 늦어지는 이유는</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005099810?sid=105</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>카카오페이 12월초, 네이버파이낸셜·토스 중순 이후 출시기능적합성 심사 등 지난달 통과…막바지 내부 점검 중특별한 서비스 없을 듯…“내년 이후 새로운 서비스 준비”금융기관 연동 한정돼…적용한 인증서따라 달라져핀크, `오픈 효과` 제대로…가입자 70% 늘어(그래픽=이데일리 김일환 기자)[이데일리 이후섭 기자] 본인신용정보관리업(마이데이터) 시장의 막이 오른 가운데 국내 핀테크 업계 대표주자인 카카오페이(377300), 네이버파이낸셜, 토스 등도 기능적합성 심사와 보안취약점 점검 등을 완료하고 막바지 준비 중이다. 카카오페이는 12월 초, 네이버파이낸셜과 토스는 12월 중순 이후 서비스를 내놓을 예정이다.다만 표준 응용 프로그램 인터페이스(API)를 적용하는 기술적 변화 외에 자산관리 등 서비스 내용은 기존과 크게 다르지 않을 것으로 보인다.카카오페이 12월초, 네이버파이낸셜·토스 중순 이후 출시 3일 업계에 따르면 카카오페이, 네이버파이낸셜, 토스 등은 지난달 금융보안원의 기능적합성 심사와 보안취약점 점검을 마치고 서비스 오픈을 위한 막바지 내부 테스트를 실시하고 있다. 마이데이터는 정보주체에게 데이터 주권을 돌려주는 것으로, 이를 위탁받은 업체가 응용 프로그램 인터페이스(API)를 통해 모은 금융정보, 비금융정보를 분석해 개인 맞춤형 금융상품을 추천해 주는 서비스가 핵심으로 꼽힌다. 내년 1월 1일부터 기존 스크래핑 방식으로 정보를 긁어오는 것은 금지되고 API 사용이 의무화된다. 이에 앞서 12월 1일부터 준비를 마친 업체들은 시범 서비스를 시작했다.핀테크 업계에서는 뱅크샐러드, 핀크 등이 지난달 초 기능적합성 심사를 통과하고 보안취약점 점검을 실시하는 등 가장 빠르게 움직였다. 그 덕에 신용정보원의 비공개 베타테스트(CBT)를 거쳐 12월 1일부터 바로 서비스를 오픈할 수 있었다. 카카오페이와 토스, 네이버파이낸셜 등은 기능적합성 심사 신청이 늦어지면서 순서가 밀렸고, 결국 시범 서비스 개시일에 맞추지 못했다. 카카오페이 관계자는 “조만간 준비를 마치고 12월 초에 서비스를 시작할 수 있을 것”이라고 내다봤다. 네이버파이낸셜과 토스는 구체적인 일정은 확정되지 않았지만, 12월 중순 이후에 서비스가 가능할 것으로 내다봤다. 서비스를 최종 점검하고 오픈 시기를 조율하고 있는 단계라는 설명이다.특별한 서비스 없을 듯…“내년 이후 새로운 서비스 준비”카카오페이, 네이버파이낸셜, 토스 등이 내놓는 마이데이터 서비스는 각 사가 기존에 제공하던 자산관리 서비스와 크게 다르지 않을 전망이다. 기술적으로 스크래핑 대신에 API를 적용하면서 금융기관 연동 속도가 개선되는 등의 변화는 있겠지만, 서비스 내용은 별다를 것이 없을 거라는 얘기다.토스 관계자는 “그동안 제공하던 서비스와 최대한 비슷하게 유지하면서 안정적으로 서비스를 제공하는 것이 일차적인 목표”라며 “다양한 자산과 연동해 새로운 서비스를 보여주는 것은 내년 이후에나 가능할 것”이라고 내다봤다. 현재 금융소비자보호법 시행으로 보험, 펀드, 카드 등의 맞춤형 비교·추천 서비스를 제대로 제공하지 못하고 있는데, 금융당국의 규제 변화를 보면서 새로운 서비스를 준비해 나갈 것으로 보인다.다른 업계 관계자도 “특별하게 다른 서비스는 나오지 않을 것”이라며 “마이데이터 서비스를 받기 위한 동의 절차 등이 좀 복잡해질 수 있어 금융당국의 가이드라인 안에서 얼마나 소비자의 불편을 덜어주느냐가 핵심으로 보인다. 이런 부분에서 차이점을 만들어내려 할 것”이라고 말했다.이달 시범 서비스 기간에는 앞서 뱅크샐러드, 핀크와 마찬가지로 카카오페이, 네이버파이낸셜, 토스 등의 마이데이터 서비스도 연동되는 금융기관 수가 한정될 전망이다. 뱅크샐러드는 은행 5곳, 간편결제 2곳, 증권 1곳, 카드사 5곳 등과 연결할 수 있으며 보험사는 아직 연동이 안된다. 핀크의 경우 은행 19곳, 카드 15곳, 증권 11곳, 보험 12곳 등이 가능하다.업계 관계자는 “통합인증에서 사용되는 인증서마다 연동되는 금융기관이 다르다 보니 각 사별로 어떤 인증서를 적용했느냐에 따라 마이데이터 서비스에서 제공되는 금융기관도 달라진다”며 “시간이 촉박하게 준비하다보니 많은 금융기관과 연동하지 못한 인증서도 있는데, 앞으로 계속 금융기관을 추가해 나갈 것”이라고 말했다.한편 가상자산 수익률 및 시세 조회까지 가능한 마이데이터 서비스를 선보인 핀크는 `오픈 효과`를 제대로 보고 있다. 핀크 관계자는 “지난 1일 마이데이터 서비스를 열고, 별도의 마케팅 활동을 하지 않았음에도 불구하고 일주일 전인 11월 24일에 비해 가입자가 70% 늘었다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2021.12.14.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>“오늘 점심 시간대 방역패스 일부 과부하…접속 장애 일시적 발생”</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011175294?sid=102</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>식당·카페 등에서 '방역패스'를 확인하기 위한 백신접종과 음성확인을 증명하는 QR코드 시스템이 어제에 이어 오늘도 일부 접속 장애 오류가 발생했습니다. 방역 당국은 어제 발생한 서버 과부하 오류를 개선했다고 했지만, 오늘 점심 시간대에 식당과 카페 등에서는 방역패스와 관련한 네이버 앱 등의 접속이 일시적으로 안되는 현상이 나타났습니다. 오전 11시 50분쯤부터 점심 시간대에 들어서면서 네이버와 카카오 앱, 쿠브(COOV·전자예방접종증명서)앱 접속이 일시적으로 원할하지 않았습니다. 이와 관련해 질병관리청은 오후 12시 5분쯤 "쿠브앱은 정상 사용 중"이라며 "현재 네이버 앱 외에 민간플랫폼사에서는 특별한 장애 발생하지 않은 상황으로 파악하고 있다"고 밝혔습니다. 이어 "쿠브, 카카오, 토스앱 및 통신3사 PASS 앱을 사용하여 QR체크인을 이용해주시길 요청 드린다"고 설명했습니다. 한편, 방역당국은 오늘도 접속문제로 인한 방역패스 미확인에는 벌칙을 부과하지 않겠다고 밝히면서 오늘 방역패스 전면에 대한 미적용은 아니라고 했습니다. 질병관리청은 "전산장애가 있어 확인이 어려운 경우 확인을 안했다하여 과태료 처분이 따르지 않는다는 것"이며 "장애 발생 시간대 이후 시설 이용 시에는 접종증명이나 음성확인 관련 증명서를 제시해야한다"고 발표했습니다. 앞서 오늘 오전 질병관리청은 "기존 계도기간에 전자예방접종증명서 사용량을 토대로 서버 증설 조치를 완료했다"고 했지만, 일부 앱에서 점심 시간 직전 실제 접속량을 감당하지 못한 것으로 추정되고 있습니다. 이와 관련해 손영래 중수본 사회전략반장도 오늘 오전 코로나19 정례 브리핑에서 "오늘 그리고 계속적으로 시스템 과부하 등의 문제로 시스템 작동이 원활하지 않은 측면에서의 미확인 사례에 대해서는 벌칙 적용은 계속 유예되고 처리되지 않을 것"이라고 설명했습니다. 그러면서 앞으로 점심 시간, 저녁 시간 이외 시간에 미리 최초 인증을 받으면 원활하게 사용이 가능하다고 안내했습니다. 손 반장은 "최초로 증명을 받으시는 숫자가 점심 시간에 혹은 저녁 시간에 굉장히 많이 몰리면서 필요 정보량이 증가를 하면서 서버가 감당하지 못했던 문제가 함께 발생했기 때문"이라고 언급했습니다. 김유미 중앙방역대책본부 일상방역관리팀장은 "처음 네이버·카카오 앱에서 본인의 예방접종 기록을 불러올 때 본인 인증을 해야 하며, 이후 (접종력) 인증기록도 발급받게 되는데 시행 첫날 (최초 인증 건수가 몰리면서) 과부하가 걸린 상황"이라며 "미리 예방접종기록을 앱에 받아놓으면, QR코드 생성 자체는 어렵지 않아 향후 접속 장애 발생을 줄일 수 있다"고 설명했습니다.  이어 QR코드 화면을 미리 캡처하는 것과는 다르다며 한번 발급된 QR코드는 15초 동안만 유효하기 때문에 캡처본은 인정되지 않는다고 덧붙였습니다.[사진 출처 : 연합뉴스]■ 제보하기▷ 카카오톡 : 'KBS제보' 검색▷ 전화 : 02-781-1234▷ 이메일 : kbs1234@kbs.co.kr▷ 뉴스홈페이지 : https://goo.gl/4bWbkG</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2021.12.12.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>금리 인상기, 대출은 고정하시옵소서</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004639632?sid=101</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>Cover Story    막 내린 제로금리 시대, 자산·부채 관리 어떻게 할까신규 대출 받으려면 고정금리 유리한은, 내년 최소 두 차례 금리인상 전망고정금리 상품은 추후 이자 부담 덜해대출 갈아탈 땐 가산금리 따져봐야예·적금 상품은 방망이 짧게만기 되면 오른 금리로 다시 예치해야하루만 맡겨도 年2% '파킹통장' 관심사진=게티이미지뱅크코로나19 사태로 시작된 ‘기준금리 0%대 시대’가 막을 내렸다. 한국은행이 지난달 25일 기준금리를 연 0.75%에서 연 1%로 올린 데 이어 내년에도 추가 금리 인상에 나설 것이란 전망이 유력하다. 미국을 필두로 주요국 중앙은행도 돈줄 죄기를 서두르고 있다. 코로나19 오미크론 변이 확산에 따른 시장 변동성에도 불구하고 인플레이션이 심각해질 수 있다는 우려가 더 크기 때문이다. 제롬 파월 미국 중앙은행(Fed) 의장은 지난달 30일 인플레이션 압력이 높아지고 있다며 테이퍼링(자산 매입 축소)을 앞당겨 끝낼 수 있다고 예고했다. 미국을 필두로 선진국의 금리 인상 시기가 더 빨라질 것이란 전망도 많아졌다.초저금리에 익숙했던 금융 소비자는 달라진 금리 환경에 맞춰 자금 운용 계획을 재점검할 시점이 됐다. 특히 새로 대출을 받을 땐 고정금리 상품을 적극적으로 고려할 필요가 있다. 은행 주택담보대출 금리는 이미 변동형 금리가 고정형 금리를 추월해 빠르게 높아지고 있다.전문가들은 앞으로 지속될 금리 인상 혜택을 누리려면 가입 기간을 짧게 설정하라고 조언한다.그래픽=김선우 기자 고정금리 추천, 변동금리는 주기 길게직장인 김모씨(34)는 지난 8월 말 한 시중은행에서 전세대출을 받았다. 3개월·1년 변동금리와 2년 고정금리 상품 사이에서 고민하다 당장 금리가 가장 낮은 3개월 변동금리 상품을 선택했다. 기준금리 인상이 예고된 상태여서 불안감이 있었지만 당장의 금리 격차가 0.5%포인트 정도로 컸기 때문이다. 하지만 최근 김씨는 단 3개월 만에 0.3%포인트 넘게 오른 금리를 통보받고 낙심했다. 그는 “예상했던 것보다 금리 상승 속도가 너무 빨라 걱정이 크다”며 “변동금리 대출을 받은 게 후회된다”고 말했다.금리 상승기에 새로 대출을 받을 땐 고정금리가 변동금리보다 단연 유리하다. 변동금리 상품은 준거가 되는 코픽스(COFIX·자금조달비용지수) 또는 단기 금융채에 따라 3개월~1년마다 기준금리가 재산정돼 금리 인상분이 고스란히 대출 이자에 반영된다. 반면 고정금리 상품은 기준금리에 변동이 없어 추가적인 금리 인상의 영향을 줄일 수 있다.이미 은행 주택담보대출은 변동금리와 고정금리 대출 간 금리 차가 빠르게 좁혀지고 있다. 일부 은행에선 고정금리보다 변동금리가 높아지는 현상도 나타났다. 지난 10일 기준 신한은행의 금융채 5년 만기 기준 혼합고정형 주택담보대출 금리는 연 3.57~4.77%, 신규 코픽스 기준 변동형 금리는 연 3.89~4.89%다. 하나은행도 고정형 주택담보대출 금리가 연 3.63~4.93%, 변동금리가 연 3.72~5.02%였다. 국민·우리은행은 아직 고정금리가 변동금리보다 높지만 격차는 좁아지고 있다.한 은행 관계자는 “내년에도 한은이 기준금리를 최소 두 차례(0.5%포인트) 인상할 수 있다는 예상이 나오는 만큼 신규 대출은 고정금리를 선택하는 게 유리하다”고 말했다. 대출 갈아탈 땐 가산금리·수수료 확인이미 변동금리 대출을 보유하고 있는 차주라면 고정금리로 갈아타기 전에 확인해야 할 점이 있다. 가산금리 구조가 첫 번째다. ‘기준금리＋가산금리－우대금리’로 구성되는 대출금리 가운데 가산금리는 변동·고정형 여부와 관계없이 대출 만기까지 변하지 않는다. 따라서 과거 처음 대출을 일으킬 당시 책정된 가산금리가 대출을 갈아타려는 시점의 가산금리보다 현저하게 낮다면 기준금리 인상 가능성을 고려해도 갈아타지 않는 게 나을 수 있다.중도상환수수료도 변수다. 전세대출은 기간에 따라 상환금액의 최대 0.7~0.9%, 주택담보대출은 3년이 지나지 않았다면 최대 1.2% 정도를 수수료로 내야 한다. 갈아타는 금리와의 격차가 수수료보다 낮다면 배보다 배꼽이 더 커질 수 있다. 다만 대부분 은행은 주택담보대출의 경우 소비자가 변동금리에서 고정금리로 처음 갈아탈 때에 한해 중도상환수수료를 부과하지 않으니 확인해보는 게 좋다. 예금 가입 기간은 짧게, 파킹통장도 쏠쏠예·적금 상품은 보통 가입 기간이 길수록 금리가 높다. 하지만 지금처럼 금리가 빠른 속도로 오를 것으로 예상될 땐 가입 기간을 짧게 하고 만기가 되면 더 오른 금리로 다시 예치하는 게 더 유리하다는 게 전문가들의 설명이다. 통상 은행보다 이자를 많이 주는 저축은행 상품도 고려할 만하다. 저축은행도 총 5000만원까지 예금자 보호가 되기 때문에 불안하다면 한 곳에 5000만원까지만 맡기면 된다.최근 인터넷은행과 저축은행에선 복잡한 조건 없이 하루만 맡겨도 연 2%대 이자를 주는 수시입출식 예금, 이른바 ‘파킹통장’이 인기다. OK저축은행의 ‘OK파킹대박통장’은 이달 9일부터 기본 연 2.0%, 최고 연 2.2% 이자(5억원까지)를 준다. 우대금리는 다른 시중은행 또는 증권사 앱 오픈뱅킹에 해당 계좌를 등록만 하면 받을 수 있다. 은행권에선 토스뱅크가 조건 없이 연 2% 금리를 준다. 현재는 예치액에도 제한이 없지만 내년 1월 5일부터는 1억원까지만 연 2%, 초과분부터는 연 0.1%만 적용된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2021.12.13.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>82년생 CEO, 넥타이 푼 회장님…'파격' 택한 기업 뒤엔 이들이</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004682336?sid=101</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>[편집자주] 승진 연한 축소, 절대 평가 강화, 과감한 발탁과 보상...연공서열과 안정성으로 대변되던 제조업, 금융 등 기존 대기업들의 인사와 평가, 보상 관행이 바뀌고 있다. 공정과 수평적 조직 문화를 중시하는 MZ세대에 맞춘 변화지만 빅테크기업, 플랫폼기업, 스타트업 등 젊은 기업들로 빠져나가는 인재들을 지키기 위한 고육지책이기도 하다. 재계에 불어닥친 인사, 보상 시스템의 변화와 그 의미를 짚어본다.[[MT리포트] 판교발 인사 혁신, 골리앗이 움직인다(上)]━"넵!" 대신 "왜?" 한국 기업 충격요법…"선배도, 공채 우대도 폐지"━"삼성에 와서 가장 놀란 것은 상사의 지시를 받으면 '왜'라고 질문하지 않는다는 점이다. 실리콘밸리에 이렇게 질문하지 않는 기업이 있다면 살아남기 힘들다."삼성전자의 4년차 한 외국인 직원은 12일 임원인사와 맞물려 연공서열 파괴와 능력 우대에 초점을 맞춘 인사제도 개편과 임원 인사가 이어지는 데 대해 이렇게 촌평했다. 최근 삼성전자를 비롯해 국내 주요 기업에 불어닥친 조직문화 개편 바람의 정곡을 찌르는 한마디다.직급체계와 호칭 단순화, 승진연한 폐지, 절대평가 확대 등을 골자로 한 기업들의 인사제도 개편을 두고 한편에서는 파격이라는 평가가 나오지만 다른 쪽에선 "한발 늦었다"는 얘기가 이어지는 것도 이런 지점에서다. 구글이나 애플이 격의 없는 소통과 치열한 토론을 통해 기술과 지식의 융·복합으로 대변되는 4차 산업혁명 시대의 글로벌 ITC(정보통신기술) 시장에서 치고나갈 때 국내 기업들은 소위 상명하복식 관료주의에 젖어 실기(失期)한 부분이 적잖다는 것이다.이경묵 서울대 경영학과 교수는 "'질문하는 조직'이 가장 중요한 생존전략이라는 것을 기업들이 깨닫기 시작한 것"이라며 "정체 위기에 놓인 기업 문화 전반에 변화를 주는 작업에 좀더 속도를 내야 한다"고 말했다."'관리의 삼성' 꼬리 자른다"…절박한 변화인사제도는 국내 기업문화를 선도한다는 평을 들어온 삼성전자에서도 그동안 유독 아쉬운 대목으로 꼽혔다. 올 들어 잇따른 제도 개편 역시 MZ세대(1980년대에서 2000년대 초반 태어난 밀레니얼 세대와 Z세대) 직원들의 성토에 떠밀린 측면을 부인하기 어렵다. 워라밸(일과 삶의 균형)과 공정, 수평적 문화에 민감한 20·30세대 젊은 직원들이 서열에 민감한 한국사회에 균열을 내고 있다는 얘기다. 직급 체계를 단순화하고 수평적 조직 문화 조성에 힘쓰는 것은 삼성만이 아니다. 현대차·SK·LG 등이 사원·대리·과장·차장·부장으로 이어지는 반세기의 직급 체계를 2~3단계로 축소했다. 직원간 호칭을 '매니저'나 '님', '프로'로 통일한 곳도 있다. 보수적인 은행권도 이런 분위기에 동참하기 시작했다. 하나금융그룹은 지난해부터 직급 호칭 없이 '영어 별칭'을 부른다. 올초 대기업과 IT업계를 휩쓴 성과급 불만 사태 이후 성과보상체계와 인사제도 개편에 속도를 내는 기업도 상당수다. 등 떠밀린 면이 있지만 직무와 능력, 성과 중심의 인사제도 개편은 글로벌 시장 생존 전략에서 불가피한 변화라는 게 전문가들의 진단이다. 과거 '관리의 삼성'으로 통했던 삼성 특유의 '일사불란'은 패스트팔로어 시대의 국내 기업에 모범 교본과도 같았다. 짧은 기간에 선두주자를 추격하고 결국 넘어서는 데 톱다운식 효율성은 강력한 무기였다. 문제는 국내 기업들이 패스트팔로어에서 퍼스트무버로 올라서면서 시작됐다. 이경묵 교수는 "더는 모방할 것이 없는 국내 기업들은 새로운 제품이나 서비스를 만들어 시장을 개척해야 하는 상황"이라며 "임직원들의 다양하고 창의적인 능력을 활용하는 것말고는 다른 방법이 없다"고 말했다.절반의 성공으로 남았지만 삼성전자가 2016년 직급을 7단계에서 4단계를 축소하는 조직 수술을 단행했던 배경에도 '알파고 충격'이 있었다. 그 해 3월 구글의 인공지능 '알파고'가 이세돌 9단과 바둑 대결에서 5전 4승 1패로 승리하자 더이상 '관리의 삼성'으로는 안 된다는 목소리가 삼성을 휩쓸었다. 권위적인 일사불란이 아니라 다양성과 창의성이 중요하다는 진단은 곧바로 수평적 인사제도 개편 시도로 이어졌다.구글·애플 벤치마킹…"인재에 국경 없다"최근 국내 주요 기업들이 연공서열을 깨고 능력과 성과 중심의 보상과 승진 기회를 보장하는 한편, 외부 인재를 적극적으로 기용하는 배경에도 국내외 빅테크 기업과의 경쟁에서 밀리지 않겠다는 위기감이 있다는 평가다. 보수적인 기업 문화로 알려진 LG그룹과 롯데그룹도 최근 2~3년 동안 C레벨(CEO·CFO·CTO 등 'C' 자가 들어가는 최고 경영진)을 포함해 직급과 경계를 따지지 않고 인재를 영입하는 데 혈안이다.5대 그룹 인사팀 한 인사는 "요즘 기업 인사담당 부서의 최우선 과제는 젊은 인재들에게 우리 회사가 '기회의 땅'이라는 것을 보여주고 증명하는 것"이라고 말했다.이런 실리콘밸리식 인재 확보전은 사실 핀테크·게임·포탈 등 IT업계와 스타트업에서 먼저 수용했다. 핀테크업체 토스는 지난해 유튜브에 올린 채용 동영상에서 "직급은 없고 역할은 많다", "누구한테 보고하느냐고 물을 필요도 없다"는 인터뷰로 화제를 모았다. 국내 최대 포탈 네이버는 지난달 만 40세의 최수연 대표를 새 수장으로 뽑아 파란을 일으켰다.삼성전자는 2018년 대기업 특유의 경직된 조직 문화에 스타트업의 이런 수평적 조직문화를 이식하겠다며 토스·야놀자·우아한형제들 등 국내 주요 스타트업과 워크숍을 진행했다. 한때 세계 최대 IT업체였던 마이크로소프트가 2010년 들어 구글과 애플에 밀리기 시작하자 십수년을 지켜온 상대평가식 성과보상체계를 접고 협업과 토론에 초점을 맞춘 구글과 애플의 기업 문화 배우기에 공을 들인 것도 같은 맥락이다.최근 재계의 변화는 전통 제조업에서 IT, 전기차 등을 중심으로 산업계 지각변동이 진행되는 흐름과 맞물려 삼성·현대차·LG·한화 등에서 새로운 기술의 등장과 세계화의 변화 속에 성장한 젊은 오너 경영인이 전면에 부상하는 추세와도 무관치 않다는 분석이다.이은형 국민대 경영학부 교수는 "총수의 세대가 바뀌었다는 것은 기업 전반에 걸쳐 큰 변화를 가져올 수밖에 없다"며 "기존 인재들과 새로운 세대의 인재 사이에서 기업을 혁신으로 이끄는 과정에서 총수들이 소통의 가교 역할을 해내야 할 것"이라고 말했다.━82년생 CEO, 청바지 입은 금융맨...보수적인 금융회사가 달라졌다━82년생 은행장, 청바지 입은 은행원, 휴가 '셀프 결재'하는 금융맨…….보수적인 금융회사가 달라졌다. 카카오를 비롯한 빅테크, 토스로 대표되는 핀테크가 금융업에 진출하고 디지털 전환이 빨라지면서 금융권도 서열주의, 순혈주의가 깨지는 등 채용, 인사, 조직문화 전반에 걸쳐 변화의 바람이 분다. 30대 은행장은 이를 상징하는 일이다. 지난 9월 출범한 인터넷전문은행 토스뱅크는 39세(1982년생) 홍민택 대표가 이끈다. 기존 은행장들이 50대 후반~60대 초반인 것을 감안하면 파격이다. 물론 토스 내부를 들여다보면 그렇지 않다. 토스뱅크 모회사인 토스(비바리퍼블리카)의 이승건 대표도 39세다. 토스 직원의 평균연령은 31세다.토스와 더불어 카카오는 문화 측면에서도 '금융 메기' 역할을 했다. MZ세대(1980년대 초반 출생~2000년대 초반 출생)를 중심에 둔 것이다. 실제 구성원들도 MZ세대가 대부분이다. 카카오뱅크 임직원의 83%는 40세 이하다. 카카오페이 임직원 중 MZ세대 비중은  90%다. 수평적인 조직문화를 위해 구성원들은 서로를 '다니엘'과 같은 영어 이름으로 부른다. 기존 금융회사들도 변신을 서두른다.빅테크, 핀테크에 고객과 직원을 뺏기지 않으려는 몸부림이다. 실제 카카오뱅크가 경력직 모집에 나서면 기존 은행원들이 대거 이탈하는 등 인력 이동이 활발해졌다.CEO들은 넥타이를 풀고 '회장님' 호칭을 버린다. 김정태 하나금융그룹 회장은 자신을 이니셜인 'JT'로 부르도록 했다. 조용병 신한금융그룹 회장은 자신의 호칭을 '엉클(Uncle) 조'로 정했다. 신한카드에서는 CEO를 포함한 모든 임직원을 '○○○님'으로 부른다.순혈주의를 고집하던 인사 정책도 버렸다. 이는 디지털 전환과도 무관하지 않다. 디지털 수장을 외부에서 영입하는 일이 빈번해졌다.  KB국민은행의 디지털 전환을 책임지는 윤진수 테크그룹 부행장은 삼성전자, 현대카드 등을 거친 빅데이터 전문가다. 신한은행은 지난해 말 은행장 직속 조직 디지털혁신단을 꾸리면서 KT 출신, SK 출신 임원을 유닛(Unit)장으로 영입했다. IT기업의 문화도 이식됐다. 티셔츠에 청바지 차림을 한 직원이 신한금융지주 본점으로 출근하는 식이다. 신한지주 직원들은 휴가도  스스로 결재하고 다녀온다. 한화생명 직원들은 본사 63빌딩을 벗어나 동해가 보이는 강원 양양 호텔 등 '원격근무지'에서 일해도 된다. 국민카드는 자율좌석 업무공간을 운영한다. 토스는 금요일에 조기 퇴근하는 주4.5일제, 연말에 10일간 쉬는 전사휴무제를 도입했다. MZ세대는 조직의 중심으로 떠올랐다. MZ세대가 주요 고객군으로 부상하면서 MZ세대의 의견이 중요해졌다. 우리금융그룹은 MZ세대에 특화한 플랫폼을 만들기로 했는데 MZ세대 중심으로 태스크포스팀(TFT)을 꾸렸다. 손태승 우리금융 회장은 "2030년 생산연령 인구의 60%를 MZ세대가 차지하는 만큼 우리금융의 미래는 MZ세대에 달렸다"고 했다. 금융권 관계자는 "금융업을 둘러싼 경쟁이 치열해지면서 변화하지 않으면 살아남을 수 없다는 위기감이 팽배하다"며 "변화의 속도가 빨라지고 모습도 다양해졌다"고 말했다.━'깜짝 사표' 대기업 김과장, '어디로' 물으니…"판교 갑니다"━임종철 디자이너 /사진=임종철 디자이너과거 경쟁사 또는 해외 기업의 '인재 빼가기'를 경계해왔던 대기업들이 최근에는 스타트업까지 신경 써야 할 상황에 놓였다. 모바일 세상에서 생겨난 스타트업들에 수많은 청년 인재들이 열광하면서, MZ세대 중심의 능력있는 대기업 직원들도 과감하게 사표를 내고 판교로 달려가고 있어서다.특히 스타트업의 여러 성공 신화에 뒤따르는 '수십억대 성과급, 스톡옵션' 풍문은 대기업의 젊은 인재들을 자극하고 있다. 평생 직장 개념이 옅어진 만큼, '일한 만큼 보상받지 못한다'고 느끼면 언제든지 직장을 떠날 수 있기 때문이다. 스타트업 창업·이직 고려하는 대기업 직장인들스타트업얼라이언스와 오픈서베이가 공동으로 조사해 지난 10월 발표한 '스타트업 트렌드 리포트 2020'에서는 국내 대기업 재직자(상시 근로자 1000명 이상 기업, 250명 조사)에게 스타트업 창업 또는 이직에 대한 의견을 물었는데, 응답자 3명 중 1명(34%)이 "창업을 고려하고 있다"고 밝혔다. 직접 창업보다는 적지만, 스타트업으로의 이직을 고려하는 대기업 직원도 5명 중 1명(19.2%) 꼴이었다. 지난해 같은 조사의 응답(17.6%)보다 1.6%포인트 높아진 결과다. 특히 코로나19에 따른 불안한 경제상황이 그나마 대기업 직원들의 스타트업 창업·이직 의지를 누르고 있는 상황이다. 4년 전 같은 조사에서 대기업 직원들 중 스타트업 창업을 고려한다는 응답은 무려 44.0%, 이직을 고려한다는 응답은 26.0%에 달했다. '포스트 코로나'가 본격화되면 능력 있는 대기업 인재들의 '모험심'이 다시 고개를 들지 모를 일이다."집값 올라 월급 더 적어졌다"…'성과급 신화' 꿈꾸는 MZ대기업 직원들이 주로 스타트업 창업 및 이직을 고려하는 가장 핵심적인 이유는 '보수'였다. 이번 조사에서 스타트업 이직을 고민하는 대기업 직원들은 '스톡옵션 등으로 인한 수익 기대감(33.3%)' '빠른 성장으로 인한 성취감(31.3%)', '자율적·수평적인 조직 문화(20.8%)' 등을 이유로 꼽았다. 또 실제로 이직한다면 가장 많이 고려할 요소로도 과반(58.8%)이 금전적 보상(연봉·스톡옵션·샤이닝 보너스 등)을 꼽았다.'열심히 노력한 사람이 많은 보상을 받아야 한다'는 MZ 세대의 가치가 스타트업의 '거액 성과급' 사례에 부합한 것으로 풀이된다. 올해 초 블라인드를 중심으로 불거진 여러 대기업의 '성과급' 논란과도 겹치는 대목이다. 대기업 직원들이 창업을 고려하는 이유 역시 '많은 수익 창출', '불안정한 직장', '월급이 적어서' 등이 주로 꼽혔다. 응답자들은 설문에서 "연봉 차감과 인원 감축에 대한 스트레스가 크다" "집값상승으로 월급이 더 적어졌다"는 의견을 내놓았다.대기업 직원이라도 최상위권이 아니면 '돈을 많이 못 번다'는 인식도 팽배하다. 실제로 취업준비생들의 온라인 커뮤니티 등에선 '삼현에엘'(삼성·현대차·SK·LG그룹) '롯동금'(롯데·동부(현 DB)·금호아시아나) 등 대기업집단을 순위별 그룹으로 나눈 은어가 떠도는데, 최상위권이 아니라면 대우와 복지가 그리 높지 않다는 평가가 나온다.10년 뒤 내 모습, 부장?…'가치' 찾아 떠난다스타트업에 대한 대중적 선호도가 높아진 것도 대기업 직원들을 자극하는 요소다. 실제로 대기업 재직자들이 스타트업을 바라보는 이미지로는 '혁신적인·창의적인'(33.2%), 젊은·새로운(24.4%)' 등의 긍정적인 이미지가 과반이었다. 또 최근 이커머스·유통·부동산·콘텐츠·생활서비스 등 소비자 친화적 분야의 스타트업이 각광을 받는 것도 도전의 문턱을 낮췄다는 평가다.아울러 대기업은 안정적인 사업 분야에서 비교적 장기간의 직장생활을 영위할 수 있다는 장점이 있지만, 전통산업의 성장 가능성이 한계에 다다르고 있다는 불안과 수직적인 조직문화를 견디지 못하는 추세다. '10년, 20년 뒤 내 모습이 부장·국장이라면?'은 상당수 MZ 직장인들의 불안한 상상이다. 금융회사에서 과장급으로 일하다 관련 스타트업으로 이직한 A씨는 "직전에 다니던 회사도 디지털 전환 노력을 했지만, 아이디어를 현실화하기에는 벽이 높더라. 그만큼 '안정'과 '리스크 관리'가 우선이어야 하는 곳이기도 했다"며 "지금 회사가 성공하지 못해도 굶어죽지 않을 정도의 돈은 벌어놨고, 앞으로는 좀 더 흥미로운 일에 내 시간을 투자하고 싶었다"고 말했다.다만 막연한 환상은 금물이라는 지적도 나온다. A씨는 "기존의 직장에서 당연하던 조직 체계, 업무 분장 시스템은 전무하고, 하나부터 열까지 다 내가 할 일이더라"고 토로했다. 또 대부분이 회사와 함께 성공을 꿈꾸지만, 보장되지 않는 성과의 불안이 다수다. 실제로 앞선 조사에서 벤처·스타트업 재직자를 대상으로 '이직할 경우 선호하는 회사'를 물은 결과, 국내 대기업(24.8%) 또는 '공공기관·정부·공기업(20.0%)'이라는 응답이 가장 많았다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2021.12.10.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>금융결제원, 사업자 대상 간편인증서비스 최초 실시</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005013305?sid=101</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>2022년 중 대부분의 은행에서 발급 가능금융결제원이 국내 최초로 사업자 대상 간편인증서비스를 실시한다.10일 금융결제원은 금융인증서비스(YESKEY)를 사업자 대상으로 확대 실시해 국내 최초로 사업자에 간편인증서비스를 제공한다고 밝혔다.경남은행, 국민은행, 기업은행, 산업은행, 새마을금고에서 사업자 금융거래용 금융인증서를 발급받아 이용할 수 있으며, 토스뱅크를 포함한 대부분의 은행에서도 내년 1분기에 순차적으로 발급을 실시하고 기업뱅킹에 적용할 예정이다. 또 오는 13일부터는 서울시 이텍스(eTax), 국민연금공단에서도 이용 가능하며, 2022년 중 주요 정부 민원업무로 이용 범위가 확대된다.금융인증서는 금융회사에서 사업자등록증 확인 및 사업자 대표 또는 위임인에 대한 철저한 신원확인을 거쳐 발급되며, 휴대폰인증이나 OTP 중 원하는 수단으로 클라우드에 접속할 수 있다. 인증서를 발급한 사람이 허가한 사람만 인증서를 사용할 수 있고, 인증서 사용시간·국외 사용차단 여부를 설정할 수 있어 업무시간 외 국외에서 인증서의 부정사용을 방지할 수 있다.금융결제원 관계자는 "사업자 금융인증서비스는 고액 자금 이체 등 고위험 거래가 빈번한 사업자 고객도 안심하고 편리하게 사용할 수 있는 사업자 맞춤형 인증서비스"라며 "전자서명법 개정 이후 개인 고객만을 대상으로 제공되던 간편인증서비스를 사업자 고객에게도 확대 제공함으로써 인증시장에서 소외된 사업자 고객의 니즈를 충족할 것으로 기대한다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2021.12.13.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>당국 "4차접종은 아직 검토 안 해…향후 방역상황 보고 결정"</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/079/0003585604?sid=102</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>3차접종, mRNA 권고…아스트라제네카 기본접종 시엔 모더나방역패스 계도 종료 첫날, 쿠브 '에러'…"KT DS클라우드센터 과부하"네이버·카카오 등 "QR코드 노출 안 돼"…"질병청 쪽 문제인 듯"코로나19 방역패스 계도기간이 종료된 13일 서울 중구의 한 식당에 방역패스 관련 안내문이 붙어 있다. 13일부터 식당, 카페, 학원 등 실내 다중이용시설을 이용하려면 코로나19 백신 접종 완료를 증명하거나 감염되지 않았다는 음성 결과 확인이 가능해야 한다. 황진환 기자신규 확진자가 7천 명을 넘기고 위중증 환자가 800명대로 치솟는 등 연일 악화하는 코로나19 유행상황에 추가접종을 '3차 접종'이라 명명하며 적극 권고 중인 방역당국이 "4차 접종은 아직 검토하고 있지 않다"는 입장을 밝혔다. 현재 기본접종에 포함되는 2차 접종(접종완료) 이후 3차 접종 사이 접종간격이 6개월에서 3개월로 대폭 단축된 만큼 앞으로는 주기마다 4차 또는 5차 접종 등 접종회차에 제한을 두지 않고 백신을 맞아야 할 것이라는 전망도 나오고 있는 상황이다. 코로나19 예방접종대응추진단(추진단) 홍정익 예방접종관리팀장은 13일 정례브리핑에서 추후 '4차 접종'의 필요성을 묻는 질의에 대해 "지금 저희들은 4차 접종에 대한 내용은 논의하고 있지 않다"라며 "향후 국내 방역상황이나 식품의약품안전처의 허가 여부, 다른 나라의 접종 동향, 국내외 연구결과 등을 충분히 검토해 신중하게 결정하도록 하겠다"고 말했다.화이자 사(社) 알버트 불라 CEO. 연합뉴스앞서 화이자 사(社)의 앨버트 불라 최고경영자(CEO)는 '부스터샷'(효과 보강을 위한 추가접종)이 오미크론 변이에 확실한 효력이 있다는 실험 결과를 공개하면서 "우리 백신의 3회차 접종이 보호 능력을 개선한다는 점이 분명하다"며 "가능한 한 많은 사람에게 부스터샷까지 맞히는 것이 코로나19 확산 예방을 위한 최선의 조치"라고 밝혔다. 독일 프랑크푸르트 대학병원에서 진행된 해당 시험에 따르면, 화이자 백신 3차 접종 이후 중화항체가 기본접종(2차 접종)때보다 25배 증가한 것으로 파악됐다. 불라 CEO는 더불어 CNBC 방송에서 "우리는 네 번째 접종이 필요할 거라고 생각한다"며 오미크론 유행에 따라 4차접종 시기가 더 당겨질 수 있다고 주장하기도 했다. 방역당국은 지금으로서는 위중증 환자의 80% 이상을 차지하고 있는 60세 이상 고령층의 감염규모를 줄이기 위한 3차 접종률 제고가 최우선이라는 입장이다. 현재 60세 이상의 추가접종률은 31.4% 수준이다. 이달 첫째 주보다 13.3%p 오른 결과다. 홍 팀장은 "3차 접종을 위해 이달 1일부터 위탁의료기관의 요일제 운영을 주3일에서 '주7일'로 확대했다. 이후에도 3차접종 속도를 높이기 위해 다양한 정책을 발표했다"고 말했다. 그러면서 "먼저 60세 이상 고령층 집중접종기간을 지난 1일부터 운영하고 있다. 이를 위해 사전예약 이틀 후 접종이 가능토록 하고, (별도의) 예약이 없는 방문접종도 허용했다"며 "SNS(사회관계망서비스) 당일예약, (위탁의료기관의) 예비명단 등 잔여백신 당일 접종도 확대했다"고 부연했다.서울 양천구의 한 병원에서 의료진이 모더나 백신 접종을 준비하고 있다. 이한형 기자아울러 "지난 2일부터는 3차접종 대상자를 18세 이상 모든 성인으로 확대했고, 오늘(13일)부터 접종 간격을 '2차접종 3개월 이후'로 단축해 시행하게 된다"고 강조했다. 3차 접종용(用) 백신으로는 기본적으로 화이자 또는 모더나 같은 mRNA(메신저 리보핵산) 계열 백신이 권고되고 있다. 홍 팀장은 "가능하면 1·2차 접종과 동일한 백신으로 진행하고, 필요한 경우에는 mRNA 백신 중에서 화이자나 모더나로 선택해서 접종할 수도 있다"고 밝혔다. 이어 "우리나라는 (기본)접종을 할 때 화이자 백신을 접종하신 분은 화이자, 또 모더나 백신으로 접종하신 분은 모더나 백신, 그 전에 (아스트라제네카(AZ) 같은) 바이러스 벡터 백신으로 접종하신 분들은 모더나 백신으로 예약해드리고 있다"고 설명했다. 이밖에 AZ 백신과 화이자를 교차접종한 경우에는 3차접종 백신이 화이자로 안내되고 있는 것으로 나타났다. 그는 "추후 백신 수급상황에 문제가 있거나 다른 이유가 있다고 하면, 모더나 백신을 (사전예약 당시 백신으로) 지정할 수도 있다. 하지만 지금은 백신 수급에 문제가 없고 충분한 화이자·모더나 백신을 확보하고 있다"며 "그래서 저희들이 권고해드린, 사전예약에서 지정된 백신으로 접종받으시길 권고드린다"고 덧붙였다. 3차접종 시점이 당겨지고 대상이 대폭 확대됨에 따라, 일각에서는 백신 수급에 대한 문제도 제기됐지만 당국은 넉넉한 물량이 확보돼 있다고 강조했다. 홍 팀장은 "지금 12월 중에 약 한 2600만 명이 대상자가 된 상황이고, (내년) 1월에는 약 1200만 명 또는 1300만 명 정도의 대상자가 추가로 늘게 돼 있다"라며 "저희가 시뮬레이션을 한 결과, 3차 접종에 사용되는 화이자 백신 그리고 모더나 백신은 충분히 공급이 가능하다"고 자신감을 내비쳤다.한편, 방역당국은 '방역 패스'(접종증명·음성확인제) 확대에 따른 1주 간의 계도기간이 종료된 이날, 현장 곳곳에서 쿠브(COOV·전자예방접종증명서) 등의 접속 불가로 '먹통' 사태가 빚어진 점에 대해 사과했다. 쿠브는 코로나19 백신 접종력을 확인할 수 있는 모바일 애플리케이션(앱)으로 질병관리청이 관리하고 있다. 이날 0시를 기점으로 계도기간이 종료돼 식당·카페 등 대부분의 다중시설은 방역패스를 제시해야 입장이 가능한 상황이었다. 점심시간을 앞둔 오전 11시 반쯤부터 쿠브 접속이 안되는가 하면, 네이버·카카오·토스 등 접종완료 사실을 확인 가능한 다른 앱들도 QR코드가 뜨지 않는 에러가 발생해 많은 시민들이 불편을 겪었다. 질병청 고재영 대변인은 "갑작스러운 접속 부하로 인해서 관련 기능, 전자출입명부나 쿠브 앱 이용에 불편을 끼쳐드린 점에 대해서 사과의 말씀을 드린다"며 "사용 정상화를 위한 관련기간 관의 협의를 진행하고 있고, 긴급조치가 진행된 이후에 원인이나 재발 방지와 관련된 조치들을 발표드리도록 하겠다"고 말했다. 질병청에 따르면, 문제의 원인은 쿠브 서버가 위치한 KT DS 클라우드센터의 접속 부하로 추정됐다. 다만, 질병청 측은 코로나19 예방접종 사전예약 홈페이지의 경우, 특별한 장애 없이 운영이 되고 있으며 쿠브 서버의 기능 개선과 관련해서는 추후 별도로 안내하겠다고 밝혔다. 백신 접종력을 확인하는 QR코드 서비스를 제공하고 있는 카카오·네이버 등은 쿠브 앱 자체의 문제일 가능성이 높다는 입장이다. 카카오 측 관계자는 "상황을 인지하고 파악 중"이라면서도 "보다 정확한 것은 질병청이 알 것 같다"고 말했다. 그러면서 "카카오는 QR에 두 종류가 있는데, 일반 QR과 백신 접종 정보가 업데이트된 QR 등"이라며 "그런데 그 정보를 불러오는 게 안 되더라"고 부연했다.쿠브가 해당 정보를 전달하는 '매개' 역할을 하기 때문에 쿠브의 정상 작동이 어려울 시 카카오 같은 업체들이 정보를 넘겨받는 것은 당연히 불가하다고도 업계는 보고 있다.클릭하거나 확대하면 원본 이미지를 보실 수 있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2021.12.06.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>벤처기업협회, 쿠팡 미국 상장 등 10대 뉴스 선정</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002241243?sid=105</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>벤처투자액 역대 최다, 일반지주회사 CVC 설립 허용 등도쿠팡 미국 상장 등이 벤처기업협회(회장 강삼권)가 뽑은 올해 10대 뉴스에 선정됐다.6일 협회는 벤처업계 전문가, 벤처기업 및 회원사 임직원 대상으로 설문조사를 실시, 올 한해 발표한 벤처 관련 정책 및 업계 뉴스 중 벤처업계 내에서 크게 이슈가 된 10대 뉴스를 발표했다.선정된 10대 뉴스는 ▲제2의 벤처붐, 벤처투자액 역대 최대치 도달 ▲민간주도 벤처기업확인제도 성공적 안착 ▲쿠팡의 미국상장과 복수의결권 도입 논란 ▲주 52시간제 도입, 최저임금 상승 등 경영환경 경직 ▲플랫폼 기업과 전문직 단체의 갈등 심화 ▲글로벌 벤처투자 시장에서 주목받는 한국의 벤처기업 ▲벤처, 스타트업 업계 대규모 M&amp;A 성사 ▲메타버스, 미래산업의 핵심으로 부상 ▲벤처‧스타트업계의 치열한 인재 확보 전쟁 ▲일반지주회사의 CVC 설립 허용 등이다.이외에 ‘정부의 세계 4대 벤처강국 도약 선언’과 ‘산업계 전반에 ESG경영 인식 확산’, ‘구글 등 앱마켓 사업자의 인앱결제 금지’ 등이 관심을 받았다고 협회는 설명했다.▲제2의 벤처붐, 벤처투자액 역대 최대치 도달:올 3분기까지 누적 벤처투자액이 5조 2593억원으로 집계됐다. 이는 역대 최대였던 지난해 실적(4조 3045억원)을 3분기만에 경신한 것이다. 또한 3분기 누적 투자건수와 피투자기업 수는 각각 3855건, 1791개사로 각각 역대 3분기 누적 최다 실적을 기록했다. 한편 국회에서 내년도 모태펀드 예산 삭감이 논의되고 있어, 모처럼 타오른 제2벤처붐에 부정적인 영향을 줄 수 있다는 우려가 나오고 있다.▲민간주도 벤처기업확인제도 성공적 안착: 지난해 ‘벤처기업육성에 관한 특별조치법’이 개정돼 올 2월부터 벤처기업협회가 벤처기업확인기관으로 운영을 시작했다. 민간주도로 개편되기 전에는 재무안정성 기준의 ‘보증‧대출유형’이 전체 벤처확인기업의 84.9%에 달했었으나, 개편 이후 10월말 기준 신규확인 또는 재확인 받은 기업 중 ‘혁신성장유형’이 65.8%, ‘벤처투자유형 및 연구개발유형’이 33.6%로 개선됐다.▲쿠팡의 미국상장과 복수의결권 도입 논란: 올해 4월 쿠팡이 미국 뉴욕증권거래소에 상장하면서 ‘쿠팡이 미국 기업이냐, 한국 기업이냐’는 논란이 일었다. 이에 더해 쿠팡이 투자유치와 경영권 방어를 위해 복수의결권 제도가 허용되는 미국행을 택한 것이 아니냐는 주장이 제기됐고, 이로 인해 발의 이후 진전이 없던 복수의결권 제도에 관심이 모아졌다. 현재 복수의결권 도입 법안은 소관 상임위를 통과해 국회 본회의 의결을 앞두고 있다.▲주 52시간제 도입, 최저임금 상승 등 경영환경 경직: 올해 7월부터 50인 미만의 기업에도 주 52시간제가 적용됐다. 자율적 열정과 유연성이 무기인 벤처‧스타트업 문화를 훼손할 수 있다는 우려와 함께 고질적 인력난과 자금난을 겪고 있는 벤처‧스타트업들에게 큰 부담으로 다가왔다. 이에 더해 최근 급격하게 상승한 최저임금, 내년 1월부터 50인 이상 사업장에 적용되는 중대재해처벌법 등으로 업계의 고충이 커지고 있는 상황이다.▲플랫폼 기업과 전문직 단체의 갈등 심화: 올해도 플랫폼 기업들과 각 분야 전문직 단체와의 갈등이 고조됐다. 로톡(법률 서비스)은 대한변호사협회가 로톡 가입 변호사를 징계하겠다고 나서며 사업의 불확실성이 커졌으며, 닥터나우(원격진료 및 약 배송)는 대한약사회, 강남언니(성형 후기)는 대한의사협회, 다윈중개(반값 부동산중개)는 공인중개사협회, 삼쩜삼(종합소득세 신고)은 한국세무사회와 대치하고 있다. 이에 더해 업계에서는 정부와 여당이 추진하고 있는 ‘온라인 플랫폼 중개 거래의 공정화에 관한 법률안’이 플랫폼 기업들에게 새로운 규제로 작용할 것을 우려하고 있다.▲글로벌 벤처투자 시장에서 주목받는 한국의 벤처기업: 국내 벤처‧스타트업 생태계에 외국자본 유입이 늘고 있다. 스타트업 데이터 전문업체 더브이씨에 따르면 올해 10월말까지 외국계 벤처캐피탈들은 국내 147개 스타트업에 총 4조 9561억원을 투자했다. 지난해 연간 투자액 8718억원보다 5.7배가량 증가했다. 가장 많은 외국계 투자를 유치한 곳은 숙박 플랫폼 야놀자로 일본 소프트뱅크 비전펀드II로부터 2조원 규모의 투자를 유치했다. 이 외에도 뤼이드, 마켓컬리, 당근마켓 등도 대규모 외국계 투자유치에 성공했다.▲벤처․스타트업 업계 대규모 M&amp;A 성사: 대기업의 인수합병 대상이던 벤처‧스타트업들이 투자받은 자금을 기반으로 역으로 인수합병을 추진하며 덩치를 키우고 있다. 직방은 지난 1월 카카오페이의 자회사인 아파트 관리 앱 모빌을, 야놀자는 국내 종합 온라인 쇼핑몰 원조인 인터파크를, 비바리퍼블리카(토스)는 타다 운영사인 VCNC를 인수하는 등 사업을 확장하고 있다.▲메타버스, 미래산업 핵심으로 부상: 최근 페이스북이 소셜미디어를 넘어 가상현실 분야로 사업영역을 확장한다며 사명을 메타로 변경한 것이 화제였다. 전 세계가 코로나를 겪으면서 비대면이 일상이 된 시대를 살아가고 있는 가운데 국내에서도 현실과 가상의 세계가 상호작용하는 메타버스가 주목 받고 있다. 네이버의 메타버스 플랫폼 제페토의 누적 가입자가 2억명을 넘었고, 올해 초 상장한 AI기반 리얼타임 콘텐츠 솔루션업체인 자이언트스텝의 주가가 급등했고, 카카오엔터테인먼트는 메타버스 기반 가상의 아이돌을 내놓을 것이라고 밝혔다.▲벤처‧스타트업계의 치열한 인재 확보 전쟁: 얼마 전까지 게임업계에 불던 임금 인상 바람이 IT업계 전반으로 번지고 있다. 인재를 끌어들이고 직원 이탈을 막기 위해 막대한 임금과 최고 수준의 복지를 제공하는 것으로, 이는 세계적인 흐름이기도 하다. 올해 넷마블과 넥슨은 전직원 연봉 800만원, 엔씨소프트는 개발자 1300만원‧비개발자 1000만원 이상 임금을 인상했다. 토스와 토스뱅크는 전 직장 연봉 대비 최대 1.5배, 5000만~1억원 상당의 스톡옵션 등 파격적인 조건을 내걸었다.▲일반지주회사의 CVC 설립 허용: 그간 한국은 금산분리 원칙에 따라 일반지주회사는 금융회사인 CVC를 보유할 수 없었으나, 지난해 공정거래법 개정안이 통과되면서 올해 12월부터 지주회사가 CVC를 완전 자회사 형태로 보유할 수 있게 됐다. 업계에서는 앞으로 벤처투자 시장에 활황이 거세질 것이라 기대하는 한편, 지주회사는 100% 완전자회사 형태로만 CVC를 소유할 수 있고 차입 규모도 자기자본의 200% 이내로 제한되는 등의 엄격한 규제에 대해서는 개선이 필요하다는 의견이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2021.12.02.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>토스증권, 해외주식 거래 서비스 개시…자동환전·AI번역 지원</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0003808494?sid=101</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>토스증권은 해외주식 서비스 전체 오픈을 시작한다고 2일 밝혔다. 이제 토스증권 MTS에서 기존의 국내주식 거래에 더해 520여 종의 미국 주식과 상장지수펀드(ETF)에 투자할 수 있다.서비스 오픈에 앞서 11월 한 달 간 진행된 해외주식 서비스 사전신청에는 약 70만명의 고객이 몰렸다. 그 중 64.2%가 2030 투자자로, 40대가 23.9%로 뒤를 이었다. 해외주식 서비스에도 정보 탐색부터 주식 매매까지 투자의 전 과정을 투자자 누구나 쉽고 간편하게 경험할 수 있도록 하는 토스증권의 서비스 철학이 그대로 담겼다. 국내 주식과 마찬가지로 해외주식 종목명이 낯설 수 있는 투자자들을 위해 브랜드 및 키워드 검색 기능을 강화했다. '구글'을 검색하면 구글을 서비스하는 '알파벳'의 기업 정보는 물론, 해당 종목이 포함된 ETF, 관련 섹터(IT)의 종목, 최신 뉴스와 관련 콘텐츠까지 모두 한 페이지에서 확인할 수 있다. 또한 자체 개발한 '해외뉴스 AI 번역 엔진'을 통해 언어의 다름으로 제한되었던 해외주식 정보에 대해 자세히 안내한다. 이는 토스증권의 딥러닝 전문가들이 직접 만든 주식 관련 뉴스에 특화된 번역 엔진으로, 500만건 이상의 번역 데이터 학습을 통해 해외 뉴스를 공급받는 즉시 번역된 뉴스를 제공한다.메뉴 구성에도 공을 들였다. '브랜드' 탭에서는 식음료, 의류, IT 등 일상 속 브랜드부터 투자자들의 관심이 높은 전기차, 반도체, 게임 등 키워드 기반으로 대표 종목들을 보여준다. '투자자' 탭에서는 워렌 버핏, 캐시 우드 등 유명 투자자들의 투자 철학과 보유 종목 리스트를 소개한다. 그 밖에 투자자들의 관심이 높은 배당주와 ETF 상품도 확인할 수 있다. 주식을 매매하는 과정에서도 투자자들은 '준비가 필요없는' 간편한 거래를 할 수 있다고 토스증권 측은 설명했다. 외화를 미리 환전하지 않아도 주문과 동시에 자동 환전이 진행돼 간편하게 매수할 수 있다. 또 정규장 전후 예약주문이 가능해 시차를 고려하지 않고 언제라도 원하는 가격을 설정해 거래할 수 있다. 실시간 시세 역시 이벤트 참여 여부와 전월 거래 이력과 상관없이 누구나 무료로 이용할 수 있다.윤민정 프로덕트 오너는 "토스증권을 통해 국내주식을 경험한 사용자들의 경험을 훼손하지 않으면서 자연스럽게 투자 포트폴리오를 해외로 확대할 수 있도록 설계하는데 중점을 뒀다"며 "기존 고객들은 별도의 앱 설치나 해외주식 투자를 위한 추가 계좌 개설 없이 손쉽게 해외주식 투자에 진입할 수 있다는 점 역시 차별화 포인트"라고 말했다.이미선 기자 already@sportschosun.com▶2022 임인년 신년운세 보러가기- Copyrightsⓒ 스포츠조선(http://sports.chosun.com/), 무단 전재 및 재배포 금지</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2021.12.08.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>스리슬쩍 혜택 줄였다, 인터넷 뱅크는 피노키오</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003658197?sid=101</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>토스·카카오·케이뱅크… 고객과의 약속 잇따라 깨							정체된 국내 은행산업에 ‘메기’ 역할을 해줄 것으로 기대했던 인터넷전문은행들이 잇따라 소비자들에게 내걸었던 약속을 지키지 않는 모습을 보이고 있다. 토스뱅크는 지난 10월 출범 당시 ‘조건 없는 2% 예금’과 함께 ‘조건 없는 체크카드’를 내세우며 소비자들을 끌어모았지만 두 달 만에 이 약속을 깼다. 토스뱅크는 1억원이 넘는 예치금에 대해서는 금리를 2%에서 0.1%로 대폭 낮추면서 “대다수의 고객은 지장이 없다”는 주장을 폈다. 또 체크카드 캐시백 혜택을 줄이면서도 “새로운 이벤트가 시작된다”고 포장했다.토스뱅크에 앞서 출범했던 카카오뱅크와 케이뱅크는 시중은행들이 기피하던 중·저신용자 대출을 확대하기로 하고 금융 당국과 협의해 목표치까지 정했지만, 올해 이 목표를 달성하기 어려울 전망이다. 기존 은행들처럼 돈을 빌려줬다가 떼일 위험이 낮은 고신용자 위주로 대출을 해줬기 때문이다./일러스트=박상훈 두 달 만에 약속 깬 토스뱅크							토스뱅크는 그동안 체크카드로 커피전문점, 편의점, 패스트푸드점, 택시, 대중교통에서 결제하면 각각 하루 한 차례씩 300원의 캐시백 혜택을 제공해왔다. 하루 최대 1500원의 캐시백을 받을 수 있었다. 전달 사용 실적이 적으면 혜택을 주지 않던 기존 카드사들과 달리 사용 실적을 따지지 않았기 때문에 큰 인기를 끌었다. 그러나 다음 달 5일부터는 버스, 지하철 등 대중교통 결제 시 하루 한 차례 300원을 돌려주던 대중교통 캐시백을 하루 한 차례 100원으로 줄였다.또 결제 건수당 할인 혜택을 받을 수 있는 금액 기준도 신설했다. 지금은 편의점에서 1000원짜리 껌 하나를 사도 300원 캐시백을 받을 수 있었지만, 앞으로는 금액 기준이 3000원으로 상향된다. 편의점도 GS25와 CU 등 2곳으로 축소된다. 고객 입장에서는 혜택이 축소되는 것이지만, 토스뱅크 측은 “에피소드1 혜택이 1월 4일 종료되고, 1월 5일부터 에피소드2가 시작된다”고 안내했다.토스뱅크 관계자는 “다른 서비스들을 추가하는 것도 검토했지만 오히려 소비자들을 더 기만하는 것 같아 내부 논의 끝에 이번에는 서비스를 축소만 하기로 한 것”이라고 밝혔다.기존 금융사들은 토스뱅크의 이 같은 마케팅이 형평성에 어긋난다고 지적한다. 원래 카드에 부가된 서비스는 약관에 따라 3년 이상 제공해야 변경이 가능하다. 또 부가서비스를 변경할 때는 6개월 전까지 변경 사유, 변경 내용 등을 소비자에게 홈페이지와 명세서 등 방식을 통해 고지해야 한다. 하지만 토스뱅크처럼 부가서비스가 아니라 ‘이벤트’로 등록하면 문자나 앱 알림을 통해 수시로 혜택을 바꿀 수 있다.한 카드사 관계자는 “카드를 새로 출시할 때 ‘6개월만 이벤트를 하겠다’고 금융 당국에 보고하면 거부되는 경우가 대부분”이라며 “3개월짜리 이벤트를 부가서비스처럼 포장하는 것은 당국이 못하도록 지적하는 문제인데, 토스뱅크는 어떻게 승인을 받았나 모르겠다. 너무 형평성에 어긋난다”고 말했다. 카뱅·케뱅, 중금리대출 목표 달성 요원							카카오뱅크와 케이뱅크가 2017년 출범할 때 금융위원회는 “기존 은행이 하지 않는 소매금융 혁신을 담당하는 ‘챌린저 뱅크’ 역할”을 주문했다. 올해 카카오뱅크는 전체 대출 가운데 중·저신용자 비율을 21%로 늘리겠다고 했지만, 3분기 말 기준 13%에 불과하다. 케이뱅크 역시 3분기 말 14%로 올해 목표치(22%)에 크게 못 미친다.인터넷전문은행들의 중·저신용자 대출 부진은 지난 6월 토스뱅크가 은행업 인가를 받는 과정에서 논란이 됐다. 당시 금융위 정례회의에 참석한 한 위원은 “기존 인터넷전문은행이 중·저신용자에 대해 대출을 크게 확대할 것이라는 기대가 있었지만, 기대를 저버렸다”며 “토스뱅크가 2025년까지 중·저신용자 대출 비율을 48.9%로 확대하겠다는 건 반가운 일이지만 실현 가능성이 있는지 의문이 든다”고 지적하기도 했다.안동현 서울대 교수는 ”인터넷은행들이 중금리 대출 특화에 실패하면서 사회적인 요구를 달성하지 못했다”며 “토스뱅크처럼 미끼상품을 뿌리고 문을 닫는 방식을 기존 은행들이 했다면 금융 당국이 가만 두지 않았을 것”이라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2021.12.09.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>타다, '타다 넥스트' 베타 오픈 기념 연말 반값할인</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010880680?sid=101</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 박주연 기자 = 모빌리티 플랫폼 '타다'는 '타다 넥스트' 베타 버전 오픈을 기념해 연말까지 요금 50% 상시 할인 이벤트를 실시한다고 9일 밝혔다. '타다 넥스트'는 지난달 25일 서울지역에서 베타 버전 운영을 시작했다.타다 사용자라면 누구나 '타다 넥스트'를 호출할 때 50% 할인 쿠폰을 적용할 수 있다. 쿠폰은 이달 31일까지 횟수 제한없이 사용할 수 있다. 회당 최대 1만원 할인이 가능하다.'타다 넥스트'를 호출할 때 '할인 적용하기' 메뉴에서 '50% NEXT 쿠폰'을 선택해 적용하면 된다. 차량 탑승 후에도 쿠폰을 적용해 할인된 가격으로 이용할 수 있다.토스의 간편결제 서비스 '토스페이' 연동으로 보다 쉽고 편리한 요금 결제도 가능하다. 타다 앱 업데이트 후 결제 수단 등록 창에서 토스페이를 선택하고, 간단한 등록 절차를 거치면 타다의 모든 서비스 결제를 할 때 토스페이를 이용할 수 있다.이정행 타다 대표는 "차량 호출부터 결제에 이르기까지 탑승 고객과 드라이버 모두 만족할 수 있는 모빌리티 서비스를 만들기 위해 노력 중"이라며 "'타다 넥스트'에 대한 많은 관심과 응원 부탁드린다"고 밝혔다.타다 넥스트는 베타 서비스 기간 중 안정화 및 고도화를 거쳐 내년 초 정식 출시될 예정이다. 현재 타다 넥스트와 함께 할 드라이버를 모집 중이다. 자세한 지원 방식 및 혜택 등의 정보는 타다 홈페이지에서 확인할 수 있다.  한편, 타다는 지난 10월 모바일 금융 서비스 '토스'를 운영하는 비바리퍼블리카에 인수되며 쏘카의 품을 떠났다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2021.12.10.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>[데스크칼럼] 새해에는 토뱅에 볕이 들까요</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000641561?sid=110</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>토스뱅크가 결국 백기를 들었다. 파격적인 고금리로 화제를 모았던 입출금 통장의 2% 금리의 한도를 1억원까지로 조정하고, '토뱅카드'의 교통비 캐시백 등의 혜택도 줄인다.토스뱅크 로고. [사진=토스뱅크]사실 이 같은 일은 이미 예견된 것이나 다름 없다. 올 10월 제3 인터넷전문은행으로 출범한 토스뱅크는 사전 예약자만 110만명이 몰리는 등 초반 흥행가도를 달렸다.문제는 폭발하는 대출 신청에 열흘 만에 5천억원 한도가 모두 소진되면서 대출이 중단된 것이다. 신생 은행이 문을 연지 열흘 만에 대출 중단에 들어간 초유의 사태인데, 이는 아직도 현재진행형이다. 올 연말까지는 상황이 달라질 것 같지도 않다.5천억원의 대출 한도라는 것은 토스뱅크의 돈이 모자라서가 아니라 금융당국의 대출 규제 때문에 생겼다. 전체 은행의 올해 대출에 대해 총량 규제를 하고 있는 금융위원회가 토스뱅크 또한 여기에 포함시킨 것이다.다른 은행들이야 전년 대비 대출 증가율을 맞추면 된다지만, 이제 막 영업을 시작한 신생 토스뱅크로써는 아예 전년 실적 자체가 없으니 날벼락이 아닐 수 없다.은행의 핵심 수익원은 예대마진으로 예금 금리와 대출 금리의 차이를 수익의 원천으로 삼는다. 하지만 돈을 벌 수단은 막히고 돈 나갈 곳만 생기니 버틸 재간이 없다.당국으로써는 토스뱅크만 대출규제에서 제외하자니 그쪽으로 몰릴 풍선효과가 두려웠을 것이다. 실제 카카오뱅크도 출범 초기 몇천억원대 신용대출 수요가 몰리면서 풍선효과가 나타난 바 있다.하지만 은행이 문을 열자마자 대출을 아예 틀어막은 것은 쉽게 납득할 수 없는 상황이다.게다가 토스뱅크는 단 열흘 간이지만 전체 대출의 3분의 1을 중금리 대출로 시행하는 성과를 보였다. 자체 신용평가 모델을 적용해 중금리 대출을 전체의 44%로 맞추겠다는 목표 달성이 불가능한 것은 아니라는 증명을 한 셈이다.정부가 인터넷전문은행의 존재 의의로 꼽아왔던 '중·저신용자에 대한 자금 공급' 역할이 톡톡히 기대되는 상황이었다.인터넷전문은행은 박근혜 정부 당시 탄생했으나 현 정부 들어서도 금융 신산업의 물줄기를 틀 '총아'로 많은 기대와 지원을 받았다.2018년 문재인 대통령이 직접 인터넷전문은행 규제혁신 현장방문을 통해 "인터넷전문은행은 핀테크 산업의 개척자"라고 강조하기도 했다.하지만 산고 끝에 탄생한 토스뱅크는 출범과 거의 동시에 규제 암초에 걸려 당국의 눈치만 보는 천수답 상황이 됐다. 다시 새롭게 대출 총량이 카운트되는 내년을 기다려볼 수밖에 없다. 다만 내년에는 더 타이트한 총량 규제가 예고된 상황에서 토스뱅크가 다른 은행들 사이를 어느 정도나 비집고 들어갈 수 있을지는 미지수다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2021.12.14.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>카뱅·케뱅·토뱅 "인재 붙잡아야 산다"</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000764167?sid=101</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>[머니S리포트-호실적에도 사람 줄인다③]시중은행 대규모 희망퇴직에도 인뱅은 구애전 총력[편집자주]사상 최대 실적행진을 이어간 금융사들이 올해 대규모 희망퇴직을 단행하고 있다. 은행과 보험, 카드사 등은 호실적을 기반으로 직원들에게 보다 유리한 희망퇴직 조건을 내걸어 인력 선순환을 유도한다는 복안이다. 또 신종 코로나바이러스 감염증(코로나19) 확산으로 온라인(비대면) 금융이 활성화되면서 지점 등 오프라인(대면) 고비용 인력을 줄여 조직효율화에 나선다는 전략이다. 금융권에선 희망퇴직이 증가하는 만큼 그 대상과 규모에 촉각을 곤두세우고 있다.전통 금융권이 대규모 희망퇴직에 나서는 반면 인터넷전문은행들은 직원들을 떠나보내지 않으려는 구애전에 총력을 기울이고 있다./사진=이미지투데이◆기사 게재 순서① 은행권 실적잔치에… “챙겨줄 때 나가자”② 30대 대리도 떠난다… 지방은행·보험사, 몸집 줄이기 한창③ 카뱅·케뱅·토뱅 “인재 붙잡아야 산다”시중은행들이 대규모 희망퇴직에 나서는 반면 인터넷전문은행들은 직원들을 떠나보내지 않으려는 구애전에 총력을 기울이고 있다. 올 10월 토스뱅크 출범으로 인터넷은행 삼국지 시대의 막이 오르면서 경쟁이 치열해지자 파격적인 보상안으로 인력 유출을 막는다는 전략이다.우선 과감한 행보를 보이는 곳은 카카오뱅크다. 카카오뱅크는 내년부터 전 직원의 임금을 최소 1000만원 이상 일괄 인상하기로 결정했다. 여기에 연봉의 30%를 스톡옵션(주식매수선택권)으로 지급하고 성과급은 연봉의 20%로 책정됐다.카카오뱅크는 파격적인 임금 인상과 관련해 “직원과 회사가 동반 성장하기 위해선 구성원들과 성과를 나눠야 한다는 게 회사의 생각”이라고 설명했다. 회사 성장에 따른 과실을 직원들과 나눈다는 방침이다. 이를 두고 금융권에선 인력유출을 막기 위한 셈법이 더 크게 작용한 것으로 보고 있다. 한 금융권 관계자는 “회사가 성장하면 전 직원에게 성과급을 나눠줘야 한다는 인식이 확산되는 추세”라며 “젊은 직원들 사이에서 평생직장보다 평생직업이라는 인식도 커지고 있어 이직을 막기 위한 보상책으로 보인다”고 말했다.제3호 인터넷은행인 토스뱅크도 인력을 유치하기 위해 직전 연봉의 1.5배를 지급하고 있다. 토스뱅크는 지난 11월25일 주주총회를 열고 입사 1주년을 맞은 사내 임직원을 30명 대상으로 ‘주식매수선택권(스톡옵션)’ 60만주를 부여했다. 임직원에게는 인당 2만주가 고르게 부여된다.이번 스톡옵션의 행사가는 주당 5000원(액면가)으로 대상 임직원은 스톡옵션을 부여받은 날로부터 2년 뒤인 2023년 11월 30일부터 이를 행사할 수 있다.앞서 토스뱅크는 은행 설립에 기여한 임직원을 대상으로 주식 보상 시스템을 도입한다고 밝힌 바 있다. 토스뱅크는 지난 7월에도 홍민택 대표 등 임직원 30명에게 총 68만주의 스톡옵션을 부여하는 등 사업 성장의 과실을 나눠왔다.다만 스톡옵션 부여 등으로 회사 충성도를 높이려다가 역풍을 맞은 인터넷은행도 있다. 케이뱅크는 지난 7월 서호성 행장을 포함한 임직원 321명에게 스톡옵션 300만주를 부여했다. 서호성 행장에 90만주, 임원 9명에 85만주 등 임원 10명에게 총 175만주의 스톡옵션이 돌아갔다.이를 두고 자본잠식 상태에서 흑자전환을 이끈 직원들에게 과실이 돌아오기보다 입사한지 4개월 채 되지 않은 임원에게 보상을 몰아줬다는 내부 비난이 불거져 빈축을 샀다.여기에 직원들 사이에서도 부여받은 스톡옵션 수량이 천차만별이라는 지적도 일었다. 어떤 기준을 근거로 직원들에게 스톡옵션을 차등분배했는지 명확한 설명이 없었다는 후문이다.금융권 관계자는 “케이뱅크는 직원들에게 스톡옵션을 차등 지급하는데 상세한 배경을 설명하지 않으면서 논란을 키웠다”며 “SK하이닉스 등도 성과급 지급 형평성 논란이 불거졌는데 다른 업권의 사례를 돌이켜 직원들이 납득할 수 있는 소통의 기회가 필요해 보인다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2021.12.14.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>“오늘도 안돼?” QR코드 일부 장애…점심시간 접속 몰린듯</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003399563?sid=102</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>방역패스 위반 과태료 부과가 시작된 13일 오후 서울시내 한 영화관에서 질병관리청이 운영 중인 백신 접종 여부 확인 앱 ‘쿠브’ 등에 오류가 발생하자 직원들이 직접 백신 접종 여부 확인을 문자, 증명서를 통해 확인하고 있다.  2021.12.13/뉴스1 © News1 방역패스 의무화 이튿날인 14일에는 쿠브(COOV·전자예방접종증명서) 애플리케이션이 전날에 비해 원활한 모습을 보였지만 일부 이용자들에겐 접속 오류가 난 것으로 전해졌다.14일 오전 11시 50분쯤부터 점심 시간대에 들어서면서 쿠브 이용자가 많아져 일부 이용자들은 쿠브 접속을 할 수 없었지만 대부분 QR코드가 정상적으로 인식됐다.트위터 이용자들 중에도 몇몇은 “쿠브 오늘도 안 돼?”, “내 동료는 되는데 나는 안 되네”라는 등 실시간으로 쿠브 접속 상태에 대해 지적하기도 했다.이와 관련해 질병관리청은 “쿠브 앱은 정상 사용 중이며 현재 네이버 앱 외에 민간 플랫폼사에서는 특별한 장애가 발생하지 않는 것으로 파악됐다”라며 “쿠브, 카카오, 토스앱 및 통신 3사 PASS 앱을 사용해 QR 체크인을 이용해주길 바란다”고 전했다.앞서 질병관리청은 전날 오후 쿠브 앱과 전자출입명부(KI-PASS) 등의 접촉 먹통 사태와 관련해 “방역패스 시스템 과부하로 시설 이용에 불편을 드려 죄송하다”면서 “오늘(14일)은 방역패스를 적용하지 않음을 알려드린다”고 밝혔다.질병청은 “방역패스 시행에 대비해 전자예방접종증명서 관련 서버 증설 등 사전 조치를 했지만, 증명서의 실시간 대량 인증처리 장애 등 과부하 대응에 미흡한 점이 있었다”며 “대량인증 절차 효율화 등 긴급 개선작업을 진행하고 있다”고 설명한 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2021.12.06.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>파격 금리·캐시백 '미끼'였나…혜택 돌연 축소한 토스뱅크</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/437/0000282778?sid=101</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>[앵커]파격적인 예금 금리와 캐시백을 내걸었던 인터넷은행 토스뱅크가 출범한 지 두 달만에 혜택을 줄이기로 했습니다. 정부의 대출 규제로 더 들어오는 돈이 없어서 어쩔 수 없다고 설명했습니다. 하지만, 애초에 지키지도 못할 '미끼용 혜택' 아니었냔 비판이 나옵니다.김서연 기자입니다.[기자]토스뱅크는 고객들에게 다음달 5일부터 줄어드는 혜택을 알리는 문자메시지 한통을 보냈습니다.하루만 넣어도 연 2%인 예금 금리는 1억원까지만, 대중교통을 탈 때 하루 한번 주는 캐시백은 300원에서 100원으로 줄인다는 내용입니다.편의점은 300원 그대로이지만, 혜택을 받을 수 있는 곳이 줄었습니다.토스뱅크는 기존 은행보다 큰 혜택을 내걸면서 출범 전에만 170만명의 가입자를 모았습니다.소비자 사이에선 1억원 넘는 예금에만 적용되는 이자 인하보단, 당장 실생활에서 줄어드는 캐시백에 실망했다는 의견이 많습니다.[김지성/서울 신정동 : 혜택을 받는다고 해서 가입을 한 건데 갑자기 그거를 바꿔버리면 소비자 입장에서는 기분이 많이 안 좋을 것 같습니다.][노현도/서울 도화동 : 아무래도 캐시백을 받는 게 실질적인 혜택보다는 마음이란 게 중요한 것 같은데 그 부분이 조금 안타까운 것 같습니다.]이에 대해 토스뱅크 관계자는 "정부의 규제 때문에 더 이상 대출 영업을 못하는 상황에서 경영 건전성을 고려한 어쩔 수 없는 결정이었다"고 설명했습니다.토스뱅크는 출범 9일만에 정부가 정해준 대출 한도를 채우면서 대출 신청을 더 이상 받지 못하고 있습니다.은행은 대출 이자를 받아서 예금 이자를 주는데, 정부의 규제로 새로 대출을 못 내주는 상황에서 지금 같은 이자와 캐시백을 유지하면 손실이 커진다는 게 토스뱅크의 논리입니다.하지만 애초 지킬 수 없는 '미끼용 혜택'으로 가입자를 끌어모은 게 아니냔 지적도 있습니다.토스뱅크가 출범할 때부터 이런 큰 혜택을 주면 이익을 내기 어렵다는 분석이 나왔기 때문입니다.[조연행/금융소비자연맹 회장 : (토스뱅크가) 영세 소비자, 중산층 소비자들에게 많은 신뢰를 얻고 있었는데, 잡아놓은 물고기에는 더 이상 (밥을) 주지 않는다는 그런 얘기처럼 혜택을 확 빼버리는 그런 측면도 부인할 수는 없는 거죠.]지금 같은 수익구조에선 연 2% 금리 대상이나 캐시백 혜택을 더 줄일 가능성도 배제할 수 없다는 게 전문가들의 전망입니다.(영상디자인 : 오은솔 / 인턴기자 : 이해람)</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2021.12.07.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>빗썸 간 금융위 사무관… 가상자산업계, 금융당국 출신 ‘러브콜’</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003235589?sid=101</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>취업 심사 대상 아니어서 바로 출근 가능제도권 편입 앞두고 자문·규제대응 용이핀테크도 수요… 인력 줄줄이 유출 우려금융위원회 현직 사무관이 가상자산거래소 빗썸으로 이직하기 위해 사직서를 냈다. 가상자산 시장이 커진 데다 제도권 편입을 앞두고 있는 만큼 앞으로 금융당국 출신 인사 영입을 위한 경쟁이 본격화할 전망이다.6일 금융당국에 따르면 최근 금융위 소속 A사무관은 빗썸으로 이직하고자 사표를 제출했다. 해당 사무관은 정부공직자윤리위원회 취업 심사 대상은 아니기 때문에 사표가 수리되면 바로 빗썸으로 출근할 것으로 보인다. 그동안 경제적 이유로 대기업 등으로 이직한 사례는 있었지만, 금융위 소속 공무원이 가상자산 업계로 자리를 옮기는 것은 이번이 처음이다.올해 들어 금융감독원 핀테크 현장자문단 소속 부국장이 가상자산거래소 업비트로 자리를 옮겼고, 코인 발행사인 피카프로젝트는 금감원 자본시장국장 출신 인사를 영입하기도 했다. 여기에 금융위 출신이 가상자산 업계로 가게 되면서 금융당국의 인력 유출이 지속되는 것 아니냐는 우려가 나온다.가상자산 업계는 국내 4대 가상자산거래소의 지난달 거래량이 390조원에 달할 정도로 호황을 맞고 있다. 지난 9월 특정금융법 개정안이 시행되면서 금융당국이 가상자산 업계를 전반적으로 관할하고 있다. 이에 따라 금융당국 출신 공무원에 대한 수요도 증가하고 있다. 이제 막 시작한 금융산업인 터라 금융당국 출신 공무원을 영입하면 법적 자문, 금융당국의 규제 움직임 등에 대응하기에 용이하기 때문이다. 가상자산 업계 외에도 토스 등 핀테크에서도 관련 인력 수요가 상당한 상황이다. 가상자산 업계 관계자는 “업권법에 대한 논의가 진행되면 금융당국 출신 인사를 영입하려는 움직임이 더 많아질 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2021.12.14.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>카뱅 이어 케뱅, 예·적금 금리 인상… ‘2% 입출금’ 토스는 비상</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003237327?sid=101</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>최대 0.6%P 인상… 연 2.3% 예금도 등장토스 내년 한도 축소에 ‘갈아타기’ 가능성인터넷전문은행 1, 2위 사업자인 카카오뱅크와 케이뱅크가 잇따라 예적금 금리 인상에 나섰다. 후발주자인 토스뱅크는 지난 10월 출범 당시 ‘조건 없는 2% 예금’ 등 수신 경쟁력을 내걸었다가 최근 축소한 상황이라 타격이 예상된다.케이뱅크는 13일 예금과 적금 등 수신상품 금리를 일제히 인상했다고 밝혔다. ‘코드K 정기예금’의 금리는 가입 기간별로 1년 이상은 연 1.5%에서 2.0%, 2년 이상은 연 1.55%에서 2.1%로 올렸다. 특히 가입 기간 3년 이상은 1.6%에서 2.2%로 0.6% 포인트 상승했다. 적금 금리도 0.3∼0.45% 포인트 인상됐다. ‘주거래우대 자유적금’의 최고 금리는 연 2.3∼2.5%, ‘코드K 자유적금’의 금리는 연 2.1∼2.3%로 적용된다.앞서 카카오뱅크도 지난 8일 예적금 금리를 최대 0.4% 포인트(3년 만기 정기예금) 인상했다. 정기예금(1년 만기 기준)의 금리는 기존 1.5%에서 1.8%로 0.3% 포인트 올랐다. 자유적금의 기본금리도 1년 만기 기준 기존 연 1.6%에서 1.9%로 0.3% 포인트 인상됐다. 우대금리까지 포함하면 최대 연 2.1%의 금리를 적용받을 수 있다.카카오뱅크와 케이뱅크가 줄줄이 수신금리 인상에 나선 데는 지난달 한국은행이 기준금리를 인상하면서 시중은행들이 예적금 금리를 일제히 올렸기 때문이다.난감한 곳은 인터넷은행 3위 사업자인 토스뱅크다. 토스뱅크는 연 2.0% 금리를 내세워 고객 몰이에 나섰지만 역마진 우려로 최근 1억원으로 한도를 설정해 뭇매를 맞았다. 게다가 다른 인터넷은행들까지 수신금리를 2.0% 내외로 올리면서 수신 경쟁력에 빨간불이 켜졌다. 토스뱅크의 ‘1억원 초과 0.1% 금리’ 적용은 내년 1월 5일부터로 아직은 이용객이 대거 이탈하는 움직임이 보이지 않는 것으로 알려졌으나 시간 문제라는 관측도 나온다. 내년 초부터는 본격적인 ‘갈아타기’가 나타날 가능성도 있다. 토스뱅크 관계자는 “토스뱅크는 다른 은행과 달리 만기 조건이 없고, 하루만 넣어도 이자가 쌓인다는 점에서 여전히 경쟁력이 크다고 본다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2021.12.06.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>티머니 갤럭시워치 앱, 구글플레이 ‘올해를 빛낸 웨어 앱’ 최우수상</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001921115?sid=102</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>비접촉 결제로 안전ㆍ간편 결제로 지갑 없이도 OK티머니 관계자들이 갤럭시 워치앱 최우수상을 수상하고 기뻐하고 있다. [티머니][헤럴드경제=이진용 기자] 교통카드를 뛰어넘어 ‘Mobility‘와 ’Payment’ 영역 대표기업으로 성장하고 있는 ㈜티머니(대표 김태극)는 웨어러블 스마트 기기 전용 간편결제 서비스, ‘티머니 갤럭시워치 앱’이 ‘구글플레이 베스트 오브 어워즈(Best Of Awards) 2021’에서 ‘올해를 빛낸 웨어 앱 최우수상’을 수상했다.구글플레이는 매년 다양한 카테고리에서 많은 사용자로부터 사랑 받은 베스트 앱 후보작 10종을 발표한 후 약 2주간 이용자들을 대상으로 진행되는 온라인 투표를 진행, 결과에 따라 인기 앱을 선정한다.올해 티머니 갤럭시 워치 앱의 수상은 휴대폰으로 집중돼 있던 간편결제의 흐름이 본격적으로 스마트 워치 등 웨어러블 분야로 이동·확대되고 있음을 의미한다. 기존 건강, 메시지 확인 등이 주목적이었던 스마트 워치가 티머니 갤럭시워치 앱을 통해 ‘간편결제’가 주요기능으로 떠오르게 된 것. 이는 코로나19로 비접촉 결제가 갈수록 중요해지고 있고, 티머니 갤럭시워치 앱 하나면 지갑이나 카드 없이 간편하게 결제할 수 있기 때문으로 풀이된다. 특히, 타일 추가로 간편하게 잔액 조회가 가능하고, T마일리지 적립 등 다양한 혜택, 대중교통뿐만 아니라, 편의점, 카페 등 티머니 유통 가맹점에서도 티머니 카드처럼 사용이 가능한 점이 인기 비결로 꼽힌다.티머니 갤럭시워치 앱은 갤럭시워치(기어포함)에 안드로이드 스마트폰을 연동 한 후, 티머니로 간편하게 사용할 수 있다. 앱이나 화면을 켜지 않고 갤럭시워치를 단말기에 태그만 하면 결제되기 때문에 아주 간편하다. 또 신용·체크카드, 간편송금(토스, 카카오페이) 등 다양한 충전수단을 제공하며, 사용할 만큼 미리 자동충천도 설정할 수 있으며, 신용카드를 연결하면 후불청구형 서비스도 가능해 사용자 소비 패턴에 맞출 수 있다. (티머니 카드처럼 지하철 역사나 편의점 등 오프라인 충전소 뿐만 아니라 앱에서도 충전 가능) 또 대중교통 할인이 제공되는 신용카드를 등록하면 동일한 혜택이 적용되고, 이벤트를 통해 다양한 혜택도 받을 수 있다.김정열 ㈜티머니 Payment&amp;Platform사업부장(상무)는 “티머니 갤럭시워치 앱이 ‘올해를 빛낸 웨어 앱부문’ 최우수상을 수상한 것은 코로나19에도 변함없는 사랑을 보내주신 고객 여러분 덕분”이라고 하며 “더 간편한 결제와 다양한 혜택으로 차별화된 서비스를 제공할 수 있도록 노력하겠다”고 수상 소감을 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2021.12.02.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>토스 "시각장애인도 편하게 이용하세요"…접근성 우수앱 인증</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000639949?sid=101</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>핸드폰 설정 그대로 토스앱 반영, 설치부터 상담까지 문턱 낮춰토스가 시각장애인 등 애플리케이션(앱) 사용이 어려운 소외계층을 위해 이용 문턱을 낮추고 있다.2일 토스는 소외계층을 위해 모바일 앱 사용을 개선하고 있다고 밝혔다.토스 모바일 접근성 이미지 [사진=토스]대부분 앱들이 다운로드 후 최초 실행시 기본 설정이 작은 글씨로 고정되어 있는 반면 토스는 토스는 가입 단계부터 휴대폰 기기의 글씨 크기 설정 그대로 토스앱에 적용해 사용가능하도록 했다.일반적으로 3단계 글씨 크기 설정만 지원하는 앱들과 달리 iOS(9단계), 안드로이드(12단계)의 모든 크기 설정을 유기적으로 구현했다.글씨가 커져도 단락 나눔이 어색해지지 않는다. 저시력자들이 애용하는 다크모드나 시각장애인 사용자 고객센터 연결이 필요한 경우 우선 상담 배치로 빠르게 도움을 받을 수 있다.지난 11월 기준 핸드폰 화면을 읽어주는 보이스오버(아이폰 기준) 기능을 사용중인 유저는 토스 전체 가입자의 1% 미만을 차지한다. 소수의 숫자지만 최근 1년 사이 사용자가 2배 가량 늘어난 것을 감안했을 때 토스의 문턱이 장애인들에게 넓어지고 있다는 것을 의미한다.이승건 대표는 "지난해 우리나라 장애인 인구는 250만명, 그 중 토스앱 사용과 직접적 연관이 있을 것으로 보이는 지체, 청각, 언어, 시각장애 인구는 180만명에 달한다"며 "모바일 접근성을 높이는 작업을 해야하는 당위성을 찾았다"고 말했다.지난 11월 기준 핸드폰 화면을 읽어주는 보이스오버(아이폰 기준) 기능을 사용중인 유저는 토스 전체 가입자의 1% 미만을 차지한다. 소수의 숫자지만 최근 1년 사이 사용자가 2배 가량 늘어난 것을 감안했을 때 토스의 문턱이 장애인들에게 넓어지고 있다는 것을 의미한다.이 외에도 스크린리더가 화면을 더 잘 읽어줄 수 있도록 최적화, 드래그할 필요없이 클릭만으로 위치 변경이 가능한 기능 추가 등 모바일 접근성에 대한 다양한 기능을 추가하고 있다.토스는 이를 통해 지난 9월 한국웹접근성평가센터로부터 '모바일 접근성 우수앱 인증을 획득했다. 실로암장애인자립생활센터가 선정한 '앱 접근성 모범사례'에 이름을 올리기도 했다.토스 관계자는 "토스는 더 쉬운 금융 서비스를 제공하는 것을 목표로 하고 있는 만큼 장애인들에게도 접근성을 높이는 것을 중요 과제로 생각하고 있다"며 "앞으로도 사용자 중심의 서비스를 만들어 가겠다는 노력을 이어가겠다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2021.12.14.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>오늘은 잘 될 거라더니 또 '먹통'…"너무한 거 아니냐" 시민도 업주도 분통</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/437/0000283521?sid=102</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>"질병청서 발급하는 '예방접종스티커' 받자" 대안 찾아 나서기도 '방역패스 과태료' 첫날 점심시간 QR코드 먹통. 〈사진=연합뉴스〉        '방역패스' 의무화 둘째 날인 오늘(14일) 코로나19 백신 접종 여부를 확인할 수 있는 QR코드 전자 증명 시스템에서 또 장애가 발생했습니다.      점심시간이 가까워지는 오늘 오전 11시 40분쯤부터 네이버 앱 일부에선 '먹통' 현상이 빚어졌습니다. 네이버 앱에서 'QR체크인'을 누르면 '데이터를 불러오지 못했습니다'라는 메시지가 뜨며 QR코드를 불러오지 못하고 있습니다.      질병관리청 '쿠브'(COOV) 앱과 카카오는 QR코드가 뜨는 데 시간이 조금 걸리긴 했지만, 정상 작동합니다.      지난주 1주일간의 계도기간이 끝나고 '방역패스'가 본격 시행된 어제(13일)는 식당에 사람들이 몰리는 점심시간과 저녁 시간대에 잇따라 QR 접속 장애가 발생하면서 많은 이들이 큰 불편을 겪었습니다.    14일 점심시간 서울 중구 세종대로의 한 카페에서 접속한 질병관리청 쿠브앱(COOV·전자예방접종증명서)이 정상 작동하고 있다.  반면 오른쪽 휴대전화의 쿠브앱 사용을 위한  최초 예방접종증명 발급은 원활하지 못했다. 〈사진=연합뉴스〉        SNS와 온라인 커뮤니티 등엔 '백신 QR코드 인증이 또 안 된다'는 글이 연이어 올라오고 있습니다.      한 네티즌은 "방역패스 인증이 안 돼서 스터디 카페 입구에서 막혀서 추운데 계속 기다리고 있다"며 불만을 토로했습니다.       직장인이라고 밝힌 네티즌 역시 "오늘 QR 잘 될 거라고 그래서 밥 먹으러 갔다가 그냥 돌아왔다"며 "어제도 오류 났는데 이틀 연속 오류는 너무한 것 아니냐. 차라리 확인증을 카드로 주는 게 나을 거 같다"고 목소리를 높였습니다.      자영업자들 역시 불만입니다. 사람들이 몰리는 점심시간에 또 이런 오류가 나 점심 장사를 망쳤다고 토로했습니다. 서울에서 식당을 운영 중인 A씨는 온라인 커뮤니티를 통해 "어제도 오류가 나서, 오늘은 정부가 조치를 다 취했을 줄 알았다"며 "안 그래도 어려운데 진짜 너무 힘들다"고 한탄했습니다.      네티즌들은 "질병관리청에서 발급하는 '예방접종스티커'를 받자"며 대안을 찾아 나서기도 했습니다. '예방접종스티커'는 스티커 부착을 원하는 신분증을 가지고 주민센터를 방문해 신청할 수 있습니다. 성명, 접종회차, 접종일자 등 필수 정보가 포함돼 접종 인증을 할 수 있습니다.      한편 방역 당국은 어제 발생한 오류 원인에 대해 "최초로 증명을 받으시는 숫자가 점심시간에 혹은 저녁 시간에 굉장히 많이 몰리면서 필요 정보량이 굉장히 증가했다"며 "서버가 감당하지 못했던 문제가 함께 발생했다"고 설명했습니다.      이후 오늘 오전에는 "야간에 서버 긴급증설 작업 및 서비스 최적화 작업을 수행했으며 보다 원활하게 (전자예방접종증명서) 발급이 될 것으로 기대하고 있다"며 "방역패스를 이용하는 이들은 편한 시간에 네이버, 카카오 등에서 예방접종증명서(QR코드)를 발급받아 사용해주길 바란다"고 발표했습니다.  그러나 또 오류가 나자 당국은 "네이버 앱 말고 쿠브·카카오·토스·PASS 앱으로 QR체크인을 해달라"고 요청했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2021.12.07.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>KTB네트워크 청약에 증거금 4.7조원 몰려</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004890122?sid=101</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>국내에서 4번째로 큰 규모의 자산을 운용하는 벤처캐피탈(VC) KTB네트워크가 코스닥 상장을 위한 청약에서 4조7369억원의 증거금을 모았다. 대표주관사인 한국투자증권에서 709대1의 가장 높은 비례 경쟁률을 보였고 KB증권이 가장 낮은 경쟁률 300대1을 보였다. 지난달 수요예측 경쟁률이 50대1로 다소 저조했음을 감안하면 선방했다는 평가다.균등배정 방식으로는 대표주관사인 한국투자증권에서 17~18주, NH투자증권에서 10~11주, 삼성증권에서 3~4주, 유진투자증권에서 10~11주, 하이투자증권에서 15~16주, KB증권에서 3~4주를 받게 됐다.  KTB네트워크는 우아한 형제들, 토스 등 기업에 초기투자한 VC 중 한 곳이다. 우수한 포트폴리오 회수 실적으로 올해 들어 지난 3분기까지 영업수익 1043억원과 영업이익 774억원을 기록했는데 이는 전년 동기 216억원, 119억원 대비 크게 증가한 수치다. 관리보수 산정의 기반이 되는 AUM(운용자산 규모)도 꾸준히 증가했다. 2016년 말 5582억원이었던 KTB네트워크의 AUM은 지난해 8835억원, 지난 9월 기준 1조1195억원으로 늘어났다. 관리보수는 AUM에 일정 요율을 곱해 지급되는 수익이라 VC의 실적 변동성에 안정성을 제공하는 요인이 된다.KTB네트워크의 공모가는 5800원이다. 이번 상장을 통해 총 1160억원을 조달할 예정이며 오는 16일 코스닥 상장을 앞두고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2021.12.02.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>尹 "비대면 원격진료 받아들여야"</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004635848?sid=100</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>스타트업 위한 규제혁신 시사윤석열 국민의힘 대선 후보는 2일 스타트업 관계자들을 만나 “혁신만이 저성장을 극복할 수 있다”고 말했다. 그는 산업 활성화 방안 토론에서 비대면 원격진료 허용 가능성을 열어두는 동시에 금지된 것을 제외한 그 밖의 행위를 기본적으로 허용하는 ‘네거티브 규제’로의 규제 시스템 전환을 시사했다.윤 후보는 서울 수표동 시그니쳐타워에서 열린 ‘스타트업 정책 토크’에서 스타트업 관계자들을 격려하는 자리를 마련했다. 이날 행사에는 토스 운영사 비바리퍼블리카의 이승건 대표 등을 비롯해 다양한 스타트업 관계자가 참석했다.윤 후보는 “혁신만이 저성장을 극복할 수 있다”며 “신산업·신성장의 동력이 되는 스타트업이 성장할 수 있도록 국가가 도와주는 것이 중요하다”고 말했다. 이어 “스타트업은 빠른 성장과 함께 빠른 실패도 있다”며 “실패의 위험을 개인에게 부담하지 않도록 하겠다”고 밝혔다.윤 후보는 기존 산업에 대한 규제가 스타트업 발전의 발목을 잡는다는 현장의 지적에 대해 “규제는 네거티브와 원스톱 방식으로 (시행해) 활용하기 편해야 한다”며 “또 차기 정부에서는 허가 및 규제를 담당하는 관공서가 개선 업무는 일정한 시간 내에 해결하도록 시간 제한을 두겠다”고 했다.비대면 원격진료와 관련해서는 “피할 수 없는 일로 받아들여야 하는 현실”이라며 “차기 정부에서는 기존 의료계와 새로운 혁신을 추구하는 사업자 간 이해관계가 상충되지 않도록 조정해 혁신적인 제도와 첨단기술의 혜택을 국민 모두 누릴 수 있게 하겠다”고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2021.12.13.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>국내 이어 미국 장외시장까지... 영토 넓힌 개미, 이 종목 담았다</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000779912?sid=101</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>블록체인부터 대마초 관련 업체까지  수익률은 천차만별...나스닥 상장하기도         해외주식에 투자하는 서학개미들이 미국 장외시장(OTC)으로 투자 영역을 넓히고 있다. 올해 서학개미들이 투자한 비상장 종목은 국내외 상장 시장에서 주목받은 업종이나 테마와 유사했던 것으로 나타났다.다만, 종목마다 투자자들 희비는 엇갈렸다. 나스닥 시장 이전 상장에 성공하거나 주가가 20배 가까이 뛰는 종목이 있는가 하면, 마이너스(-) 수익률을 벗어나지 못하는 종목도 많았다.일러스트=정다운        13일 금융투자업계에 따르면 지난 10일 기준으로 미국 OTC에는 미국을 포함해 유럽, 일본, 남미 등 25개 국가의 1만1600여개 종목이 거래되고 있다. 하루 거래 규모는 2조원 수준이다. 금융투자협회가 운영하는 한국판 OTC 시장인 K-OTC 시장도 공모주 열풍 등에 힘입어 빠르게 몸집을 키우고 있지만, 아직 같은 선상에서 비교하긴 어려운 규모다. 올해 9월 기준 K-OTC 시장 일평균 거래액은 60억원, 지난달 말 시가총액은 34조원대였다.특히 올해는 국내외 증시가 지난해보다 부진한 흐름을 보이면서, 비상장주식과 같은 고위험·고수익 자산으로 투자자들이 몰렸다. 키움증권은 국내 증권사 중 처음으로 미국 OTC 거래 서비스를 제공하기 시작했다. 키움증권 관계자는 “지난 2010년 오프라인 기반으로 시작해 지금은 모바일트레이딩시스템(MTS) 상에서도 OTC 종목 거래가 가능하다다”며 “서비스 출시 이래 올해가 거래량이 가장 많았다”고 말했다.키움증권에 따르면 올해 들어 서학개미들이 가장 많이 순매수한 OTC 종목은 험블(HUMBL INC)이었다. 험블은 블록체인 기술을 기반으로 한 모바일 금융 애플리케이션(앱)을 제공하고 있다. 국내 토스, 카카오·네이버페이 사업과 유사하다고도 볼 수 있는데 앱 내에서 입출금, 환전, 결제 등 여러 금융 서비스를 이용할 수 있다. 최근에는 콘서트, 영화, 페스티벌 등 티켓팅을 전문으로 할 수 있는 플랫폼을 출시한 것으로 알려졌다.개미들이 험블 다음으로 많이 베팅한 종목은 테소로 엔터프라이즈(TESORO ENTERPRISES), 오조프 에너지 솔루션(OZOP ENERGY SOLUTIONS)이다. 테소로 엔터프라이즈는 기존에는 내구재를 유통 및 공급하는 업체로 알려져 있었지만, 지난해 12월 험블과 인수합병(M&amp;A)을 추진하면서 덩달아 주목받은 것으로 풀이된다. 오조프 에너지 솔루션은 태양광 등 신재생에너지 관련 저장소, 인버터 등을 제조하는 업체다.뒤이어 알파인4 홀딩스(ALPINE 4 HOLDINGS), 배럴 에너지(BARREL ENERGY)가 순매수 종목 4, 5위에 이름을 올렸다. 알파인4 홀딩스는 드론, 항공우주 관련 기술 업체들을 자회사로 운영하는 지주회사다. 드론 사업을 하는 자회사가 테슬라 초기 멤버들이 나와 설립한 것으로 알려지면서 투자자들 사이에서 화두가 됐다. 배럴 에너지는 미국 내 대마초 합법화 움직임과 함께 주목받은 대마초 관련 업체다.종목별 연초 대비 수익률은 천차만별이었다. 이 가운데 나스닥 상장 시장에 입성한 곳은 알파인4 홀딩스뿐이다. 알파인4 홀딩스는 올해 10월 20일 나스닥 이전 상장했다. OTC 종목은 증자 등을 통해 나스닥 상장 유지 요건인 자기자본 500만달러 이상을 맞춰야 한다. 오조프 에너지 솔루션은 올 들어 298% 상승하며 3배 가까이 가격이 뛴 반면, 험블, 테소로 엔터프라이즈는 모두 30% 가까이 하락했다. 배럴 에너지도 6.8% 하락했다.이 밖에 순매수 5~10위 업체는 드라간플라이(DRAGANFLY), 그린글로브인터내셔널(GREEN GLOBE INTERNATIONAL), 피에이치아이 그룹(PHI GROUP), 아티피셜 인텔리전 테크(ARTIFICIAL INTELLIGENC TECH SOL INC), 엑스로 테크놀로지(EXRO TECHNOLOGIES INC) 등이다. 드라간플라이는 드론, 그린글로브인터내셔널은 대마초 사업을 하고 있다. 피에이치아이그룹은 M&amp;A, 아티피셜 인텔리전 테크는 인공지능(AI), 엑스로 테크놀로지는 자율주행 기술 관련 업체다.피에이치아이 그룹과 그린글로브인터내셔널은 주가가 각각 19배, 13배 이상 상승한 것으로 나타났다. 반면 드라간플라이는 25%, 아티피셜 인텔리전 테크는 20%, 엑스로 테크놀로지는 29% 넘게 하락했다. 올해 순매수 상위 10개 종목 중에는 포함되지 않았지만, OTC 시장에서는 상장폐지가 되는 경우도 빈번하다는 게 업계 관계자들 설명이다.한편, 미국에선 OTC 시장처럼 규모가 작은 거래소에서 거래되는 종목은 ‘페니스톡’(penny stock·저가의 투기성 주식)이라고 부른다. 1달러 미만의 주식이기 때문에 동전(페니)로 살 수 있다는 데서 비롯된 이름이다. 소액으로 투자가 가능하고, 적게는 두 배, 많게는 수십 배까지 수익을 낼 수 있다는 점이 투자자들 시선을 끌지만, 시가총액이 작기 때문에 주가 변동이 극심하고 급등락 이유가 분명하지 않은 경우가 많아 주의가 필요하다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2021.12.01~2021.12.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2021.12.01~2021.12.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2021.12.13.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>'QR코드' 계속 혼란…저녁되자 또 네이버·카카오·쿠브앱 '먹통'(종합2보)</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005781732?sid=105</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>질병관리청 '쿠브' 서비스 장애로 네이버·카카오 연쇄 먹통정상화 되는듯 했으나… 저녁 이용자 몰려 또다시 '먹통' 발생13일 오후 6시, 네이버의 신종 코로나바이러스 감염증(코로나19) 백신 접종 여부를 확인하는 QR코드 전자 출입기록 시스템에서 장애가 발생하고 있다. © 뉴스1 김근욱 기자(서울=뉴스1) 김근욱 기자,송화연 기자,이기범 기자,김정현 기자 = 식당·카페 등에서 '방역패스'(백신패스) 미확인시 과태료가 부과되기 시작한 첫날 신종 코로나바이러스 감염증(코로나19) 백신 접종 여부를 확인하는 QR코드 전자 출입기록 시스템에서 장애가 발생한 가운데 저녁 시간 이용자 접속이 몰리며 또다시 접속 오류가 발생하고 있다.  13일 6시 기준, 네이버앱에서 QR 체크인을 활성화하면 "데이터를 불러오지 못했다. 다시 시도해달라"는 문구가 나타난다. 카카오톡을 통해 QR 체크인을 활성화하면 'QR코드'는 나타나지만 구체적인 백신 접종 내역은 뜨지 않는다. 이같은 QR코드 먹통 사태는 점심시간이 가까워진 오전 11시45분쯤 발생해 오후 3시쯤 정상화가 되는듯 했으나, 저녁 시간을 맞아 또다시 QR 인증 이용자가 급증하며 똑같은 오류를 반복하는 모습이다. IT 업계 관계자는 "저녁 시간대 다시 사람이 몰리며 일부 서비스 장애가 나타나고 있다"며 "쿠브앱에서 데이터 정보를 가져오기 때문에, 쿠브가 정상화 되지 않으면 네이버·카카오도 먹통 현상을 보일 수밖에 없다"고 설명했다.방역패스(접종증명·음성확인제)의 계도기간이 끝나고 의무화가 시작된 13일 서울시내의 한 식당에서 손님이 접종증명 발급 오류 화면을 보이고 있다. 이날 백신 접종을 증명하는 시스템에 일부 오류가 발생해 백신 QR 코드 인증 화면에는 '질병관리청의 서버응답 오류로 코로나19 예방백신 접종 증명 확인이 지연되고 있습니다'고 표시됐다. 2021.12.13/뉴스1 © News1 임세영 기자이날 오전 11시45분쯤 질병관리청에서 운영 중인 '쿠브'(COOV) 앱과 네이버, 카카오, 토스 앱 등에서 코로나19 백신 접종을 확인할 수 있는 QR 코드 전자증명 서비스가 먹통이 되는 오류가 발생했다.QR코드 인증시 백신접종 완료자인데도 '미접종' 메시지가 뜨는가 하면, 아예 인증 화면으로 넘어가지 않으면서 이용자들은 백신패스를 인증하는데 상당 시간을 허비해야 했다.특히 점심시간을 앞두고 발생한 오류에 다중이용시설 업주와 이용객 모두 불편을 겪었다. 단순 QR 체크인 서비스는 수기 명부 작성으로 대체할 수 있지만, 백신 접종 여부는 별도 증명서가 없을 경우 확인이 어렵기 때문이다.네이버·카카오 등의 IT 업계는 '쿠브'(COOV) 서비스 문제로 연쇄 장애가 일어났다고 보고 있다. 네이버, 카카오 등 IT 기업이 제공하는 QR코드 백신 접종 내역 인증은 질병관리청 쿠브 시스템을 통해 불러오게 돼 있기 때문이다.이 같은 상황에 대해 고재영 질병관리청 대변인은 13일 정례브리핑에서 "갑작스러운 접속 부하로 이용에 불편을 끼쳐드린 점에 대해 사과의 말씀 드린다"며 "쿠브 서버가 위치한 KT DS 클라우드센터에서 접속 부하로 인해 원활하게 처리되지 않은 것으로 현재 원인을 파악하고 있다"고 설명했다.이어 "쿠브 서버의 경우에 기능 개선을 위한 관계기관과 협의 중에 있다"며 "관련 내용의 진행상황은 지속 안내하겠다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2021.12.09.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>NASA, 화성 헬리콥터 통신장애 조사 중 [여기는 화성]</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002241636?sid=105</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>미국 항공우주국(NASA)이 지난 5일(이하 현지시간) 화성 헬리콥터 ‘인제뉴어티’의 17번째 비행 도중 탐사 로버 ‘퍼시비어런스’와 무선 통신이 끊어진 원인을 조사 중이라고 IT매체 씨넷이 8일 보도했다.사진=NASA인제뉴어티는 비행 도중 퍼시비어런스 로버와 통신을 유지하지만, 지난 5일 비행이 끝날 무렵 헬리콥터가 착륙을 위해 하강하자 로버와의 무선 통신이 끊어지는 일이 발생했다.7일 인제뉴어티 팀 리더인 테디 자네토스(Teddy Tzanetos)는 "그로부터 약 15분 후 인제뉴어티의 비행 전자장치와 배터리가 정상임을 알려주는 신호를 탐사 로버가 여러 번 수신했다”며 헬리콥터는 괜찮다고 설명했다.연구팀은 현재 문제의 원인을 조사하고 있으며, 통신이 끊어진 당시 헬리콥터와 로버의 위치나 무선 신호 등을 방해할 수 있는 주위 지형 등이 문제가 됐을 수 있다고 밝혔다.이 사진은 지난 5일 인제뉴어티의 이착륙 지점을 나타낸다. ‘브라스’(Bras)라고 표시된 부분이 통신의 중단이 원인이 될 수 있는 언덕 지형이다. 아래 그림은 헬리콥터와 로버 사이의 지형 고도를 나타낸다. (사진=NASA/JPL-칼텍)이번 비행은 117초 간 지속됐고, 헬리콥터의 비행 데이터도 로버에 안전하게 전송됐다. 인제뉴어티팀은 곧 누락된 데이터를 복구하고 헬리콥터의 최종 상태를 평가할 계획이다.헬리콥터에 문제가 없다면 몇 주 안에 다시 화성 하늘을 날 수 있을 것으로 보인다. 현재 인제뉴어티는 처음 화성에 착륙했던 지점으로 돌아가 퍼시비어런스의 공중 정찰대로 활동하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2021.12.14.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>오늘도 일부 QR 먹통…질병청 "네이버 이외 앱으로 체크해달라"</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004640339?sid=102</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>14일에도 일부 백신 접종증명 휴대전화 애플리케이션이 ‘먹통’이 되는 현상이 나타났다.이날 오전 11시 40분께부터 네이버앱은 'QR체크인'을 누르면 '데이터를 불러오지 못했습니다'라는 메시지가 뜨며 QR코드를 불러오지 못하고 있다.정상적으로 작동하고 있는 질병관리청 쿠브앱과 카카오은 QR코드가 뜨기까지 다소 긴 시간이 소요되기도 하는 것으로 전해졌다.질병청은 이날 오전 11시39분께 "오늘 방역패스를 이용하실 분은 지금부터 편한 시간에 네이버, 카카오 등에서 예방접종증명서(QR코드)를 발급받아 사용해주시기 바랍니다"라는 안전 안내 문자를 보낸 바 있다.하지만 먹통 사태가 다시 빚어지자 질병청은 네이버 이외에 쿠브, 카카오, 토스, 패스(PASS)로 QR 체크를 해달라고 요청했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2021.12.01.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>잘 쓰면 돈된다…‘베일 벗은 마이데이터’ 이용 꿀팁은?</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000266425?sid=101</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>[앵커]은행이나 카드사에 흩어져 있던 정보를 활용해 개인에게 꼭 맞는 자산관리를 해주는 마이데이터 서비스가 정식 출시를 한 달 앞두고 시범 운영을 시작했습니다.어디서 어떻게 이용할 수 있는 건지, 구체적으로 어떤 서비스가 나왔는지 금융부 오정인 기자와 알아보겠습니다.조금 전(1일) 4시부터 서비스가 시작됐죠.어떻게 이용할 수 있는 건가요?[기자]주로 사용하는 은행이나 카드사 앱에 들어가시면 마이데이터 서비스 메뉴를 보실 수 있는데요.지금 막 시작해서 인지 아직까진 서비스가 원활하진 않습니다.우선 앱을 최신 버전으로 업데이트 하셔야 하고요.서비스 가입까지는 대략 5분 정도 걸립니다.금융인증서나 공동인증서를 통해 본인 인증을 하고 자신의 정보를 활용하는 데 동의 절차를 거치는데요.어떤 금융기관의 정보를 활용할지 잘 보시고 선택하는 게 좋습니다.정보제공 동의와 본인 인증은 1년 혹은 본인이 설정한 기간마다 갱신되는 방식입니다.[앵커]실제 서비스는 어떨지 궁금한데, 도움이 될만한 새로운 내용이 있습니까?[기자]은행 앱으로 서비스를 이용해봤는데요.먼저 KB국민은행은 일반인 자산가를 팔로우 해 포트폴리오 노하우를 공유할 수 있는 머니크루 서비스를 선보였습니다.신한은행에선 세금 절약 방법을 알려주는 '절세꿀팁' 서비스를 이용할 수 있고요.농협은행은 연말정산 컨설팅과 종합 차량관리가 가능한 내차관리 서비스를 선보였습니다.하나은행에선 외환투자 전문 컨설팅을, 우리은행에서는 향후 개인 자산을 예측해주는 시뮬레이션 등을 출시했습니다.[앵커]앞으로 얼마나 더 차별화된 서비스가 나오느냐가 관건일 텐데, 지금으로선 데이터 활용에 제한이 있을 것이란 우려도 나오죠?[기자]그렇습니다.여전히 업권 간 이견을 보이는 것도 바로 이 부분인데요.전문가 의견 먼저 들어보겠습니다.[서지용 / 상명대 경영학부 교수 : 플랫폼 사업자들이 금융사에 제공하는 정보의 조건이나 항목을 정해서 제시하면 데이터 교류가 원활히 이뤄지고 다양한 서비스가 나올 수 있거든요. 그런 부분에서 정부의 역할이 좀 아쉽습니다.]업권 간 데이터 교류가 얼마나 활발한 지가 서비스의 핵심이라는 얘깁니다.한편, 카카오페이와 토스 등 핀테크 사를 비롯해 SC제일은행, 광주은행 등 20개 사는 이달 중 서비스를 오픈하고요.나머지 사업자들은 내년 상반기 중 참여할 예정인데, 결국 누가 얼마나 차별화된 서비스를 선보이냐에 따라 승패가 갈릴 것으로 보입니다.[앵커]오정인 기자, 잘 들었습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2021.12.14.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>방역패스 오늘도 먹통…네이버 QR코드 30분간 오류(종합)</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005783120?sid=102</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>질병청 "네이버 외 다른 앱으로 해달라, 현재 원인 파악 중"곳곳 국민 불만 쏟아져…정부 "오늘도 과태료 부과 안해"방역패스(백신패스)의 계도기간이 끝나 의무화된 13일 오후 서울 시내 한 식당에서 손님의 핸드폰에 QR코드 전자증명 시스템에서 오류가 발생하고 있다. 2021.12.13/뉴스1 © News1 황기선 기자(서울=뉴스1) 강승지 기자 = 전날 시스템 과부하로 먹통 사태를 빚었던 방역패스 쿠브(COOV, 전자예방접종증명서) 앱 장애가 14일에도 재발했다.이날 낮 11시 44분부터 네이버 앱에서 QR 체크인을 활성화하면 "데이터를 불러오지 못했다. 다시 시도해달라"는 문구가 나타났다. 전날에 이어 이틀째다.네이버 앱을 통해 접속한 경우 로딩 중을 나타내는 화면이 떴다가 '네트워크에 접속할 수 없습니다'라는 화면으로 이어졌다.서울 삼성동 코엑스 입구의 시민들은 "이거 왜 안 돼"하면서 화면 중단에 뜬 '다시 시도하기' 버튼을 연신 눌렀지만 접속되지 않았다. 쿠브 앱도 제대로 작동하지 않아 애를 먹기도 했다.전날과 달리 질병관리청에서 운영 중인 쿠브 앱과 카카오 앱은 정상 작동됐으나, 네이버 앱의 QR코드 발급에 장애가 발생한 것이다.현재까지 원인과 네이버 앱의 작동 개선 여부는 질병관리청이 파악 중에 있다.질병관리청은 "정부의 QR코드 전자접종증명시스템 '쿠브(COOV)'은 정상 가동 중이며 현재 네이버 앱 외 민간 플랫폼에는 특별한 장애가 발생하지 않은 상황으로 파악한다. 쿠브, 카카오, 토스앱 및 통신 3사의 앱 등으로 방역패스를 활용해달라"고 했다.20여분 뒤에 질병청은 "네이버 QR은 현재 이용됨을 확인했다. 원인은 파악되면 발표하겠다"고 부연 설명했다.이에 IT 업계는 질병관리청의 운영중인 QR 코드 전자 증명 서비스 '쿠브'(COOV)의 문제로 연쇄 장애가 일어났다고 보고 있다. IT 기업이 이 제공하는 QR코드 백신 접종 내역 인증은 질병관리청 쿠브 시스템을 통해 불러오게 돼 있기 때문이다.네이버 관계자는 "쿠브앱에서 데이터 정보를 가져오기 때문에, 쿠브가 정상화 되지 않으면 지속적으로 먹통 현상을 보일 수밖에 없다"고 말했다.한편 정부는 지난 13일 접종증명 애플리케이션에 발생한 대량의 접속 오류와 더불어 이날 빚어진 접속 문제에 따른 접종여부 미확인에 대해 책임을 묻지 않겠다고 밝혔다.방역패스 미확인이 '접속 문제' 때문인지 운영자가 입증하기 어려우니 사실상 이날 하루도 벌칙을 적용하지 않겠단 방침이다.이와 함께 질병청은 "오늘 방역패스를 이용할 국민은 지금부터 편한 시간대에 네이버·카카오 등에서 예방접종증명서(QR코드)를 미리 발급 받으면 점심·저녁 시간에 원활한 이용이 가능하다"고 이날 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2021.12.06.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>"동료 데려오면 500만원, 주3일만 회사 오세요"…은행들 개발자 파격대우</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004889701?sid=101</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>IT인력에 목매는 금융권스톡옵션에 거액 포상금까지빅테크, 물량공세로 인재유치금융 거래 80~90%가 비대면핀테크 외 금융사도 '앱' 경쟁내년 마이데이터 사업 시행 전고객 선점 위해 전격 구애작전주3일 출근·휴가지 근무 '혜택'◆ 금융권 개발자 유치 전쟁 ◆ 금융권에 디지털전환(DX) 바람이 거세다. 코로나19로 비대면 서비스 경쟁에 불이 붙고 내년 1월 마이데이터 서비스까지 본격 시행되기 때문이다. 지난 2일 경기도 성남시 판교역 신분당선 역사에서 한 승객이 개발자 채용을 알리는 광고판 앞을 지나고 있다. [박형기 기자] "스톡옵션 2만주, 연봉 20~30% 성과급, 인턴만 해도 월 300만원 드립니다." 금융권에 정보기술(IT) 개발자 모시기 전쟁이 벌어지고 있다. 코로나19로 비대면 서비스 경쟁이 불붙고 내년 1월 마이데이터 서비스까지 본격 시행되면서 금융권에 IT 인재 수요가 폭증한 것이다. 하지만 개발자 공급이 원활하지 않아 개발 인력 유치 경쟁이 한층 치열해질 것으로 보인다. 6일 금융권에 따르면 카카오뱅크는 내년 연봉 협상에 앞서 전 직원 임금을 평균 1000만원 이상 인상하고, 연봉의 20~30%를 각각 스톡옵션과 성과급으로 지급하겠다고 제안했다. 토스뱅크는 지난달 주주총회에서 입사 1주년을 맞이한 임직원을 대상으로 각각 2만주의 스톡옵션을 주기로 했다. 행사가는 주당 5000원(액면가)이고, 2년 후인 2023년 11월 30일부터 권리를 행사할 수 있다. 케이뱅크는 인턴에게도 월급 300만원을 제시하며 IT 인력 입도선매에 나섰다.  금전적인 보상에 더해 근무 환경을 바꾸고 사내 복지를 강화하는 것도 최근 트렌드다. 업계 관계자는 "요즘 개발자들은 네카라쿠배당토(네이버, 카카오, 라인, 쿠팡, 배달의민족, 당근마켓, 토스)처럼 수평적이고 자율적 기업 문화를 가진 기업에 들어가는 것을 선호하는 편"이라고 설명했다.금융산업에 '디지털 전환(DX)'이라는 거대한 변화가 휘몰아치면서 우수한 개발자와 정보기술(IT) 인력 수요가 폭증하고 있다. 디지털 전환의 바람이 거센 것은 다른 분야도 마찬가지지만, 금융은 시스템 자체가 다른 분야보다 디지털 전환을 하기가 훨씬 까다로운 데다 빅테크·핀테크와 정면 승부해야 하는 상황이어서 더욱 개발자 유치에 사활을 걸고 있다.  금융권 개발자 전쟁의 배경은 크게 세 가지로 요약할 수 있다. 가장 큰 이유는 국내 은행들의 금융상품 유통 채널이 오프라인 영업점에서 '비대면 디지털'로 빠르게 넘어가고 있다는 점이다. 하나금융그룹 공시에 따르면 올해 3분기 펀드 가입자 중 92.9%가 온라인과 모바일을 통해 가입했다. 올해 3분기 신용대출 중 92.2%도 비대면으로 이뤄진 것으로 나타났다. 우리은행은 적립식 예금 가입자 중 비대면을 통해 가입한 이들이 89.6%를 차지했다.내년부터 본격 시행되는 '마이데이터 사업' 인프라스트럭처를 구축할 인력도 부족하다. 마이데이터는 금융소비자가 은행, 카드, 보험, 증권 등 금융정보를 한 번에 확인·관리하고 맞춤형 상품도 추천받을 수 있는 서비스다. 금융권 입장에서는 일종의 '땅따먹기'와 같다. 고객을 선점하면 타사 데이터까지 가져올 수 있다. 특히 시간이 갈수록 네이버와 카카오가 그랬던 것처럼 '승자 독식' 구조가 공고해질 것으로 보인다. 마지막으로 공룡에 비유될 정도로 덩치가 큰 금융사들이 스타트업과 유사한 조직 운영 방식인 '애자일 조직'으로 바뀌고 있다는 점을 꼽을 수 있다. 예전에는 전문 지식을 가진 개발팀에서 금융상품을 개발하고 현장에서는 매뉴얼대로 판매하는 방식이었다면, 이제는 일종의 태스크포스(TF)처럼 특정 금융상품을 개발할 때마다 팀을 꾸리는 것이 대세다. 기존 금융사들도 조직 개편에 적극 나서고 있다. 최근 BCG컨설팅을 받은 하나은행은 조직 체계 자체를 '애자일 조직'으로 바꿔 나가겠다고 공언했다. 이미 발 빠르게 빅데이터 시장을 선점해온 신한카드는 현재 약 25%(595명)가 디지털 인력이다.개발자 유치 전쟁은 채용 방식과 조직 시스템 등 금융권 문화까지 바꾸고 있다. 한 은행업계 관계자는 "최근 은행권에서 희망퇴직 등으로 기존 인력을 내보내고 공채를 폐지하는 것 역시 최근의 금융권 환경 변화 때문"이라며 "공채를 하면 일반직군도 채용해야 하는데, 지금은 인력 내보내기도 바쁜 상황이다. 바로 현장에 투입할 개발자들을 구할 수 있는 수시채용 방식으로 바꾸는 것"이라고 설명했다. '경력자 채용' 시 우수 인재를 추천하면 인센티브를 주는 회사도 늘어나고 있다. 개발자들은 팀으로 일하는 경우가 많은 데다 헤드헌팅 업체보다 빠르고 효율적으로 바로 투입할 인재를 확보할 수 있기 때문이다. 이런 채용 방식은 자동으로 평판을 검증할 수 있고, 인맥으로 입사한 만큼 조직 융화 속도도 빠르다는 점에서 호평을 받고 있다. 토스 운영사인 비바리퍼블리카는 토스, 토스뱅크, 토스증권 등 계열사 경력 채용 시 사내에서 추천한 사람이 입사할 경우 추천자에게 1명당 500만원을 포상금으로 준다. 변화는 한동안 계속될 것으로 보인다. 빅테크 금융 분야와 핀테크의 개발자 비중은 적어도 30%에서 많게는 50%를 넘는다. 약 1400명이 근무하는 토스는 개발자 비중이 30%(상반기 기준)를 넘고, 카카오페이는 50%가 넘는 것으로 알려졌다. 이에 비해 금융권은 10%도 되지 않는다. 앞으로 한동안 개발자를 계속 채용해야 한다는 이야기다. NH농협은 올해 5급 정규직원 대졸 공채에서 최초로 '경력직 선발과정'을 도입했다. IT, 디지털, 카드, 금융 분야에서 선발하고 있는데 금융 외에는 모두 개발 관련 직무라는 점이 눈에 띈다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2021.12.15.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>웰빙·식사·근무공간, 복지의 진화…'라이프케어' 뜬다</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010889526?sid=101</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>기사내용 요약회사 임직원 삶의 질 향상 돕는 복지 대세신체건강·심신안정에 업무 효율성 등 집중[서울=뉴시스] 임직원 '웰·식·주' 책임지는 라이프케어 복지 주목. (사진=뉴시스 DB). photo@newsis.com [서울=뉴시스] 배민욱 기자 = 복지가 진화하고 있다. 식대·교통비 지원 등 평범한 복지를 넘어 임직원의 웰빙(Well-being), 식(食), 주(住)까지 관리해주는 기업들이 늘고 있다. 이들 기업들은 코로나19 여파로 우울증 등 심리적 어려움을 겪는 직원들에게 신체적·심리적 관리를 제공하는가 하면 임직원의 건강한 습관 형성 돕기, 가사 부담을 덜어주는 서비스 제공, 워케이션(휴가지 원격 근무)을 누릴 수 있는 오피스 마련 등 다양한 '라이프케어' 복지 서비스를 도입하고 있다.15일 관련 업계에 따르면 임직원들의 웰빙을 돕는 정보기술(IT) 플랫폼 도입 기업들이 많아지고 있다. 실제로 습관형성 앱 챌린저스는 기업별 맞춤 임직원 전용 챌린지 서비스를 통해 건강관리, 심리적안정, 행복증진, 자기계발 등을 제공하고 있다.특히 코로나19로 웰빙, 웰니스 트렌드가 확산됨에 따라 웰니스 라이프(Wellness Life) 실현을 돕는 챌린지들이 주목받고 있다. 웰니스 라이프란 웰빙(well-being), 행복(happiness), 건강(fitness)을 함축한 말이다. 신체적·정신적·사회적 건강이 조화롭게 이루어지는 생활 패턴이다. SK에너지는 하루 한 번 하늘보기, 1만보 걷기, 운동하기 등 다양한 챌린지로 임직원들에게 제공했다. 쿠팡은 임직원 전용 챌린지를 지난 9월부터 도입해 시행하고 있다. 매일 영양제 먹기, 감사일기 쓰기, 하루 30분 책 읽기 등 총 24개의 챌린지가 개설됐다. DB손해보험도 지난 2월 ESG(환경·사회·지배구조) 경영 실천과 건강 증진, 조직문화 개선 등을 위해 임직원 전용 챌린지를 도입했다. 배달 앱 요기요를 운영하고 있는 '위대한 상상' 역시 올해 4월부터 ESG 경영 실천과 임직원들의 건강 증진을 위해 챌린저스를 적극 활용하고 있다.  4주동안 매일 500ml 이상 물마시기 등이 대표적이다. LG전자는 임직원 전용 챌린지를 지난 3월 도입해 시행했다. 인천캠퍼스에 재직 중인 임직원들을 대상으로 만보 클럽 챌린지를 개설했다. 육체적·정신적 피로감을 유발하는 가사 노동의 부담을 덜어주는 웰빙 복지 서비스도 있다. 토탈 홈클리닝 서비스를 제공하는 당신의집사는 최근 브랜디, 펄어비스, 패스트파이브, 지웰홈스 등 기업간거래(B2B)를 통해 가사청소 서비스를 확장하고 있다.  식(食) 복지도 빼놓을 수 없다. 벤디스가 운영하는 모바일 식권 플랫폼 식권대장은 앱을 통해 종이 식권, 식대 장부와 같은 복잡한 시스템에 들어가는 비용을 절감해준다.제휴 기업 임직원은 식권대장 포인트를 회사 근처 식당에서 자유롭게 사용하고 배달식사를 통해 점심시간에 사무실 밖으로 나가지 않고 식사를 해결할 수 있다. 재택 근무 시에는 장보기 서비스를 통해 식품을 집에서 받을 수도 있다.NHN페이코에서 운영하는 페이코(PAYCO) 식권은 넷마블컴퍼니와 넷마블 계열사 코웨이 등에 확대 도입돼 사내 카페와 구로 식당가의 이용 편의성을 높여 나가고 있다.넷마블 임직원 5000여명은 구로구 신사옥 G-Tower(지타워) 내 식당과 사내 카페, 구로디지털단지에 조성된 페이코 식권존에서 페이코 앱을 활용해 간편하게 식대를 결제할 수 있게 됐다.커피 유통 스타트업 스프링온워드가 운영하는 원두데일리는 오피스를 대상으로 고급 커피 원두와 커피 머신을 대여해주는 커피 정기 구독 토탈 서비스다. 원두데일리는 사회관계망서비스(SNS)에서 회자되는 유명 카페의 커피를 사무실에서 즐긴다는 콘셉트로 차별화를 시도했다. 현재 파트너사는 15곳으로 늘었다. 삼성, 교보, GS, 현대, LH, 한국전력공사 등 대기업과 공공기업을 비롯해 핏펫, 바로고, 스파크플러스, 헤이딜러, 숨고, 세탁특공대 등 스타트업까지 다양하다. 근무·거주 공간 지원도 확대되고 있다. 코로나19 여파로 재택근무, 유연 근무제 등 다양한 근무방식을 채택하는 기업들이 늘고 있기 때문이다. 최근 휴가지에 근무 공간을 마련해 업무와 휴식을 병행할 수 있도록 하는 새로운 근무 형태인 '워케이션'이 스타트업들의 복지 제도로 부상하고 있다. 동영상 후기 플랫폼 브이리뷰를 운영하는 인덴트코퍼레이션은 제주도에 '제주 힐링 오피스'를 마련했다. 제주 오피스는 2층짜리 독채 건물이다. 1층은 업무용 공용 공간, 2층은 직원들이 머무르는 개인 방과 게스트 룸이다. 디지털 마케팅 솔루션 기업 스토어링크도 워케이션 붐에 발맞춰 제주 애월과 협재에 2층짜리 단독 주택 2채를 계약해 임직원들을 위한 일터를 만들었다. 스토어링크는 직원들의 만족도 등을 바탕으로 부산, 강원 양양 등 타 지역으로 확대 방안을 검토 중이다. 여가 플랫폼 기업 야놀자는 지난달 31일부터 7일간 강원도 평창에서 첫 워케이션 복지 서비스를 제공했다. 신청자는 일주일간 현지에서 일과 휴식을 병행한다. 야놀자는 호텔, 식사, 법인차량 등을 지원했다. 직원들의 거주 공간 지원을 위해 억대 주택 자금을 대출해주는 기업도 있다. 토스를 운영하는 비바리퍼블리카는 6개월 이상 근속한 정규직 직원을 대상으로 최대 1억원까지 무이자로 주택 자금 사내 대출을 지원한다. 핀테크 기업 핀다도 주택자금 무이자 사내대출로 최대 1억원까지 지원해주고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2021.12.09.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>KTB네트워크, VC 최우수 운용사 선정…중기벤처장관상 수상</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001922888?sid=101</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>[헤럴드경제=이세진 기자] KTB네트워크가 9일 열린 한국벤처투자가 주최하는 ‘코리아 VC 어워즈 2021’에서 VC(벤처캐피탈) 최우수 운용사에 선정되며 중소벤처기업부장관 표창을 받았다.이번 시상식은 매년 혁신 벤처생태계 조성에 기여한 VC, 출자자, 스타트업의 성과를 격려하고 축하하는 행사로 올해로 12회째를 맞이했다. 행사에서는 최우수 운용사, 심사역, 관리인력, 펀드 등 총 6개 부문에 걸쳐 시상을 진행했다.KTB네트워크는 국내 1세대 벤처캐피털로 40여년의 투자 경력과 회수경험을 자랑한다. 국내외에서 총 300여 건의 IPO(기업공개) 및 M&amp;A 실적을 보유하고 있고, 선제적으로 해외시장에 진출해 글로벌 시장에서의 경쟁력도 꾸준히 키워왔다.올해 3월에는 배달의 민족(우아한 형제들) 투자로 잭팟을 터뜨리며 시장의 뜨거운 관심을 받았다. 23억원을 투자해 629억원을 회수하며 멀티플 27배를 기록했다. 또한 토스(비바리퍼블리카) 초기 투자자 중 현재까지 지분을 보유한 국내 유일의 VC로 높은 투자성과를 예고하고 있다. 또한 해외투자에 앞장서며 국내 VC 최초로 인도 기업 투자를 시작했고, 동남아에서도 투자를 확대하고 있다.KTB네트워크는 이달 16일 코스닥 상장을 앞두고 있다. 지난 7일, 327대 1이라는 높은 경쟁률로 일반 공모청약을 마무리했다. 상장을 통해 모인 공모자금은 대형 블라인드펀드를 비롯해 해외투자펀드, 세컨더리펀드 등 다양한 펀드 라인업을 구축하는데 사용할 계획이다.KTB네트워크 김창규 대표이사는 “코스닥 상장과 함께 VC 최우수 운용사라는 영예을 동시에 누리게 되어 영광스럽다”며, “벤처산업 육성이라는 VC 본연의 역할을 다하고 한국을 대표하는 글로벌 VC로 성장해 나갈 것”이라며 소감을 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2021.12.13.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>먹통·사과·철회…신뢰 금간 방역패스</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003116054?sid=102</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>[경향신문] 단속 첫날 QR 인증 오류로 혼선정부, 과태료 처분 등 안하기로시스템 장애요? 줄지어 선 손님들 코로나19 백신 접종을 증명해야 식당·카페 등을 이용할 수 있게 된 13일 서울 종로구 한 식당을 찾은 시민들이 방역패스 시스템 장애로 대기하고 있다.   연합뉴스방역패스(접종증명·음성확인제) 의무화 첫날인 13일 네이버·카카오·쿠브(COOV)의 QR코드 전자증명 시스템에서 오류가 발생해 식당·카페 등 다중이용시설에서 큰 혼란이 벌어졌다. 질병관리청은 이날 하루 동안에는 방역패스 없이 식당 등을 이용했어도 과태료 등의 처분을 하지 않기로 했다. 점심시간이 시작된 이날 오전 11시45분쯤부터 이용자들이 휴대전화로 쿠브·네이버·카카오 등 QR 체크인 기능을 호출하면 “데이터가 유효하지 않습니다”라는 메시지와 함께 QR 코드가 나타나지 않는 오류가 발생했다. QR 코드가 나타나도 ‘미접종’으로 표기되며, 데이터가 유효하지 않다는 메시지가 나왔다.사회관계망서비스(SNS)에서는 ‘백신 QR코드 인증이 되지 않는다’는 호소가 잇따랐다. 식당을 찾았다 발길을 돌린 이용자들도 곳곳에 등장했다. 직장인 A씨는 “동료들과 점심을 먹으러 식당에 갔다가 전자증명서 본인인증이 되지 않아 혼자 회사로 돌아왔다”며 “백신 2차까지 맞은 상황에서 황당했다”고 말했다.질병관리청은 점심시간이 지난 이날 오후 1시30분부터 시스템이 정상화됐다고 밝혔으나, 이날 저녁식사 시간대에도 곳곳에서 네이버·카카오 앱을 통한 전자출입명부 접속 장애가 반복됐다.장애 원인은 방역패스가 본격적으로 시행됨에 따라 점심시간 앱 이용이 급증하면서 KT DS 클라우드센터에 있는 쿠브 앱 운영서버에 ‘접속 과부하’가 발생했기 때문이라고 질병관리청은 설명했다. 쿠브는 질병관리청이 관리하는 앱으로, 네이버·카카오·토스 등 QR 체크인 기능을 제공하는 사업자들은 모두 쿠브의 데이터를 공유하고 있다. 통신업계 관계자는 “클라우드라도 사용량 ‘상한선’을 설정해놓기 마련인데, 방역패스 의무화 첫날 사용량이 이를 뛰어넘으면서 문제가 생긴 것 같다”고 말했다.질병관리청은 “전자출입명부나 쿠브 앱 이용에 불편을 끼친 점에 대해서 사과드린다”며 “긴급조치가 진행된 이후에 원인과 재발 방지 조치를 발표하겠다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2021.12.05.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>고승범 "전금법, 유연하게 대응할것"…종지업 도입 물러서나</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004679293?sid=101</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>[금융위원장 송년 기자간담회서 "종지업자, 청산제도 관련 부분 유연하게 대응"]고승범 금융위원장이 지난 3일 송년기자간담회에서 발언하고 있다./사진제공=금융위고승범 금융위원장이 국회 계류 중인 전자금융거래법(이하 전금법) 개정안 처리와 관련해 "좀 더 유연하게 대응하면서 국회와 협의하겠다"고 밝혔다. 한국은행과 갈등을 빚던 '외부청산 의무화' 조항에 이어 금융권이 반발하는 종합지급결제사업자(종지업자) 도입과 관련해서도 금융위가 한 발 물러날 수 있다는 의미로 풀이된다.고 위원장은 지난 3일 열린 송년 기자간담회에서 '전금법 개정 작업은 어떻게 진행 중이냐'는 질문에 "전금법 개정안이 조속히 통과됐으면 좋겠다는 말씀을 드렸는데, 이번 정기국회에서는 통과되지 않을 것 같다"고 했다.그러면서 "몇가지 종지업자나 청산제도와 관련된 이슈들이 있다"며 "이런 부분에 대해서는 좀 더 유연하게 대응하면서 국회와 협의하겠다"고 답했다.앞서 금융위와 한은은 전금업자의 내부 거래가 외부 청산기관인 금융결제원을 통해야 한다는 외부청산 의무화 조항과 금결원에 대한 관리·감독 권한을 금융위가 가져가는 것을 두고 마찰을 빚었다.여기에 종지업 도입을 두고선 금융권이 '네이버 특혜법'이라며 수용 불가 입장을 밝힌 상태다. 종지업자는 은행, 증권사 등과 마찬가지로 고유 계좌를 개설해 선불충전·후불결제 서비스 등 여·수신 업무를 할 수 있지만 금융사로 분류되진 않아 은행법과 증권업법 등을 적용받지 않는다. '동일기능 동일규제' 원칙에 어긋나는 셈이다. 무엇보다 종지업자가 되려면 자본금이 200억원 이상이어야 하는데, 이 요건을 만족하는 업체는 일부 빅테크들 뿐이다. 카카오와 토스의 경우 은행과 증권사 등 별도 라이센스를 보유하고 있어 사실상 전금법 개정안이 '네이버 특혜법'이 아니냐는 비판이 나오는 까닭이다.한편 고 위원장은 디지털 금융혁신 방향에 대해 "'혁신과 경쟁' 유도와 함께 '금융안정과 소비자 보호'라는 금융의 원칙을 균형있게 발전시켜 나갈 필요가 있다"며 "이 둘 간의 균형감있는 접근을 통해 핀테크 산업의 안정적·지속적 발전을 위한 정책을 앞으로도 꾸준히 추진해 나갈 계획"이라고 설명했다.그는 "다행히 금융소비자보호법이 6개월 간의 계도기간을 거쳐 지난 9월24일 사실상 시행됐다"며 "시의적절하게 '금융발전을 위한 안전벨트'를 갖추게 됐다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2021.12.08.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>수수료 면제에 주식도 준다… 증권사, 서학개미 잡기 이벤트</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003658332?sid=101</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>증권사별 해외주식 거래 관련 이벤트 / 각 증권사										국내 주요 증권사들이 새로 해외 주식 투자를 시작하는 개인 투자자들을 붙잡기 위해 다양한 이벤트를 진행하고 있다. 신한금융투자와 한국투자증권 등 2곳만 제공하던 ‘해외 주식 소수점 거래 서비스(해외 주식을 1주 미만 단위로도 거래할 수 있는 서비스)’가 총 20개 증권사로 확대되면서 경쟁이 치열해진 것이다.신한금융투자는 내년 1월 20일까지 비대면(온라인 계좌 개설) 신규 고객 및 해외 주식 휴면 고객을 대상으로 미국·중국·홍콩·일본·인도네시아·베트남 증시 온라인 거래 수수료를 3개월간 면제한다. 그 이후에도 미국 증시 0.05%, 중국·홍콩·일본 0.07% 등 업계 최저 수준의 수수료율을 적용할 계획이다.미래에셋증권은 오는 31일까지 비대면 신규 고객 및 휴면 고객을 대상으로 미국⋅중국⋅홍콩⋅일본 4국 증시 거래 수수료를 3개월간 면제해주는 이벤트를 진행 중이다. 3개월이 지난 이후에는 0.07%의 수수료율이 적용된다. 삼성증권도 오는 31일까지 해외 주식 신규 거래 고객에게 미국 증시 거래 수수료를 한 달 동안 면제해주는 이벤트를 진행한다. 이후 11개월 동안 0.09%의 수수료율이 적용된다. 거래금액에 따라 최대 100달러의 거래지원금도 지급한다.한국투자증권은 오는 31일까지 뱅키스(은행 개설 계좌) 고객 중 해외주식 거래를 처음으로 신청하는 고객에게 해외주식을 증정하는 이벤트를 한다. 이벤트 신청자를 대상으로 하며, 그 중 50명을 뽑아 지난 10월 국내 투자자들이 해외 증시에서 가장 많이 순매수한 50종목 중 한 종목을 준다.토스증권은 오는 31일까지 토스증권 계좌가 없는 가족이나 지인 등에게 토스증권 해외 주식 거래 서비스를 추천해 사용하게 하면 본인과 가족·지인에게 모두 해외 주식을 1주씩 지급하는 이벤트를 진행한다. 테슬라⋅나이키⋅코카콜라 등 19개 해외 주식 중 한 종목을 준다.실제로 국내 투자자의 해외 주식 투자 규모는 빠르게 증가하고 있다. 국내 투자자의 해외 주식 거래금액(매수액·매도액 합계)은 2019년 409억8500만달러(약 48조원)에서 지난해 1983억2200만달러까지 늘었고, 올해는 지난 6일까지 3665억달러였다. 해외주식 소수점 거래 서비스 확대 등으로 투자자 수와 투자 규모는 더 늘어날 것으로 보인다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2021.12.13.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>일주일 준비하고도… 정부, QR 먹통에 “갑작스런 접속 부하”</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003659315?sid=102</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>방역패스(접종증명·음성확인제)의 의무화 첫날인 13일 울산의 한 카페에서 한 손님이 백신 QR 코드 인증 화면이 뜨기를 기다리고 있다. 이날 백신 접종을 증명하는 시스템에 일부 오류가 발생해 백신 QR 코드 인증 화면에는 '질병관리청의 서버응답 오류로 코로나19 예방백신 접종 증명 확인이 지연되고 있습니다'고 표시됐다. /뉴시스										식당과 카페에 ‘방역패스(접종증명·음성확인서)’가 본격적으로 적용된 첫날인 13일 점심시간쯤 큐알(QR)코드 시스템에 오류가 발생해 시민들이 큰 불편을 겪었다.방역당국은 지난 6일부터 방역패스를 확대 적용하고 일주일간 계도기간을 가졌다. 13일부터 식당, 카페, 학원, 도서관 등 실내 다중이용시설을 이용하려면 방역패스가 있어야 한다.방역패스 없이 해당 시설들을 출입할 경우, 이용자는 1회 위반할 때마다 10만원씩의 과태료를 물어야 한다. 시설 방역 관리자나 운영자에 대해서는 1차 위반사항 적발 시 150만원, 2차 이후로는 300만원의 과태료가 부과된다. 백신 접종 여부 확인을 위해 수기명부나 안심콜 이용도 제한된다.질병관리청은 이날 발생한 쿠브(COOV·전자예방접종증명서) 앱 접속 장애와 관련해 “쿠브 서버가 있는 KT DS 클라우드센터에서 ‘접속 부하’ 문제가 생긴 것으로 파악하고 있다”고 했다.쿠브 앱은 코로나 백신 접종 이력을 확인할 수 있는 모바일 앱으로 질병관리청이 관리하고 있다.질병청은 “오늘 갑작스러운 접속 부하로 전자출입명부 및 쿠브 앱 사용에 불편을 끼쳐드렸다”라며 “양해 말씀을 드리며 사용 원활화를 위해 긴급하게 관련 기관 간 협의 및 긴급 조치를 진행 중에 있다. 이와 관련하여 조치 방향이 결정되는 대로 별도 안내해드리도록 하겠다”라고 했다.한편 이날 낮 11시 40분쯤부터 질병관리청 쿠브 앱에 접속이 되지 않는다는 신고 사례가 전국 곳곳에서 나왔다. 네이버·카카오·토스 등 백신접종을 확인할 수 있는 다른 앱에서도 한때 QR코드가 원활히 생성되지 않았다.이 때문에 일부는 수기로 명부를 작성하고 식당으로 들어간 것으로 전해졌다. 현재 방역패스 의무 적용시설에서는 수기 명부 사용이 원칙적으로 금지돼 있다. 이날 먹통 사태는 약 20여분간 지속되다 정오를 전후해 풀리기 시작했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2021.12.14.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>은행권 결의한 신용대출 특별 한도… 인터넷은행만 떨떠름</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003659596?sid=101</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>정부의 강도 높은 가계 대출 억제 정책으로 대출 한파가 매서운 요즘, 한 가지 희소식이 들려왔습니다. 다음 달부터 결혼이나 출산, 수술, 장례 등 급히 돈이 필요한 경우에는 기존 은행에서 받을 수 있던 신용대출 한도 이외에 추가로 연 소득의 50% 범위 내에서 최대 1억원까지 대출을 받을 수 있다는 것입니다. 은행연합회는 지난 10일 이 같은 내용의 실수요자 대출 확대 방안을 발표했습니다. KB국민·신한·하나·우리·NH농협 등 주요 은행들이 동참하겠다는 뜻을 밝혔습니다.그런데 케이뱅크와 카카오뱅크, 토스뱅크 등 인터넷은행 3사는 “현재로서는 도입 계획이 없다”는 입장입니다. 은행들로서는 금융 당국의 ‘가계 부채 관리’ 기조 때문에 어쩔 수 없이 조였던 대출 한도를 늘릴 수 있는 기회인데 왜 소극적인 모습일까요.한 인터넷은행은 “전산 개발을 새롭게 해야 하는 어려움 때문”이라고 했습니다. 특별 대출을 해주려면 은행이 결혼, 출산 등 실수요 요건에 해당하는지 증명 서류를 제출받아 진위 확인을 해야 합니다. 시중은행들은 오프라인 영업점에서 직원들이 처리하면 되지요.하지만 오프라인 점포가 없는 인터넷은행들은 서류 확인에 필요한 별도 전산 시스템을 만들어야 합니다. 대출 신청자가 모바일 앱에 올린 증명서 사진이 혼인관계증명서인지, 입원확인서인지 등을 파악하는 시스템을 개발해야 하는 것이죠. 이런 시스템을 구축하려면 비용이나 시간이 상당히 투입된다고 합니다. 몸집이 작은 인터넷은행 입장에서는 해당 업무를 처리할 인력을 별도로 배치하는 것도 상당한 부담이라고 합니다.점포가 없다는 인터넷은행의 태생적 한계를 이해 못 하는 것은 아닙니다. 다만 그들이 말하는 ‘세상에 없던 금융 혁신’을 기대하는 금융 소비자로선 아쉬움이 남습니다. 이용자 입장에서 쓰기 간편한 금융 앱으로 모바일 뱅킹에서 돌풍을 일으켰던 인터넷은행들이 앞으로는 은행 창구에서만 가능했던 서비스를 모바일 앱에서도 구현해주길 바라봅니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2021.12.09.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>국내 5개 EMR사, '실손보험빠른청구' 본격 시행</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004681485?sid=101</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>비트컴퓨터를 비롯한 국내 주요 5개 EMR(전자의무기록) 사가 '실손보험빠른청구' 서비스를 본격 시행한다.'실손보험빠른청구'는 서류 없이 보험금을 청구할 수 있는 서비스로, 지앤넷(대표 김동헌)이 개발했다. 이번에 '실손보험빠른청구'를 시행하는 EMR사는 △비트컴퓨터 △네오소프트 △포인트닉스 △메디칼소프트 △클릭소프트다. 이들은 자신의 EMR 솔루션을 사용하는 국내 1만1000여개 병·의원을 대상으로 실손보험 청구 간소화 서비스를 안내하는 팝업창을 띄울 방침이다. 아울러 신청하길 원하는 병·의원에는 필요한 서비스 모듈을 배포할 계획이다. 이를 통해 '실손보험 빠른청구' 서비스를 도입하는 의료기관을 빠른 시간 내 확대해 나간다는 각오다. 김동헌 지앤넷 대표는 "국내 주요 EMR 사가  '실손보험빠른청구'를 본격 시행하게 됐다"며 "이를 통해 '실손보험빠른청구'를 적용한 의료기관의 수가 2021년 말 500여개, 2022년엔 1만여개로 늘어날 것"이라고 말했다. 이어 "실손보험 가입자가 출력물 없는 보험금 간편 청구 서비스를 쉽게 이용할 수 있게 될 것"이라고 덧붙였다. 한편 지앤넷은 현재 은행, 하이웹넷, 토스, 보맵, 증권사, 카드사 등 35개 이상의 곳과 제휴해 '실손보험빠른청구'를 시행 중이다. 사진제공=지앤넷</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2021.12.15.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>고승범 "빅테크 영업행위 감독 철저히 할 것"(종합)</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010890757?sid=101</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>기사내용 요약"대형 플랫폼 네트워크·락인 효과 커져""빅테크에 동일기능·동일규제 원칙""오픈뱅킹, 오픈파이낸스로 전환""마이데이터, 마이플랫폼으로 확대""기업금융에도 마이데이터 적용" "망분리 규제 합리화 방안 모색""조만간 인터넷은행업권도 만나겠다"[서울=뉴시스] 고승범 금융위원장이 15일 서울 마포구 프론트원에서 열린 금융플랫폼 혁신 활성화를 위한 간담회에 참석해 발언하고 있다. (사진=금융위원회 제공) 2021.12.15. photo@newsis.com *재판매 및 DB 금지[서울=뉴시스] 최홍 기자 = 고승범 금융위원장은 15일 금융 플랫폼 관계자들과 만나 '마이플랫폼(My Platform)' 등 새로운 개인 디지털 공간을 구축하겠다고 밝혔다. 다만, 데이터를 수집하는 과정에서 발생하는 독점에 대해서는 영업행위 규제로 감시하겠다고 강조했다.고 위원장은 이날 서울 마포 프론트원에서 열린 '금융 플랫폼 간담회'에 참석해 주요 현안에 대해 논의했다. 간담회에는 네이버파이낸셜·카카오페이·비바리퍼블리카(토스)·뱅크샐러드·KB금융지주·NH농협금융지주·신한은행·우리은행·한화생명·현대카드 관계자들이 참석했다.고 위원장은 "빅테크·금융회사 등 대형 금융 플랫폼의 네트워크·락인(Lock in)효과가 커지고 있다"며 "이들의 데이터 독점·편향적 서비스에 대해서는 영업행위 규제를 통해 철저히 감독하겠다"고 말했다. 락인 효과란 기존 플랫폼 이용자가 다른 플랫폼으로 이전이 어려워지는 현상을 일컫는다.실제 금융당국은 현행법에 따라 대형 금융 플랫폼에 대한 영업행위를 감독 중이다. 전금법 개정안에 따르면 금융 플랫폼의 손해전가, 경제상 이익 제공 강요, 경영활동 관여 등이 금지돼있다.고 위원장은 "빅테크의 금융업 진출은 동일기능·동일규제 및 소비자보호 원칙이 지켜지는 가운데 이뤄지도록 하겠다"며 "기존 금융사들의 디지털 금융 전환은 물론, 생활형 금융서비스 제공을 적극적으로 지원하기 위해 정보공유, 업무위수탁, 부수·겸영업무, 핀테크 기업과 제휴, 슈퍼 원앱(Super One-app) 전략 등에 합리적인 대안을 마련하겠다"고 말했다.이어 "플랫폼을 통한 금융서비스 수요에 맞춰 오픈뱅킹의 참여기관, 제공 서비스 등을 대폭 확대해 오픈파이낸스(Open Finance)로 전환하겠다"며 "마이데이터에서 더 나아가 개인화된 금융·생활서비스를 받는 '마이 플랫폼'을 추진해 맞춤형 개인 디지털 공간을 구축하겠다"고 설명했다.이날 고 위원장은 데이터 혁신 인프라도 구축하겠다고 밝혔다.그는 "다양한 데이터 결합 수요에 대응하고 이종산업간 데이터 결합을 통해 혁신적인 융복합 금융서비스가 창출될 수 있도록 데이터 결합 환경을 마련하겠다"며 "마이데이터 서비스의 본격적인 시행을 통해 참여기관·정보제공 범위도 점차 확대하겠다"고 말했다.또 "중소·소상공인과 더불어 신산업분야의 기업 데이터를 확충해 기업금융에서도 마이데이터 개념을 도입하겠다"며 "데이터가 본인에게 진정한 도움이 될 수 있도록 빅데이터(Big Data)에서 딥데이터(Deep Data) 시대로 변화를 선도하겠다"고 전했다.그러면서 "개발단계에서부터 AI에 윤리의식을 입힘으로써 편향성 있는 AI 기술이 개발·활용되지 않도록 할 것"이라며 "메타버스 등 디지털 공간에서 금융서비스 제공이 확대되도록 규제와 합리적 소비자보호 원칙도 정비하겠다"고 덧붙였다.고 위원장은 디지털 리스크에도 적극적으로 대응하겠다고 강조했다.그는 "망분리 규제는 금융보안의 대원칙을 유지하되 업무 성격·개인정보 취급 여부 등을 고려해 규제 합리화 방안을 적극 모색하겠다"며 "클라우드 서비스 이용 확대에 맞춰 전문기관 심사를 강화하고 사후보고 등 보고절차는 단순화하겠다"고 설명했다.이어 "제3자 리스크(third party risk)를 줄일 수 있도록 책임관계 등을 보다 명확하게 정비하겠다"며 "최근 시장이 확대되는 가상자산에 대해서는 이용자 보호에 최우선 방점을 둬 제도화 논의에 참여해 나가겠다"고 말했다.고 위원장은 간담회를 마치고 기자들과 만나 금융권 현안에 대해 질의응답 시간을 가졌다.그는 최근 정은보 금융감독원장이 시장조성자 과징금을 재검토하겠다는 입장에 대해 "금감원으로부터 검토한 것이 오면 우리도 같이 보도록 하겠다"며 "시장조성자 기능이 중요하고 차질을 빚으면 안 되는 만큼 금감원이 보고 나면 검토해보겠다"고 말했다.빅테크에 대한 구체적인 영업행위에 대해서는 "소비자보호법도 적용되고, 공정거래위원회가 보는 부분도 있다"며 "조화롭게 들여다보겠다. 구체적인 것은 사례별로 봐야 한다"고 답했다.이어 "동일기능·동일규제에 대해서는 빅테크들도 동의했다"며 "무조건 제한만 하자는 취지가 아니다. 원칙하에서 하자는 것"이라고 거듭 강조했다.고 위원장은 "조만간 인터넷은행 관계자들과도 만날 예정"이라며 "다른 핀테크 업체들도 만나고 금융권의 의견을 다양하게 듣겠다"고 밝혔다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2021.12.04.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>핀테크 업계와 내주 만나는 고승범…주요 현안은?</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005100066?sid=101</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>12월 두째주, 금융위·금감원 주간보도계획[이데일리 황병서 기자] 고승범 금융위원장이 내주 핀테크 업계와 간담회를 갖는다. 특히 지난달 25일과 이달 1일 핀테크 업계 뿐만 아니라 빅테크 업계 등과 의제 등을 나눠 간담회를 진행하려 했으나 취소된 바 있어 그 결과에 관심이 모아진다.기존 금융사와 핀테크 기업 등이 시장에서 얼마만큼 공정한 경쟁을 펼쳐나갈 수 있게 금융당국이 조율할 수 있을지 주목된다. 코로나19 등으로 비대면(언택트) 금융산업이 급격하게 변화하면서 전통적인 은행 등과 빅테크·핀테크 기업 간 부딪혀야 할 상황등이 계속해서 등장하고 있기 때문이다. 금융당국이 올해 10월 내놓겠다던 ‘대환대출플랫폼’이 대표적인 사례다. 올해 2월 금융위가 연중 업무계획으로 발표한 이 정책은 카카오페이와 토스 등 핀테크 플랫폼에서 소비자가 금융사마다 금리 조건을 비교할 수 있도록 하고, 대출 갈아타기까지 ‘원스톱’으로 가능하도록 지원하는 시스템이다. 플랫폼이 활성화되면 대출자들은 각자가 자주 사용하는 플랫폼 안에서 대출 조건을 쉽게 비교하고, 더 나은 상품으로 갈아탈 수 있게 된다. 하지만 협의 과정에서 플랫폼 종속과 높은 수수료율 등을 이유로 은행권이 빅테크, 핀테크와의 협력을 거부하고 나서면서 사실상 논의가 중단된 상태다.그간 고 위원장은 핀테크 업계를 향해 당근과 채찍 두 가지 가능성 모두를 암시하는 발언을 해왔다. 그는 지난 9월 금융지주와의 간담회에서 “(동일기능 동일규제는) 금융소비자 보호와 금융안정 차원에서 필요하다”면서도 “핀테크 육성이라든지 금융위가 그간 해오던 정책을 수정하는 것은 아니다”고 말한 바 있다. 또 “핀테크 육성을 위해 해오던 것은 할 것”이라면서 “다만 앞으로 빅테크, 핀테크 기업과의 소통을 늘려가고, 이들 기업과 금융사 간의 소통이 원활히 되는 것에도 노력하겠다”고 말했다. (사진=금융위원회)주간 행사 일정7일(화)10:00 국무회의(위원장, 정부서울청사)10:30 여전사 CEO 간담회(금감원장, 켄싱턴 여의도 호텔)14:00 ESG 공시 확산전략 토론회(위원장, 여의도 페어몬트H)15:00 임원회의(금감원장, 비공개)8일(수)10:00 법사위 전체회의(부위원장, 국회)14:00 금융위 정례회의(위원장·부위원장·금감원장, 정부서울청사)9일(목)09:00 핀테크 업계 간담회(위원장, D캠프)10:30 차관회의(부위원장, 정부서울청사)11:00 상호금융 CEO 간담회(금감원장, 뱅커스 클럽)10일(금)09:30 정책조정회의(부위원장, 정부서울청사)10:30 주간업무회의(위원장·부위원장, 정부서울청사)주간 보도 계획 5일(일) 12:00 금융위원장 출입기자 간담회(금융위)6일(월)06:00 21년 9월말 보험사 대출채권 현황(금감원)12:00 외부감사인 대상 ‘2021년도 온라인 회계 현안설명회’ 개최(금감원)12:00 2021년 보이스피싱 피해예방 콘텐츠 공모전 결과 발표(금감원)7일(화)배포시 자본시장법 시행령 등 하위 법규가 개정돼 이달 9일부터 시행됩니다(금융위)11:00 금감원장·여전사 CEO 간담회 개최(금감원)12:00 코로나19 피해 개인채무자 가계대출 원금 상환유예 6개월 연장(금융위)12:00 개인형 퇴직연금 가입시 유의사항(금감원)14:00 글로벌 기준에 따른 ESG공시 확산 전략 토론회 개최(금융위)8일(수)12:00 제4차 ‘녹색금융 추진 TF’ 전체회의 개최(금융위·금감원)12:00 11월 가계대출 동향(금융위)9일(목)06:00 2021년 3분기 자산운용회사 영업실적(금감원)09:00 디지털 금융혁신 촉진을 위한 핀테크업계 간담회 개최(금융위)11:00 금감원장-상호금융 CEO 간담회 개최(금감원)12:00 한국-베트남 수교 30주년 기념 베트남 자금세탁방지 교육 진행(금융위·금감원)10일(금)06:00 개인전문투자자 등록시 투자자 유의사항(금감원)</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2021.12.12.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>마이데이터 초반 '삐걱'…못보는 금융정보 아직 많아</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004892694?sid=101</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>서비스 발목잡는 4대 장애물카드 매입취소 정보 못받고보험 데이터도 일부만 제공'데이터 고속도로망' 아직 부실만 14~19세는 서비스에 제한[사진 출처 = 게티이미지뱅크] 내년 1월 본격 시행을 앞두고 시범서비스 중인 마이데이터 사업이 초반 난항을 겪고 있다. 충분한 준비가 되지 않은 탓에 부정확한 정보가 전달되거나 정작 필요한 정보는 받지 못할 가능성이 보이는 등 네 가지 '암초'에 부딪혔다. 만 14세 이상 19세 미만 청소년은 당국 가이드라인이 없어 마이데이터 서비스를 제대로 이용하지 못한다는 지적도 나온다.마이데이터는 개별 금융기관에 흩어져 있는 금융정보를 한데 모아 보여주고, 빅데이터를 분석해 맞춤형 금융 서비스를 제공하는 사업이다. 문제는 다른 금융사에서 가져올 수 있는 데이터가 아직 한정돼 있고, 원활하게 데이터를 주고받을 수 있는 시스템(API 방식)이 불안정하다는 것이다. 데이터가 이동하려면 일종의 '고속도로'가 깔려야 하는데, 아직은 부분 개통만 된 상황에 비유할 수 있다.  사업 취지만큼 다양한 금융 데이터를 모으기 힘들다는 점도 한계다. 12일 금융권에 따르면 여신금융협회는 마이데이터 서비스에서 승인 취소 내역은 제공할 수 있지만 '매입 취소' 내역은 제공하기 어렵다고 최근 금융위원회에 전달했다. 매입 관련 내역은 승인과 구조가 달라 실시간으로 제공하기 어렵고, 추가로 많은 시간과 비용을 들여 별도 시스템을 개발해야 한다는 게 여신금융협회의 입장이다.고객들 결제 내역을 바탕으로 서비스를 제공하는 데 강점이 있는 핀테크 기업 등은 이 경우 부정확한 정보 탓에 정상 서비스가 불가능하다고 주장한다. 예컨대 소비자가 쇼핑몰에서 30만원어치 옷을 산 뒤 환불하면, 핀테크 기업은 환불 정보가 없는 구매 내역밖에 받을 수 없고, 이 때문에 소비 패턴을 잘못 추정해 엉뚱한 정보를 제공할 수 있다는 것이다. 카드사들은 청구내역서를 주겠다고 하지만 청구내역서는 소비 시점과 최대 한 달의 시차가 있다. 금융위 주관으로 2019년 4월 출범한 마이데이터 회의체인 데이터 표준 API 워킹그룹에서 이 문제를 그간 꾸준히 논의했지만 결국 입장 차가 좁혀지지 않았다.보험 데이터도 마이데이터의 '사각지대'다. 금융 분야 마이데이터 서비스 가이드라인에 따르면 보험 정보 전송은 주계약 기준 장기인보험으로 한정된다. 장기인보험은 보통 계약 기간이 1년 이상으로 상해·질병 등 사람의 신체와 생명의 위험을 보장하는 보험이다. 기간이 짧은 보험이나, 화재보험·자동차보험 등은 해당되지 않는다.피보험자의 경우 자기가 보험금을 받는 보험도 마이데이터로 확인할 수 없다. 현재까지 보험상품 정보는 계약자에 의한 전송 요구만 가능하기 때문이다. 보험사들끼리는 보장 분석 등을 목적으로 한국신용정보원에서 관련 정보를 받을 수 있지만 토스, 보맵, 해빗팩토리 등 핀테크 회사들은 마이데이터로 이를 받을 수 없어 형평성 논란도 제기된다. 금융당국은 내년에 차차 시스템을 정비하며 정보 제공 범위를 늘려 나가겠다는 입장이다.만 14세 이상 19세 미만 청소년은 마이데이터 시행 전보다 받을 수 있는 금융서비스가 축소된다는 비판도 나온다. 내년 1월 시행되는 신용정보업감독규정 일부개정고시안에 따르면 청소년들은 법정대리인의 동의를 받아야만 마이데이터 서비스를 이용할 수 있고, 동의를 받더라도 활용할 수 있는 정보가 제한된다.마이데이터 서비스에 참여한 금융회사들은 이 같은 규정을 뒷받침하는 가이드라인이 미비하다고 주장한다. 금융당국은 민법을 참고해 각 회사 자율로 하면 된다고 하지만, 사업자들은 가이드라인이 나오기 전에는 쉽사리 나서기 어렵다는 입장이다. 청소년들의 금융정보를 조회·분석 업무 외 목적으로 이용할 수 없다는 조항에도 사업자들의 반발이 많다. 마이데이터의 핵심인 상품 추천 서비스 등 마케팅 이용이 불가하기 때문이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2021.12.07.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>[손안의 금융비서 체험기] "車구매 계획 어떻게 짤까요?" 물었더니</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005768256?sid=101</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>마이데이터 시범실시 은행·증권·카드·핀테크, 모든 자산 한 번에 관리'자산관리 고수'들의 포트폴리오 배운다…은퇴시 필요한 비용 계산도 '척척'© News1 이지원 디자이너(서울=뉴스1) 서상혁 기자 = #직장생활 3년차에 접어든 A씨. 이제 생활도 어느정도 안정이 됐으니, 꿈에 그리던 자동차를 사보려 한다. 하지만 모아놓은 돈은 충분치 않고 대출을 받자니 '카푸어'로 전락할까 덜컥 겁난다.  그런 A씨가 찾은 건 바로 은행 애플리케이션. 원하는 자동차를 선택하고 연소득을 입력했더니 "앞으로 월급의 50% 정도 저축하면 3년 6개월, 숨만쉬고 저축만하면 1년 반정도 걸리겠네요"라는 메시지가 뜬다. 한 6개월 정도 저축을 하다가 은행에서 추천해주는 자동차 금융 상품을 적절히 이용하면 이자부담 없이 자동차를 살 수 있다고 한다. 은행 앱에서 추천하는 '돈 모으기 프로그램'부터 가입했다.12월 1일부터 '내손안의 금융비서'로 불리는 마이데이터(본인신용정보관리업) 시범 서비스가 시작되면서 은행, 카드, 핀테크 등 모든 금융업계가 '자산관리 서비스' 경쟁에 뛰어들고 있다. 금융자산은 물론이고 자동차, 부동산 등 비금융자산, 심지어 카드사 포인트까지 한 눈에 확인할 수 있으며 다른 이용자들의 포트폴리오와 비교하는 기능도 담아냈다. 보유한 가상자산(암호화폐)의 일별 시세변동 폭도 확인할 수 있다. 마이데이터 서비스는 기존 금융회사나 빅테크 기업, 관공서, 병원 등에 흩어진 개인신용정보를 토대로 맞춤형 금융상품과 서비스를 추천·개발할 수 있는 사업이다. &lt;뉴스1&gt;은 지난 1일 마이데이터 시범서비스를 시작한 18개 금융사 중 국민은행, 신한은행, 핀크의 서비스를 이용해봤다.국민은행 마이데이터 서비스를 실행한 모습. 보유한 전체 자산(왼쪽)과 카테고리별 자산 현황(오른쪽)을 확인할 수 있다.(KB국민은행 애플리케이션 캡쳐)© 뉴스1마이데이터 서비스를 이용하기에 앞서 조회할 금융 계좌 정보를 등록해야 한다. 등록할 수 있는 정보는 은행, 카드, 금융투자, 보험, 캐피탈, 온라인투자연계금융업(P2P), 대부업 등 금융 정보, 통신 요금 등이다. 지금은 시범 서비스 기간이라 조회할 수 있는 회사가 업권별로 한정적이다. 국민은행 마이데이터 서비스에 2개 은행 계좌와 카드, 통신요금을 조회할 정보로 등록했다.정보를 등록하자 국민은행에 맡겨진 입출식 예금을 포함해 타행 자산까지 한 눈에 들어온다. 금융자산 뿐만 아니라 자동차와 부동산과 같은 비금융 자산, 보유한 신용카드사 포인트나 간편결제 포인트 관리 기능도 있다. 통신요금 납부 기일도 확인할 수 있다.국민은행은 금융, 비금융 자산을 한데 모아 분석하는 '종합솔루션' 기능을 제공한다. 종합솔루션에선 이용자와 연소득이 비슷한 이들의 자산포트폴리오를 보여주면서 본인에게 맞는 자산관리 방향을 제시해준다. 보유한 금융자산이 많지 않은 탓에 '자산 더 키우기'라는 처방을 받았다.연소득이 비슷한 이들과 이용자의 자산을 비교 및 분석해주며(왼쪽)과 이용자에게 적합한 솔루션을 내려준다(오른쪽)(KB국민은행 애플리케이션 캡쳐)© 뉴스1'지출' 탭에선 소비 현황을 파악할 수 있다. 지난 5개월 간 지출금액을 평균치로 환산해 보여주는데, 이를 통해 과거에 비해 과소비를 하고 있는지 알 수 있다. 이달 1일부터 2일까지 누적 지출액은 과거 평균치 보다 3배나 많았다. 왜 그랬는지는 하단의 세부 지출 내역에서 곧장 확인할 수 있다. 최근 들어 약속시간에 늦어 택시를 많이 탔던 게 영향을 미친 것 같다. 잠시 반성하는 시간을 가졌다.가까운 미래에 부동산이나 자동차를 구매할 계획이라면 '이프유'를 이용해보는 것도 좋다. 본인의 자산 상황을 기반으로 향후 집이나 자동차를 구매하려면 얼마나 돈을 모아야하는지, 어떤 대출을 이용하는 게 좋은지 시뮬레이션을 통해 방향성을 알려준다.갖고 싶은 자동차를 고른 후 월소득을 입력했더니 한달에 얼마나 저축할지 묻는 선택지가 나타났다. '숨만 쉬고 100%'를 저축하면 1년6개월, 적당히 쇼핑도 하고 즐기면서 50%를 저축하면 3년4개월 가량 소요된다고 한다. 생활비나 보험료 등을 생각하면 월급의 절반도 빠듯하지만 목돈이라도 만드는 셈 치고 50% 저축을 선택했다. 과거 평균 지출액과 최근 지출액 비교 그래프(왼쪽)를 보여주는 한편,원하는 자동차를 구매하기 위해 저축해야 하는 기간도 계산해준다(KB국민은행 애플리케이션 캡쳐)© 뉴스1'50% 저축'을 선택하면 '목표 챌린지'로 화면이 전환된다. 목표챌린지는 나의 자산과 지출내역을 분석 진단해 '목표'를 제안하는 콘텐츠다. 참여 중인 목표의 달성률과 지출내역을 실시간으로 확인할 수 있고, 달성 시 리워드가 제공된다. 현재 커피줄이기, 배달음식 줄이기, 택시비 줄이기 등이 인기 챌린지로 올라와있는데, 최근 택시를 많이 탄 만큼 '택시비 줄이기'를 선택했다.국민은행은 서로의 자산 포트폴리오를 공유하는 '머니크루 서비스'를 만들었다. 나의 자산현황을 자랑하거나 '자산관리 고수'의 비법을 구경할 수 있다. 본인의 현 위치를 잘 일깨워주는 서비스다.머니크루 서비스 실행화면. 자산관리 고수들의 노하우를 배울 수 있다(KB국민은행 애플리케이션 캡쳐)© 뉴스1신한은행에선 은퇴준비 서비스를 이용해봤다. 마이자산에 연결된 금융자산과 월 저축금액을 기반으로 미래에 얼마가 필요할지 시뮬레이션을 통해 알려준다. 67세 은퇴 후 한달에 280만원 정도 쓰려면 약 17억원이 필요하다는 결과가 나왔다. 놀고 먹는 게 모든이들의 꿈이라지만 막상 구체적인 숫자를 받아보고 나니 은퇴도 쉽지 않다는 생각이 잠시 들었다.'건강자산관리' 기능도 있다. 이용자의 소득수준과 결혼 여부 등을 분석해 적당한 보험료를 책정해주는 기능이다. 현재 납부하고 있는 보험료가 약 8만원 정도인데, 추가로 보험을 드는 것도 생각을 해봐야겠다. 하단에는 나에게 맞는 추천 보험 목록도 나온다.신한은행 마이데이터 서비스 '머니버스'에선 은퇴할 때까지 모아야 하는 자금과 적정 보험료 수준을 알려준다(신한은행 애플리케이션 캡쳐)© 뉴스1'데이터픽'에선 신한은행 마이데이터 서비스 이용자들의 데이터 분석 결과를 알려준다. 'MZ세대(밀레니얼과 Z세대의 합성어)가 선호하는 국내주식 상위 5개'나 '주택담보대출 문의가 많은 아파트 상위 5개' 등이다. 실제 MZ세대가 선호하는 주식 5개중 3개를 보유하고 있긴 하다. 생각난 김에 수익률을 확인해보니 갑자기 눈물이….핀테크 플랫폼 '핀크'는 보유한 암호화폐의 수익률을 실시간으로 보여주는 기능을 선보였다. 가상자산과 보유 수량을 등록하면 실시간 시세를 반영해 수익률을 보여준다. 일일이 보유한 암호화폐를 등록해야 하지만 이렇게 가상자산도 자산 범위에 넣어서 관리하도록 하는 서비스를 만든 건 핀크가 처음이다.핀크의 마이데이터 서비스 실행화면. 보유한 암호화폐와 수량을 등록하면 실시간 수익률을 알려준다.(핀크 애플리케이션 캡쳐)© 뉴스1불편한 점도 있었다. 금융회사별로 정보를 등록할 수 있는 금융회사가 조금씩 달라 보유한 자산을 완벽하게 관리할 수 없었다. 자산 조회를 하려면 데이터를 주는 금융회사와 받는 금융회사 모두 전산적으로 준비가 돼있어야 하는데, 아직 시스템 구축이 완벽하지 않은 것이다. 모든 은행이 연동될 때까진 다소 시간이 걸릴 것으로 전망된다. 금융사별로 킬러콘텐츠가 아직 부족하다는 점도 아쉬운 대목이다.SC제일·광주·대구·전북은행, 미래에셋, 우리카드, KB캐피탈, 나이스평가정보, 쿠콘, 카카오페이, 토스, 네이버파이낸셜, NHN페이코, 보맵, 팀윙크, 민앤지, SK플래닛, 뱅큐, 핀다, 해빗팩토리 등 20개사는 12월 중순 중 순차적으로 마이데이터 시범 서비스에 참여할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2021.12.14.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>방역패스 단속 첫날부터 인증시스템 '먹통'…불만 폭주</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/437/0000283473?sid=102</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>[앵커]방역패스 단속과 과태료 부과 첫날인 어제(13일) 하루 종일 전자예방접종증명서 COOV 앱에 오류가 발생했습니다. 접속 장애로 혼선이 빚어졌고 QR코드가 먹통이 되면서 불만이 폭주했습니다. 시스템 과부하를 막지 못한 질병관리청은 결국 죄송하다며 사과했고 일단 어제 하루 방역패스 위반 사례에 대해서는 과태료를 부과하지 않겠다고 밝혔습니다. 하지만 시스템 개선 작업을 긴급하게 진행 중이라며 "방역패스 시행 자체가 중단되는 것은 아니라"고 강조했습니다. 일주일간의 계도기간이 있었지만, 과태료 부과 첫 시행일이 되자마자 벌어진 혼란이었습니다. 시민들은 이 방역패스로도 또 한번 불편을 겪어내야 했습니다.박상욱 기자입니다.[기자]점심 식사를 하러 나온 직장인들이 긴 줄을 서서 기다립니다.방역패스 단속 첫날, QR코드를 찍고 백신 접종 인증을 받으려는데 인증 창은 좀처럼 열리지 않습니다.식당이나 카페 같은 방역패스 의무 도입 시설은 출입명부에 손으로 개인정보를 적을 수도 없습니다.자리에 앉아 기다리더라도 끝내 QR코드는 나오지 않고, 결국 안심콜로 출입명부를 쓸 수밖에 없었습니다.[음식점 직원 : (손님을 먼저) 테이블에 앉혀 놨다가, 손님한테 계속 서 있으라고 할 수 없으니까…앉아서 (인증을) 해드리긴 했죠.]문제는 백신 접종 확인입니다.점심무렵이 지나면서 뒤늦게 QR코드는 나왔지만, 백신 접종 정보는 여전히 확인이 어려웠습니다.방역조치를 위반하면, 식당 이용자는 10만원의 과태료에, 업주는 첫 위반시 과태료 150만원에 운영중단 10일의 처분을 받게 됩니다.QR 인증이 먹통이 됐다고 해서 무턱대고 확인을 생략하고 영업할 수도 없는 상황입니다.[신용식/음식점 사장 : 접속이 안 돼서 못 보여주는 거니까 손님 입장에서도 짜증이 나고…][박사도/손님 : (QR코드 뜰 때까지) 5분 이상 걸렸던 것 같아요. 그것도 계속 앱을 실행했다 껐다 해서…]혼란은 오전 11시 40분 무렵부터 전자예방접종증명서, COOV 서버에 접속자가 몰리면서 빚어졌습니다.결국 네이버와 카카오, 토스, 패스 등 접종 증명을 할 수 있는 앱 대부분도 먹통이 됐습니다.계도 기간은 무색했습니다.한 주간의 테스트 시간이 있었는데도 실제 도입 첫날부터 문제를 피하지 못한 겁니다.질병관리청은 "전자출입명부나 COOV 앱 이용에 불편을 끼쳐드려 사과드린다"고 밝혔습니다.또 "재발방지 대책을 마련하겠다"고 했지만, 대책은 아직입니다.또다시 인증 먹통이 반복될 수도 있습니다.스마트폰 앱을 중심으로 한 인증 시스템 자체가 장년층 이상에겐 장벽과도 같다는 지적도 나옵니다.[음식점 관계자 : 나이 드신 분들은, 컴퓨터 세대도 아닌 60대 이상 사람들은 (어떡합니까.) 젊은 분들도 이렇게 헤매는데.]갑작스러운 상황에서 새로 본인인증을 하거나 앱을 껐다 켜는 등의 과정이 더 어려울 수밖에 없습니다.(영상디자인 : 이정회 / 영상그래픽 : 김지혜)</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2021.12.13.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>"백신 QR 안 돼요"…백신패스 시행 첫날, 점심시간 혼란</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004893033?sid=102</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>식당·카페 등에서 `방역패스`(백신패스) 미확인 시 이용자와 운영자에게 과태료가 부과되기 시작한 13일 오후 서울 중구의 한 패스트푸드 상점에서 손님이 백신패스가 담긴 QR코드를 기기에 찍고 있다. [사진 = 연합뉴스] 코로나19 방역패스 의무화 시행 첫날인 13일 점심시간 한 때 백신접종·음성확인을 증명하는 QR코드 전자증명 시스템에 접속 오류가 발생해 시민들이 불편을 호소하는 목소리가 이어졌다.이날 전국 곳곳에서는 낮 11시 40분쯤부터 질병관리청 쿠브(COOV·전자예방접종증명서) 애플리케이션(앱)에 접속이 되지 않는다는 신고 사례가 이어졌다.뿐만 아니라 네이버·카카오·토스 등 백신접종을 확인할 수 있는 다른 앱에서도 전자증명 시스템이 켜지지 않아 점심시간 식당과 카페를 찾은 시민들은 혼란을 겪었다.이와 관련해 질병관리청 관계자는 "언제부터 시스템 오류가 발생한 건지 확인 중"이라며 "(네이버와 카카오 등) 관계 기관들하고 함께 원인을 파악하고 있다"고 설명했다.한편, 이날부터 식당과 카페, 도서관, 학원 등의 다중이용시설을 이용하기 위해서는 QR체크와 더불어 백신 접종 완료 증명서나 유전자증폭(PCR) 음성 확인서 등의 확인이 필요하다. 방역패스를 확인받지 않고 식당, 카페 등에 입장한 이용자는 10만원의 과태료를 물어야 한다.또한 접종증명서나 유전자증폭(PCR) 검사 음성확인서 등을 확인하지 않고 이용자를 입장시킨 방역패스 적용 업소의 운영자는 150만원의 과태료와 함께 10일 영업정지 처분을 받는다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2021.12.02.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>[소프트웨이브 2021]한소협 등 공동관, 강소 SW 기업 한자리에</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002985632?sid=105</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>소프트웨어(SW)산업 동향을 조망하는 국내 최대 SW 전시회 소프트웨이브 2021이 2일 서울 강남구 코엑스에서 열렸다. 한국SW산업협회 공동관이 참관객으로 북적이고 있다. 이동근기자 foto@etnews.com한국소프트웨어산업협회와 한국상용소프트웨어산업협회, 한국지식재산서비스협회 공동관에는 총 34개 기업이 참가했다.보안, 메시지 관리, 영상편집, 클라우드, 빅데이터 등 기업용(B2B)와 개인용(B2C)을 아우르는 제품과 서비스는 물론, 정부 아이디어 사업화 지원 과제에 참여했던 독창성 있는 아이디어 제품이 공개됐다.◇한국SW산업협회 14개 회원사 참여, 내년엔 더 늘린다한국SW산업협회 공동관에는 14개 회원사가 참여했다. 지난해보다 2배 늘었다. 내년에는 더 늘릴 방침이다.유라클은 메시지 제작과 발송, 뷰어, 열람, 확인 등 한 번에 처리하는 메시지 마케팅 올인원 플랫폼 '모피어스 푸시'로 눈길을 끌었다.모피어스 푸시는 문자, 카카오톡, 리치 커뮤니케이션 스위트(RCS) 등 많은 채널을 통해 따로따로 발송되는 기업 메시지를 관리하는 플랫폼이다. 동일 내용이 여러 채널로 발송되는 메시지를 가장 저렴한 채널로 먼저 보내고 도달을 확인하는 식으로 관리한다.기업은 중복 발송을 줄여 비용을 절감하고 메시지 수신자는 동일 메시지를 여러 채널로 수신하는 불편함을 줄일 수 있다.유라클 관계자는 “기존 방식 대비 최대 80% 비용을 절감할 수 있다”고 설명했다.센스톤이 선보인 OTAC(One-Time Authentication Code)는 1회용 사용자 1차인증 코드다. 보완 수단(2차 인증)으로 사용하는 OTP와 달리 사용자 식별이 가능해 1차 인증에 사용할 수 있다. 코드가 유출돼도 재사용이 불가능하다. 글로벌 특허를 받은 것도 이 같은 기술력 덕분이다.국내 토스뱅크 인증에 사용되며 군 밀리패스에도 적용될 예정이다. 이달 일부 부대에서 시범사업이 시작된다. 군 장병 휴가, 외출 등 인증이 필요한 곳에 폭넓게 활용될 예정이다.김운동 센스톤 이사는 “OTAC는 국내뿐만 아니라 영국 카드사, 유로패스 등 글로벌 시장에서 주목을 받는 서비스”라고 말했다.곰 플레이어로 잘 알려진 곰앤컴퍼니는 올해 출시한 영상편집 프로그램 '곰 믹스 맥스'를 선보였다. 고도화된 편집 툴로 풍부한 영상 제작이 가능한 전문가용 영상편집 프로그램이다.이 외에도 초보자를 위한 '콤 믹스 프로', 녹화 솔루션 '곰 캠', 동영상 플레이어 '곰 플레이어 플러스'도 주목을 받았다.◇한국상용SW산업협회 공동관, 기업·공공기관 디지털 전환에 방점한국상용SW협회관에는 인프라닉스, 데이터스트림즈 등 국산 상용SW 기업 7곳이 참여했다.멀티 클라우드 관리서비스 제공사(MSP) 인프라닉스는 가상화 전산실 플랫폼 'ICT 웍스'를 소개했다. 클라우드 전환과 컨설팅. 관리 등 3단계 맞춤형 멀티 클라우드 서비스를 지원한다. 공공영역에서는 KT, 네이버, NHN, 가비아, 삼성SDS 클라우드 컨설팅을 제공한다.서비스형 소프트웨어(SaaS) 'M-콘솔'로 클라우드 인프라 통합관리도 지원한다.인프라닉스 관계자는 “M-콘솔은 클라우드 인프라 현황 모니터링과 리소스 관리는 물론 인프라 구성정보를 자유롭게 표현하는 인프라 맵, 컨테이너 기반 서비스형 플랫폼(PaaS) 통합관리를 지원한다”고 말했다.데이터스트림즈는 빅데이터 플랫폼 '테라원'을 소개했다. 테라원은 정형·비정형 실시간 사물인터넷(IoT) 데이터 등 다양한 형태 데이터와 기준정보관리, 데이터 표준화, 품질관리, 흐름 관리 등 각 기능을 통합한 원스톱 빅데이터 플랫폼이다.빅데이터 기반 데이터 가상화 솔루션 '테라원 수퍼 쿼리'도 소개했다. 수퍼 쿼리는 이기종 데이터베이스관리시스템(DBMS) 가상화와 데이터 통합 자동화, 다양한 분석 환경 지원, 고속 SQL 기능 지원, 빅데이터 연계 등을 지원한다.이외에도 비아이매트릭스가 코딩자동화기술 기반 통합 사용자환경(UI) 개발 플랫폼, H2O시스템테크놀로지가 실시간 메시지 처리 미들웨어 'TiTAN', 크리니티가 공공기관 전용 SaaS 클라우드 메일 서비스, 피씨엔이 빅데이터 관리 솔루션 등을 전시했다.◇한국지식재산서비스협회, 미래 SW 혁신기업 출전한국지식재산서비스협회 공동관에는 향후 국내 SW 산업을 이끌 스타트업이 자리했다.비센스바움은 온라인 원격 평가과정에서 나올 수 있는 부정행위를 방지하는 솔루션을 개발하고 있다. 카메라를 이용해 신분증 영상 이미지와 수험자의 얼굴 이미지를 추출해 신분을 확인한다. 눈 영역 이미지를 추출해 시선 추적이 가능하다.서주원 비센스바움 수석연구원은 “실시간 영상에서 스켈레톤(인체관절뼈대) 추출을 위한 객체 인식 알고리즘을 개발했다”며 “수험자 영상에서 객체 이동형태를 추출하고 알고리즘을 통해 정상이나 부정 행위를 판별한다”고 말했다.이모션웨이브는 AI 음악 플랫폼 '리마AI'를 선보였다. 리마AI를 이용해 작곡 지식이 없어도 사용자 요구사항에 맞춰 AI가 직접 음악을 만든 뒤 실제 인간처럼 연주하는 악기 자동연주 시스템으로 녹음, 디지털 음원으로 발매할 수 있다.우디는 외화관리 생활금융 서비스 '버디코인'으로 눈길을 끌었다. 모바일앱과 비대면 키오스크 기반 온·오프라인을 연계계했다. 환전과 국내외 소액 동전·지폐 적립, 적립된 포인트를 통한 디지털 상품 구매, 기부, 투자, 보험 가입 등에 활용하는 서비스를 제공한다.한국지식재산보호원에 서비스 특허도 출원했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2021.12.15.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>고승범 위원장 "빅테크 금융업 진출 '동일기능·동일규제' 원칙으로 감독" 강조</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000037307?sid=105</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>고승범 금융위원장 (사진=금융위원회)최근 금융권과 핀테크 업계에서 이견을 보이고 있는 '동일기능·동일규제' 원칙에 대해 고승범 금융위원장은 해당 원칙 안에서 소비자보호 원칙이 지켜지는 가운데 빅테크 기업의 금융업 진출이 이뤄지도록 하겠다고 재차 강조했다. 다만 네트워크 효과, 락인(Lock in) 효과 등이 커짐에 따라 나타날 수 있는 데이터 독점, 편향적 서비스 제공 등에 대해서는 영업행위 규제 등으로 감독하겠다는 방안이다.15일 금융당국 등에 따르면 금융위원회는 이날 금융플랫폼 기업, 금융회사, 유관기관 등과 금융플랫폼 혁신 활성화를 위한 현장의견 수렴 자리를 마련했다. 금융플랫폼 기업에서는 네이버파이낸셜, 카카오페이, 비바리퍼블리카(토스), 뱅크샐러드 등이 참석했다. 또 기존 금융회사에서는 KB금융지주, NH농협금융지주, 신한은행, 우리은행, 한화생명, 현대카드 등에서 참석했다.고승범 위원장은 "최근 금융은 여러 금융서비스가 플랫폼을 통해 개인의 다양한 실생활과 연결돼 디지털 공간에서 제공되는 형태로 변모하고 있다"면서 "금융의 디지털 전환을 위한 방안은 더 넓고 보다 높아진 운동장에서 경쟁하고 성장하는 환경을 조성하는 것이 필요하다"고 강조했다.금융권과 핀테크 기업들은 마이데이터 제공정보 확대 등 데이터 활용도 제고와 신기술 발달·적용을 고려한 접근매체·망분리 등 규제 개선 등을 당국에 건의했다. 특히 금융권에서는 빅테크 기업의 금융플랫폼 규제 환경 조성을 촉구하고 나섰다. 빅테크 기업과 '동일기능·동일규제' 원칙 하에 규제를 동일하게 제공해달라는 입장을 피력한 것이다. 금융권 일각에서는 빅테크 기업의 금융업 진출은 규제 회색지대가 존재해 '기울어진 운동장'에서의 경쟁이라는 지적이 나오고 있다. 이에 대해 고 위원장은 '동일기능·동일규제'와 소비자보호 원칙에 대해 강조하면서도 "기존 금융회사들의 디지털 금융 전환을 지원하기 위해 정보공유, 업무위수탁, 부수·겸영업무, 핀테크 기업과 제휴, '슈퍼 원-앱 전략' 등 이슈에 대해 합리적인 대안을 모색해 나가겠다"고 밝혔다.당국은 데이터, 신기술, 플랫폼, 디지털보안, 디지털자산 등 5대 핵심분야를 중심으로 '디지털 혁신금융 발전전략'을 수립한다는 계획이다.특히 핀테크 업계에서 촉구한 '망분리 규제'에 대해서는 "현행 망분리 규제는 금융보안에 관한 대원칙을 유지하되, 업무 성격, 개인정보 취급 여부 등을 고려하여 규제 합리화 방안을 모색하겠다"면서 "클라우드 서비스 이용 확대에 맞추어 전문기관 심사를 강화하고, 사후보고 등 보고절차는 단순화하겠다"고 언급했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2021.12.14.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>토스, '토스머니' 접는다…'토스머니 카드'도 올해말 종료</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005782008?sid=101</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>"인위적인 종료 시점 미정…토스뱅크 통장 혜택이 더 많아"토스가 '토스머니' 서비스를 순차적으로 중단한다. 현재 토스머니 잔액이 남아있던 고객은 토스머니를 확인할 수 있지만, 잔액이 없는 고객은 앱에서 토스머니 메뉴가 사라진 상태다. © 뉴스1(서울=뉴스1) 민선희 기자,서상혁 기자 = 금융플랫폼 '토스'가 자체 선불충전금 서비스인 '토스머니'를 순차적으로 중단한다.토스가 토스머니 사업을 순차적으로 중단하는 것은 토스뱅크 출범과 맞닿아 있다. 토스앱 내에서 토스뱅크 예금계좌를 만들고 이용할 수 있는 만큼, 사실상 같은 기능을 제공하는 선불충전금 서비스를 계속 유지할 유인이 떨어지기 때문이다. 14일 토스에 따르면 '토스머니' 서비스는 토스머니 잔액이 남아있는 고객에 한해서만 운영되고 있다. 잔액이 없는 고객은 현재 토스 앱에서 토스머니 탭을 볼 수 없는 상태다.  토스는 토스머니 캐시백 혜택을 주력으로 하던 '토스머니 카드' 서비스도 올해 말부로 종료한다. 토스머니 카드의 신규 발급은 올해 초 중단됐으며, 혜택도 축소됐다. 토스 관계자는 "토스머니 서비스를 운영해보니 선불충전금 잔액을 유지하기보다, 주거래계좌로 이체하는 고객들이 많았다"면서 "선불충전금과 달리 예금자 보호도 되고, 이자도 받을 수 있는 금융사 계좌가 고객에게 더 많은 혜택을 줄 수 있다고 판단했다"고 설명했다. 이어 "토스머니의 인위적인 종료 시점은 미정"이라고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2021.12.09.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>1800억 스타벅스 충전금, 쓰는건 업체 마음대로?…방지법 발의</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000641378?sid=101</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>홍성국 의원, 선불충전금 외부신탁과 운용내역 공개 의무화하는 '전자상거래법 개정안' 대표발의1천800억원에 달하는 스타벅스 선불충전금 등 프랜차이즈 카페의 선불충전금 규모가 2천억원에 달하지만, 이 선불금을 카페업체가 마음대로 써도 막을 법적 근거가 없었다. 이처럼 그 동안 법의 사각지대에 있던 카페 선불충전금을 안전하게 보호하고 투명성을 확보해 '제2의 머지사태'를 예방하는 법안이 발의됐다.스타벅스 커피[사진=스타벅스커피 코리아]국회 정무위 소속 홍성국 더불어민주당 의원이 프랜차이즈 카페 등 사업자가 선불충전금의 일정비율을 외부에 신탁하고 운용내역을 공개하도록 하는 '전자상거래법 일부개정법률안'을 9일 대표발의 했다.최근 불거진 '머지사태'로 소비자의 선불충전금 보호에 대한 여러 대책이 나오고 있지만 이는 전자금융거래법의 규율을 받는 사업자만이 대상일 뿐, 전자금융업자로 분류되지 않는 사업자는 해당사항이 없다. 대형 프랜차이즈 카페업체가 대표적인 사례다.문제는 이들 업체의 선불충전금 규모다. ▲스타벅스 사이렌오더의 선불충전금이 1천801억원으로 가장 많고 ▲커피빈의 퍼플오더가 83억원 ▲이디야커피의 이디야오더가 33억원 ▲할리스커피의 할리스오더가 28억원 ▲투썸플레이스의 투썸하트가 25억원 ▲탐앤탐스의 마이탐이 17억원을 기록하는 등 유명 커피 프랜차이즈 6개 업체의 선불충전금의 규모는 총 2천억원에 달한다.홍 의원은 "네이버 파이낸셜 1천264억, 토스 1천301억 등 대형 전자금융업자들에게 예치된 금액을 넘어서는 수준으로, 자칫하면 제2의 머지사태가 우려된다"고 말했다.국내 카페 사업자들의 선불충전금 [사진=홍성국의원실]이에 개정안에는 유명 카페업체와 같은 사업자도 선불충전금의 일정비율을 외부에 신탁해 안전자산으로만 운용하게 하고 운용내역을 소비자에게 공개해야한다는 내용이 포함됐다.홍 의원은 "간편결제·선불충전 시장의 규모가 점점 커지는만큼 규제 사각지대에 놓인 선불충전금 보호가 시급하다"며 "급변하는 미래 전자상거래 환경에 미리 대응해 소비자 피해를 막고 권익을 두텁게 보호하겠다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2021.12.02.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>은행권 "전업주의 '족쇄' 해방돼야…은행업만으로 경쟁력 유지 못해"</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000640083?sid=101</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>금융·비금융간 경계가 흐릿해지는 빅블러현상 심화은행권이 엄격한 전업주의 족쇄가 풀려야 한다는 목소리가 커지고 있다. 빅테크의 등장으로 금융업권 경쟁이 치열해지면서 은행업만으로는 경쟁력을 유지하는 데 한계가 있단 지적이다.2일 은행연합회 주관으로 열린 '디지털 시대의 금융 겸업주의 세미나'에서 전문가들은 이같이 제언했다.우리나라 금융산업은 은행증권보험 등으로 구분하는 전업주의 규제를 채택하고 있다. '전업주의'란 여러 종류의 금융기관이 각각 자신의 전문 금융업무 만을 수행하고 다른 금융 업무의 참여를 제한하는 제도다. 반대로 '겸업주의'란 은행고유 업무인 예금과 대출 외에도 증권, 보험, 투자은행 업무까지 참여해 종합적인 금융서비스를 제공하는 방식이다.2일 은행연합회에서 '디지털 시대의 금융 겸업주의' 세미나가 진행되고 있다. [사진=박은경 기자]◆ "전업주의가 소비자 불만족 키워…빅블러 시대, 무의미한 규제" 국내 시장은 2001년 금융지주회사 제도를 도입해 일정수준의 겸업화 성과를 달성했지만 겸업주의 고도화를 제약하는 규제는 여전하다는 지적이 지배적이다. 특히 전업주의 규제는 은행권에 더 강하게 적용되고 있다.반면 증권 등 비은행 기관서는 은행업과 유사한 기능이 등장하고 있다. 증권사의 종합자산관리계좌(CMA) 및 빅테크의 선불충전금을 통한 유사수신 기능 등이다. 때문에 은행권에선 전업주의만으로 경쟁력 유지에 한계가 있다는 입장이다.전업주의 규제가 금융소비자들의 만족도를 채우지 못하고 있다는 지적도 따른다. 카카오페이가 실시한 주요 소비생활 분야별 만족도 조사에 따르면 금융서비스에 대한 소비자들의 만족도는 67.9점으로 최하위를 기록했다.업계에선 이같은 소비자의 불만족의 이유로 은행은 은행거래만 가능하도록 하는 전업주의 규제가 비금융과 결합된 서비스를 요구하는 소비자의 욕구를 따라가지 못하도록 제한하고 있기 때문이라고 설명했다.이미 카카오와 토스 등 빅테크 등이 생활서비스와 금융을 연계한 생활금융서비스를 선보이는 등 통합 금융플랫폼 중심으로 금융시장이 재편되고 있는 시점에서 전업주의 규제는 무의미하다는 지적이다.여은정 중앙대학교 경영학부 교수는 "디지털 화 및 규제완화로 금융와 비금융간 경계가 흐릿해지는 빅블러현상이 심화되는 가운데 은행의 금융상품 판매기능 상당부분이 빅테크로 대체될 가능성이 있다"면서 "금융권도 플랫폼을 활용해 핵심역량을 확장할 수 있도록 진입장벽을 완화해야 한다"고 제언했다.◆ "지배구조는 같은데 규제 달라…동일산업, 동일규제 원칙 위배"금융권에서도 금융사와 플랫폼 기업은 지배구조 측면에서는 동일하다 해도 영위할 수 있는 사업 범위가 수집 가능한 데이터에서 큰 차이가 발생해 '동일업무 동일규제' 원칙에 위배된다는 입장이다.이를 테면 카카오가 정점이 돼 금융자회사를 지배하듯 금융지주그룹도 금융지주사가 정점이 돼 금융계열사를 지배하고 있다는 구조는 같다. 하지만 사업범위에서 카카오는 비금융 사업을 자유롭게 영위할 수 있는 반면 금융지주사는 자회사를 지배할 뿐 어떤 사업도 영위할 수 없다. 자회사들도 금융 및 금융관련 업종만 영위할 수 있을 뿐이다. 금융지주사는 금융사로 전업규제 적용을 받고 있는 반면 플랫폼 기업은 전업규제의 지배를 받고 있지 않기 때문이다.때문에 금융업계에선 금융과 비금융 사업을 자유롭게 영위하며 다양한 데이터를 수집, 활용할 수 있도록 공정경쟁 환경을 조성해야 한다고 목소리를 높였다.박성현 신한금융지주 부사장은 "빅테크와의 공정한 경쟁을 위해서도, 동일업무 동일규제의 원칙에 입각해 금융지주그룹 내 원활하게 데이터를 공유할 수 있는 정책적 환경조성이 필요하다"고 전했다.금융시장서도 빅테크와 금융회사의 시장 가치는 크게 벌어진 상태다. 네이버와 카카오의 기업가치는 각각 65조4천억원, 54조5천억원인데 KB금융그룹과 신한금융그룹의 가치는 각각 23조2천억원, 20조1천억원을 기록하고 있다.향후 빅테크와 금융회사 간 경쟁구도는 시장 여건에 따라 심화될 전망인 만큼 규제 불균형을 해소해야 한다는 목소리도 커지고 있다.정중호 하나금융경영연구소장은 "제조와 판매 분리현상이 확산되는 가운데 빅테크와 금융사는 고객접점을 둘러싼 경쟁과 협력을 추진하며 금융서비스 가치사슬 경쟁구조가 진화해 나갈 것"이라고 내다봤다.하지만 "기존 금융회사와 빅테크 간 규제 불균형 역차별 이슈는 여전히 존재한다"면서 "지속적 디지털혁신을 위해 이런 문제는 개선될 필요가 있다"고 덧붙였다.김광수 은행연합회장은 "빅테크들은 기존 금융사보다 더 높은 평가를 받고 있는 현실인 반면 금융업은 전업주의 원칙으로 종합서비스 제공에 한계가 있다"면서 "금융과 비금융의 융합서비스 출시를 위해 규제 완화가 필요하다"고 당부했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2021.12.03.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>서로 다른 마이데이터 전략 ... 문 여는 카드사, 벽 치는 은행</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004678622?sid=101</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>신한은행의 마이데이터 서비스 '머니버스'/사진제공=신한은행마이데이터(본인신용정보관리업) 서비스를 선보인 카드사와 은행이 '플랫폼 개방'을 두고 서로 다른 전략을 취하고 있다. 카드사는 카카오페이, 토스 등 빅테크와 플랫폼 경쟁을 하기 위해 이들처럼 타사 금융상품까지 소개하며 빗장을 열었다. 반면 은행은 플랫폼 경쟁을 한다는 목표는 같지만, 고객 이탈 우려 등으로 잠긴 문을 풀지 않았다.2일 금융업계에 따르면 BC카드는 마이데이터 사업을 시작하며 자사 앱 페이북에 대출중개 기능을 추가했다. 자사 카드론뿐 아니라 시중은행과 다른 2금융권의 대출 상품까지 고객에게 소개하는 것이다. 앞서 신한카드는 지난 10월 마이데이터 시대를 앞두고 자사 앱 신한페이판을 신한플레이로 개편하면서 대출중개를 시작했다. 고객이 대출 항목에서 자신의 개인정보를 입력하면 여러 금융사 대출 상품의 한도와 금리를 한눈에 확인할 수 있다. 12월 중 마이데이터 서비스를 시작할 하나카드도 대출중개 기능을 함께 선보인다.카드사는 빅테크와 플랫폼 경쟁에서 이기기 위해 앱을 개방하는 전략을 택했다. 자사 카드론과 현금서비스가 있음에도, 다른 금융사의 대출 상품까지 자사 앱에서 선택할 수 있도록 했다. 카드업계 한 관계자는 "자사 상품뿐 아니라 다양한 상품을 고객에 제시할 수 있어야 플랫폼 경쟁력이 높아질 것이란 판단에 따른 것"이라고 했다. 하나의 앱에서 모든 금융상품을 조회하고 가입할 수 있다면, 고객은 특정 앱에만 머물 가능성이 높다는  것이다. 여신전문금융업법에 따라 카드사는 별도의 라이선스를 획득하지 않아도 대출중개업을 할 수 있었지만, 그동안에는 필요성을 느끼지 못해 이 사업을 하지 않았다.  카드사들은 현재 10곳 남짓한 금융사들과 대출 제휴를 맺었는데, 제휴 규모를 더욱 확대할 계획이다. 카드사는 플랫폼 개방에 더욱 박차를 가한다. 최근에는 카드사 페이앱의 호환등록을 위한 규격 개발 사업을 완료했다. 이르면 내년부터는 신한페이판에서 KB국민카드를 등록해 이용할 수 있고, KB페이앱에서 우리카드로 결제가 가능하게 된다.이는 아직까지 타 금융사 상품을 자사 앱에서 취급하지 않는 은행업권과 대조되는 전략이다. 신한은행의 머니버스에서 타 금융사의 예·적금과 대출 상품을 볼 수는 있지만, 고객별로 한도와 금리 수준은 알 수 없다. 머니버스 앱 내에서 타사 상품을 가입할 수도 없다. 상품의 존재만 확인 가능한 수준이다. 다른 시중은행의 경우 아예 타행의 예·적금, 대출 상품을 다루지 않는다. 시중 은행 관계자는 "마이데이터 시대에 플랫폼 경쟁력이 중요한 건 맞지만, 무조건 많은 상품만 취급한다고 경쟁력이 올라가는 것은 아니다"라며 "특히 시중은행은 은행별 상품의 수준 차이가 크지 않아 굳이 제휴를 할 필요를 느끼지 못한다"고 말했다. 이어 그는 "무리한 제휴 확대를 통해 오히려 고객을 타사에 뺏길 가능성만 높아질 수 있다"고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2021.12.13.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>'방역패스' 확대 시행 첫날, QR코드 먹통 혼란</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/214/0001165662?sid=102</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>[온라인 커뮤니티 '엠엘비파크' 캡처]식당·카페 등에서 '방역패스'를 위반하면 이용자와 운영자에게 과태료가 부과되기 시작한 첫날, 백신접종·음성확인을 증명하는 QR코드 시스템에 오류가 발생해 시민들이 큰 불편을 겪었습니다. 오늘 오전 11시 40분쯤부터 질병관리청 쿠브(COOV·전자예방접종증명서) 애플리케이션에 접속이 되지 않는다는 신고 사례가 전국 곳곳에서 속출했습니다. 네이버·카카오·토스 등 백신접종을 확인할 수 있는 다른 앱에서도 한때 QR코드가 원활히 생성되지 않았습니다. 이 때문에 점심식사를 하러 식당에 입장하려던 시민들이 혼란을 겪었습니다. 온라인 커뮤니티 등에는 "점심 먹으러 왔는데 발을 못 들여놓고 있다", "서버가 터졌나, 첫날부터 마비라니" 등의 글이 잇따랐습니다. 현재 방역패스 의무 적용시설에서는 수기명부 사용이 원칙적으로 금지돼 있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2021.12.06.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>국민 4명 중 1명은 `신파일러(Thin Filer)`…"대출이력 없어도 OK"</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001001709?sid=101</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>&lt;앵커&gt;최근 기존 금융권, 빅테크 할 것 없이 금융이력이 부족한 신파일러 확보에 적극 나서고 있다는 데요.먼저 전민정 기자가 신파일러가 무엇인지, 또 금융권이 새로운 고객층으로 주목하게 된 배경에 대해 먼저 짚어보겠습니다.&lt;기자&gt;`신 파일러(Thin Filer)`라고 들어보셨나요.용어 그대로 해석해보자면 `얇은 서류뭉치`죠. 즉 신용카드 사용 내역, 대출 실적과 같은 금융 거래가 거의 없어 관련 서류가 얇은 금융 고객을 뜻합니다.주로 사회초년생과 주부, 노인 등이 여기에 해당되는데요.이들은 신용카드 발급이나 대출에 제약이 있어 금융권이 관심이 없을 듯도 한데, 최근 은행 등 기존 금융사들은 물론, 빅테크의 새로운 고객층으로 급부상하고 있다고 합니다. 왜일까요.바로 핀테크 기술 고도화로 대출이나 카드실적 없이도 신용도를 측정할 수 있게 됐기 때문입니다.나이스평가정보는 최근 2년간 신용카드 사용실적이 없고, 3년 동안 대출이 없는 이들을 금융이력 부족자로 분류하고 있는데,올해 상반기 금융이력 부족자로 분류된 이들은 1,280만명으로, 신용등급을 매길 수 있는 국민 4,730만여명 중 4분의 1이 넘습니다.다시 말해, 국민 4명 중 1명은 신파일러라 할 수 있죠.이들은 신용등급을 줄 근거가 없기에 통상 중간 수준 신용등급인 4·5등급(신용점수 700~800점)을 부여받습니다.잇따른 대출규제로 고신용자 대출 시장이 사실상 포화상태에 이르렀고 금융당국은 중·저신용자 대출은 고강도 가계대출 총량 규제에서 제외하는 방안을 검토하겠다고 했죠.이 점도 금융권이 중신용자에 해당되는 신파일러 고객층 잡기에 열을 올리는 배경 중 하나입니다.특히 디지털 경제 확산에 따라 배달라이더와 같은 긱워커가 늘어나면서 시중은행들은 고객 설문과 급여 데이터 분석을 통해 재직·소득 확인이 어려웠던 단기·비정규직 고객들을 대상으로 신용대출 상품을 잇따라 내놓고 있습니다.또 인터넷은행들은 쇼핑, SNS, 결제정보 등을 활용해 중저신용자나 신파일러를 판단할 수 있는 빅데이터 확보에 사활을 걸고 있습니다.핀테크 기업들의 경우는 어떨까요. 네이버파이낸셜·토스·카카오페이 등은 신용이 낮은 사람들도 신용거래를 할 수 있는 `BNPL(Buy Now Pay Later)`, 선구매 후결제 서비스를 내세워 신파일러 고객 유치에 공을 들이고 있습니다.미국(어펌), 스웨덴(클라르나), 호주(에프터페이) 등 해외에선 결제 한도가 높고 분할 납부가 가능해 이미 BNPL 서비스가 활발하다고 합니다.금융사각지대에 놓인 숨은 고객 확보와 금융소외계층을 끌어안는 `포용금융` 실현. 이 두 마리 토끼를 잡을 수 있다면 신파일러 시장은 금융권의 블루오션이 될 수 있음은 분명해 보입니다.한국경제TV 전민정입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2021.12.15.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>"앗, 돈 잘못 보냈네"… 예보, 착오송금 12억 돌려줬다</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000764734?sid=101</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>실수로 잘못 송금한 돈을 돌려받을 수 있는 '착오송금 반환지원 제도'가 시행된지 5개월이 지난 가운데 약 12억원이 반환된 것으로 나타났다./사진=이미지투데이실수로 잘못 송금한 돈을 돌려받을 수 있는 '착오송금 반환지원 제도'가 시행된지 5개월이 지난 가운데 약 12억원이 반환된 것으로 나타났다. 15일 예금보험공사에 따르면 예보는 지난 7월6일부터 지난 11월 말까지 착오송금인으로부터 총 4284건(63억원)의 지원 신청을 받았다. 이중 1715건(25억원) 중 925건(12억원)이 송금인이게 반환됐으며 나머지 790건은 반환지원 절차가 진행 중이다. 나머지 2569건 중 624건은 반환 지원대상인지 심사가 진행 중이고 1945건은 지원 대상에 해당되지 않아 신청이 반려됐다.착오송금제도는 돈을 보낸 사람이 실수로 잘못 송금한 돈을 예보가 대신 찾아주는 서비스다. 지원대상 금액은 5만원 이상 1000만원 이하다. 은행 뿐 아니라 토스나 카카오페이, 네이버페이 같은 간편송금업자를 통해 잘못 보낸 돈도 반환지원 대상이다.지원 비대상 사례의 주된 이유는 ▲보이스피싱 등 범죄이용계좌(24.4%) ▲송금인의 신청 철회(21%) ▲압류 등 법적제한계좌(12.1%) ▲금융회사의 자체반환 절차 미이행(12%) 등으로 나타났다. 이들이 비대상(1945건) 중 69.5%를 차지했다.착오송금액 규모는 10만원 이상 50만원 미만이 1567건으로 전체의 36.6%를 차지하고 있으며 300만원 미만이 총 80%이상을 차지했다.현재까지 반환이 이뤄진 사례에서 신청일로부터 반환까지 걸리는 평균 기간은 40일로 나타났다.표=예보예보에 따르면 925건의 반환사례 중 912건은 자진반환, 나머지 13건은 법원을 통한 지급명령을 통해 이뤄졌다. 예보는 총 12억원의 착오송금액을 회수해 이중 회수과정에서 들어간 우편료, 지급명령 관련 인지대·송달료 등 비용을 뺀 11억6000만원을 주인에게 돌려줬다.착오송금 반환지원 제도는 수취 계좌가 ▲보이스피싱 등 사기범죄에 이용된 경우 ▲압류 등 강제집행 등이 있는 경우 ▲착오송금인이 송금 금융회사에 사전 반환신청을 하지 않은 경우 ▲수취인의 사망이나 파산절차가 진행중인 경우 등에 한해선 지원대상에서 제외하고 있다.예보 관계자는 "착오송금 반환지원 제도 시행으로 착오송금인이 개인적으로 소송을 통해 반환 받는 것에 비해 신속하고 편리하게 착오송금액을 반환 받을 수 있었다"며 "앞으로 착오송금 반환지원 신청 방법 뿐 아니라 지원 비대상 사례도 집중 안내할 예정"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2021.12.10.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>지앤넷 “주요 5개 EMR사, 실손보험빠른청구 서비스 본격”</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001923014?sid=105</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>실손보험빠른청구 서비스를 본격적으로 시행하는 5개 전자의무기록시스템(EMR)사 [지앤넷 제공][헤럴드경제=박세정 기자] 지앤넷은 비트컴퓨터를 비롯한 국내 주요 5개 전자의무기록시스템(EMR)사들이 이달부터 ‘실손보험빠른청구’ 서비스를 본격적으로 시행한다고 10일 밝혔다.‘비트컴퓨터’, ‘네오소프트’, ‘포인트닉스’, ‘메디칼소프트’, ‘클릭소프트’사는 자신들의 EMR솔루션을 사용하는 국내 약 1만1000여개 병·의원들을 대상으로 실손보험 청구 간소화 서비스를 안내한다. 신청을 원하는 병·의원들에 필요 서비스 모듈을 배포하는 방식으로 ‘실손보험 빠른청구’ 서비스 의료기관을 빠른 시간내 확대해 나갈 계획이다.지앤넷은 서류없는 보험금 청구인 ‘실손보험빠른청구’ 플랫폼을 운영하고 있다. 현재 4대 시중은행 및 지방은행, 하이웹넷, 토스, 보맵, 증권사 및 카드사를 비롯 35개 이상의 제휴사와 함께 출력물 없는 청구 간소화 서비스를 시행 중이다.데이터 연동이 되지 않는 기관 역시 PDF 파일 청구 및 구디인공지능(AI)인식을 통한 데이터화가 가능해 사실상 거의 모든 의료기관에서 ‘실손보험빠른청구’가 가능하다고 지앤넷 측은 설명했다.김동헌 지앤넷 대표이사는 “국내 주요 EMR사들의 참여로 ‘실손보험빠른청구’ 서비스 시행 의료기관들의 수가 금년 말 약 500여개, 그리고 내년에는 약 1만여개로 늘어날 것”이라며 “실손보험 가입자들이 쉽게 출력물 없는 보험금 간편 청구 서비스를 이용할 수 있게 될 것”이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2021.12.03.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>2년 만에 부활한 '타다' 직접 타보니…"카카오 질려서…"</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004678654?sid=105</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>타다 넥스트 / 사진=머니투데이DB지난달 30일 밤 10시 칼바람이 불던 서울 압구정파출소 인근 사거리. 도로 맞은 편에서 하얗고 커다란 차체가 신호등 앞에 멈춰 섰다. 대형 승합차 옆에 적힌 '타다'라는 검은 글씨는 오랜 기억 속에 묻혀 있던 타다의 모습과 일치했다.  차량에 탑승하니 익숙한 향기가 났다. 기사님은 상냥한 목소리로 "고객님, 안전하게 모시겠습니다"라고 인사를 건넸다. '타다 넥스트'라는 새로운 이름과 차체가 기아 카니발에서 현대 스타리아로 바뀐 것 빼고는 모든 것이 그대로였다. 금융 플랫폼 '토스'를 운영하는 비바리퍼블리카의 인수로 새롭게 태어난 타다가 지난달 26일부터 타다 넥스트의 시범 운행에 들어갔다. 최초 300대만 운행에 들어간 탓에, 사흘간 시도 끝에 어렵게 탑승을 할 수 있었다. '타다 넥스트'는 비바리퍼블리카가 타다를 인수한 이후 모빌리티 시장 공략을 위해 처음으로 뽑아든 칼이다. 렌터카를 기반으로 했던 기존 타다 베이직 서비스는 '타다금지법'(여객자동차 운수사업법 개정안) 통과로 지난해 4월 영업을 종료했다. ━냄새 없고, 안전 운전에 '타다의 추억' 물씬…"내리기 싫었다" ━타다 넥스트 / 사진=머니투데이DB약 20개월 만에 돌아온 타다의 첫인상은 합격점을 줄 만했다. 차량 자체가 크다 보니 기존 중형택시 가맹 서비스인 '타다 라이트'보다 여유롭고 쾌적했다. 깨끗한 차량 내부는 물론 급가속, 급정거가 없는 안정적인 운행이 이어졌다. 여느 택시에서 쉽게 들을 수 있는 기사님의 넋두리 대신 은은한 클래식 음악만 귀에 들려왔다.  평소 카카오모빌리티의 대형 택시 서비스인 '카카오 T 벤티'를 이용했을 때와는 다른 인상을 받았다. 택시기사의 태도와 차량 내부 관리, 서비스가 높은 수준에서 관리되고 있었다. 목적지에 차량이 도착하자 첫 탑승 고객을 위한 선물도 제공됐다. 수준 높은 승차 경험을 무기로 출시 1년도 이용자 170만명을 확보했던 타다 베이직의 유산이 그대로 남은 듯했다. 최근 타다 넥스트 시범 운행을 이용했다는 회사원 김모씨(29)는 "차량이 넓고 편해서 안 내리고 계속 타고 있고 싶을 정도였다"면서도 "차량을 더 늘려서 잘 잡히지 않는 불편이 해소되면 좋겠다"고 말했다. 타다는 고객이 만족할 경우 기사에게 1000원~5000원 사이에서 팁을 줄 수 있는 시스템도 제공하고 있다. 김씨는 1000원의 팁을 줬다고 전했다. 타다는 서울 지역을 중심으로 1000대까지 차량을 확대 운영한다는 계획으로 택시기사를 모집 중이다. 5년 이상 일반 택시를 무사고로 운전한 경력의 택시기사를 상대로 일시금 1000만원과 매월 50만원의 홍보비를 제공한다. ━몸 숙인 카카오에 타다, 우티 공격적 행보…"고객 만족시켜야" ━타다 넥스트 / 사진=머니투데이DB이날 타다를 운행한 기사 이모씨(59)는 카카오의 독점적 행태가 싫어 타다 기사를 신청했다고 설명했다. 이씨는 "택시를 25년 몰았는데, 최근 카카오가 배차로 장난질을 하는 게 지긋지긋해서 타다 기사 모집한다는 얘기를 듣자마자 넘어왔다"며 "과거 타다는 렌터카 기반이라 택시기사들은 싫어했지만, 고객에게 이미지가 좋다는 걸 알아서 해보고 싶었다"고 말했다. '플랫폼 갑질' 논란에 휩싸인 카카오모빌리티에 대한 택시 업계의 반발을 틈타 타다와 우티(UT)는 점유율 확대에 나선 상황이다. 우티는 지난달부터 탑승객에게 20% 요금 할인, 택시기사 운행 건당 3000원의 별도 금액을 지불하는 등 강력한 프로모션을 시행하고 있다.  한 모빌리티 업계 관계자는 "상생과 상장 준비에 한창인 카카오가 움추린 사이 당분간 경쟁이 심화할 것으로 본다"며 "당장 입지가 탄탄한 카카오의 영향력을 빼앗아 오기는 쉽지 않겠지만, 고객을 만족하게 하는 서비스를 보여준다면 어느 정도의 영역을 구축할 수 있을 것"이라고 말했다. 차두원 모빌리티연구소 소장은 "타다의 성공은 토스의 고객을 활용, 얼마나 빠르게 차량·기사를 확보하고 확장을 하는 지가 관건이 될 것"이라며 "카카오가 최근 기술에 집중하고 있어 모빌리티 핀테크를 표방하는 타다와 방향은 다르지만 결국 어느 시점에서는 만나게 될 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2021.12.03.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>토스뱅크, ‘이자 연 2%’ 파킹통장 1억 초과 금액은 제외하기로</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002570331?sid=101</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>대출중단에 경영부담 덜기 위한 조처토스뱅크 제공지난 10월 ‘하루만 맡겨도 연 2% 이자’를 지급하는 수시입출금 통장을 출시해 화제가 된 토스뱅크가 내년부터 1억원 초과 예금에는 0.1%의 낮은 금리를 적용하기로 했다. 가계대출 총량 규제로 대출 규모를 충분히 확대하지 못하게 되자 비용 절감에 나선 것으로 해석된다.토스뱅크는 3일 보도자료를 내어 “토스뱅크 통장이 내년부터 1억원 이하 예치금에는 기존 연 2% 금리(세전)를 적용하지만 1억원을 초과하는 금액은 변경된 금리인 연 0.1% 금리(세전)를 적용한다”고 발표했다. 고객이 1억1천만원을 토스뱅크 통장에 맡길 경우 1억원까지 연 2% 이자를 받지만 1억원을 초과하는 1천만원에는 연 0.1% 이자를 받는다. 이자 지급 방식은 그대로다. 고객이 맡긴 금액과 기간에 따라 매달 셋째주 토요일에 이자를 일할 계산해 지급한다. 지난 10월 출범한 토스뱅크는 올해 대출 한도 5천억원을 열흘 만에 소진하고 현재 대출 취급을 중단한 상태다. 내년에도 정부의 가계대출 관리 강화 기조가 이어져 대출 영업을 공격적으로 하기 어려운 상황이다. 이때문에 시중은행에 비해 파격적인 조건의 ‘연 2% 예금통장’이 경영상 부담으로 작용해 일부 고액 예치자의 예금이자를 축소한 것으로 풀이된다.토스뱅크는 “더 많은 고객에게 가장 좋은 혜택을 지속해서 제공하기 위한 방침”이라며 “약 99%에 달하는 고객은 기존과 변함없는 혜택을 누릴 수 있을 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2021.12.09.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>“카페 선불충전금 2000억원...운용내역 공개 의무화해야”</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002261685?sid=101</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>◆…사진=클립아트코리아     국내 카페 브랜드 6곳의 선불충전금이 2000억원에 달하는 것으로 나타났다. 조만간 카페 선불충전금을 안전하게 보호하고 투명성을 확보하기 위한 법적 장치가 마련될 것으로 보인다.   홍성국 더불어민주당 의원은 카페 선불충전금의 일정 비율을 외부에 신탁하고 운용내역을 공개하도록 하는 내용의 ‘전자상거래법 일부개정법률안’을 대표발의했다고 9일 밝혔다.   홍 의원 자료에 따르면, 지난해 감사보고서 기준 유명 커피 프랜차이즈 6개 업체(스타벅스·투썸플레이스·탐앤탐스·이디야커피·할리스커피·커피빈)의 스마트오더 선불충전금은 총 1987억원 수준으로 네이버파이낸셜(1264억원), 토스(1301억원) 등 대형 전자금융업자 예치금을 넘어섰다.   업체별로 보면, 스타벅스가 1801억원으로 가장 많았다. 커피빈(83억원), 이디야커피(33억원), 할리스커피(28억원), 투썸플레이스(25억원), 탐앤탐스(17억원) 순으로 뒤를 이었다.    ◆…자료=홍성국의원실     그러나 카페 스마트오더는 전자금융거래법이 아닌 전자상거래법에 따르기 때문에 충전금 외부예치·운용내역 공개의 의무가 없는 상황이다. 또 다수의 카페 프랜차이즈(이디야, 커피빈, 폴바셋, 할리스, 공차 등)는 선불충전금 지급보증보험 및 계약을 하지 않고 이를 약관에 명시하고 있는 것으로 나타났다.   홍 의원은 “머지포인트 사태 이후 선불충전금 보호에 대한 대책이 나오고 있지만, 대형 프랜차이즈 카페업체 등 사업자는 전자금융업자로 분류되지 않아 해당 사항이 없다”고 지적했다.   이에 개정안에는 이들 사업자도 선불충전금의 일정 비율을 외부에 신탁해 안전자산으로만 운용하게 하고 운용 내역을 소비자에게 공개해야 한다는 내용이 담겼다.   홍 의원은 “간편결제·선불충전 시장의 규모가 점점 커지는 만큼 규제 사각지대에 놓인 선불충전금 보호가 시급하다”며 “급변하는 미래 전자상거래 환경에 대응해 소비자 피해를 막고 권익을 보호하겠다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2021.12.02.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>주린이도 주식매매 척척...베일 벗은 토스 해외서비스</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001919873?sid=101</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>동시 AI번역·주문예약·자동환전...추가 계좌개설없이 투자도 가능“종목 코드 몰라도, 영어 어려워도 괜찮아요”토스증권(대표 박재민)이 2일 해외주식 투자 서비스가 마침내 베일을 벗었다. 이날부터 토스증권의 모바일트레이딩시스템(MTS)을 통해 520여종의 미국 주식과 상장지수펀드(ETF)에 투자할 수 있다. 이용자 중심으로 설계된 것이 특징이다.서비스 오픈에 앞서 11월 한 달 간 진행된 해외주식 서비스 사전신청에는 약 70만명이 몰렸다. 그 중 64.2%가 ‘MZ세대’다 40대가 23.9%로 뒤를 이었다.해외주식 서비스에도 정보 탐색부터 주식 매매까지 투자의 전 과정을 쉽고 간편하게 경험할 수 있도록했다는 게 토스증권의 설명이다. 국내주식과 동일한 투자 방식을 따르고 있어 기존 사용자와 신규 사용자 모두 이용할 수 있다.해외주식 종목명이 낯설 수 있는 투자자들을 위해 브랜드 및 키워드 검색 기능을 강화했다. ‘구글’을 검색하면 구글을 서비스하는 ‘알파벳’의 기업 정보는 물론, 해당 종목이 포함된 ETF, 관련 섹터의 종목, 최신 뉴스와 관련 콘텐츠까지 모두 한 페이지에서 확인할 수 있다.자체 개발한 ‘해외뉴스 인공지능(AI) 번역 엔진’을 탑재했다. 토스증권의 딥러닝 전문가들이 직접 만든 주식 관련 뉴스 특화 번역 엔진이다. 500만건 이상의 번역 데이터 학습을 통해 해외 뉴스를 공급받는 즉시 실시간 번역된 뉴스를 제공한다.투자 안내 기능도 담았다. ‘브랜드’ 탭에서 식음료, 의류, IT 등 일상 속 브랜드부터 투자자들의 관심이 높은 전기차, 반도체, 게임 등 키워드 기반으로 대표 종목들을 보여준다. ‘투자자’ 탭에서는 워렌 버핏, 캐시 우드 등 유명 투자자들의 투자 철학과 보유 종목 리스트를 소개한다.주식 매매 과정에서도 미리 환전하지 않아도 주문과 동시에 자동 환전이 진행된다. 정규장 전후 예약주문이 가능해 언제라도 원하는 가격을 설정해 거래할 수 있다. 실시간 시세 역시 이벤트 참여 여부와 전월 거래 이력과 상관없이 누구나 무료로 이용할 수 있다.윤민정 토스증권 프로덕트 오너(PO)는 “국내주식을 경험한 사용자들의 경험을 훼손하지 않으면서 자연스럽게 투자 포트폴리오를 해외로 확대할 수 있도록 설계하는데 중점을 뒀다”면서 “기존 고객들은 별도의 앱 설치나 해외주식 투자를 위한 추가 계좌 개설 없이 손쉽게 해외주식 투자에 진입할 수 있다는 점 역시 차별화 포인트”고 말했다.토스증권은 올해 3월 사용자 중심의 직관적인 MTS를 선보인 후 9개월만에 400만 고객을 유치하며 증권업계의 새로운 서비스 표준을 제시하고 있다. 내년 초까지 투자 가능 주식과 ETF를 5000여개 종목으로 확대하고, 내년 1분기 중 해외주식 소수점 투자를 선보일 계획이다. 양대근 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2021.12.06.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>카카오페이·토스 등 투자 막힌 온투업계, 각자도생 나섰다</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001921094?sid=101</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>투자 조회·자동 입금 종료인재 채용·투자 유치 활발기관투자 문턱낮추기 숙제온라인투자연계금융업(P2P)계가 본격적인 살길 마련에 나섰다. 플랫폼에 의존하던 기존의 고객 모집에서 벗어나기 위해 인재를 영입하고, 서비스 고도화는 물론 신사업까지 추진하며 활로를 모색하고 있다.카카오페이는 이달 2일부로 온투업 관련 서비스를 완전히 종료한다고 공지했다. 카카오페이와 온투업 사이 이뤄졌던 연결계좌 자동 입금 서비스가 사라지고, 투자 현황도 이제 투자한 업체에서 확인해야 한다. 이같은 조치는 지난 8월 말 금융위원회가 플랫폼이 온투업 상품을 게시하는 것을 ‘중개’로 판단하면서 예고됐다. 앞서 주요 온투업 투자 플랫폼이었던 토스와 뱅크샐러드, 핀크 등도 제휴 종료를 발표한 바 있다.이제 투자자들은 온투업체 개별 앱을 방문해 투자를 진행할 수밖에 없게 됐다. 고객 수와 편의성 차원에서 압도적이었던 핀테크 플랫폼과 손을 놓게 된 온투업체들은 인재영입을 지속 진행하며 고객의 높아진 눈높이를 맞추는 중이다.8퍼센트는 6일 임직원 스톡옵션 부여와 함께 9개 분야 채용 계획을 발표했다. 윙크스톤 운영사 윙크스톤파트너스 역시 지난달부터 7개 직무 채용을 진행 중이며 내년 상반기까지 50여명의 인력을 확충할 계획이다.시스템 고도화와 신사업도 꾸준히 추진 중이다. 렌딧은 자체 개발한 신용평가시스템(CSS)을 꾸준히 개선하고 있고, 피플펀드는 지난달 온투업계에서는 처음으로 마이데이터 예비허가를 획득했다.업계 성장성을 보고 대규모 투자도 뒤따르고 있다. 렌딧은 7월에 H&amp;Q kOREA로부터 504억원 규모의 투자를 받았고, 피플펀드는 이달 베인케피탈 등에서 759억원 상당의 투자를 유치했다. 윙크스톤 역시 지난달 신한금융투자 등에서 20억원을 투자받았다. 8퍼센트도 10월 페이팔 초기 투자자로 알려진 BRV캐피탈로부터 453억원 투자를 유치했다.다만 업계는 현 시점에서 추가적인 돌파구가 필요하다는 입장이다. 특히 온투업계는 투자 상품에 대한 기관투자의 문턱을 낮춰달라고 주장하고 있다. 금융기관 등에서 들어오는 투자 자금의 경우 현재 ‘여신’으로 분류되는데, 이 경우 각종 규제를 받아야 하기 때문이다. 한 온투업계 관계자는 “개인투자자들은 각 업체가 서비스 개선 등을 통해 모으는 중이지만 기관투자의 경우 한계가 있다”면서 “금융업으로 온투업이 자생하기 위해서는 기관 투자가 반드시 이뤄져야 한다”고 말했다.금융위가 현재까지 등록 승인한 온투업체는 총 36곳이다. 지난달 말까지 P2P중앙관리기록기관에 등록된 업체는 33곳으로, 이들의 대출잔액은 1조 577억원으로 집계됐다.박자연 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2021.12.10.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>[사사건건] “이재명, 유시민 덕분에 한숨 돌렸지만”…“윤석열, 당분간 원팀 됐지만”</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011173022?sid=100</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>-김성회 “이재명, 민주당 ‘기득권’ 인정…양당 구조서 정치개혁 기대 못해, 외부인 더 모셔와야”-손실보상 50조? 100조? 장성철 “윤석열-김종인 엇박자 우려스러워…여야, 머리 맞대 효과적 방안을”-장성철 “양당의 인사 영입 논란…화려한 포장지에 욕심 앞서 제대로 된 검증 안 해”-장성철 “금태섭, 국민의힘 영입 인사로 유일하게 의미있어…‘스피커’로서의 역할”-장성철 “선대위 지도부 개성 강해 어디 튈지 몰라, 일단 휴화산·밑에는 부글부글…영역 지켜주고 욕심 버려야”-김성회 “이재명 혼자 다 하다보니 자꾸 사고, 내부 규율잡고 선대위 총괄할 사람·각 분야 스피커 필요”-김성회 “유시민 덕분에 한숨 돌린 이재명, 시기 상관없이 이낙연 등장 여부 중요”-김성회 “이재명, 이낙연에 더 많은 공 들이는 것은 기본, ‘매타버스’도 일정 수준의 변화 필요”■ 방송시간 : 12월 9일(목) 16:00~17:00 KBS1■ 진행 : 범기영 기자■ 출연 : 김성회 열린민주당 대변인 · 장성철 대구가톨릭대 특임교수https://youtu.be/Ap2tF1Qmcco◎범기영 여러분, 안녕하십니까? 12월 9일 사사건건입니다. 김성회 열린민주당 대변인, 장성철 대구가톨릭대 특임교수와 함께 정치권 소식으로 바로 시작합니다. 두 분 어서 오세요. 대선 이제 꼭 석 달, 90일 앞으로 다가와 있습니다. 여야 후보 행보 영상부터 보고 시작하겠습니다.   대선 D-90여야 후보 본격 경쟁 시작Round 1. 경제를 살려라!&lt;녹취&gt; 이재명 / 더불어민주당 대선 후보 (어제)노동 시간 단축은 언젠가는 미래에 우리가 가야 할 길이기도 합니다. 최저임금을 올리거나 또는 노동 시간을 단축하는 게 중소기업에 부담이 되지 않느냐, 그건 맞는 말씀이죠, 단기적으로는. 그러나 세계 경제는 끊임없이 성장, 발전하는 것이고 우리의 삶의 기대 수준도 계속 올라가고 있기 때문에... &lt;녹취&gt; 윤석열 / 국민의힘 대선 후보 (어제)(문화 콘텐츠 분야에) 조금 투자하면 아까 오히려 자기 검열이라고 자유시장경제 원리에 반한다는 생각까지 하시는데, 사실은 이 초기 투자를 해줘야 됩니다. 더구나 문화예술 분야는 자유시장경제에만 맡기기에 부족한 점이 많은 데이기 때문에 정부가 어떻게 해서든지 간에...Round 2. 약자를 지켜라!&lt;녹취&gt; 김미숙 / 故 김용균 씨 어머니, 김용균재단 이사장 (어제)우리나라의 대부분이 노동자이고 그 사람들이 제대로 살 수 있게끔 해 주는 역할이 대통령의 역할이라고 생각합니다. &lt;녹취&gt; 김도현 / 故 김태규 씨 누나 (어제)저희 중대재해법, 제발 사람 살릴 수 있는 법으로 만들 수 있도록 함께해 주세요.&lt;녹취&gt; 이재명 / 더불어민주당 대선 후보 (어제)그럼요. 제 몸에 박혀 있지 않습니까.&lt;녹취&gt; 전국장애인차별철폐연대 회원 (어제)탈시설지원법, 평생교육법, 장애인권리보장법, 교통약자편의증진법 꼭 법안 올해 안에 상정될 수 있도록 해 주십시오. &lt;녹취&gt; 윤석열 / 국민의힘 대선 후보 (어제)전화기 좀 주세요. 빠른 시일 내에 조응천 의원하고 좀 만나셔가지고 이분들의 그 희망 사항을 초당적으로 좀 빨리 협의해 주시길 부탁드리겠습니다. Round 3. 외연을 확장하라!&lt;녹취&gt; 이재명 / 더불어민주당 대선 후보 (지난 2일)조국 장관에 대해서는 여전히 우리 더불어민주당이 그간의 국민들로부터 외면받고 또 비판받는 문제의 근원 중의 하나인데요. 우리 국민들께 공정성에 대한 기대를 훼손하고 또 실망시켜드리고 아프게 한 점은 변명의 여지가 없는 잘못입니다. &lt;녹취&gt; 윤석열 / 국민의힘 대선 후보 (지난 7일)(이용호 의원 입당으로) 지역감정을 타파하고 한국 정치 발전과 또 우리, 우리 당의 지지 기반을 더 확대하는 데 중요한 계기가 되고, 특히 대선을 앞두고 천군만마를 얻은 것 같습니다.   ◎범기영 후보들의 행보를 경제, 약자 그리고 외연 확장, 이렇게 세 가지 키워드로 저희가 정리를 한번 해봤습니다. 오늘 민주당에서는 2030들을 전면에 좀 내세워서 당 혁신, 이런 걸 주문하더라고요. 이건 어떤 의미로 해석을 해야겠습니까? ▼김성회 일단 선거법도 개정을 해야 되고 지금까지 민주당이 180석 가까이 민주 진영이 얻으면서 지난 선거에서 약진을 했는데 그 결과가 사실 별로 좋지 않지 않습니까? 그런 가운데에서 현재는 기득권들을 과연 내려놓으려는 노력을 정치권이 하고 있느냐? 특히 민주당에게 그것을 묻고 있어요. 그런데 민주당은 저는 기득권이 아닌데요? 라고 지금까지 부인해온 입장이었다가 이재명 후보가 우리가 기득권이 맞습니다, 라고 인정하는 모양새거든요. 그래서 특히 선거법 개정은 반드시 해야 하는데 현재 정치 권력을 가진 분들이 이 논의를 잘할 수 있겠느냐, 저는 이 점에서 좀 의심이 있어서 어떤 형태로든 이 선거법 포함한 정치 개혁을 할 수 있는 시민단체, 모든 구성원들의 의지와 의사를 모을 수 있는 걸 구성을 해서 이 문제에 대해서 논의를 해야 되고 그런 점에 대해서 이재명 후보가 인식을 하고 있는 게 아닌가, 이렇게 봤습니다. ◎범기영 지금 국회는 정개특위가 구성이 돼 있죠. 오늘 정의당에서도 이제 논평을 냈던데, 이미 틀이 마련돼 있으니 여기에서 논의를 하자. 그래서 이재명 후보도 위성 정당을 아예 불가능하게 하는 특단의 조치가 필요하다는 언급이 있어서, 이 부분은 좀 기대를 해봐도 될까요? ▼김성회 저는 기대를 할 게 별로 없을 거라고 봅니다. ◎범기영 기대할 게 없다? ▼김성회 위성 정당이 아니고 무엇을 만들더라도 현재 있는 거대 양당인 국민의힘과 민주당이 자신들의 의석을 한 석이라도 잃는 방향으로 정치 개혁을 할 리가 없거든요. 그렇기 때문에 외부에 있는 사람들을 더 많이 모시고 와서 이야기를 듣는 가운데 개혁을 해야지, 지금 현재 있는 이 양당의 고착화된 구조 안에서 정치 개혁이라는 것은 그냥 하나 마나 한 얘기를 할 가능성이 아주 높아진다고 보겠습니다. ◎범기영 고양이 목에 방울을 달지는 어렵지 않겠느냐는 이야기 같네요. ▼장성철 옳으신 말씀이에요. 그러니까 민주당이 집권 여당으로서 제대로 된 역할을 못 하고 있다. 정치 개혁 말로만 외치지 행동으로는 옮기지 않고 있다는 비판을 받을 수밖에 없다는 생각이 들고요. 이재명 후보께서 당내 당원 민주화 이런 식의 얘기를 하셨고 당의 주인은 당원이다, 이런 얘기도 하셨어요. 당원의 의지가 제대로 반영되는 그런 정당인지 상당히 내가 부족함을 느낀다고 하시면서 정당 민주화를 위한 제도 개혁도 논의해 달라. 그래서 2030을 앞세워서 당을 혁신하자, 이런 식의 얘기를 하셨는데 이게 말의 앞뒤가 달라요. 이중 플레이라고 저는 생각이 드는 거예요. 정당 개혁, 정치 개혁, 이런 것들은 작은 데부터 실천할 수 있어야 합니다. 지금 민주당 보세요. 당원 게시판을 폐쇄했습니다. 당원들이 민주당과 이재명 후보에 대해서 좀 쓴소리, 험한 소리 한다고 그걸 빌미를 잡아서 당원들의 목소리를 듣지 않겠다고 폐쇄해버렸어요. 이게 제대로 된 민주 정당이냐, 이러한 당원 게시판, 당원들의 목소리도 막는 정당이 어떠한 정치 혁신을 할 수 있느냐, 이것은 불가능하다는 생각이 들고요. 이재명 후보와 민주당은 항상 이중 플레이하고 있다, 그렇게 말씀드립니다. ◎범기영 지금 여야 사이에 뜨거운 현안이 돼 있는 게 손실보상이죠? 코로나19로 인한 소상공인 손실보상을 두텁게 하자. 이 원칙은 거의 똑같은 이야기를 하는데 여야 논의가 겉돕니다. 김종인 위원장의 오늘 발언 듣고 계속 이어가겠습니다.   &lt;녹취&gt; 김종인 / 국민의힘 총괄선거대책위원장야당과 여당이 협의할 사항이 아니에요. 우리 후보께서 50조를 이야기했는데 코로나 상황이 지금 굉장히 심각하게 전개되고 있고, 그렇기 때문에 추가적으로 자금이 필요하다고 생각하면 100조까지도 갈 수 있다는 이런 뜻에서 이야기를 했던 건데...   ◎범기영 지금 김종인 총괄선대위원장의 오늘 발언을 들으셨고, 제가 지금 들고 들어온 것은 윤석열 후보의 오늘 발언인데, 기자가 이렇게 물었습니다. 손실보상 50조를 위해서 최대한 빨리 추경 필요하다고 보느냐, 이렇게 질문하니까 그렇다고 답했어요. 김종인 위원장이 손실보상 100조 이야기를 했다, 이러니까 50조는 내가 공약으로 한 거고 즉각적으로 50조는 피해 보상하고 대출하는 데 들어가는 보증기금 수수료, 이 이야기는 여러 차례 했죠? 이런 대출 자원을 좀 만들 수 있다, 이런 취지로. 그러니까 추경이 필요하다고 지금 후보는 이야기하고 있고 김종인 위원장은 여야가 지금 협의할 상황이 아니라고 이야기하는데, 지금 이 상황을 어떻게 저희가 이해를 해야 될지요? ▼장성철 엇박자죠. 지금 박자가 맞지 않고 있다는 생각이 듭니다. 김종인 위원장의 생각은 이거예요. 내가 얘기한 100조는 윤석열 후보가 들어섰을 때 새로운 정부가 추경이라든지 아니면 다른 재원을 마련한다든지 이런 식으로 해서 손실보상을 해야 될 문제지, 내년 5월 9일에 끝나는 정권이 이번에 여야 합의를 통해서, 추경을 통해서 50조를 마련해 가지고 손실보상 한다는 것은 옳지 못하다. 이 내용 자체를 새로운 정부에게 권한을 줘야 된다는 건데, 저는 좀 아쉬운 부분이 있어요. 그냥 이 부분도 지금 계속 논의하면 되잖아요. 여야가 머리 맞대가지고 좀 더 현실적이고 좀 더 효과적으로 손실보상을 통해서 자영업자들을 도와줄 수 있는 방안을 마련하면 될 텐데, 우리는 너희들하고 얘기할 필요가 없어. 너희들은 내년 5월 9일에 끝날 정권이야. 이런 식으로 치부하는 것은 좀 큰 정치인으로서의 모습은 아닌 것 같다. 그리고 후보와 선대위원장 간의 약간의 엇박자가 조금 우려스럽다고 말씀드립니다. ◎범기영 지금 이재명 후보는 오늘도 또 발언을 했어요. 당장 선대위 대 선대위, 후보 대 후보 논의를 빨리 좀 시작하자고 계속해서 촉구를 하고 있습니다. ▼김성회 일단 윤석열 후보 본인이 빅 픽처를 안 갖고 있기 때문에 할 얘기가 별로 없을 거예요. 애시당초에 한 일간지와 인터뷰에서 50조라는 이야기를 꺼내기 전에는 감세 이야기를 하고 다니셨거든요. 그러니까 감세를 말해 주는 교수 따로 있고 50조 이야기는 제가 그 당시에 지금 와서 생각해 보면 김종인 박사님으로부터 아마 코치를 받았을 텐데, 감세 이야기하다가 갑자기 50조 재원 마련 이야기하다가 재원 마련 어떻게 할 거냐고 하니까, 그러니까 그건 지금 잘 모르겠으니까 내년에 집권하고 나면 얘기하겠다고 하다가 지금 이제 민주당에서 강하게 압박을 하니까 그러면 추경으로 가자고 지금 왔다 갔다 하고 있거든요. 최소한 캠프 안에서라도, 선대위 안에서라도 의견 조율이 좀 돼야 되는데, 그러니까 이 돈을 재원을 어떻게 마련할 것이고 어디에다 쓸 것인지에 대해서 후보가 굳은 심지가 없기 때문에 이재명 후보의 이런 제안에 윤석열 후보가 지금 이리저리 끌려다니면서 이런저런 말들을 반복하고 있는 것 같은데, 중요한 것은 재정 건전성 문제를 보수 정당이 드디어 떠나서 확장 재정에 대한 이야기를 함께할 수 있다는 점에 대해서는 박수를 치고 싶습니다. ◎범기영 확장 재정을 들고 나온 것만으로도 평가할 지점은 있다. ▼장성철 그런데 나라의 빚이 계속 지금 1,000조 시대로 넘어가고 있기 때문에 확장 재정 하는 것은 신중하게 검토해야 된다는 생각이 들고요. 윤석열 후보는 처음부터 소상공인 50조 손실보상은 추경을 통해서 마련할 수 있어요, 라고 처음부터 얘기를 했어요. 그래서 중간에 말이 왔다 갔다 했다고 하는 것은 좀 과한 비판이신 것 같다는 생각이 들고요. 그래도 이재명 후보보다는 낫다. 보유세 한다고 했다가 안 하고 재난지원금 준다고 했다가 못 준다고 그러고, 이렇게 자기가 내세웠던 공약에 대해서 완전히 없던 것으로 만들어버리는 이재명 후보보다는 그래도 낫다는 생각이 듭니다. ◎범기영 그래도 이재명 후보보다는 낫다, 여기로 또 흘러가네요, 논의가. 알겠습니다. 여론조사 결과 저희 그래픽 준비해놓은 거 있죠? 이걸 보고 이야기를 계속 이어갈까요? 매주 목요일에 나오는 NBS 조사입니다. 4자 가상 대결 결과를 지금 보고 계시고요. 민주당에서는 아마 가장 기다렸던 그런 흐름이 아닐까 생각이 되는데, 민주당 입장에서. 이재명 후보가 좀 올라서는 기류입니다. 그러니까 윤석열 후보 입장에서 보면 후보 선출 직후에 컨벤션 효과가 한 차례 있었고 39% 정도까지 찍었어요, 그 직후에. 그러고 나서 계속 고착돼 있는 느낌이 있고 이재명 후보 지지층이 약간 결집하는 듯한 그런 기류입니다. 전체적인 흐름을 보면 크게 격차가 벌어졌던 게 좁아들고, 그러니까 오차 범위 안으로 붙어 있는 그런 상황으로 인식하시면 될 것 같고요. 지금 상황에서 일단 벌어지고 있는 건, 어제, 오늘 사이에. 노재승 공동선대위원장, 계속 끌고 갈 거라고 봐야 됩니까? ▼장성철 저는 논란이 일어난 그다음 날 바로 좀 자진사퇴 하지 않을 것이냐 생각을 했었는데 지금 3일째 계속 끌고 가서 좀 의아스러워요. ◎범기영 당사자는 자진사퇴할 의사는 없는 것으로 보이던데요. ▼장성철 없는 것 같아요. 그러니까 당에 있는 당직자들이, 저희들이 좀 살펴보고 있습니다, 검토해보고 있습니다, 조금 시간을 주세요, 라고 하는 것은요. 여의도 문법으로 해석을 하면 빨리 후보가 알아서, 선대위원장이 알아서 자진사퇴 해라, 왜 안 하냐. ◎범기영 당사자가 결단해 주세요? ▼장성철 알아서 좀 하지 왜 안 하냐, 그런 뜻이거든요? 그런데 노재승 공동선대위원장이 아니, 내가 사퇴를 하면 내 삶은 어떻게 되느냐. 2030을 대표하는 그분들의 목소리는 어떻게 하느냐, 이런 식의 항변을 하고 있습니다. 잘못됐다고 생각이 들고요. 저런 분을 인재 영입한 이유는 하나입니다. 외연을 확장해서 후보의 지지율에 도움이 되기 위해서 저런 분을 영입하는 건데, 지금 3일째, 4일째 계속 논란만 불러일으키고 있잖아요. 제가 봐도 너무 심한 말을 했어요. 젊은 시절에 사적인 생활을 하는 사람이 했다고 이해하기도 좀 어려운 부분이 많이 있거든요? 그래서 오늘 뭐 TV 연설하는 것도 취소한 것을 보면 곧 자진사퇴 하지 않을까, 라는 생각이 듭니다. ◎범기영 당사자가 그런데 계속 버티면 어떻게 하죠? 자진사퇴 쪽으로 계속 분위기를 만들어가고 있는 것 같긴 한데. ▼장성철 버티면 결국에는 선대위 차원에서 우리가 이분을 해촉한다? 그런 식의 결정을 내릴 수가 있죠. ▼김성회 자기 확신에서 나오는 일이기 때문에 지금 반성과 사과를 할 이유를 아마 모르고 계실 겁니다. 아니, 내 주변에 있는 사람들 다 나처럼 얘기하는데 뭐가 문제냐. 이승만 대통령이 훌륭하신 분이라서 내가 김구를 살인자라고 한 게 무슨 그렇게 큰 잘못이냐? 역사책에 없는 이야기도 아닌데, 라는 아마 인식을 갖고 계신 것 같고요. 저는 이분이 선대위원장으로 들어온 것은 이분이 대표하는 2030 남성들의 표심을 가져오겠다고 하는 것이고 국민의힘이 가감없이 받아들인 거예요. 지금 와서 이분이 하는 생각은 별도고 이분을 선대위원장으로 남기겠다는 얘기는 무슨 얘기인지 잘 모르겠습니다. 그러니까 이분이 들어와서 하시는 말씀을 통해서 표를 얻고자 한 거 아닙니까? 그런데 이 사람이 하는 생각은 별도고 그러면 그 사람의 얼굴만 가져오겠다는 얘기인지, 무슨 이야기인지 도저히 이해가 되지 않는 상황이라는 점을 좀 말씀을 드려야겠고요. 그리고 윤석열 후보 본인이 지금, 본인이 잘하는 게 없어서 생기는 문제라고 저는 생각합니다. 그러니까 보여주는 소재가 없으니까 계속 완만하게 하강 곡선을 그리고 있는 것이고, 이재명 후보는 아주 자잘하지만 조금씩 득점 포인트를 만들어가고 있는 상황이 아닌가, 이렇게 보고 있습니다. ▼장성철 그런데 여론조사를 그렇게 뭉뚱그려서 얘기하시면 안 될 것 같고요. 이번 주 여론조사 흐름을 보면 ARS 같은 경우에는 그래도 윤석열 후보가 좀 계속 앞서나가고 있고, 전화 면접 조사 같은 경우에는 뒤집힌 것도 있고 박빙인 것도 있는 것 같아요. 그래서 자꾸 윤석열 후보가 잘한 게 없다, 그런 식으로 얘기하시면 후보 비방이 아니냐, 그런 생각이 듭니다. ▼김성회 골든크로스라고 저는 생각하지 않고요. 이재명 후보가 이기고 있다고 생각하지도 않습니다. 다만 완만한 하강 곡선을 버텨서 상승 곡선을 만들어내고 있는 것은 사실이고요. 반면에 지금 윤석열 후보 같은 경우는 검사 시절의 경험 외에는 정치적 경험이 없으니까 모든 걸 이벤트로 해결해야 되는데, 비단 주머니 3개 중에 벌써 김종인, 이준석 2개를 써버렸고 남은 거 하나 안철수 후보가 하나 있지 않습니까? 이거로 지금 지지율 40% 끌어올릴 수 있을까요? 저는 어렵다고 봅니다. ▼장성철 이준석 대표가 비단 주머니 3개가 아니라 10개라고 했으니까요. 앞으로도 8개가 더 남아 있다고 말씀드립니다. ▼김성회 기다려보겠습니다. ◎범기영 비단 주머니는 좀 기대가 되네요, 뭐가 들어 있을지. 영입 인사 관련 논란을 조금만 더 이야기를 해봤으면 좋겠는데, 사실 이게 처음이 아니잖아요? 함익병 원장 이야기가 있었고 민주당 쪽에서는 이제 조동연 교수가 굉장히 크게 논란이 됐다가 자진사퇴로 마무리가 됐고, 결이 조금씩 다릅니다만 이런 문제가 왜 반복이 되는 겁니까? ▼장성철 화려한 겉 포장지에 속아서 물건을 잘못 구입한 것이 아니냐는 생각이 듭니다. 포장지만 보고 물건 구입 못 하잖아요. 안에 실속, 내용물을 보고 구입을 해야 되는데 제대로 된 검증이 없었다, 너무 욕심이 앞섰다. 그냥 빨리 후보에게 도움이 되게 해서 이미지가 좋은 사람들, 우리에게 필요한 사람들을 너무 성급하게 영입하지 않았느냐는 생각이 듭니다. 그런 차원에서 이게 어느 특정 누가 추천을 했기 때문에 그 사람을 영입했다든지 아니면 그 사람이 추천을 했기 때문에 이 사람이 논란이 생겨도 이 사람을 정리하지 못해, 이런 식으로 판단하는 분들도 있는데, 그건 옳지 못한 판단인 것 같고요. 노재승 씨 같은 경우에는 빨리 정리하지 않으면 국민의힘 지도부가 민심을 읽는 안테나가 고장난 것이 아니냐, 그러한 비판을 받을 수 있다. 그래서 이런 부분들은 빨리 당사자가 자진사퇴 하는 것이 맞다고 보여집니다.▼김성회 저는 그런데 당사자가 자진사퇴할 가능성 말씀드린 대로 별로 없다고 보고요. 영입 인사 관련돼서는 이렇게 생각합니다. 선대위라는 것은 원래 선대위를 구성하면서 들어와 있는 인사들이 차기 내각을 구성해도 모자람이 없는 사람들로 놓고, 제가 이런 분들과 함께 정부를 끌고 가려고 합니다. 최소한 총리 정도는 공개하는 상태로 선대위가 구성이 되어야 하는데, 지난번 대선에서 잘 아시겠지만 안타깝게도 박근혜 전 대통령의 탄핵으로 만들어진 정부라서 굉장히 급했지만요. 이번 대선은 이런 아쉬움으로 남기고 다음 대선부터는 꼭 내각을 구성할 만큼의 준비를 좀 해서 서로 진영 대 진영으로 붙는 그림을 만드는 게 좋지 않을까, 라는 제안을 드려봅니다. ◎범기영 외부에 있던, 그러니까 비정치인들을 영입하는 과정에서는 그런 문제들이 좀 있었고, 정치인들도 계속 이합집산이 있죠? 그러니까 국민의힘에서는 호남에 있던 유일한 무소속 의원, 이용호 의원이 입당을 했고 금태섭 전 의원도 국민의힘 쪽으로 넘어갔고요. 민주당에서는 김관영 의원, 채이배 전 의원, 이런 분들이 아마 내일쯤 입당을 하는 것으로 알려져 있는데, 이런 것은 어떻습니까? 그러니까 일반인, 비정치인을 영입하는 것과 이건 좀 결이 다른 것으로 이해를 해야 되는 겁니까? ▼김성회 저는 일단 김관영, 채이배 두 의원이 정책통이기도 하고 중립적인 입장에서 그간 정치를 잘해오신 분이라고 생각해서 일부 이견이 있어서 분당, 탈당 등의 이런 일이 있었지만, 다시 모시고 온 것은 굉장히 잘한 일이다. 특히 채이배 의원 같은 경우 경제 문제에 있어서 앞으로 윤석열 후보나 김종인 선대위원장과 맞서는 그림, 굉장히 기대를 해볼 수 있다고 생각하고요. 이용호 의원을 모시고 가서 호남 지역에서 세를 넓히려고 하는 국민의힘 노력, 저는 높이 평가를 합니다. 다만 금태섭 의원의 경우는 선후포럼인가요? 이제 중립적인 인사들로 해서 선거 후를 준비하는 포럼을 구성해서 중립적인 것처럼 하면서 여태까지 코멘트를 하다가 갑작스럽게 이렇게 입당을 하시는 모습을 보여주는 것은 본인이 정치하고 싶은 욕심은 알겠지만 그러면 최소한 지난 세 달간의 처신은 일관됐어야 되는 게 아닌가, 라는 점에서 매우 아쉬움이 있습니다. ▼장성철 저는 여기에서, 이 네 분 중에서 금태섭 의원만 의미가 있다고 보여져요. 그러니까 저런 분이 국민의힘까지 가는 거 보면, 윤석열 후보 지지율이 올라가겠어, 라고 감동하는 것이 아니라요. 금태섭 의원이 스피커로서의 역할이 있는 거예요. 그러니까 민주당 진영에 있다가 이쪽으로 온 거 아니에요? 그리고 이분들이 대외 활동도 많이 하고 있기 때문에 민주당이, 저 당은 민주 정당이 아니에요. 막 그런 얘기를 할 거예요. 그러면 그것이 언론에서 상당히 좀 비중 있게 다뤄지더라고요. 그런 스피커로서의 역할, 그냥 소총수로서의 역할이지 이분들이 온다고 해서 감동을 국민들이 받고 지지율이 올라가고 이런 차원은 아니라고 생각이 들고요. 그렇게 큰 의미 없다, 그냥 안 오는 것보다는 낫다, 그렇게 말씀드립니다. ◎범기영 안 오는 것보다는 낫다. 금태섭 전 의원은 입당은 하지 않았고 선거 캠프에만 합류해서 같이 일을 하는 것으로 했다는 소식, 정리 바로잡아드리겠습니다. 이제 지난 주말까지는 굉장히 거칠었던 이준석 대표와 윤석열 후보, 요즘에는 연일 손을 잡고 같이 다닙니다. 사진 좀 볼까요? 대학로에 가서... 실패했다고 합니다, 두 사람 다. 이건 이제 부산에서 빨간 티셔츠가 좀 화제였죠? 사진 찍고 싶으면 말씀 주세요. 이제 완전한 원팀이 됐다고 봐도 됩니까? ▼장성철 아니죠. 당분간은 그냥 원팀이 됐다고 볼 수 있고요. ◎범기영 당분간. ▼장성철 워낙 개성이 강한 분들이 지도부에 있기 때문에 어떤 이견과 갈등이 벌어질지 솔직히 예측 불가합니다. 럭비공 같아요. 어디로 튈지 모르겠다고 말씀을 드립니다. 그런데 지금은 서로 조심하는 단계라고 말씀드리고 싶어요. 이준석 후보가 화가 나가지고 한 4일 동안 지방을 돌아다니지 않았습니까? 지금 저러한 이벤트는 이준석 대표가 기획을 한 걸 거예요. 지금 화가 나가지고 도망갔던 당 대표가 같이 선거운동을 하러 다니자고 하는데 나 저거 안 할래, 이렇게 할 수가 없잖아요. 그런데 저 일을 좀 며칠 계속하실 것은 같은데 만약에 저런 일을 했더라도 지지율이 오르지 않거나 또한 언론에 보면 뭐야, 지금? 이준석 대표가 자기 정치하는 거 아니야? 이런 비판도 있거든요? 그래서 그런 것들이 부정적인 효과로 나타나면 갑자기 이제 바빠가지고 이건 못하겠다, 이런 식으로 함께하는 이벤트를 안 할 수도 있어 보인다는 생각도 들고요. 내가 뭐 하는 거지? 그런 생각도 드실 수가 있을 것 같다는 생각이 들어요. 그래서 일단은 휴화산이 된 거다. 그런데 하지만 그 밑에서는 마그마가 부글부글 지금 끓고 있다고 말씀드립니다. ◎범기영 그 불씨를 끄려면 그러면 뭐가 있어야 됩니까? ▼장성철 결국에는 서로 욕심을 버려야 돼요. ◎범기영 욕심을 버려야 된다. ▼장성철 그냥 서로 영역을 지켜줘야 돼요. 김종인 위원장이 김병준 위원장 이리 와 봐, 이거 해, 저거 해. 이러면 사고가 나는 거죠. 그리고 김병준 위원장이 아니, 도대체 총괄선대위원장 50조, 100조, 이거 여당하고 지금 논의해야 되는 거 아닙니까, 라고 치고받으면 이건 사고가 나는 거예요. 그냥 서로 하는 얘기들을 인정을 해 주고 건들지 않아야 된다. 그러니까 영역을 다툼하지 말고 인정해 줘라, 그렇게 말씀드리고 싶습니다. ◎범기영 그런데 상대와 이런 정말 전쟁처럼 치르는 대선 과정에서 서로 영역을 이렇게 존중해 가면서 갈 수 있을까, 쉽지 않겠다는 생각이 들긴 합니다. ▼장성철 쉽지 않아 보이는데 한번 지켜보시죠. ▼김성회 안 될 것 같아요, 잘. 일단 어제도 KBS에서 중계했습니다만 문화예술인 간담회 하는 장면 제가 보다가 약간 경악을 했는데, 3개인가 질문이 나오는데 바로바로 이준석 당 대표에게 토스를 그냥 해서 마이크를 넘기시더라고요. 토스만 계속하고 본인의 의견이 없는 상태가 된 거 아닙니까? 그러다 보니까 다니면서 뭔가 말을 해야 되면 어쨌든 10년 동안 산전수전을 겪은 이준석 대표는 각각의 어젠다에 대한 본인의 생각이 있고 아직 윤석열 후보는 각각의 어젠다에 대해서 본인의 생각을 말하거나 디테일에서 자꾸 떨어지는 부분이 있으니까 마이크가 자꾸 넘어가고 스포트라이트가 본인에게서 이준석 대표로 옮겨가는 것, 저 후드티를 입고 했던 이벤트도 마찬가지로 어느 순간 가니까 사람들이 이준석 대표에게 몰려드는 이런 그림들이 자꾸 반복되면 캠프에서는 불편할 수밖에 없죠. 이거 어디까지 같이해야 되나 고민해야 될 것이라고 보고, 필요 없는 의심들이 싹트게 되는 것도 문제지만 이준석이 잘하는데, 라는 이야기가 나오는 것이 윤석열 후보에게는 그다지 도움 될 것이 아니라는 생각이 드네요. ◎범기영 지면 아래에는 적지 않은 불씨가, 마그마가 살아 숨 쉬고 있다, 지켜봐야겠네요. 반면에 민주당은 좀 또 이런 비판들이 있어요. 후보밖에 안 보인다. 선대위는 뭐 하고 있느냐, 특히 그 많은 의원들은 뭘 하느냐, 이런 비판들이 내부에 좀 있긴 있는 것 같습니다. ▼김성회 제 말이 그 말입니다. 지금 이재명 후보가 모든 것을 다 혼자 받아들이려고 하다 보니까 자꾸 사고가 생기고 필요 없는 충돌까지 만들어지고 있는 그림이거든요. 좀 숨 쉴 수 있는 공간을 만들어주고 이재명 후보가 아니더라도 이 사람한테 들으면 민주당 선거 대책이 나오지, 이런 분들이 몇 분 정도 더 포진을 해 있어야 되는데 그런 그림이 만들어지고 있지 않은 점이 몹시 아쉽고요. 그런 의미에서 유시민 전 이사장이 오늘 등판을 해서 조금씩 말을 풀기 시작한 것은 굉장히 이재명 후보로서는 한숨 돌릴 수 있는 국면이 열렸다. 그런데 여전히 총괄선대본부장이라고 할까요? 내부에서 규율을 잡고 선대위를 전체적으로 총괄하실 분의 등장, 그리고 각 분야에 있어서 주포, 스피커들의 배치가 좀 필요한데, 시간이 얼마 없는데 좀 아쉽게 시간이 흘러가고 있는 것 같습니다. ▼장성철 이거 이재명 후보가 숨 쉴 공간을 마련하지 않은 것은 본인 탓이에요. 이거 사람을 못 믿어서 그렇습니다. 대변인님이 말씀 잘해 주셨듯이 선거의 가장, 선거대책 기구의 가장 중요한 부서가 2개거든요? 총괄선대위원장, 총괄선대본부장, 이 두 자리예요. 이 두 자리는 아직 임명을 하지 않고 있어요. 그러면 뭐겠어요? 적임자가 없거나 믿을 사람이 없다는 거 아니겠습니까? 본인 욕심이 과한 거죠. 선대위가 보이지 않는다, 이것은 오로지 다 이재명 후보 탓이라고 말씀드립니다. ▼김성회 선대위만 보이는 국민의힘보다는 나은 것 같습니다. ◎범기영 어렵네요. 선대위만 보이는 당이 있고 후보만 보이는 당이 있고. ▼김성회 어차피 찍는 건 후보를 찍을 거니까요. 둘 중의 하나만 보여야 되면 후보가 낫죠. ▼장성철 그런데 자꾸 후보가 나타난다고 해서 호감도가 높아지는 것이 아니라 비호감도를 더 높일 수가 있다, 이재명 후보 같은 경우에는 말을 너무 바꾸고 되돌리고 이런 것들 때문에 그렇게 전면에 나서는 것이 유리하지 않을 수도 있다고 보여집니다. ▼김성회 그건 이제 조금 전에 보신 NBS의 여론조사 결과로 갈음하겠습니다. ◎범기영 이제 후보만 뛰는 상황이 되니까 이낙연 전 대표가 손을 좀 번쩍 들고 같이해 주면 좋을 텐데, 이런 목소리들도 있는 것 같습니다. 실제로 나서게 하려면 어떤 노력이 필요합니까? 뭐가 부족해서 안 나오는 걸까요? ▼김성회 일단 지금 나오느냐, 한 달 있다가 나오느냐는 사실 큰 차이가 없습니다. 어느 순간에 등장만 해 주시면 되고요. 그렇게 선거가 굉장히 많이 남았거든요. 그러면 이건 포인트를 오히려 노리는 쪽이 양쪽에게 서로 나을 수 있습니다. 이낙연 후보가 완전히 배제하지 않은 상태라고 하면, 좀 더 본인의 몸값이 높아지는 순간 적절하게 등장하는 것도 필요하겠고요. 지금 사실은 양쪽이 정치적 이벤트가 없이 그냥 지나가고 있는 상황인데 여기에서 불쑥 이낙연 후보가 들어오는 그림보다는 윤석열 후보 측이 뭔가 보강하게 될 때, 혹은 안철수 후보의 단일화 논쟁이 벌어지고 이럴 때 정치적 이벤트로 같이 붙어 들어올 가능성이 높기 때문에 이재명 후보 본인은 이낙연 전 대표에게 더 많은 공을 들이시는 건 기본이지만 이 이벤트가 지금 12월에 열리지 않는 것 때문에 뭔가 문제가 생긴다, 이렇게 볼 필요는 없을 것 같습니다. ◎범기영 정치적 효과가 극대화되는 시점은 분명 따로 있을 수 있다. 알겠습니다, 지켜보죠. 저희가 여야 후보들 선거 운동 영상 준비했습니다. 보고 이어가겠습니다.   코로나19·디지털 시대의 유세 방법?'매주 타는 민생버스'로 소통 나선이재명 더불어민주당 대선 후보&lt;녹취&gt; 이재명 / 더불어민주당 대선 후보 (지난 3일)잘 들리면 1번, 안 들리면 2번, 댓글도 막 빠른 속도로 넘어가서 읽기가 어려운데. 여수 남해화학 비정규직 집단해고 해결해 주세요. 며칠 전에, 제가 지난주에 갔었던 이야기인데, 저희가 관심 갖겠습니다.AI 기술 활용한 '챗봇' 도입도...국민의힘 선대위 출범식에 등장한윤석열 국민의힘 대선후보의 'AI 윤석열' &lt;녹취&gt; AI 윤석열 / 국민의힘 대선 후보 (지난 6일, 유튜브 오른소리)윤석열 후보와 너무 닮아 놀라셨습니까? 정치권 최초로 만들어진 AI 윤석열은 윤석열 후보가 열어갈 대한민국의 새로운 미래와 도전을 상징합니다.'나무위키' 통해 정책 소통 나설 계획  ◎범기영 인공지능이나 이런 기술이 발달하기 때문에 시도되는 것이기도 하고 한편으로는 코로나19 상황이 좋지 않아서 후보가 직접 움직이는 공간을 넓히는 것보다는 감염 위험 같은 것도 줄이고요. 그래서 여러 것들이 시도가 되고 있습니다. 유효하다고 보세요? 그러니까 민주당은 두 가지를 같이하고 있잖아요. 매타버스라고 해서 후보가 직접 전국을 돌기도 하고 한편으로는 챗봇 같은 걸 활용하기도 하고. 유효합니까? ▼김성회 뭐든지 할 수 있는 건 다 해야 되는데 매타버스는 조금 이제 생각해볼 시간이 된 것 같습니다. 지금까지 동일한 패턴으로 지역만 달리해서 갔는데, 글쎄 언론, 특히 이제 사진 기자님들도 가서 보시면 지난주랑 그림이 너무 똑같은데? 이런 생각들을 하실 때가 됐어요, 지금쯤. 그렇기 때문에 여기에는 좀 일정 수준의 변화가 필요하겠다. 다만 열심히 지역을 다니는 모습 자체는 되게 좋은 것 같습니다. 그건 저는 좀 높이 사는데, 요만큼 했으면 한번 좀... 하다못해 밖의 랩이라고 바꿔줄 필요가 있겠다는 생각이 들고요. 그리고 이제 챗봇 같은 경우는 좋죠. 그거는 분명히 이재명 후보가 대답하지 않는다는 걸 국민들이 인식한 상태에서 궁금한 걸 물어보는 구조이지 않습니까? 얼마나 많은 분들이 지금 보고 계신지는 모르겠지만 그런 최대한의 여러 가지 노력들을 해보는 건 굉장히 유효하다고 생각합니다. ◎범기영 국민의힘에서 시도하고 있는 것들은 어떻게 보고 계세요? ▼장성철 기본적으로 AI 윤석열, 이거 말씀하시는 것 같은데, 저는 잘했다고 생각이 들어요. 코로나 시대에 대면 유세하기가 상당히 어려운데, 전국 방방곡곡에 아바타 윤석열을 통해서 선거 운동을 하면 좋을 것 같습니다. 아까도 화면에 봤지만 버벅대지도 않으시고 고개를 이렇게 돌리지도 않으시잖아요? 그러니까 자연스럽다고 볼 수도 있는 것 같고 민주당에서는 부럽고 배 아파서 발목 잡기 하는 거 아니냐는 생각이 듭니다. 공직선거법 250조에 의하면 저런 선거를 통해서 허위사실을 유포하면 안 돼요. 그래서 선관위 검토가 필요해요. 이런 식의 발목 잡기를 하고 있는데, 그거는요, 허위사실을 적시하거나 기재했을 때, 유포했을 때 그게 문제가 되는 것이지, 저러한 아바타, AI 윤석열을 선거 운동에 이용한다고 해서 선거법상 문제 되는 것은 아니거든요? 그냥 부러우면 부럽다고 말씀하시는 게 좋다고 말씀드립니다. ▼김성회 교수님께서 말씀 잘해 주셨는데 버벅대지 않고 고개 돌리지 않는 AI라서 좋다고 하신 건 거꾸로 얘기하면 AI인지 구분해서 보는 분들은 그러실 수 있겠지만 그게 그렇지 않고 그냥 후보가 얘기하는 줄 아시는 분들 같은 경우는 원래는 버벅대고 고개를 돌리시는 분이 안 하는 것 자체는 뭔가 잘못된 정보를 전달한 측면도 있거든요. 그래서 이걸 금지하자는 말씀을 드리는 것은 아니고 이만큼 기술 속도의 빠른 발전을 우리 정치가 어떻게 맞춰갈지에 대해서는 좀 열어놓고 같이 논의했으면 좋겠습니다. ▼장성철 그러니까 민주당도 그냥 부러우면 따라 하시면 된다는 생각이 듭니다. ◎범기영 부러우면 지는 거라고 했는데. 공약 관련 후보들이 여러 발언들을 하고 있는데, 이재명 후보는 기본소득, 기본 시리즈, 이것도 물러서는 듯한 기색을 보이기도 했고, 또 어떤 때는 그건 철회한 게 아니라 열심히 국민들을 설득하겠다는 취지였다, 이렇게 말하기도 해요. 그러니까 이게 좀 오락가락하는 거 아니냐, 이런 비판도 야당에서 하는 것 같습니다. 이건 어떻게 보십니까? ▼김성회 그런 측면이 있습니다. 그렇게 보일 수 있고 실제로 그런 것도 있고요. 그런데 이제 이재명 후보는 성남시장 거쳐서 경기도지사를 거치는 동안 민주당과 어느 수준 이상으로 떨어진 거리가 있었던 것이거든요. 그런데 민주당은 민주당대로의 역사와 전통 안에서 만들어온 정책이 있는 것이고 이것들이 지금 현재 조우해서 하나가 돼가는 과정이거든요. 서로에게 침투해서 녹아들어가야 되는데 아직 부족했던 부분이 있다고 보는데요. 이게 이제 정리만 되면 되는 문제로 남아 있어서 이재명 후보가 가리키는 방향, 그 방향에서 민주당이 어떻게 정책적으로 뒷받침을 할 것인지 그림이 그려지면 이 논란은 잦아들 것이라고 보고요. 어쨌건 되게 열심히 하는데 알고 보니 사과도 잘하고 마음도 잘 바꾸네, 라는 것은 변덕으로 포인트를 깎아 먹는 것보다 저는 포인트를 더 추가하고 있지 않나, 라고 생각합니다. ◎범기영 알겠습니다. 그건 이제 민주당의 희망인 거고. ▼김성회 제 희망이죠. ◎범기영 윤석열 후보를 향해서는 이 비판은 계속됩니다. 그러니까 민주당 쪽에서 주로 제기하는 비판이긴 한데, 왜 나서지 않느냐, 왜 토론을 하지 않느냐, 왜 우리랑 같이 마주 앉지 않느냐, 이런 비판을 계속하고 있거든요. ▼장성철 자신이 없으니까 안 하는 거죠. 자신이 있으면 먼저 토론회를 주장을 하고 제의를 해서 정책적인 대결을 하려고 하지 않겠습니까? 이것은 제가 국민의힘 당원도 아니니까 자유롭게 비판할 수가 있는데, 자신이 없다는 발로라고 말씀드립니다. 그런데 제가 또 윤석열 후보의 참모라면 토론회 가급적 하지 맙시다, 라고 할 것 같아요. 그냥 이재명 후보가 잘하는 링에 올라가서 왜 두들겨 맞습니까? 그럴 필요가 없고 법정으로 토론회가 세 번 예정돼 있거든요? 최소한 그 정도로만 하고 또 TV 토론은 그냥 좀 피하시는 게 어떻겠느냐는 게 저의 솔직한 생각인 거고, 국민들께서 TV 토론 갖고 후보를 선택하진 않습니다. 이미 구도와 명분과 인물과 정책 면에서 윤석열 후보가 훨씬 낫기 때문에 국민들이 선택을 하는 것이라고 말씀드립니다. ◎범기영 국민들의 생각, 알겠습니다. 그러니까 저희는 이제 시사 프로그램을 진행하는 입장이기 때문에 가급적 후보들이 나와서 여러 모습을 보여주고 판단할 근거를 유권자들께 드려야 하는 게 저희의 사명이어서. ▼김성회 저는 정말 이게 이해가 안 되는 게, 양당 후보가 대략 500억씩 지금 지출을 해서 대선을 치러서 국민 세금을 1,000억 원을 들여서 구경을 하고 있는데, 정해진 링 말고는 모르겠으니까 당신들이 알아서 판단하라고 토론회에 안 나오는 후보는 국민들을 기만하는 겁니다. 이거는 최대한 많이 응하고 같이 이야기를 나누시는 게, 예선전 잘하셨잖아요. 왜 본선에서 못 하겠다고 하시는지, 제가 교수님께 따질 문제가 아닙니다만 매우 잘못된 태도라고 생각합니다. ▼장성철 그런 비판은 정확한 포인트라고 말씀드립니다. ◎범기영 국민들이 지금 이 모습도 다 보고 계시는 거니까요. 다 포함해서 결정을 하시겠죠. 장성철 교수, 김성회 대변인과 함께했습니다. 두 분 고맙습니다.  https://news.kbs.co.kr/special/election2022/president/index.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2021.12.09.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>핀테크 업계, 비교·추천 서비스 규제 풀어달라 성토</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002986913?sid=101</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>고승범 금융위원장(사진)이 9일 서울 강남구 선릉로 디 캠프(D camp)에서 개최된 핀테크산업 혁신지원 간담회에서 핀테크 업계 및 유관기관 관계자들과 금융회사와 핀테크 기업 간 제휴·협력 촉진 및 핀테크 산업 활성화에 대해 논의했다.핀테크업계가 금융당국에 금융소비자보호법(금소법) 이후 위축된 맞춤형 비교·추천 서비스 재개를 위한 규제 완화를 촉구했다. 종합지급결제사업자 도입을 위한 전자금융거래법(전금법) 개정 신속한 실행도 요구했다.고승범 금융위원장은 9일 서울 강남구 선릉로 디캠프에서 핀테크 업계 및 유관금융회사와 간담회를 개최했다.이날 간담회에서는 금융당국의 규제개선을 요구하는 핀테크사 성토 장이 됐다.한 핀테크사 대표는 간담회 이후 기자와 만나 “금소법 시행 이후 플랫폼사들이 제공하던 맞춤형 비교·추천 서비스가 대거 중단되거나 위축돼 이를 재개할 수 있도록 요구하는 업계 목소리가 나왔다”면서 “이외에도 종지업 도입을 위한 전금법 개정 신속한 처리를 촉구하는 의견도 나왔다”고 말했다.앞서 금융당국은 지난 9월 플랫폼 업체가 서비스하는 금융상품 추천이 판매 과정 중 하나인 '잠재고객 발굴 및 가입유도'에 해당해 광고가 아닌 중개 업무라고 통보했다. 따라서 카카오페이, 토스 등 빅테크·핀테크 업체가 기존 서비스를 중단하거나 대폭 변경했다.이에 고승범 위원장은 “온라인 금융서비스에 대해 소비자보호 원칙은 지켜나가되 맞춤형 비교·추천 등 혁신적 기능이 발휘될 수 있도록 규제 개선방안을 모색하겠다”면서 “금융 안정, 그리고 금융소비자 보호를 바탕으로 발전할 수 있도록 당국이 지원하겠다”고 약속했다.네이버와 카카오 등 빅테크와 중소 핀테크에 대한 규제 분리도 검토된다.고 위원장은 빅테크와 중소 핀테크 분리에 대한 지적에 대해 “일리가 있다”면서 “빅테크와 중소형 핀테크의 문제가 좀 다르기 때문에 다르게 적용하는 방안을 고민하겠다”고 말했다.망분리, 클라우드 규제 등 금융보안도 금융회사 자율과 이용자 보호가 조화될 수 있도록 개편방안을 마련하겠다고 밝혔다.고 위원장은 “망분리가 핀테크에 과도하게 부담이 되는 측면이 있다”면서 “금융위 차원에서 구체적인 방안을 검토하고 있다”고 전했다.이 자리에서는 금융회사와 핀테크 간 제휴 협력과 기존 금융권의 디지털 혁신 대한 지원 계획도 언급했다.고 위원장은 “금융회사의 핀테크 기업에 대한 투자와 제휴가 활성화될 수 있도록 현행 '핀테크투자 가이드라인'을 개선해 제도적 기반을 마련하겠다”면서 “금융회사-핀테크 간 협업을 통한 새로운 금융서비스에 대해서는 규제샌드박스를 통한 부수업무 확대를 검토하겠다”고 말했다.이어 “핀테크가 다양한 데이터를 활용해 아이디어의 실현가능성을 검증하고, 기존 금융권도 신규 서비스 안정성을 테스트할 수 있도록 D-테스트베드 운영을 확대·개편할 것”이라면서 “샌드박스 및 부수업무 승인 등 절차와 적극 연계하겠다”고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2021.12.13.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>그간 뭐했나···시스템 먹통에 "오늘 방역패스 적용 안해"</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0003996393?sid=101</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>13일 세종시 나성동 한 식당에서 질병관리청 쿠브(COOV·전자예방접종증명서) 애플리케이션 앱의 QR코드 시스템에 오류가 발생해 '방역패스'(백신패스) 확인이 이뤄지지 않고 있다. /연합뉴스[서울경제] 신종 코로나바이러스 감염증(코로나19) 방역패스(접종 증명·음성 확인) 적용 첫날인 13일 쿠브(COOV·전자예방접종증명서) 애플리케이션 접속 장애로 시민들과 소상공인들이 큰 불편을 가운데, 질병관리청은 "방역패스 시스템 과부하로 시설 이용에 불편을 드려 죄송하다"며 "오늘은 방역패스를 적용하지 않는다"고 밝혔다.이날 점심시간에 곳곳에서 백신접종·음성확인을 증명하는 QR코드 시스템에 오류가 발생해 시민들이 큰 불편을 겪었다. 이날 낮 11시40분께부터 질병관리청 쿠브(COOV·전자예방접종증명서) 애플리케이션(앱)에 접속이 되지 않는다는 신고 사례가 전국 곳곳에서 속출했다. 또 네이버·카카오·토스 등 백신접종을 확인할 수 있는 다른 앱에서도 QR코드가 원활히 생성되지 않았다.이 때문에 점심식사를 하러 식당에 입장하려던 시민들이 혼란을 겪었다. 점심식사를 위해 식당을 찾은 직장인들은 QR코드가 뜨지 않아 입장하지 못한 채 발을 동동 굴렀고, 식사 후 카페를 찾은 사람들 중에서도 QR코드가 뜨지 않아 ‘강제 테이크 아웃’을 하기도 했다.이에 질병청은 “쿠브 서버가 위치한 KT DS 클라우드센터에서 접속 부하로 인해 원활하게 처리되지 않은 것으로 파악하고 있다”면서 “이날 오후 1시반부터 정상화됐고 쿠브 서버의 경우 기능 개선을 위해 관계기관과 협의 중이다"고 밝혔다.또 질병청은 이날 쿠브 접속 오류 원인에 대해 KT DS의 서버 운영과 관련해 문제가 있었던 것처럼 알려지자 정정에 나서기도 했다. 이날 오후 질병청은 “KT DS 클라우드센터에서 서버 운영 상 문제가 발생했다는 뜻은 아니다”라며 ”KT 측에서는 질병청 요청에 의해 서버 증설 규모 등을 제안받아 수행하며, 운영 용량 또는 사용자 등의 추산치로 요청하지는 않는다" 재차 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2021.12.09.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>그리팅, 알토스벤처스 등에서 43억 규모 시리즈A 투자 유치</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004891119?sid=105</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>기업용 채용 관리 솔루션 ‘그리팅(Greeting)’을 운영하는 두들린(대표 이태규)이 알토스벤처스 등으로부터 43억 규모의 시리즈A 투자를 유치했다고 9일 밝혔다. 이번 투자에는 알토스벤처스가 새롭게 참여했으며, 기존 투자자인 퓨처플레이, 프라이머, 슈미트, 동훈인베스트먼트도 후속 투자로 참여했다. 이번 시리즈A 투자를 주도한 알토스벤처스는 쿠팡, 크래프톤, 우아한형제들(배민), 직방, 당근마켓, 비바리퍼블리카(토스) 등 국내 유수의 IT 기업들에 투자한 바 있다. 그리팅은 인재 채용 과정에서 기업이 겪는 어려움을 해결하는 원스톱 채용 솔루션으로, 다수의 채용 플랫폼을 통해 지원한 이력서를 한 번에 열람하고 관리할 수 있다. 또한 각 지원자별 평가, 일정 조율, 합격 유무 통보를 그리팅으로 확인할 수 있어 인재 채용 담당자와 경영진들의 복잡한 커뮤니케이션 과정을 대폭 절감한다. 현재 그리팅은 쏘카, 아이디어스, 패스트파이브, 넵튠, 강남언니 등 약 1,300여 개의 기업을 고객사로 두고 있다.   최근 SK, LG, 롯데 등 많은 대기업들이 대졸 공채 제도를 폐지했다. 기업들도 변화에 발맞춰 개인의 역량을 중시하는 ‘직무형 인재’를 찾겠다는 것이다. 실제로 대졸 공채 제도는 과거 산업화 시대에 일괄적 방식으로 인재를 채용하기 위해 도입된 것으로, 한국과 일본이 유일하다. 그리팅은 이러한 한국의 채용 트랜드 변화를 적시에 포착해, 기업이 채용 과정에서 소모하는 시간을 효과적으로 줄여주고 있다.두들린 이태규 대표는 "기존 주주들께서 후속 투자에 모두 참여한 만큼 그 성과를 인정받아 기쁘게 생각한다”며 “이번 투자유치를 통해 그리팅 서비스를 함께 만들어 갈 인재 채용과 서비스 고도화에 집중할 계획이며, 기존 고객들의 피드백을 빠르게 수렴하고 제품을 개선해 나가는 구조를 만들 것”이라고 말했다.  이번 투자를 주도한 알토스벤처스 박희은 파트너는 "그리팅은 채용공고에서부터 합격통보에 이르는 전체 채용 과정에서 회사의 비용과 시간을 줄이고, 효율적인 의사결정이 가능하도록 도와, 대기업 및 스타트업의 채용담당자들에게 큰 호응을 얻어내고 있다”며 “또한 고객의 목소리에 집중하면서 필요한 기능을 빠르게 업데이트하고, 고객반응을 체크하며 개선하는 팀의 역량을 믿고 투자를 결정하게 되었다.”고 말했다.매일경제 조광현 연구원</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2021.12.03.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>토스, 내년부터 예금 1억까지만 年 2% 이자</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004636541?sid=101</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>"1억 초과분엔 年 0.1% 적용 수시입출식예금 내년에도 지속"예대금리차 커 역마진 발생現금리 체제론 비용부담 어려워인터넷은행 토스뱅크가 내년부터 토스뱅크 통장(수시입출금식예금)의 1억원 초과금액에 연 0.1% 금리를 주기로 했다. 금액과 납입 기간에 상관없이 연 2.0% 금리를 주던 파격적인 혜택에서 한발 물러난 것이다. 금융당국이 토스뱅크의 올해 가계대출 총액을 5000억원으로 제한한 탓에 수익원인 대출이 열흘 만에 소진된 여파다. 현행 금리 구조로는 내년에 ‘역마진’이 날 것이라는 판단도 작용했다.토스뱅크는 내년 1월 5일부터 예금액 1억원 이하에 연 2.0% 금리를 주는 수시입출금식통장을 유지하되 1억원 초과분에는 연 0.1% 금리를 적용한다고 3일 발표했다. 예컨대 1억5000만원을 맡기면 1억원까지 연 2% 이자(세전)를 받고, 1억원을 초과한 5000만원에 대해서는 연 0.1%를 적용받는다.하루만 맡겨도 이자를 주는 수시입출금식(파킹통장) 방식은 내년에도 유지한다. 고객은 매달 셋째 주 토요일에 이자를 일할 계산해 지급받는다. ‘파킹통장’으로서의 혜택은 여전히 2금융권보다 낫다는 평가가 나온다. 최근 OK저축은행이 특판한 ‘OK파킹대박통장’은 연 1.5% 금리(5억원 이하)를 제공하고, 오픈뱅킹에 등록하면 연 1.7%까지 준다. 5억원 초과 시 연 1.0%로 깎인다.지난 10월 초 출범한 토스뱅크는 금융당국이 정해준 대출한도 5000억원을 열흘 만에 소진했다. 금융당국이 추가 한도를 주지 않으면서 두 달가량 ‘대출 셧다운’ 상태가 지속되고 있다. 당국은 연말까지 추가 대출한도를 주지 않을 방침이어서 토스뱅크는 내년에야 대출영업을 재개할 수 있다. 반면 2조원이 넘는 고금리 예금을 보유해 상당한 역마진을 보고 있는 것으로 알려졌다. 내년에도 현행 금리 수준을 유지하면 역마진으로 자본금을 소진할 가능성도 제기된다. 10월 토스뱅크는 총 3000억원의 유상증자를 단행해 자본금을 2500억원에서 5500억원으로 늘렸다.토스뱅크 관계자는 “예금액 1억원 이하 고객이 전체의 99% 이상이기 때문에 극히 일부 고객만 금리 혜택이 줄어든다”며 “1억원 초과 예금자 수는 적어도 예금액이 커서 상당한 비용을 아낄 수 있다는 판단”이라고 말했다. 또 “금리 상승기임에도 예·적금과 달리 수시입출금 상품인 토스뱅크 통장의 시장 경쟁력은 여전히 뛰어나다”고 강조했다.일각에서는 은행 간 금리 경쟁을 촉발할 것으로 예상했던 토스뱅크가 ‘찻잔 속 태풍’에 그치는 것 아니냐는 관측이 나온다. 은행권 관계자는 “중금리대출과 높은 수신금리로 그간 순위가 고착화된 은행권 경쟁을 촉발할 수 있는 기회였다”며 “토스뱅크의 가계대출 총액에 지나치게 제한을 두면서 경쟁 유인이 줄고 순위를 고착화하는 결과를 낳고 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2021.12.13.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>공제액 높이는 최적의 소비...앱 하나면 ‘깔끔하게 정리’</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001924019?sid=101</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>빅테크·은행 ‘연말정산 서비스’카드 사용 팁·예상 환급액 제공부부가 둘 다 대기업에 다니는 맞벌이 부부 김 모씨(40)는 연말 정산이 다가올 때마다 스트레스를 받는다. 두 자녀 교육비로 고정지출이 많은 데다가 주택담보대출 원금과 이자 상환으로도 저축이 어려운데, 매년 환급은 커녕 추가 납부를 해야되기 때문이다. 김 씨는 “13월의 월급이라지만, 월급이 아니라 13월의 세금”이라며 “체크·신용카드를 적절한 비율로 섞어서 쓰라는데, 매월 누가 알려주기라도 했으면 좋겠다”고 말했다. 세금을 한 푼이라도 아끼려 속시원히 황금 비율로 소비 계획을 짜고 싶다면, 도움을 받을 수 있는 곳이 있다. 핀테크 기업들과 마이데이터 시범서비스를 시작한 기존 금융사 앱(애플리케이션)을 통해서다.일찌감치 연말정산 예상환급액 서비스를 제공하고 있는 자산관리 앱 ‘뱅크샐러드’는 카드 소득공제 환급액 서비스를 통해 연말정산 시 카드소비로 돌려받을 수 있는 금액이 얼마인지 연초부터 실시간으로 확인이 가능하다. 뱅크샐러드 앱에 연동된 카드 지출 내역과 현금 영수증 사용 내역을 분석해 카드 소득공제 환급액을 알려주는 이 서비스는 현재까지 사용한 신용카드, 체크카드, 현금영수증 등의 사용금액과 소득공제 대상에 해당하는 금액을 보여준다.아울러 뱅크샐러드에선 ‘전년도 환급 리포트’도 제공하고 있다. 환급 리포트를 활용해 전년 대비 환급액을 비교하거나 한해 동안 소비액과 지출 수단 등을 한눈에 파악할 수 있어 연말정산 뿐 아니라 지출 관리에도 활용도가 높다. 여기에 ‘신용카드와 체크카드의 지출 밸런스를 챙겼으면 더 좋았어요!’, ‘카드와 현금 사용액을 적절히 관리했다면 더 많은 환급액을 받았겠어요!’ 등 더 많은 환급액을 받을 수 있는 팁도 제공하고 있다.토스뱅크를 출범한 비바리퍼블리카도 토스 앱 내 ‘연말정산 미리보기’를 선보였다. 이 서비스는 국세청 홈택스의 연말정산 미리보기 서비스를 이용해 토스 회원 본인의 연말정산 예상 결과를 확인할 수 있다. 다만 토스는 10~12월의 신용카드 등의 예상 금액은 홈택스에서 확인 가능한 이용자의 1~9월의 평균값을 임의로 적용한다. 지난해 지급 명세서가 없을 경우에는 사용자가 직접 입력한 총급여액을 바탕으로 연말정산 예상 결과를 계산할 수도 있다.카카오뱅크도 연말정산을 앞두고 올해 초와 마찬가지로 사회초년생을 위한 가이드, 2021 연말정산의 달라진 점 등을 정리해 제공하고 있다. 앞서 카카오뱅크는 올 초 고객들의 연말정산을 돕는 가이드와 편의 기능을 내놓은 바 있다.전통 금융사들도 마이데이터 서비스를 선보이며 연말정산 관련 서비스를 제공하고 있다. 우리은행은 이달 1일부터 선보인 마이데이터 서비스에서 ‘연말정산 준비하기’ 서비스를 제공한다. 소득을 입력하면 연동된 신용카드와 체크카드의 올해 사용 액수를 보여주며, 공제 받을 수 있는 최저 사용금액, 예상 공제한도 등을 제공한다. 연금계좌나 보장성보험을 통한 세액 공제 부분도 보여준다. 다만 아직 9개 보험사만 제휴돼있어 보험 등록엔 한계가 있다.KB와 신한, 하나은행도 마이데이터 서비스를 활용해 절세를 위한 각종 팁과 상품 소개 등에 나서고 있다. 성연진 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2021.12.14.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>대출도 신탁도 "이만큼만 팔아라"…금융사 성장판 틀어막는 '新관치'</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004640545?sid=101</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>은행권 가계대출 증가율 4~5% 등 업권별 총량 규제 이어올해 실적 고려해 금융사별 내년 대출 상한선까지 차등화"2등이 1등 영원히 못따라잡는 구조…누가 잘하려 하겠나"대출금리 인상에 정부의 가계대출 규제가 겹치면서 연말 은행의 가계대출 수요도 급감하고 있다. 은행들은 대출 중도상환 수수료를 면제하는 등 연말 가계대출 증가율을 낮추기 위한 조치를 시행하고 있다. 14일 점심시간임에도 불구하고 한산한 서울 시내의 한 시중은행 창구.   김영우 기자“금융회사는 스스로 리스크를 판단하고 100까지도 할 수 있는 여력이 있는데 ‘80까지만 하라’고 정부가 정해주는 게 바람직한 산업의 모습은 아니죠.”요즘 은행들은 지난달 말 금융당국에 제출한 내년도 가계대출 취급 계획에 대한 피드백을 오매불망 기다리고 있다. 업권별 가계대출 증가율 목표치만 정했던 예년과 달리 내년에는 각 은행이 취급할 수 있는 가계대출의 구체적인 한도를 금융당국이 서로 다르게 정할 계획이다. 은행의 핵심 기능인 대출 증가율을 정부가 일일이 정해주는 셈이다.올해 목표치를 넘겨 가계대출을 많이 판매한 은행은 내년엔 은행권 평균 목표치인 연 4.5%보다 낮게 책정받을 수 있다. 반면 올해 가계대출을 철저히 조인 은행은 내년 한도를 조금이라도 더 받을 수 있다는 기대를 하고 있다. 금융권에선 이 때문에 중도상환 수수료 면제, 일부 대출 중단 등 온갖 방법을 동원해 연말까지 ‘대출 줄이기’에 매진하는 웃지 못할 일도 벌어지고 있다.한 시중은행 고위 임원은 “가계대출이 적은지 많은지를 판단하려면 차주의 상환능력과 투기성 여부가 핵심이 돼야 하는데 지금은 합리적인 기준이 없다”며 “건전성 관리가 아닌, 가계부채 총량 억제 자체가 목적이다 보니 은행으로선 하다못해 ‘목표가 왜 80인지’도 이해하기 어려운 게 사실”이라고 했다. 한 은행 관계자는 “은행의 핵심 자산인 대출마저 성장률 한도를 정해 놓으면 누가 경쟁사를 뛰어넘고 더 잘하려고 노력하겠느냐”며 “정부가 그어준 선 안에서 안주하게 될 것”이라고 우려했다. ‘1등은 영원한 1등’…경쟁 실종금융권에선 정부의 거친 가계대출 규제를 두고 2019년 말 도입된 주가연계신탁(ELT) 총량 규제를 떠올리기도 한다. ELT는 주가연계증권(ELS)을 담은 신탁 상품을 말한다.앞서 금융위원회는 파생결합펀드(DLF) 사태를 계기로 고위험 상품에 대한 규제를 대폭 강화하면서 은행의 ELS 판매에도 상한을 씌웠다. 투자자를 보호하고 판매사의 책임을 강화한다는 좋은 취지에도 논란이 된 건 세밀하지 못한 한도 설정 때문이다. 금융당국은 그해 11월 은행별 ELT 발행 잔액을 기준으로 향후 연간 신탁 판매 한도를 정했다. 당시 ELT 판매량이 가장 많았던 국민은행은 이후로도 가장 많은 한도를, 그에 한참 못 미친 다른 은행들은 계속 적은 한도를 받았다. 후발주자가 아무리 좋은 상품을 설계해도 ‘1등 은행’을 뛰어넘을 수 없는 구조가 된 것이다. 한때 은행의 비이자 핵심 수익원으로 자리매김하던 ELT 시장은 이후 급격한 하향세를 탔다.한 은행 신탁부문 관계자는 “지난해에는 한도 규제 때문에 몇 달 동안 영업을 못하는 일도 빈번했다”며 “정해준 것만 정해준 한도 내에서 팔라는 건 불합리한 규제”라고 토로했다. ‘관치’에 안주하는 대형 은행은행들은 가계대출 규제로 인한 시장 왜곡을 우려하면서도 내심 반기는 분위기다. 대출 증가율이 주춤하는 대신 금리를 급격히 올리면서 은행 수익성 측면에선 오히려 유리해졌기 때문이다. 특히 가계대출 경쟁이 원천 차단된 만큼 은행별로 가계대출 비중은 줄이고 수익원을 다각화하는 계기로 삼을 수 있을 것이란 기대도 나온다. 한 금융지주 임원은 “그동안 국가 경제적으로 가계대출 증가 속도가 지나치게 빨랐던 것은 사실”이라며 “자금이 보다 생산적인 곳으로 흘러갈 수 있도록 기업금융, 모험자본 투자 등의 부문에 금융사들이 더 주력해야 한다”고 했다.문제는 ‘관치’에 길들여지는 금융사들이다. 은행이 스스로 리스크 관리를 강화하고 투기적 대출을 걸러내도록 제도를 개선하는 ‘정공법’이 아닌, 성장률 한도를 일일이 정해주는 식의 규제로는 금융산업의 경쟁력과 혁신 의지가 떨어질 수밖에 없다는 지적이 나온다. 정부가 금융산업의 혁신을 촉진하겠다며 도입한 인터넷전문은행도 성장의 한계에 부딪힐 수밖에 없다.금융권 관계자는 “당국이 일정한 선을 그어주는 식의 규제는 금융사가 경쟁 판도를 뒤집고 과감한 시도를 할 수 있는 여력을 없앤다”며 “토스뱅크가 수신금리를 내리고 카드 혜택을 축소한 것이 한 사례”라고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2021.12.13.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>‘방역패스 과태료’ 첫날 QR코드 먹통…“클라우드 접속 부하 원인”</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011174559?sid=102</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>식당·카페 등에서 '방역패스'를 확인하지 않은 이용자와 운영자에게 과태료가 부과되기 시작한 오늘(13일) 점심시간부터 백신접종과 음성확인을 증명하는 QR코드 시스템에 오류가 발생해 시민들이 큰 불편을 겪었습니다. 오늘 낮 11시 40분쯤부터 질병관리청 쿠브(COOV·전자예방접종증명서) 앱에 접속이 되지 않는다는 신고 사례가 전국 곳곳에서 속출했습니다. 네이버·카카오·토스 등 백신접종을 확인할 수 있는 다른 앱에서도 한때 QR코드가 원활히 생성되지 않았습니다. 이 때문에 점심식사를 하러 식당에 입장하려던 시민들이 혼란을 겪었습니다. 일부는 수기로 명부를 작성하고 식당으로 들어간 것으로 전해졌습니다. 현재 방역패스 의무 적용시설에서는 수기명부 사용이 원칙적으로 금지돼 있습니다. 이와 관련해 질병관리청은 "오늘 갑작스런 접속 부하로 전자출입명부와 쿠브 앱 사용에 불편을 끼쳐드렸다"고 사과하며 "긴급하게 관련 기관 간 협의를 진행 중"이라고 밝혔습니다. 질병관리청은 "쿠브 서버가 있는 KT DS 클라우드센터에서 '접속 부하' 문제가 생긴 것으로 파악하고 있다"고 밝혔습니다. 질병청은 백신 접종 사전예약 시스템은 정상적으로 작동하고 있다고 밝혔습니다. 이에 대해 KT의 클라우드 서비스를 운영하는 계열사인 KT DS측은 "클라우드 장애나 운영상의 문제는 아니며, 질병청이 요청한 서버 용량에 맞게 운영했고, 일시적으로 이용자가 몰리며 과부하가 발생했다"며 "현재는 정상 가동 중이고, 클라우드 서비스 운영상에는 문제가 없다."고 설명했습니다.■ 제보하기▷ 카카오톡 : 'KBS제보' 검색▷ 전화 : 02-781-1234▷ 이메일 : kbs1234@kbs.co.kr▷ 뉴스홈페이지 : https://goo.gl/4bWbkG</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2021.12.10.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>금융결제원, 사업자 대상 간편인증서비스 실시</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002115094?sid=105</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이종현기자] 금융결제원은 별도 프로그램 설치 없이 클라우드 저장소에서 인증서를 발급·보관해 쓸 수 있는 ‘예스키(YESKEY)’ 금융인증서비스를 사업자 대상으로 확대 실시한다고 10일 밝혔다.   사업자 금융인증서비스는 기존 개인 금융인증서에 비해 관리·보안설정 기능, 인증서 유효기간 다양화 등 특화된 기능을 제공하는 것이 특징이다. 클라우드에 인증서를 보관하기 때문에 분실·유출 위험이 없고, 인증서를 누가, 언제, 어디서 사용했는지 등에 대한 가시성도 확보할 수 있다.   금융인증서는 사업자등록증 확인 및 사업자 대표 또는 위임인에 대한 신원확인을 통해 발급된다. 사업자 상황에 맞게 1~3년 중 선택해 발급할 수 있다. 휴대폰 인증이나 일회용비밀번호(OTP) 중 원하는 수단으로 클라우드에 접속, 인증서를 발급한 사람이 허가한 사람만 인증서를 사용할 수 있다. 2022년 1월 내 사용시간, 국외 사용차단 기능도 추가할 예정이다.   금융결제원 예스키 금융인증서비스는 지난 9일부터 경남은행, 국민은행, 기업은행, 산업은행, 새마을금고에서 사업자 금융거래용 인증서를 발급받아 이용할 수 있다. 토스뱅크 등 여타 은행은 2022년 1분기에 순차적으로 발급을 실시한다.   금융결제원 관계자는 “사업자에게 최적의 인증 경험을 제공할 수 있도록 사업자 금융인증서비스의 기능을 지속적으로 고도화할 예정”이라며 “은행, 증권, 카드, 보험 등 전 금융권과 정부 민원업무에서 막힘 없이 사용할 수 있도록 금융인증서비스 이용처를 확대해 나가겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2021.12.11.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>스타트업으로 몰리는 뭉칫돈…올해 사상 첫 10조 돌파</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000779714?sid=105</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>스타트업얼라이언스 11월까지 누적 10조5397억 전 세계 풀려있는 돈, 스타트업으로…反中 반사익도  ‘스타트업 대어’ 내년 잇따라 상장 채비, 인기 이어질 듯그래픽=이은현        올해 11월까지 스타트업(초기기업)에 몰린 투자금이 누적 10조원을 돌파한 것으로 집계됐다. 연간 스타트업 투자액이 10조원을 넘어선 것은 이번이 처음이다. 신종 코로나바이러스 감염증(코로나19) 장기화로 전 세계적으로 완화적 금융정책이 잇따르며 시중에 자금이 많이 풀린데다 미국 증시에 성공적으로 상장한 쿠팡 효과에 따라 한국 유망 스타트업에 투자하고자 하는 투자자들의 니즈가 커진 데 따른 것으로 풀이된다.11일 스타트업 지원 기관인 스타트업얼라이언스가 자체적으로 집계한 지난 11월 스타트업 투자 현황을 보면, 총 113건에 약 1조1364억원 규모의 투자가 집행된 것으로 나타났다. 이로써 스타트업의 올해 11월까지 누적 투자 유치 규모는 10조5397억원이 됐다.새벽 배송 특화 이커머스(전자상거래) 업체 ‘마켓컬리’의 운영사 컬리가 이 중 4분의 1가량에 달하는 2500억원을 유치했다. 컬리는 내년 상반기 상장을 앞두고 있다. 네이버 최고기술책임자(CTO) 출신의 송창현 대표가 이끌고 있는 모빌리티 스타트업 포티투닷이 1040억원의 자금을 유치했고, 와디즈(1000억원), 알스퀘어(850억원), 루닛(720억원), 오지큐(670억원) 등이 그 뒤를 이었다.업종별로는 컬리뿐 아니라 뷰티 유통 플랫폼 아이오앤코코리아(100억원), 꽃 구독 서비스 업체 꾸까(90억원) 등이 대규모 투자를 유치하는 등 이커머스·물류 스타트업에 투자금이 몰리는 추세를 보였다. 루닛, 뉴로핏, 휴먼스케이프 등 16개 업체가 총 1262억원을 유치하는 등 헬스케어 스타트업 인기도 이어졌다.최항집 스타트업얼라이언스 센터장은 “글로벌 유동성이 좋아지면서 ‘쿠팡’으로 성공적 엑시트(투자금 회수)가 입증된 한국 스타트업으로 자금이 몰리고 있는 것”이라면서 “미·중 관계 악화로 해외 투자 기업들의 중국 스타트업 투자가 어려워지면서 반사이익을 보는 측면도 있다”라고 분석했다.실제 스타트업으로 유입되는 자금은 국내에 있는 벤처캐피탈이나 액셀러레이터 등 기관뿐 아니라 대기업을 필두로 한 자기자본, 해외 기관 등도 유입되고 있는 것으로 업계는 파악하고 있다.벤처 붐을 연상케 하는 이런 스타트업으로의 자금쏠림 현상은 적어도 내년까진 이어질 것으로 업계는 보고 있다. 지난 달 대규모 투자를 유치한 컬리뿐 아니라 금융 스타트업 토스, 숙박 플랫폼 야놀자, 차량공유 업체 쏘카 등 ‘스타트업 대어’들이 잇따라 내년 목표로 상장 채비 중이기 때문이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2021.12.14.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>점심시간 또 '먹통'…네이버 QR 체크인 오류, 카카오는 정상 (상보)</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005783180?sid=105</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>방역패스(접종증명·음성확인제)의 계도기간이 끝나고 의무화가 시작된 13일 서울시내의 한 식당에서 손님이 접종증명 발급 오류 화면을 보이고 있다. 이날 백신 접종을 증명하는 시스템에 일부 오류가 발생해 백신 QR 코드 인증 화면에는 '질병관리청의 서버응답 오류로 코로나19 예방백신 접종 증명 확인이 지연되고 있습니다'고 표시됐다. 2021.12.13/뉴스1 © News1 임세영 기자(서울=뉴스1) 김근욱 기자 = '방역패스'(백신패스)가 의무화된 이튿날, 점심시간에 이용자가 몰리며 또 다시 QR코드 전자증명 시스템에서 또 오류가 발생했다. 전날에 이어 이틀째다.14일 낮 12시 기준, 네이버앱에서 QR 체크인을 활성화하면 "데이터를 불러오지 못했다. 다시 시도해달라"는 문구가 나타난다. 지난 13일에도 점심시간과 저녁시간 QR 코드 전자 증명을 활성화하는 이용자가 몰리면서 이같은 오류가 발생한 바 있다.IT 업계는 질병관리청이 운영중인 QR 코드 전자 증명 서비스 '쿠브'(COOV)의 문제로 연쇄 장애가 일어났다고 보고 있다. IT 기업이 제공하는 QR코드 백신 접종 내역 인증은 질병관리청 쿠브 시스템을 통해 불러오게 돼 있기 때문이다.이에 대해 질병관리청은 "정부의 QR코드 전자접종증명시스템 '쿠브(COOV)'는 정상 가동 중이며 현재 네이버 앱 외 민간 플랫폼에는 특별한 장애가 발생하지 않은 상황으로 파악한다"며 "쿠브, 카카오, 토스앱 및 통신 3사의 앱 등으로 방역패스를 활용해달라"고 말했다.네이버 관계자는 "금일 발생한 QR코드 장애 원인에 대해 파악하고 있다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2021.12.02.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>온라인 투표 플랫폼 나우앤보트 더 편리해졌다</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002240959?sid=105</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>보안 기능도 높여...1일자로 전면 업그레이드엘림넷(대표 한환희)은 자사가 운영하는 온라인 투표 플랫폼 '나우앤보트' 1일자로 전면 업그레이드 했다고 밝혔다.이번 업그레이드로 이용자들은 더욱 강화된 본인인증 시스템 및 현장투표 기능을 사용할 수 있게 됐다고 회사는 설명했다. 나우앤보트 업그레이드의 주요 내용은 첫째, 투표 대상과 성격에 따라 적합한 인증 방식을 선택할 수 있도록 간편 인증, 휴대폰 인증, 인증번호 및 투표인 정보 교차 인증 등 보안 수준별, 접근 편의별로 다양한 인증 방식을 새로 도입했다.둘째, 기존 공인인증서와 대등한 수준의 보안을 제공하는 네이버, 카카오페이, 페이코 토스, 패스 등 간편 통합 인증 시스템을 도입했다. 투표인은 간편 통합 인증 시스템을 통해 스스로 가장 편리한 인증 방식을 자유롭게 선택할 수 있게 됐다. 셋째, IT 기기에 익숙하지 않은 노년층 등 온라인/모바일 투표가 혼자 하기 어려운 투표인을 위해 현장에서 투표 관리 요원이 PC, 태블릿, 키오스크 등을 활용한 온라인 투표를 지원할 수 있는 ‘현장 온라인 투표소 개설’ 기능을 추가했다. 넷째, 각종 학회와 협회, 교회 등에서 새롭게 요구하는 투표 유형을 반영해 의안별 찬반 투표, 후보별 찬반 투표 등 새로운 투표 문형을 추가했다.'나우앤보트'는 고객과 투표인의 개인정보 및 투표 정보 보호를 위해 국가정보원 인증을 받은 암호화 시스템(KCMVP)을 적용하고 있다. 지난 7월 말에는 개인정보보호협회에서 온라인 투표 업계로는 가장 높은 수준의 보안 인증인 ePRIVACY PLUS 인증을 획득한 바 있다. 엘림넷은 이번 나우앤보트 업그레이드 기념으로 이달 31일까지 전국 아파트를 대상으로 ‘아파트 온라인 투표 무료 지원’ 이벤트를 시행한다. 100개 아파트에 한정, 진행한다. 자세한 내용은 나우앤보트 플랫폼 공지사항에서 확인할 수 있다.엘림넷 나우앤보트팀 장요성 과장은 "중앙선거관리위원회가 10월 1일부로 민간영역에 대한 온라인 투표 시스템(K-voting) 서비스를 중단함에 따라 새로운 투표 플랫폼을 찾는 고객들 문의가 크게 늘고 있다”면서 “대한민국 최고의 온라인 투표 플랫폼으로서 이전해 오는 고객들의 다양한 수요 충족을 위해 최선을 다할 계획"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2021.12.09.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>금소법 철퇴 맞은 핀테크 맞춤형 비교·추천 다시 활성화하나</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002570978?sid=101</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>금융위원장 “핀테크 혁신 기능 발휘되도록 규제 개선 모색” 금융회사-핀테크 협업 금융서비스 적극 지원고승범 금융위원장(가운데)이 9일 오전 서울 강남구 디 캠프에서 열린 핀테크산업 혁신지원 간담회에서 발언하고 있다. 금융위원회 제공  금융소비자보호법 시행 이후 핀테크 플랫폼의 맞춤형 비교·추천 서비스가 위축된 가운데 금융위원장이 해당 서비스를 활성화하도록 제도 개선을 하겠다고 밝혔다. 고승범 금융위원장은 9일 핀테크 업계와 간담회를 열어 “온라인 금융서비스에 대해 소비자보호 원칙은 지켜나가되 맞춤형 비교·추천 등 혁신적 기능이 발휘될 수 있도록 규제 개선방안을 모색하겠다”고 말했다. 금융위는 지난 9월 핀테크의 보험·대출·카드 상품 비교·분석 서비스가 중개행위에 해당한다고 판단하고 관련 영업허가를 받지 않을 경우 위법이라고 유권해석을 했다. 이에 일부 카카오페이·토스 등이 일부 상품 서비스를 중단하거나 축소했다. 핀테크 업계에서는 정부의 결정이 비대면 금융 서비스를 위축할 수 있다고 반발해왔고 이번에 정부가 다시 허용하는 쪽으로 규제를 완화하겠다는 뜻을 나타냈다. 고 위원장은 마이데이터 서비스가 활성화되도록 공공 데이터를 제공하고 개인의 인증·접근절차를 간소하게 바꾸겠다고 했다. 마이데이터는 흩어진 개인정보를 한 플랫폼에 모아 자산관리·상품추천 등 통합 금융서비스를 제공하는 사업이다.  고 위원장은 핀테크와 기존 금융회사가 협업으로 새로운 형태의 금융서비스를 출시하고자 하면 현행법의 부수업무 제한 규제를 완화해 이를 적극 장려하기로 했다.  이 외에도 이용자가 맡긴 선불충전금 외부 예치, 해킹 사고를 막기 위한 망 분리 등 이용자 보호를 위한 규제 개편 방안도 제시했다.  고 위원장은 “온라인·비대면 금융서비스 성격에 맞는 영업행위 규율체계를 마련하고, 대형 플랫폼의 데이터 독점 문제에 대응하도록 관계 기관과 협의해나가겠다”라고 말했다. 간담회에 참석한 전문가들은 핀테크 투자 활성화를 위해 제도를 개선해야 한다는 의견을 제시했다. 이성복 자본시장연구원 연구위원은 “국내 핀테크 산업은 정부 지원 정책에 힘입어 양적 성장은 어느정도 달성했고 이후 질적 성장을 위해 업무위탁 규제 합리화, 자본시장의 핀테크 투자 촉진 등이 필요하다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2021.12.09.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>타다, 연말까지 ‘타다 넥스트’ 반값 할인</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002241650?sid=105</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>모빌리티 플랫폼 타다 운영사 브이씨엔씨(대표 이정행)는 연말까지 ‘타다 넥스트’ 요금 50% 상시 할인 이벤트를 진행한다고 9일 밝혔다.이번 이벤트는 타다의 대형차량 이동 서비스 ‘타다 넥스트’의 베타 버전 오픈을 기념하기 위한 이벤트다. 타다 사용자라면 누구나 ‘타다 넥스트’ 호출 시, 50% 할인 쿠폰 적용이 가능하며 이달 31일까지 횟수 제한 없이 회당 최대 1만 원 할인이 가능하다.이용 방법은 간단하다. ‘타다 넥스트’ 호출 시 ‘할인 적용하기' 메뉴에서 ‘50% NEXT 쿠폰’을 선택해 적용하면 된다. 차량 탑승 후에도 쿠폰을 적용해 할인된 가격으로 이용할 수 있다.타다토스의 간편결제 서비스 ‘토스페이’ 연동으로 보다 쉽고 편리한 요금 결제도 가능하다. 타다 앱 업데이트 후, 결제 수단 등록 창에서 토스페이 선택 및 간단한 등록 절차를 거치면 되며, 타다의 모든 서비스 결제 시 토스페이를 이용할 수 있다.이정행 타다 대표는 “이번 이벤트는 더 많은 분들이 ‘타다 넥스트’의 쾌적한 이동 경험을 체험하길 바라는 마음에 준비했다. 차량 호출부터 결제에 이르기까지 탑승 고객과 드라이버 모두 만족할 수 있는 모빌리티 서비스를 만들기 위해 노력 중이다. ‘타다 넥스트’에 대한 많은 관심과 응원 부탁드린다”라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2021.12.07.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>[주린이의 공모주] 토스·배민 발굴한 KTB네트워크, 몸값 낮춰 투자자 유혹</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000640755?sid=101</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>7일 오후 4시까지 일반공모…주관사 한투·NH증권 등 저도 '따상'을 먹고 싶었습니다. 하지만 주린이(주식+어린이)에게 주식시장은 생각처럼 호락호락한 곳이 아니더군요. 그래서 시작했습니다. 주식공부를. 주변을 둘러보니 여전히 '묻지마 투자'를 하는 친구들이 많습니다. 공모주에 투자하려면 최소한 그 회사의 사업모델이나 실적전망, 리스크 요소 등은 알고 해야한다고 하더군요. 하지만 공부는 언제나 쉽지 않죠. 그런 여러분을 위해 '주린이의 공모주'가 먼저 알아봤습니다. [편집자주] 국내 1세대 벤처캐피탈(VC) KTB네트워크가 이날(7일)까지 일반투자자를 대상으로 기업공개(IPO) 공모를 진행합니다. KTB네트워크는 배달 앱 '배달의 민족' 운영사인 우아한형제들과 핀테크 앱 '토스'를 운영하는 비바리퍼블리카에 초기 투자해 높은 성과를 거둔 것으로 유명하죠.지난 주 기관투자자를 대상으로 한 수요예측에서 공모가를 희망밴드(5천800~7천200원) 최하단인 5천800원으로 확정했는데요. 높아진 가격 매력도로 투자자들의 관심을 모을 수 있을지 시장의 이목이 집중되고 있습니다. 배달 앱 '배달의 민족' 운영사인 우아한형제들과 핀테크 앱 '토스'를 운영하는 비바리퍼블리카에 초기 투자해 높은 성과를 거둔 VC KTB네트워크가 7일 오후 4시까지 일반 공모를 진행합니다. 사진은 배달의민족 마스코트 배달이와 친구들 [사진=배달의민족]◆ KTB네트웍스, 순이익 기준 업계 1위 사업자 작년 말 기준 국내 창업투자회사는 총 165개사가 등록돼 있는데요. 그 중 순수 벤처펀드 운용자산(AUM) 1조원 이상 규모를 갖춘 VC는 6개사입니다.KTB네트워크는 AUM(1조1천245억원) 기준으로는 업계 4위이지만, 순이익 기준으로는 AUM 1위 한국투자파트너스(2조5천444억원)를 앞지르고 있습니다. 작년 말 기준 KTB네트워크의 당기순이익은 358억원, 한국투자파트너스의 순이익은 349억원입니다.KTB네트워크는 잠재적으로 기술력은 높지만 자본력이나 경영여건이 취약한 초기단계 중소·벤처기업을 발굴해 자금과 경영서비스 등을 제공하고 있습니다. 이 기업들이 어느 정도 성장 단계에 이르면 인수합병(M&amp;A)이나 IPO, 장내매각 등의 방식으로 투자금을 회수하는 금융회사입니다.KTB네트워크는 잠재력이 높은 기업을 발굴해 유니콘기업으로 성장시키는 스케일업 투자전략을 고수하고 있는데요. 성장 가능성이 높은 기업을 단계별로 선별해 지속적인 대규모 후속투자와 경영컨설팅을 지원하며 수익성을 극대화하는 전략을 추구하고 있습니다.대표적인 투자 사례는 앞서 언급한 우아한형제들과 비바퍼블리카인데요. KTB네트워크는 우아한형제들에 22억6천500만원을 투자해 628억5천400만원 규모의 투자금을 회수했습니다. 원금대비 회수 멀티플은 27.75배에 달합니다. 비바리퍼블리카에 대해서도 25억600만원을 투자해 부분 매각 등으로 540억9천100만원의 수익을 올렸습니다. 수익 멀티플은 21.59배입니다.이밖에 넥스틴, 피플바이오, 올리패스 등 기업에 대한 투자자산도 코스닥 IPO로 일부 처분해 상당한 이익을 냈습니다.◆ 아주IB투자 등 10개사 비교기업...주당 평가액대비 할인율 42%KTB네트워크는 기업가치 산정을 위한 비교기업으로 아주IB투자, 우리기술투자, 미래에셋벤처투자, 에이티넘인베스트먼트, DSC인베스트먼트, 컴퍼니케이파트너스, 큐캐피탈파트너스, 나우아이비캐피탈, TS인베스트먼트, 린드먼아시아인베스트먼트 등 10개사를 선정했습니다.이들 기업의 최근 4개 분기 경영 성과를 적용한 주가수익비율(PER)은 11.19배 입니다.KTB네트워크는 이를 반영한 주당 평가가액을 9천945원, 평가 시가총액을 9천944억7천300만원으로 산출했습니다. 확정 공모가 5천800원은 주당 평가액 대비 41.68%가 할인된 가격입니다.KTB네트워크에 대한 기관 수요예측 경쟁률은 50.19대 1을 기록했습니다. 신청수량 기준으로 희망 공모가 상단인 7천200원 이상을 제시한 기관 비중은 93.3%(신청수량 기준)입니다. 5천800원 이상 7천200원 미만 비중이 4.0%였고 공모가인 5천800원 미만의 가격을 제시한 비중은 0.2%로 나타났습니다.일정 기간동안 지분을 팔지 않겠다고 약정하는 의무보유를 확약한 비율은 전체 신청 물량의 6.94%에 그쳤습니다. 이 중에서도 6개월 확약 신청은 없었고 3개월 4천500만주, 1개월 728주로 집계됐습니다.◆ 조달자금 1천억원 전액 투자조합 출자...7일 오후 4시까지 일반공모회사는 공모로 조달한 자금 1천135억900만원 전액을 투자조합 출자 목적으로 사용할 계획입니다.현재 운용하고 있는 KTBN 18호 벤처투자조합에 올해 28억5천만원 등 총 171억원을 투자하고, 지난 11월 결성한 550억원 규모의 KB-KTB 기술금융조합에 100억원을 출자할 예정입니다. 올해 이후 결성 예정인 5천억원 이상 규모의 후속 투자조합에도 864억원을 출자한다는 방침입니다.KTB네트워크는 국내와 해외로 나눈 전략을 통해 VC업계의 대장주로 거듭나겠다는 의지를 보이고 있는데요.중장기적인 관점에서는 섹터(Sector) 전문·프로젝트 펀드 등 펀드라인업을 다각화할 계획입니다. 향후 신규출자 앵커비중을 20%로 확대해 AUM을 증가시켜 오는 2024년까지 AUM 2조원 달성과 연간관리보수 160억원을 목표로 하고 있습니다.해외 시장에서는 미국, 중국과 같은 기존 진출국가 시장 확대와 신규 시장 확보를 위해 해외 투자 거점을 재정비한다는 방침입니다. 특히 동남아시아와 인도시장의 커버리지 확대를 계획하고 있습니다. 상장 이후 2022년부터는 대규모 해외펀드 결성에도 적극 나설 예정입니다.KTB네트워크는 이날(7일) 오후 4시까지 일반 공모를 진행합니다. 대표주관사인 한국투자증권의 모집수가 300만주로 가장 많습니다. 인수회사인 NH투자증권이 140만주, 삼성·유진투자·하이투자·KB증권이 각각 15만주씩 모집합니다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
